--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>274751400</v>
+        <v>278049600</v>
       </c>
       <c r="E8" s="3">
-        <v>267059700</v>
+        <v>280796600</v>
       </c>
       <c r="F8" s="3">
-        <v>250858500</v>
+        <v>272935600</v>
       </c>
       <c r="G8" s="3">
-        <v>258184300</v>
+        <v>256377900</v>
       </c>
       <c r="H8" s="3">
-        <v>247561800</v>
+        <v>263865000</v>
       </c>
       <c r="I8" s="3">
-        <v>233539500</v>
+        <v>253008700</v>
       </c>
       <c r="J8" s="3">
+        <v>238677900</v>
+      </c>
+      <c r="K8" s="3">
         <v>200563500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>167996200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225266400</v>
+        <v>227812800</v>
       </c>
       <c r="E9" s="3">
-        <v>217152400</v>
+        <v>230222800</v>
       </c>
       <c r="F9" s="3">
-        <v>206655100</v>
+        <v>221930200</v>
       </c>
       <c r="G9" s="3">
-        <v>205483700</v>
+        <v>211202000</v>
       </c>
       <c r="H9" s="3">
-        <v>198540800</v>
+        <v>210004800</v>
       </c>
       <c r="I9" s="3">
-        <v>189082400</v>
+        <v>202909200</v>
       </c>
       <c r="J9" s="3">
+        <v>193242600</v>
+      </c>
+      <c r="K9" s="3">
         <v>169446600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148152600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49485000</v>
+        <v>50236900</v>
       </c>
       <c r="E10" s="3">
-        <v>49907300</v>
+        <v>50573800</v>
       </c>
       <c r="F10" s="3">
-        <v>44203400</v>
+        <v>51005400</v>
       </c>
       <c r="G10" s="3">
-        <v>52700700</v>
+        <v>45175900</v>
       </c>
       <c r="H10" s="3">
-        <v>49021000</v>
+        <v>53860200</v>
       </c>
       <c r="I10" s="3">
-        <v>44457100</v>
+        <v>50099500</v>
       </c>
       <c r="J10" s="3">
+        <v>45435300</v>
+      </c>
+      <c r="K10" s="3">
         <v>31116900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19843600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>252321500</v>
+        <v>255355400</v>
       </c>
       <c r="E17" s="3">
-        <v>245245000</v>
+        <v>257873100</v>
       </c>
       <c r="F17" s="3">
-        <v>232729600</v>
+        <v>250640900</v>
       </c>
       <c r="G17" s="3">
-        <v>232241700</v>
+        <v>237850200</v>
       </c>
       <c r="H17" s="3">
-        <v>222559200</v>
+        <v>237351600</v>
       </c>
       <c r="I17" s="3">
-        <v>212704200</v>
+        <v>227456000</v>
       </c>
       <c r="J17" s="3">
+        <v>217384100</v>
+      </c>
+      <c r="K17" s="3">
         <v>188556600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>164781400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22430000</v>
+        <v>22694300</v>
       </c>
       <c r="E18" s="3">
-        <v>21814700</v>
+        <v>22923500</v>
       </c>
       <c r="F18" s="3">
-        <v>18128800</v>
+        <v>22294700</v>
       </c>
       <c r="G18" s="3">
-        <v>25942600</v>
+        <v>18527700</v>
       </c>
       <c r="H18" s="3">
-        <v>25002600</v>
+        <v>26513400</v>
       </c>
       <c r="I18" s="3">
-        <v>20835300</v>
+        <v>25552700</v>
       </c>
       <c r="J18" s="3">
+        <v>21293700</v>
+      </c>
+      <c r="K18" s="3">
         <v>12006900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3214900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1399900</v>
+        <v>1337300</v>
       </c>
       <c r="E20" s="3">
-        <v>2255700</v>
+        <v>-1430700</v>
       </c>
       <c r="F20" s="3">
-        <v>2079800</v>
+        <v>2305300</v>
       </c>
       <c r="G20" s="3">
-        <v>1498200</v>
+        <v>2125600</v>
       </c>
       <c r="H20" s="3">
-        <v>1501100</v>
+        <v>1531100</v>
       </c>
       <c r="I20" s="3">
-        <v>1532600</v>
+        <v>1534100</v>
       </c>
       <c r="J20" s="3">
+        <v>1566300</v>
+      </c>
+      <c r="K20" s="3">
         <v>961100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>905500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37358600</v>
+        <v>38929500</v>
       </c>
       <c r="E21" s="3">
-        <v>39867500</v>
+        <v>38126100</v>
       </c>
       <c r="F21" s="3">
-        <v>34884400</v>
+        <v>40691900</v>
       </c>
       <c r="G21" s="3">
-        <v>42252100</v>
+        <v>35602900</v>
       </c>
       <c r="H21" s="3">
-        <v>39340400</v>
+        <v>43132300</v>
       </c>
       <c r="I21" s="3">
-        <v>33763100</v>
+        <v>40163100</v>
       </c>
       <c r="J21" s="3">
+        <v>34467900</v>
+      </c>
+      <c r="K21" s="3">
         <v>23035500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13784200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>255200</v>
+        <v>299300</v>
       </c>
       <c r="E22" s="3">
-        <v>250800</v>
+        <v>260800</v>
       </c>
       <c r="F22" s="3">
-        <v>266800</v>
+        <v>256300</v>
       </c>
       <c r="G22" s="3">
-        <v>321800</v>
+        <v>272700</v>
       </c>
       <c r="H22" s="3">
-        <v>207900</v>
+        <v>328900</v>
       </c>
       <c r="I22" s="3">
-        <v>178400</v>
+        <v>212500</v>
       </c>
       <c r="J22" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K22" s="3">
         <v>208800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>207200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20774900</v>
+        <v>23732300</v>
       </c>
       <c r="E23" s="3">
-        <v>23819700</v>
+        <v>21232000</v>
       </c>
       <c r="F23" s="3">
-        <v>19941900</v>
+        <v>24343800</v>
       </c>
       <c r="G23" s="3">
-        <v>27118900</v>
+        <v>20380600</v>
       </c>
       <c r="H23" s="3">
-        <v>26295800</v>
+        <v>27715600</v>
       </c>
       <c r="I23" s="3">
-        <v>22189400</v>
+        <v>26874400</v>
       </c>
       <c r="J23" s="3">
+        <v>22677600</v>
+      </c>
+      <c r="K23" s="3">
         <v>12759200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3913200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5998900</v>
+        <v>6349100</v>
       </c>
       <c r="E24" s="3">
-        <v>4585100</v>
+        <v>6130900</v>
       </c>
       <c r="F24" s="3">
-        <v>5716700</v>
+        <v>4685900</v>
       </c>
       <c r="G24" s="3">
-        <v>7983500</v>
+        <v>5842500</v>
       </c>
       <c r="H24" s="3">
-        <v>8121600</v>
+        <v>8159100</v>
       </c>
       <c r="I24" s="3">
-        <v>6979400</v>
+        <v>8300300</v>
       </c>
       <c r="J24" s="3">
+        <v>7132900</v>
+      </c>
+      <c r="K24" s="3">
         <v>5014800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2370900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14776000</v>
+        <v>17383200</v>
       </c>
       <c r="E26" s="3">
-        <v>19234600</v>
+        <v>15101100</v>
       </c>
       <c r="F26" s="3">
-        <v>14225200</v>
+        <v>19657900</v>
       </c>
       <c r="G26" s="3">
-        <v>19135500</v>
+        <v>14538200</v>
       </c>
       <c r="H26" s="3">
-        <v>18174200</v>
+        <v>19556500</v>
       </c>
       <c r="I26" s="3">
-        <v>15210000</v>
+        <v>18574000</v>
       </c>
       <c r="J26" s="3">
+        <v>15544700</v>
+      </c>
+      <c r="K26" s="3">
         <v>7744300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1542200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16980900</v>
+        <v>19127200</v>
       </c>
       <c r="E27" s="3">
-        <v>22558600</v>
+        <v>17354500</v>
       </c>
       <c r="F27" s="3">
-        <v>16555700</v>
+        <v>23054900</v>
       </c>
       <c r="G27" s="3">
-        <v>20967100</v>
+        <v>16920000</v>
       </c>
       <c r="H27" s="3">
-        <v>19755600</v>
+        <v>21428400</v>
       </c>
       <c r="I27" s="3">
-        <v>16572200</v>
+        <v>20190300</v>
       </c>
       <c r="J27" s="3">
+        <v>16936800</v>
+      </c>
+      <c r="K27" s="3">
         <v>8746100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2563400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1399900</v>
+        <v>-1337300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2255700</v>
+        <v>1430700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2079800</v>
+        <v>-2305300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1498200</v>
+        <v>-2125600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1501100</v>
+        <v>-1531100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1532600</v>
+        <v>-1534100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1566300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-961100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-905500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16980900</v>
+        <v>19127200</v>
       </c>
       <c r="E33" s="3">
-        <v>22558600</v>
+        <v>17354500</v>
       </c>
       <c r="F33" s="3">
-        <v>16555700</v>
+        <v>23054900</v>
       </c>
       <c r="G33" s="3">
-        <v>20967100</v>
+        <v>16920000</v>
       </c>
       <c r="H33" s="3">
-        <v>19755600</v>
+        <v>21428400</v>
       </c>
       <c r="I33" s="3">
-        <v>16572200</v>
+        <v>20190300</v>
       </c>
       <c r="J33" s="3">
+        <v>16936800</v>
+      </c>
+      <c r="K33" s="3">
         <v>8746100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2563400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16980900</v>
+        <v>19127200</v>
       </c>
       <c r="E35" s="3">
-        <v>22558600</v>
+        <v>17354500</v>
       </c>
       <c r="F35" s="3">
-        <v>16555700</v>
+        <v>23054900</v>
       </c>
       <c r="G35" s="3">
-        <v>20967100</v>
+        <v>16920000</v>
       </c>
       <c r="H35" s="3">
-        <v>19755600</v>
+        <v>21428400</v>
       </c>
       <c r="I35" s="3">
-        <v>16572200</v>
+        <v>20190300</v>
       </c>
       <c r="J35" s="3">
+        <v>16936800</v>
+      </c>
+      <c r="K35" s="3">
         <v>8746100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2563400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,248 +1645,273 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32494100</v>
+        <v>38888000</v>
       </c>
       <c r="E41" s="3">
-        <v>27745100</v>
+        <v>33173300</v>
       </c>
       <c r="F41" s="3">
-        <v>27225200</v>
+        <v>28325100</v>
       </c>
       <c r="G41" s="3">
-        <v>26719400</v>
+        <v>27794300</v>
       </c>
       <c r="H41" s="3">
-        <v>20766600</v>
+        <v>27277900</v>
       </c>
       <c r="I41" s="3">
-        <v>18554200</v>
+        <v>21200700</v>
       </c>
       <c r="J41" s="3">
+        <v>18942100</v>
+      </c>
+      <c r="K41" s="3">
         <v>15619300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15180000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20484400</v>
+        <v>13984500</v>
       </c>
       <c r="E42" s="3">
-        <v>24266700</v>
+        <v>20912600</v>
       </c>
       <c r="F42" s="3">
-        <v>26399700</v>
+        <v>24773900</v>
       </c>
       <c r="G42" s="3">
-        <v>23119700</v>
+        <v>26951500</v>
       </c>
       <c r="H42" s="3">
-        <v>26646600</v>
+        <v>23603000</v>
       </c>
       <c r="I42" s="3">
-        <v>20244200</v>
+        <v>27203600</v>
       </c>
       <c r="J42" s="3">
+        <v>20667300</v>
+      </c>
+      <c r="K42" s="3">
         <v>14111000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11402800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87160900</v>
+        <v>86062000</v>
       </c>
       <c r="E43" s="3">
-        <v>82330000</v>
+        <v>88982800</v>
       </c>
       <c r="F43" s="3">
-        <v>79532500</v>
+        <v>84050900</v>
       </c>
       <c r="G43" s="3">
-        <v>76030900</v>
+        <v>81194900</v>
       </c>
       <c r="H43" s="3">
-        <v>79985000</v>
+        <v>77620100</v>
       </c>
       <c r="I43" s="3">
-        <v>72868600</v>
+        <v>81656900</v>
       </c>
       <c r="J43" s="3">
+        <v>74391700</v>
+      </c>
+      <c r="K43" s="3">
         <v>68375100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58970400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24146600</v>
+        <v>22596000</v>
       </c>
       <c r="E44" s="3">
-        <v>23086700</v>
+        <v>24651400</v>
       </c>
       <c r="F44" s="3">
-        <v>21712500</v>
+        <v>23569200</v>
       </c>
       <c r="G44" s="3">
-        <v>18739100</v>
+        <v>22166400</v>
       </c>
       <c r="H44" s="3">
-        <v>19430900</v>
+        <v>19130800</v>
       </c>
       <c r="I44" s="3">
-        <v>17222900</v>
+        <v>19837100</v>
       </c>
       <c r="J44" s="3">
+        <v>17582900</v>
+      </c>
+      <c r="K44" s="3">
         <v>15596500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14665400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7326200</v>
+        <v>11472200</v>
       </c>
       <c r="E45" s="3">
-        <v>7579100</v>
+        <v>7479300</v>
       </c>
       <c r="F45" s="3">
-        <v>7238300</v>
+        <v>7737600</v>
       </c>
       <c r="G45" s="3">
-        <v>20915700</v>
+        <v>7389600</v>
       </c>
       <c r="H45" s="3">
-        <v>16212700</v>
+        <v>21352800</v>
       </c>
       <c r="I45" s="3">
-        <v>13984100</v>
+        <v>16551500</v>
       </c>
       <c r="J45" s="3">
+        <v>14276400</v>
+      </c>
+      <c r="K45" s="3">
         <v>11602800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11165000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>171612000</v>
+        <v>173003000</v>
       </c>
       <c r="E46" s="3">
-        <v>165008000</v>
+        <v>175199000</v>
       </c>
       <c r="F46" s="3">
-        <v>162108000</v>
+        <v>168457000</v>
       </c>
       <c r="G46" s="3">
-        <v>165525000</v>
+        <v>165497000</v>
       </c>
       <c r="H46" s="3">
-        <v>163042000</v>
+        <v>168985000</v>
       </c>
       <c r="I46" s="3">
-        <v>142874000</v>
+        <v>166450000</v>
       </c>
       <c r="J46" s="3">
+        <v>145860000</v>
+      </c>
+      <c r="K46" s="3">
         <v>125305000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111384000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>191767000</v>
+        <v>203394000</v>
       </c>
       <c r="E47" s="3">
-        <v>187858000</v>
+        <v>195775000</v>
       </c>
       <c r="F47" s="3">
-        <v>177828000</v>
+        <v>191784000</v>
       </c>
       <c r="G47" s="3">
-        <v>170414000</v>
+        <v>181544000</v>
       </c>
       <c r="H47" s="3">
-        <v>177903000</v>
+        <v>173976000</v>
       </c>
       <c r="I47" s="3">
-        <v>157640000</v>
+        <v>181622000</v>
       </c>
       <c r="J47" s="3">
+        <v>160935000</v>
+      </c>
+      <c r="K47" s="3">
         <v>129781000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105167000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97131100</v>
+        <v>100954000</v>
       </c>
       <c r="E48" s="3">
-        <v>93333100</v>
+        <v>99161400</v>
       </c>
       <c r="F48" s="3">
-        <v>92691700</v>
+        <v>95284000</v>
       </c>
       <c r="G48" s="3">
-        <v>88540400</v>
+        <v>94629200</v>
       </c>
       <c r="H48" s="3">
-        <v>84498100</v>
+        <v>90391100</v>
       </c>
       <c r="I48" s="3">
-        <v>69459400</v>
+        <v>86264300</v>
       </c>
       <c r="J48" s="3">
+        <v>70911200</v>
+      </c>
+      <c r="K48" s="3">
         <v>62277800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56367800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11596700</v>
+        <v>11524100</v>
       </c>
       <c r="E52" s="3">
-        <v>11103400</v>
+        <v>11839100</v>
       </c>
       <c r="F52" s="3">
-        <v>10511700</v>
+        <v>11335500</v>
       </c>
       <c r="G52" s="3">
-        <v>6638200</v>
+        <v>10731400</v>
       </c>
       <c r="H52" s="3">
-        <v>8420900</v>
+        <v>6776900</v>
       </c>
       <c r="I52" s="3">
-        <v>6693800</v>
+        <v>8596900</v>
       </c>
       <c r="J52" s="3">
+        <v>6833700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5179600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4166100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>472107000</v>
+        <v>488874000</v>
       </c>
       <c r="E54" s="3">
-        <v>457302000</v>
+        <v>481975000</v>
       </c>
       <c r="F54" s="3">
-        <v>443139000</v>
+        <v>466861000</v>
       </c>
       <c r="G54" s="3">
-        <v>431117000</v>
+        <v>452402000</v>
       </c>
       <c r="H54" s="3">
-        <v>433864000</v>
+        <v>440128000</v>
       </c>
       <c r="I54" s="3">
-        <v>376667000</v>
+        <v>442933000</v>
       </c>
       <c r="J54" s="3">
+        <v>384540000</v>
+      </c>
+      <c r="K54" s="3">
         <v>322543000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277085000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24052000</v>
+        <v>22589200</v>
       </c>
       <c r="E57" s="3">
-        <v>23512700</v>
+        <v>24554700</v>
       </c>
       <c r="F57" s="3">
-        <v>23328400</v>
+        <v>24004200</v>
       </c>
       <c r="G57" s="3">
-        <v>21720700</v>
+        <v>23816000</v>
       </c>
       <c r="H57" s="3">
-        <v>21912200</v>
+        <v>22174700</v>
       </c>
       <c r="I57" s="3">
-        <v>20118200</v>
+        <v>22370300</v>
       </c>
       <c r="J57" s="3">
+        <v>20538700</v>
+      </c>
+      <c r="K57" s="3">
         <v>19214200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20273000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87257000</v>
+        <v>91501500</v>
       </c>
       <c r="E58" s="3">
-        <v>84911400</v>
+        <v>89080900</v>
       </c>
       <c r="F58" s="3">
-        <v>84029200</v>
+        <v>86686200</v>
       </c>
       <c r="G58" s="3">
-        <v>77456700</v>
+        <v>85785500</v>
       </c>
       <c r="H58" s="3">
-        <v>81478100</v>
+        <v>79075700</v>
       </c>
       <c r="I58" s="3">
-        <v>70724600</v>
+        <v>83181200</v>
       </c>
       <c r="J58" s="3">
+        <v>72202900</v>
+      </c>
+      <c r="K58" s="3">
         <v>61757100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53908000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54373800</v>
+        <v>52043400</v>
       </c>
       <c r="E59" s="3">
-        <v>53349600</v>
+        <v>55510400</v>
       </c>
       <c r="F59" s="3">
-        <v>50071800</v>
+        <v>54464700</v>
       </c>
       <c r="G59" s="3">
-        <v>47393900</v>
+        <v>51118400</v>
       </c>
       <c r="H59" s="3">
-        <v>45971900</v>
+        <v>48384600</v>
       </c>
       <c r="I59" s="3">
-        <v>42604700</v>
+        <v>46932800</v>
       </c>
       <c r="J59" s="3">
+        <v>43495200</v>
+      </c>
+      <c r="K59" s="3">
         <v>36403500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32324500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>165683000</v>
+        <v>166134000</v>
       </c>
       <c r="E60" s="3">
-        <v>161774000</v>
+        <v>169146000</v>
       </c>
       <c r="F60" s="3">
-        <v>157429000</v>
+        <v>165155000</v>
       </c>
       <c r="G60" s="3">
-        <v>146571000</v>
+        <v>160720000</v>
       </c>
       <c r="H60" s="3">
-        <v>149362000</v>
+        <v>149635000</v>
       </c>
       <c r="I60" s="3">
-        <v>133447000</v>
+        <v>152484000</v>
       </c>
       <c r="J60" s="3">
+        <v>136237000</v>
+      </c>
+      <c r="K60" s="3">
         <v>117375000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106505000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95908100</v>
+        <v>99230100</v>
       </c>
       <c r="E61" s="3">
-        <v>90957900</v>
+        <v>97912800</v>
       </c>
       <c r="F61" s="3">
-        <v>90096400</v>
+        <v>92859200</v>
       </c>
       <c r="G61" s="3">
-        <v>88828100</v>
+        <v>91979600</v>
       </c>
       <c r="H61" s="3">
-        <v>91030900</v>
+        <v>90684800</v>
       </c>
       <c r="I61" s="3">
-        <v>77691400</v>
+        <v>92933600</v>
       </c>
       <c r="J61" s="3">
+        <v>79315300</v>
+      </c>
+      <c r="K61" s="3">
         <v>66700800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54622200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23578200</v>
+        <v>26385900</v>
       </c>
       <c r="E62" s="3">
-        <v>23478600</v>
+        <v>24071000</v>
       </c>
       <c r="F62" s="3">
-        <v>25912600</v>
+        <v>23969400</v>
       </c>
       <c r="G62" s="3">
-        <v>31295900</v>
+        <v>26454200</v>
       </c>
       <c r="H62" s="3">
-        <v>33056800</v>
+        <v>31950000</v>
       </c>
       <c r="I62" s="3">
-        <v>27187200</v>
+        <v>33747700</v>
       </c>
       <c r="J62" s="3">
+        <v>27755500</v>
+      </c>
+      <c r="K62" s="3">
         <v>22362500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15916100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>291705000</v>
+        <v>298033000</v>
       </c>
       <c r="E66" s="3">
-        <v>282520000</v>
+        <v>297802000</v>
       </c>
       <c r="F66" s="3">
-        <v>279513000</v>
+        <v>288425000</v>
       </c>
       <c r="G66" s="3">
-        <v>274526000</v>
+        <v>285355000</v>
       </c>
       <c r="H66" s="3">
-        <v>281260000</v>
+        <v>280264000</v>
       </c>
       <c r="I66" s="3">
-        <v>245142000</v>
+        <v>287139000</v>
       </c>
       <c r="J66" s="3">
+        <v>250266000</v>
+      </c>
+      <c r="K66" s="3">
         <v>212118000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181710000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,26 +2545,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4527500</v>
+        <v>4678700</v>
       </c>
       <c r="E70" s="3">
-        <v>4472000</v>
+        <v>4622100</v>
       </c>
       <c r="F70" s="3">
-        <v>4416600</v>
+        <v>4565500</v>
       </c>
       <c r="G70" s="3">
-        <v>4361200</v>
+        <v>4508900</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>4452300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>199867000</v>
+        <v>217408000</v>
       </c>
       <c r="E72" s="3">
-        <v>177014000</v>
+        <v>204044000</v>
       </c>
       <c r="F72" s="3">
-        <v>159994000</v>
+        <v>180714000</v>
       </c>
       <c r="G72" s="3">
-        <v>152660000</v>
+        <v>163338000</v>
       </c>
       <c r="H72" s="3">
-        <v>141731000</v>
+        <v>155851000</v>
       </c>
       <c r="I72" s="3">
-        <v>128317000</v>
+        <v>144693000</v>
       </c>
       <c r="J72" s="3">
+        <v>130999000</v>
+      </c>
+      <c r="K72" s="3">
         <v>115345000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107730000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>175875000</v>
+        <v>186163000</v>
       </c>
       <c r="E76" s="3">
-        <v>170310000</v>
+        <v>179551000</v>
       </c>
       <c r="F76" s="3">
-        <v>159210000</v>
+        <v>173870000</v>
       </c>
       <c r="G76" s="3">
-        <v>152230000</v>
+        <v>162538000</v>
       </c>
       <c r="H76" s="3">
-        <v>152604000</v>
+        <v>155412000</v>
       </c>
       <c r="I76" s="3">
-        <v>131525000</v>
+        <v>155794000</v>
       </c>
       <c r="J76" s="3">
+        <v>134274000</v>
+      </c>
+      <c r="K76" s="3">
         <v>110426000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>95374400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16980900</v>
+        <v>19127200</v>
       </c>
       <c r="E81" s="3">
-        <v>22558600</v>
+        <v>17354500</v>
       </c>
       <c r="F81" s="3">
-        <v>16555700</v>
+        <v>23054900</v>
       </c>
       <c r="G81" s="3">
-        <v>20967100</v>
+        <v>16920000</v>
       </c>
       <c r="H81" s="3">
-        <v>19755600</v>
+        <v>21428400</v>
       </c>
       <c r="I81" s="3">
-        <v>16572200</v>
+        <v>20190300</v>
       </c>
       <c r="J81" s="3">
+        <v>16936800</v>
+      </c>
+      <c r="K81" s="3">
         <v>8746100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2563400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16292700</v>
+        <v>14914000</v>
       </c>
       <c r="E83" s="3">
-        <v>15762400</v>
+        <v>16651200</v>
       </c>
       <c r="F83" s="3">
-        <v>14643500</v>
+        <v>16109200</v>
       </c>
       <c r="G83" s="3">
-        <v>14778900</v>
+        <v>14965700</v>
       </c>
       <c r="H83" s="3">
-        <v>12808500</v>
+        <v>15104000</v>
       </c>
       <c r="I83" s="3">
-        <v>11370300</v>
+        <v>13090300</v>
       </c>
       <c r="J83" s="3">
+        <v>11620400</v>
+      </c>
+      <c r="K83" s="3">
         <v>10045400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9653200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34238400</v>
+        <v>33357100</v>
       </c>
       <c r="E89" s="3">
-        <v>38388200</v>
+        <v>34991700</v>
       </c>
       <c r="F89" s="3">
-        <v>31035400</v>
+        <v>39232900</v>
       </c>
       <c r="G89" s="3">
-        <v>40549200</v>
+        <v>31718300</v>
       </c>
       <c r="H89" s="3">
-        <v>33503500</v>
+        <v>41441400</v>
       </c>
       <c r="I89" s="3">
-        <v>33142500</v>
+        <v>34240600</v>
       </c>
       <c r="J89" s="3">
+        <v>33871700</v>
+      </c>
+      <c r="K89" s="3">
         <v>22282500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13130000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33986500</v>
+        <v>-33398800</v>
       </c>
       <c r="E91" s="3">
-        <v>-32712200</v>
+        <v>-34734300</v>
       </c>
       <c r="F91" s="3">
-        <v>-32191700</v>
+        <v>-33432000</v>
       </c>
       <c r="G91" s="3">
-        <v>-36898300</v>
+        <v>-32899900</v>
       </c>
       <c r="H91" s="3">
-        <v>-30520300</v>
+        <v>-37710100</v>
       </c>
       <c r="I91" s="3">
-        <v>-24349300</v>
+        <v>-31191800</v>
       </c>
       <c r="J91" s="3">
+        <v>-24885000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17945000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13850000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24517900</v>
+        <v>-29271500</v>
       </c>
       <c r="E94" s="3">
-        <v>-33270200</v>
+        <v>-25057400</v>
       </c>
       <c r="F94" s="3">
-        <v>-26996700</v>
+        <v>-34002300</v>
       </c>
       <c r="G94" s="3">
-        <v>-28929300</v>
+        <v>-27590700</v>
       </c>
       <c r="H94" s="3">
-        <v>-34664600</v>
+        <v>-29565800</v>
       </c>
       <c r="I94" s="3">
-        <v>-39416500</v>
+        <v>-35427300</v>
       </c>
       <c r="J94" s="3">
+        <v>-40283700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27518300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13041600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5861300</v>
+        <v>-5852600</v>
       </c>
       <c r="E96" s="3">
-        <v>-5698400</v>
+        <v>-5990200</v>
       </c>
       <c r="F96" s="3">
-        <v>-5801000</v>
+        <v>-5823800</v>
       </c>
       <c r="G96" s="3">
-        <v>-6417100</v>
+        <v>-5928600</v>
       </c>
       <c r="H96" s="3">
-        <v>-5044300</v>
+        <v>-6558300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3599900</v>
+        <v>-5155300</v>
       </c>
       <c r="J96" s="3">
+        <v>-3679100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1727200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1417300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4916200</v>
+        <v>3689400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4082600</v>
+        <v>-5024400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3410200</v>
+        <v>-4172500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3850300</v>
+        <v>-3485300</v>
       </c>
       <c r="H100" s="3">
-        <v>2781900</v>
+        <v>-3935000</v>
       </c>
       <c r="I100" s="3">
-        <v>8358100</v>
+        <v>2843200</v>
       </c>
       <c r="J100" s="3">
+        <v>8542000</v>
+      </c>
+      <c r="K100" s="3">
         <v>4338100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3212300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-378500</v>
+        <v>-1219300</v>
       </c>
       <c r="E101" s="3">
-        <v>-396200</v>
+        <v>-386800</v>
       </c>
       <c r="F101" s="3">
-        <v>-122600</v>
+        <v>-404900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1816800</v>
+        <v>-125300</v>
       </c>
       <c r="H101" s="3">
-        <v>591600</v>
+        <v>-1856800</v>
       </c>
       <c r="I101" s="3">
-        <v>850900</v>
+        <v>604600</v>
       </c>
       <c r="J101" s="3">
+        <v>869600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1253100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-505700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4425700</v>
+        <v>6555700</v>
       </c>
       <c r="E102" s="3">
-        <v>639100</v>
+        <v>4523100</v>
       </c>
       <c r="F102" s="3">
-        <v>505800</v>
+        <v>653200</v>
       </c>
       <c r="G102" s="3">
-        <v>5952800</v>
+        <v>517000</v>
       </c>
       <c r="H102" s="3">
-        <v>2212400</v>
+        <v>6083800</v>
       </c>
       <c r="I102" s="3">
-        <v>2934900</v>
+        <v>2261100</v>
       </c>
       <c r="J102" s="3">
+        <v>2999500</v>
+      </c>
+      <c r="K102" s="3">
         <v>355400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3629600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>278049600</v>
+        <v>282539100</v>
       </c>
       <c r="E8" s="3">
-        <v>280796600</v>
+        <v>285330400</v>
       </c>
       <c r="F8" s="3">
-        <v>272935600</v>
+        <v>277342600</v>
       </c>
       <c r="G8" s="3">
-        <v>256377900</v>
+        <v>260517500</v>
       </c>
       <c r="H8" s="3">
-        <v>263865000</v>
+        <v>268125400</v>
       </c>
       <c r="I8" s="3">
-        <v>253008700</v>
+        <v>257093900</v>
       </c>
       <c r="J8" s="3">
-        <v>238677900</v>
+        <v>242531600</v>
       </c>
       <c r="K8" s="3">
         <v>200563500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>227812800</v>
+        <v>231491100</v>
       </c>
       <c r="E9" s="3">
-        <v>230222800</v>
+        <v>233940100</v>
       </c>
       <c r="F9" s="3">
-        <v>221930200</v>
+        <v>225513600</v>
       </c>
       <c r="G9" s="3">
-        <v>211202000</v>
+        <v>214612100</v>
       </c>
       <c r="H9" s="3">
-        <v>210004800</v>
+        <v>213395600</v>
       </c>
       <c r="I9" s="3">
-        <v>202909200</v>
+        <v>206185400</v>
       </c>
       <c r="J9" s="3">
-        <v>193242600</v>
+        <v>196362800</v>
       </c>
       <c r="K9" s="3">
         <v>169446600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50236900</v>
+        <v>51048000</v>
       </c>
       <c r="E10" s="3">
-        <v>50573800</v>
+        <v>51390400</v>
       </c>
       <c r="F10" s="3">
-        <v>51005400</v>
+        <v>51829000</v>
       </c>
       <c r="G10" s="3">
-        <v>45175900</v>
+        <v>45905400</v>
       </c>
       <c r="H10" s="3">
-        <v>53860200</v>
+        <v>54729800</v>
       </c>
       <c r="I10" s="3">
-        <v>50099500</v>
+        <v>50908500</v>
       </c>
       <c r="J10" s="3">
-        <v>45435300</v>
+        <v>46168900</v>
       </c>
       <c r="K10" s="3">
         <v>31116900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>255355400</v>
+        <v>259478400</v>
       </c>
       <c r="E17" s="3">
-        <v>257873100</v>
+        <v>262036800</v>
       </c>
       <c r="F17" s="3">
-        <v>250640900</v>
+        <v>254687900</v>
       </c>
       <c r="G17" s="3">
-        <v>237850200</v>
+        <v>241690600</v>
       </c>
       <c r="H17" s="3">
-        <v>237351600</v>
+        <v>241183900</v>
       </c>
       <c r="I17" s="3">
-        <v>227456000</v>
+        <v>231128600</v>
       </c>
       <c r="J17" s="3">
-        <v>217384100</v>
+        <v>220894100</v>
       </c>
       <c r="K17" s="3">
         <v>188556600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22694300</v>
+        <v>23060700</v>
       </c>
       <c r="E18" s="3">
-        <v>22923500</v>
+        <v>23293600</v>
       </c>
       <c r="F18" s="3">
-        <v>22294700</v>
+        <v>22654700</v>
       </c>
       <c r="G18" s="3">
-        <v>18527700</v>
+        <v>18826900</v>
       </c>
       <c r="H18" s="3">
-        <v>26513400</v>
+        <v>26941500</v>
       </c>
       <c r="I18" s="3">
-        <v>25552700</v>
+        <v>25965300</v>
       </c>
       <c r="J18" s="3">
-        <v>21293700</v>
+        <v>21637500</v>
       </c>
       <c r="K18" s="3">
         <v>12006900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1337300</v>
+        <v>1358900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1430700</v>
+        <v>-1453800</v>
       </c>
       <c r="F20" s="3">
-        <v>2305300</v>
+        <v>2342600</v>
       </c>
       <c r="G20" s="3">
-        <v>2125600</v>
+        <v>2159900</v>
       </c>
       <c r="H20" s="3">
-        <v>1531100</v>
+        <v>1555800</v>
       </c>
       <c r="I20" s="3">
-        <v>1534100</v>
+        <v>1558900</v>
       </c>
       <c r="J20" s="3">
-        <v>1566300</v>
+        <v>1591600</v>
       </c>
       <c r="K20" s="3">
         <v>961100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38929500</v>
+        <v>39510200</v>
       </c>
       <c r="E21" s="3">
-        <v>38126100</v>
+        <v>38688200</v>
       </c>
       <c r="F21" s="3">
-        <v>40691900</v>
+        <v>41297200</v>
       </c>
       <c r="G21" s="3">
-        <v>35602900</v>
+        <v>36129700</v>
       </c>
       <c r="H21" s="3">
-        <v>43132300</v>
+        <v>43780200</v>
       </c>
       <c r="I21" s="3">
-        <v>40163100</v>
+        <v>40769500</v>
       </c>
       <c r="J21" s="3">
-        <v>34467900</v>
+        <v>34987100</v>
       </c>
       <c r="K21" s="3">
         <v>23035500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>299300</v>
+        <v>304100</v>
       </c>
       <c r="E22" s="3">
-        <v>260800</v>
+        <v>265100</v>
       </c>
       <c r="F22" s="3">
-        <v>256300</v>
+        <v>260400</v>
       </c>
       <c r="G22" s="3">
-        <v>272700</v>
+        <v>277100</v>
       </c>
       <c r="H22" s="3">
-        <v>328900</v>
+        <v>334200</v>
       </c>
       <c r="I22" s="3">
-        <v>212500</v>
+        <v>215900</v>
       </c>
       <c r="J22" s="3">
-        <v>182400</v>
+        <v>185300</v>
       </c>
       <c r="K22" s="3">
         <v>208800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23732300</v>
+        <v>24115500</v>
       </c>
       <c r="E23" s="3">
-        <v>21232000</v>
+        <v>21574800</v>
       </c>
       <c r="F23" s="3">
-        <v>24343800</v>
+        <v>24736800</v>
       </c>
       <c r="G23" s="3">
-        <v>20380600</v>
+        <v>20709700</v>
       </c>
       <c r="H23" s="3">
-        <v>27715600</v>
+        <v>28163100</v>
       </c>
       <c r="I23" s="3">
-        <v>26874400</v>
+        <v>27308300</v>
       </c>
       <c r="J23" s="3">
-        <v>22677600</v>
+        <v>23043800</v>
       </c>
       <c r="K23" s="3">
         <v>12759200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6349100</v>
+        <v>6451600</v>
       </c>
       <c r="E24" s="3">
-        <v>6130900</v>
+        <v>6229900</v>
       </c>
       <c r="F24" s="3">
-        <v>4685900</v>
+        <v>4761600</v>
       </c>
       <c r="G24" s="3">
-        <v>5842500</v>
+        <v>5936800</v>
       </c>
       <c r="H24" s="3">
-        <v>8159100</v>
+        <v>8290900</v>
       </c>
       <c r="I24" s="3">
-        <v>8300300</v>
+        <v>8434300</v>
       </c>
       <c r="J24" s="3">
-        <v>7132900</v>
+        <v>7248100</v>
       </c>
       <c r="K24" s="3">
         <v>5014800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17383200</v>
+        <v>17663900</v>
       </c>
       <c r="E26" s="3">
-        <v>15101100</v>
+        <v>15344900</v>
       </c>
       <c r="F26" s="3">
-        <v>19657900</v>
+        <v>19975300</v>
       </c>
       <c r="G26" s="3">
-        <v>14538200</v>
+        <v>14772900</v>
       </c>
       <c r="H26" s="3">
-        <v>19556500</v>
+        <v>19872300</v>
       </c>
       <c r="I26" s="3">
-        <v>18574000</v>
+        <v>18873900</v>
       </c>
       <c r="J26" s="3">
-        <v>15544700</v>
+        <v>15795700</v>
       </c>
       <c r="K26" s="3">
         <v>7744300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19127200</v>
+        <v>19436000</v>
       </c>
       <c r="E27" s="3">
-        <v>17354500</v>
+        <v>17634700</v>
       </c>
       <c r="F27" s="3">
-        <v>23054900</v>
+        <v>23427200</v>
       </c>
       <c r="G27" s="3">
-        <v>16920000</v>
+        <v>17193200</v>
       </c>
       <c r="H27" s="3">
-        <v>21428400</v>
+        <v>21774400</v>
       </c>
       <c r="I27" s="3">
-        <v>20190300</v>
+        <v>20516300</v>
       </c>
       <c r="J27" s="3">
-        <v>16936800</v>
+        <v>17210200</v>
       </c>
       <c r="K27" s="3">
         <v>8746100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1337300</v>
+        <v>-1358900</v>
       </c>
       <c r="E32" s="3">
-        <v>1430700</v>
+        <v>1453800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2305300</v>
+        <v>-2342600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2125600</v>
+        <v>-2159900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1531100</v>
+        <v>-1555800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1534100</v>
+        <v>-1558900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1566300</v>
+        <v>-1591600</v>
       </c>
       <c r="K32" s="3">
         <v>-961100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19127200</v>
+        <v>19436000</v>
       </c>
       <c r="E33" s="3">
-        <v>17354500</v>
+        <v>17634700</v>
       </c>
       <c r="F33" s="3">
-        <v>23054900</v>
+        <v>23427200</v>
       </c>
       <c r="G33" s="3">
-        <v>16920000</v>
+        <v>17193200</v>
       </c>
       <c r="H33" s="3">
-        <v>21428400</v>
+        <v>21774400</v>
       </c>
       <c r="I33" s="3">
-        <v>20190300</v>
+        <v>20516300</v>
       </c>
       <c r="J33" s="3">
-        <v>16936800</v>
+        <v>17210200</v>
       </c>
       <c r="K33" s="3">
         <v>8746100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19127200</v>
+        <v>19436000</v>
       </c>
       <c r="E35" s="3">
-        <v>17354500</v>
+        <v>17634700</v>
       </c>
       <c r="F35" s="3">
-        <v>23054900</v>
+        <v>23427200</v>
       </c>
       <c r="G35" s="3">
-        <v>16920000</v>
+        <v>17193200</v>
       </c>
       <c r="H35" s="3">
-        <v>21428400</v>
+        <v>21774400</v>
       </c>
       <c r="I35" s="3">
-        <v>20190300</v>
+        <v>20516300</v>
       </c>
       <c r="J35" s="3">
-        <v>16936800</v>
+        <v>17210200</v>
       </c>
       <c r="K35" s="3">
         <v>8746100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38888000</v>
+        <v>38689400</v>
       </c>
       <c r="E41" s="3">
-        <v>33173300</v>
+        <v>33745200</v>
       </c>
       <c r="F41" s="3">
-        <v>28325100</v>
+        <v>28813400</v>
       </c>
       <c r="G41" s="3">
-        <v>27794300</v>
+        <v>28273500</v>
       </c>
       <c r="H41" s="3">
-        <v>27277900</v>
+        <v>27748200</v>
       </c>
       <c r="I41" s="3">
-        <v>21200700</v>
+        <v>21566200</v>
       </c>
       <c r="J41" s="3">
-        <v>18942100</v>
+        <v>19268600</v>
       </c>
       <c r="K41" s="3">
         <v>15619300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13984500</v>
+        <v>34461200</v>
       </c>
       <c r="E42" s="3">
-        <v>20912600</v>
+        <v>21273200</v>
       </c>
       <c r="F42" s="3">
-        <v>24773900</v>
+        <v>25201100</v>
       </c>
       <c r="G42" s="3">
-        <v>26951500</v>
+        <v>27416100</v>
       </c>
       <c r="H42" s="3">
-        <v>23603000</v>
+        <v>24009900</v>
       </c>
       <c r="I42" s="3">
-        <v>27203600</v>
+        <v>27672600</v>
       </c>
       <c r="J42" s="3">
-        <v>20667300</v>
+        <v>21023700</v>
       </c>
       <c r="K42" s="3">
         <v>14111000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86062000</v>
+        <v>177297000</v>
       </c>
       <c r="E43" s="3">
-        <v>88982800</v>
+        <v>90517000</v>
       </c>
       <c r="F43" s="3">
-        <v>84050900</v>
+        <v>85500000</v>
       </c>
       <c r="G43" s="3">
-        <v>81194900</v>
+        <v>82594800</v>
       </c>
       <c r="H43" s="3">
-        <v>77620100</v>
+        <v>78958400</v>
       </c>
       <c r="I43" s="3">
-        <v>81656900</v>
+        <v>83064700</v>
       </c>
       <c r="J43" s="3">
-        <v>74391700</v>
+        <v>75674300</v>
       </c>
       <c r="K43" s="3">
         <v>68375100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22596000</v>
+        <v>46905600</v>
       </c>
       <c r="E44" s="3">
-        <v>24651400</v>
+        <v>25076400</v>
       </c>
       <c r="F44" s="3">
-        <v>23569200</v>
+        <v>23975600</v>
       </c>
       <c r="G44" s="3">
-        <v>22166400</v>
+        <v>22548500</v>
       </c>
       <c r="H44" s="3">
-        <v>19130800</v>
+        <v>19460700</v>
       </c>
       <c r="I44" s="3">
-        <v>19837100</v>
+        <v>20179100</v>
       </c>
       <c r="J44" s="3">
-        <v>17582900</v>
+        <v>17886000</v>
       </c>
       <c r="K44" s="3">
         <v>15596500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11472200</v>
+        <v>18087300</v>
       </c>
       <c r="E45" s="3">
-        <v>7479300</v>
+        <v>7608300</v>
       </c>
       <c r="F45" s="3">
-        <v>7737600</v>
+        <v>7871000</v>
       </c>
       <c r="G45" s="3">
-        <v>7389600</v>
+        <v>7517000</v>
       </c>
       <c r="H45" s="3">
-        <v>21352800</v>
+        <v>21721000</v>
       </c>
       <c r="I45" s="3">
-        <v>16551500</v>
+        <v>16836900</v>
       </c>
       <c r="J45" s="3">
-        <v>14276400</v>
+        <v>14522500</v>
       </c>
       <c r="K45" s="3">
         <v>11602800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>173003000</v>
+        <v>179014000</v>
       </c>
       <c r="E46" s="3">
-        <v>175199000</v>
+        <v>178220000</v>
       </c>
       <c r="F46" s="3">
-        <v>168457000</v>
+        <v>171361000</v>
       </c>
       <c r="G46" s="3">
-        <v>165497000</v>
+        <v>168350000</v>
       </c>
       <c r="H46" s="3">
-        <v>168985000</v>
+        <v>171898000</v>
       </c>
       <c r="I46" s="3">
-        <v>166450000</v>
+        <v>169320000</v>
       </c>
       <c r="J46" s="3">
-        <v>145860000</v>
+        <v>148375000</v>
       </c>
       <c r="K46" s="3">
         <v>125305000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203394000</v>
+        <v>419777000</v>
       </c>
       <c r="E47" s="3">
-        <v>195775000</v>
+        <v>198452000</v>
       </c>
       <c r="F47" s="3">
-        <v>191784000</v>
+        <v>195091000</v>
       </c>
       <c r="G47" s="3">
-        <v>181544000</v>
+        <v>184675000</v>
       </c>
       <c r="H47" s="3">
-        <v>173976000</v>
+        <v>176975000</v>
       </c>
       <c r="I47" s="3">
-        <v>181622000</v>
+        <v>184753000</v>
       </c>
       <c r="J47" s="3">
-        <v>160935000</v>
+        <v>163709000</v>
       </c>
       <c r="K47" s="3">
         <v>129781000</v>
@@ -1882,26 +1882,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>100954000</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>99161400</v>
+        <v>100871000</v>
       </c>
       <c r="F48" s="3">
-        <v>95284000</v>
+        <v>96926800</v>
       </c>
       <c r="G48" s="3">
-        <v>94629200</v>
+        <v>96260700</v>
       </c>
       <c r="H48" s="3">
-        <v>90391100</v>
+        <v>91949500</v>
       </c>
       <c r="I48" s="3">
-        <v>86264300</v>
+        <v>87751600</v>
       </c>
       <c r="J48" s="3">
-        <v>70911200</v>
+        <v>72133900</v>
       </c>
       <c r="K48" s="3">
         <v>62277800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>9442400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11524100</v>
+        <v>13914500</v>
       </c>
       <c r="E52" s="3">
-        <v>11839100</v>
+        <v>12741800</v>
       </c>
       <c r="F52" s="3">
-        <v>11335500</v>
+        <v>11531000</v>
       </c>
       <c r="G52" s="3">
-        <v>10731400</v>
+        <v>10916500</v>
       </c>
       <c r="H52" s="3">
-        <v>6776900</v>
+        <v>6893800</v>
       </c>
       <c r="I52" s="3">
-        <v>8596900</v>
+        <v>8745100</v>
       </c>
       <c r="J52" s="3">
-        <v>6833700</v>
+        <v>6951500</v>
       </c>
       <c r="K52" s="3">
         <v>5179600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>488874000</v>
+        <v>509499000</v>
       </c>
       <c r="E54" s="3">
-        <v>481975000</v>
+        <v>490285000</v>
       </c>
       <c r="F54" s="3">
-        <v>466861000</v>
+        <v>474910000</v>
       </c>
       <c r="G54" s="3">
-        <v>452402000</v>
+        <v>460202000</v>
       </c>
       <c r="H54" s="3">
-        <v>440128000</v>
+        <v>447717000</v>
       </c>
       <c r="I54" s="3">
-        <v>442933000</v>
+        <v>450570000</v>
       </c>
       <c r="J54" s="3">
-        <v>384540000</v>
+        <v>391170000</v>
       </c>
       <c r="K54" s="3">
         <v>322543000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22589200</v>
+        <v>56000100</v>
       </c>
       <c r="E57" s="3">
-        <v>24554700</v>
+        <v>24978100</v>
       </c>
       <c r="F57" s="3">
-        <v>24004200</v>
+        <v>24418000</v>
       </c>
       <c r="G57" s="3">
-        <v>23816000</v>
+        <v>24226600</v>
       </c>
       <c r="H57" s="3">
-        <v>22174700</v>
+        <v>22557000</v>
       </c>
       <c r="I57" s="3">
-        <v>22370300</v>
+        <v>22756000</v>
       </c>
       <c r="J57" s="3">
-        <v>20538700</v>
+        <v>20892800</v>
       </c>
       <c r="K57" s="3">
         <v>19214200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91501500</v>
+        <v>186599000</v>
       </c>
       <c r="E58" s="3">
-        <v>89080900</v>
+        <v>90616800</v>
       </c>
       <c r="F58" s="3">
-        <v>86686200</v>
+        <v>88180800</v>
       </c>
       <c r="G58" s="3">
-        <v>85785500</v>
+        <v>87264600</v>
       </c>
       <c r="H58" s="3">
-        <v>79075700</v>
+        <v>80439100</v>
       </c>
       <c r="I58" s="3">
-        <v>83181200</v>
+        <v>84615400</v>
       </c>
       <c r="J58" s="3">
-        <v>72202900</v>
+        <v>73447800</v>
       </c>
       <c r="K58" s="3">
         <v>61757100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52043400</v>
+        <v>67981000</v>
       </c>
       <c r="E59" s="3">
-        <v>55510400</v>
+        <v>56467400</v>
       </c>
       <c r="F59" s="3">
-        <v>54464700</v>
+        <v>55403800</v>
       </c>
       <c r="G59" s="3">
-        <v>51118400</v>
+        <v>51999800</v>
       </c>
       <c r="H59" s="3">
-        <v>48384600</v>
+        <v>49218800</v>
       </c>
       <c r="I59" s="3">
-        <v>46932800</v>
+        <v>47742000</v>
       </c>
       <c r="J59" s="3">
-        <v>43495200</v>
+        <v>44245100</v>
       </c>
       <c r="K59" s="3">
         <v>36403500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166134000</v>
+        <v>171263000</v>
       </c>
       <c r="E60" s="3">
-        <v>169146000</v>
+        <v>172062000</v>
       </c>
       <c r="F60" s="3">
-        <v>165155000</v>
+        <v>168003000</v>
       </c>
       <c r="G60" s="3">
-        <v>160720000</v>
+        <v>163491000</v>
       </c>
       <c r="H60" s="3">
-        <v>149635000</v>
+        <v>152215000</v>
       </c>
       <c r="I60" s="3">
-        <v>152484000</v>
+        <v>155113000</v>
       </c>
       <c r="J60" s="3">
-        <v>136237000</v>
+        <v>138586000</v>
       </c>
       <c r="K60" s="3">
         <v>117375000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99230100</v>
+        <v>107939000</v>
       </c>
       <c r="E61" s="3">
-        <v>97912800</v>
+        <v>99600900</v>
       </c>
       <c r="F61" s="3">
-        <v>92859200</v>
+        <v>94460200</v>
       </c>
       <c r="G61" s="3">
-        <v>91979600</v>
+        <v>93565500</v>
       </c>
       <c r="H61" s="3">
-        <v>90684800</v>
+        <v>92248300</v>
       </c>
       <c r="I61" s="3">
-        <v>92933600</v>
+        <v>94535900</v>
       </c>
       <c r="J61" s="3">
-        <v>79315300</v>
+        <v>80682800</v>
       </c>
       <c r="K61" s="3">
         <v>66700800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26385900</v>
+        <v>45850700</v>
       </c>
       <c r="E62" s="3">
-        <v>24071000</v>
+        <v>24486000</v>
       </c>
       <c r="F62" s="3">
-        <v>23969400</v>
+        <v>24382700</v>
       </c>
       <c r="G62" s="3">
-        <v>26454200</v>
+        <v>26910300</v>
       </c>
       <c r="H62" s="3">
-        <v>31950000</v>
+        <v>32500900</v>
       </c>
       <c r="I62" s="3">
-        <v>33747700</v>
+        <v>34329600</v>
       </c>
       <c r="J62" s="3">
-        <v>27755500</v>
+        <v>28234000</v>
       </c>
       <c r="K62" s="3">
         <v>22362500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298033000</v>
+        <v>314857000</v>
       </c>
       <c r="E66" s="3">
-        <v>297802000</v>
+        <v>302936000</v>
       </c>
       <c r="F66" s="3">
-        <v>288425000</v>
+        <v>293398000</v>
       </c>
       <c r="G66" s="3">
-        <v>285355000</v>
+        <v>290275000</v>
       </c>
       <c r="H66" s="3">
-        <v>280264000</v>
+        <v>285096000</v>
       </c>
       <c r="I66" s="3">
-        <v>287139000</v>
+        <v>292090000</v>
       </c>
       <c r="J66" s="3">
-        <v>250266000</v>
+        <v>254581000</v>
       </c>
       <c r="K66" s="3">
         <v>212118000</v>
@@ -2555,19 +2555,19 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4678700</v>
+        <v>9518700</v>
       </c>
       <c r="E70" s="3">
-        <v>4622100</v>
+        <v>4701800</v>
       </c>
       <c r="F70" s="3">
-        <v>4565500</v>
+        <v>4644200</v>
       </c>
       <c r="G70" s="3">
-        <v>4508900</v>
+        <v>4586700</v>
       </c>
       <c r="H70" s="3">
-        <v>4452300</v>
+        <v>4529100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>217408000</v>
+        <v>209890000</v>
       </c>
       <c r="E72" s="3">
-        <v>204044000</v>
+        <v>207562000</v>
       </c>
       <c r="F72" s="3">
-        <v>180714000</v>
+        <v>183830000</v>
       </c>
       <c r="G72" s="3">
-        <v>163338000</v>
+        <v>166154000</v>
       </c>
       <c r="H72" s="3">
-        <v>155851000</v>
+        <v>158538000</v>
       </c>
       <c r="I72" s="3">
-        <v>144693000</v>
+        <v>147188000</v>
       </c>
       <c r="J72" s="3">
-        <v>130999000</v>
+        <v>133258000</v>
       </c>
       <c r="K72" s="3">
         <v>115345000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>186163000</v>
+        <v>185124000</v>
       </c>
       <c r="E76" s="3">
-        <v>179551000</v>
+        <v>182647000</v>
       </c>
       <c r="F76" s="3">
-        <v>173870000</v>
+        <v>176868000</v>
       </c>
       <c r="G76" s="3">
-        <v>162538000</v>
+        <v>165340000</v>
       </c>
       <c r="H76" s="3">
-        <v>155412000</v>
+        <v>158091000</v>
       </c>
       <c r="I76" s="3">
-        <v>155794000</v>
+        <v>158480000</v>
       </c>
       <c r="J76" s="3">
-        <v>134274000</v>
+        <v>136589000</v>
       </c>
       <c r="K76" s="3">
         <v>110426000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19127200</v>
+        <v>19436000</v>
       </c>
       <c r="E81" s="3">
-        <v>17354500</v>
+        <v>17634700</v>
       </c>
       <c r="F81" s="3">
-        <v>23054900</v>
+        <v>23427200</v>
       </c>
       <c r="G81" s="3">
-        <v>16920000</v>
+        <v>17193200</v>
       </c>
       <c r="H81" s="3">
-        <v>21428400</v>
+        <v>21774400</v>
       </c>
       <c r="I81" s="3">
-        <v>20190300</v>
+        <v>20516300</v>
       </c>
       <c r="J81" s="3">
-        <v>16936800</v>
+        <v>17210200</v>
       </c>
       <c r="K81" s="3">
         <v>8746100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14914000</v>
+        <v>15154800</v>
       </c>
       <c r="E83" s="3">
-        <v>16651200</v>
+        <v>16920000</v>
       </c>
       <c r="F83" s="3">
-        <v>16109200</v>
+        <v>16369300</v>
       </c>
       <c r="G83" s="3">
-        <v>14965700</v>
+        <v>15207400</v>
       </c>
       <c r="H83" s="3">
-        <v>15104000</v>
+        <v>15347900</v>
       </c>
       <c r="I83" s="3">
-        <v>13090300</v>
+        <v>13301700</v>
       </c>
       <c r="J83" s="3">
-        <v>11620400</v>
+        <v>11808100</v>
       </c>
       <c r="K83" s="3">
         <v>10045400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33357100</v>
+        <v>33895700</v>
       </c>
       <c r="E89" s="3">
-        <v>34991700</v>
+        <v>35556700</v>
       </c>
       <c r="F89" s="3">
-        <v>39232900</v>
+        <v>39866300</v>
       </c>
       <c r="G89" s="3">
-        <v>31718300</v>
+        <v>32230400</v>
       </c>
       <c r="H89" s="3">
-        <v>41441400</v>
+        <v>42110500</v>
       </c>
       <c r="I89" s="3">
-        <v>34240600</v>
+        <v>34793500</v>
       </c>
       <c r="J89" s="3">
-        <v>33871700</v>
+        <v>34418600</v>
       </c>
       <c r="K89" s="3">
         <v>22282500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33398800</v>
+        <v>-33938000</v>
       </c>
       <c r="E91" s="3">
-        <v>-34734300</v>
+        <v>-35295100</v>
       </c>
       <c r="F91" s="3">
-        <v>-33432000</v>
+        <v>-33971800</v>
       </c>
       <c r="G91" s="3">
-        <v>-32899900</v>
+        <v>-33431200</v>
       </c>
       <c r="H91" s="3">
-        <v>-37710100</v>
+        <v>-38319000</v>
       </c>
       <c r="I91" s="3">
-        <v>-31191800</v>
+        <v>-31695400</v>
       </c>
       <c r="J91" s="3">
-        <v>-24885000</v>
+        <v>-25286800</v>
       </c>
       <c r="K91" s="3">
         <v>-17945000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29271500</v>
+        <v>-29744100</v>
       </c>
       <c r="E94" s="3">
-        <v>-25057400</v>
+        <v>-25462000</v>
       </c>
       <c r="F94" s="3">
-        <v>-34002300</v>
+        <v>-34551300</v>
       </c>
       <c r="G94" s="3">
-        <v>-27590700</v>
+        <v>-28036200</v>
       </c>
       <c r="H94" s="3">
-        <v>-29565800</v>
+        <v>-30043200</v>
       </c>
       <c r="I94" s="3">
-        <v>-35427300</v>
+        <v>-35999300</v>
       </c>
       <c r="J94" s="3">
-        <v>-40283700</v>
+        <v>-40934200</v>
       </c>
       <c r="K94" s="3">
         <v>-27518300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5852600</v>
+        <v>-5947100</v>
       </c>
       <c r="E96" s="3">
-        <v>-5990200</v>
+        <v>-6087000</v>
       </c>
       <c r="F96" s="3">
-        <v>-5823800</v>
+        <v>-5917900</v>
       </c>
       <c r="G96" s="3">
-        <v>-5928600</v>
+        <v>-6024300</v>
       </c>
       <c r="H96" s="3">
-        <v>-6558300</v>
+        <v>-6664200</v>
       </c>
       <c r="I96" s="3">
-        <v>-5155300</v>
+        <v>-5238600</v>
       </c>
       <c r="J96" s="3">
-        <v>-3679100</v>
+        <v>-3738500</v>
       </c>
       <c r="K96" s="3">
         <v>-1727200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3689400</v>
+        <v>3749000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5024400</v>
+        <v>-5105500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4172500</v>
+        <v>-4239800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3485300</v>
+        <v>-3541600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3935000</v>
+        <v>-3998500</v>
       </c>
       <c r="I100" s="3">
-        <v>2843200</v>
+        <v>2889100</v>
       </c>
       <c r="J100" s="3">
-        <v>8542000</v>
+        <v>8679900</v>
       </c>
       <c r="K100" s="3">
         <v>4338100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1219300</v>
+        <v>-1239000</v>
       </c>
       <c r="E101" s="3">
-        <v>-386800</v>
+        <v>-393100</v>
       </c>
       <c r="F101" s="3">
-        <v>-404900</v>
+        <v>-411500</v>
       </c>
       <c r="G101" s="3">
-        <v>-125300</v>
+        <v>-127300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1856800</v>
+        <v>-1886800</v>
       </c>
       <c r="I101" s="3">
-        <v>604600</v>
+        <v>614300</v>
       </c>
       <c r="J101" s="3">
-        <v>869600</v>
+        <v>883600</v>
       </c>
       <c r="K101" s="3">
         <v>1253100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6555700</v>
+        <v>6661600</v>
       </c>
       <c r="E102" s="3">
-        <v>4523100</v>
+        <v>4596100</v>
       </c>
       <c r="F102" s="3">
-        <v>653200</v>
+        <v>663800</v>
       </c>
       <c r="G102" s="3">
-        <v>517000</v>
+        <v>525300</v>
       </c>
       <c r="H102" s="3">
-        <v>6083800</v>
+        <v>6182000</v>
       </c>
       <c r="I102" s="3">
-        <v>2261100</v>
+        <v>2297600</v>
       </c>
       <c r="J102" s="3">
-        <v>2999500</v>
+        <v>3047900</v>
       </c>
       <c r="K102" s="3">
         <v>355400</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>282539100</v>
+        <v>287627200</v>
       </c>
       <c r="E8" s="3">
-        <v>285330400</v>
+        <v>290468800</v>
       </c>
       <c r="F8" s="3">
-        <v>277342600</v>
+        <v>282337100</v>
       </c>
       <c r="G8" s="3">
-        <v>260517500</v>
+        <v>265209000</v>
       </c>
       <c r="H8" s="3">
-        <v>268125400</v>
+        <v>272954000</v>
       </c>
       <c r="I8" s="3">
-        <v>257093900</v>
+        <v>261723700</v>
       </c>
       <c r="J8" s="3">
-        <v>242531600</v>
+        <v>246899300</v>
       </c>
       <c r="K8" s="3">
         <v>200563500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>231491100</v>
+        <v>235659900</v>
       </c>
       <c r="E9" s="3">
-        <v>233940100</v>
+        <v>238153000</v>
       </c>
       <c r="F9" s="3">
-        <v>225513600</v>
+        <v>229574800</v>
       </c>
       <c r="G9" s="3">
-        <v>214612100</v>
+        <v>218477000</v>
       </c>
       <c r="H9" s="3">
-        <v>213395600</v>
+        <v>217238500</v>
       </c>
       <c r="I9" s="3">
-        <v>206185400</v>
+        <v>209898500</v>
       </c>
       <c r="J9" s="3">
-        <v>196362800</v>
+        <v>199898900</v>
       </c>
       <c r="K9" s="3">
         <v>169446600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51048000</v>
+        <v>51967300</v>
       </c>
       <c r="E10" s="3">
-        <v>51390400</v>
+        <v>52315800</v>
       </c>
       <c r="F10" s="3">
-        <v>51829000</v>
+        <v>52762300</v>
       </c>
       <c r="G10" s="3">
-        <v>45905400</v>
+        <v>46732100</v>
       </c>
       <c r="H10" s="3">
-        <v>54729800</v>
+        <v>55715400</v>
       </c>
       <c r="I10" s="3">
-        <v>50908500</v>
+        <v>51825200</v>
       </c>
       <c r="J10" s="3">
-        <v>46168900</v>
+        <v>47000300</v>
       </c>
       <c r="K10" s="3">
         <v>31116900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>259478400</v>
+        <v>264151300</v>
       </c>
       <c r="E17" s="3">
-        <v>262036800</v>
+        <v>266755700</v>
       </c>
       <c r="F17" s="3">
-        <v>254687900</v>
+        <v>259274400</v>
       </c>
       <c r="G17" s="3">
-        <v>241690600</v>
+        <v>246043100</v>
       </c>
       <c r="H17" s="3">
-        <v>241183900</v>
+        <v>245527300</v>
       </c>
       <c r="I17" s="3">
-        <v>231128600</v>
+        <v>235290800</v>
       </c>
       <c r="J17" s="3">
-        <v>220894100</v>
+        <v>224872100</v>
       </c>
       <c r="K17" s="3">
         <v>188556600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23060700</v>
+        <v>23476000</v>
       </c>
       <c r="E18" s="3">
-        <v>23293600</v>
+        <v>23713100</v>
       </c>
       <c r="F18" s="3">
-        <v>22654700</v>
+        <v>23062700</v>
       </c>
       <c r="G18" s="3">
-        <v>18826900</v>
+        <v>19165900</v>
       </c>
       <c r="H18" s="3">
-        <v>26941500</v>
+        <v>27426700</v>
       </c>
       <c r="I18" s="3">
-        <v>25965300</v>
+        <v>26432900</v>
       </c>
       <c r="J18" s="3">
-        <v>21637500</v>
+        <v>22027200</v>
       </c>
       <c r="K18" s="3">
         <v>12006900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1358900</v>
+        <v>1383400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1453800</v>
+        <v>-1480000</v>
       </c>
       <c r="F20" s="3">
-        <v>2342600</v>
+        <v>2384800</v>
       </c>
       <c r="G20" s="3">
-        <v>2159900</v>
+        <v>2198800</v>
       </c>
       <c r="H20" s="3">
-        <v>1555800</v>
+        <v>1583900</v>
       </c>
       <c r="I20" s="3">
-        <v>1558900</v>
+        <v>1586900</v>
       </c>
       <c r="J20" s="3">
-        <v>1591600</v>
+        <v>1620200</v>
       </c>
       <c r="K20" s="3">
         <v>961100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39510200</v>
+        <v>40255000</v>
       </c>
       <c r="E21" s="3">
-        <v>38688200</v>
+        <v>39422000</v>
       </c>
       <c r="F21" s="3">
-        <v>41297200</v>
+        <v>42076800</v>
       </c>
       <c r="G21" s="3">
-        <v>36129700</v>
+        <v>36813800</v>
       </c>
       <c r="H21" s="3">
-        <v>43780200</v>
+        <v>44602300</v>
       </c>
       <c r="I21" s="3">
-        <v>40769500</v>
+        <v>41532900</v>
       </c>
       <c r="J21" s="3">
-        <v>34987100</v>
+        <v>35643100</v>
       </c>
       <c r="K21" s="3">
         <v>23035500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>304100</v>
+        <v>309600</v>
       </c>
       <c r="E22" s="3">
+        <v>269800</v>
+      </c>
+      <c r="F22" s="3">
         <v>265100</v>
       </c>
-      <c r="F22" s="3">
-        <v>260400</v>
-      </c>
       <c r="G22" s="3">
-        <v>277100</v>
+        <v>282100</v>
       </c>
       <c r="H22" s="3">
-        <v>334200</v>
+        <v>340200</v>
       </c>
       <c r="I22" s="3">
-        <v>215900</v>
+        <v>219800</v>
       </c>
       <c r="J22" s="3">
-        <v>185300</v>
+        <v>188600</v>
       </c>
       <c r="K22" s="3">
         <v>208800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24115500</v>
+        <v>24549800</v>
       </c>
       <c r="E23" s="3">
-        <v>21574800</v>
+        <v>21963300</v>
       </c>
       <c r="F23" s="3">
-        <v>24736800</v>
+        <v>25182300</v>
       </c>
       <c r="G23" s="3">
-        <v>20709700</v>
+        <v>21082700</v>
       </c>
       <c r="H23" s="3">
-        <v>28163100</v>
+        <v>28670300</v>
       </c>
       <c r="I23" s="3">
-        <v>27308300</v>
+        <v>27800100</v>
       </c>
       <c r="J23" s="3">
-        <v>23043800</v>
+        <v>23458800</v>
       </c>
       <c r="K23" s="3">
         <v>12759200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6451600</v>
+        <v>6567800</v>
       </c>
       <c r="E24" s="3">
-        <v>6229900</v>
+        <v>6342100</v>
       </c>
       <c r="F24" s="3">
-        <v>4761600</v>
+        <v>4847300</v>
       </c>
       <c r="G24" s="3">
-        <v>5936800</v>
+        <v>6043700</v>
       </c>
       <c r="H24" s="3">
-        <v>8290900</v>
+        <v>8440200</v>
       </c>
       <c r="I24" s="3">
-        <v>8434300</v>
+        <v>8586200</v>
       </c>
       <c r="J24" s="3">
-        <v>7248100</v>
+        <v>7378600</v>
       </c>
       <c r="K24" s="3">
         <v>5014800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17663900</v>
+        <v>17982000</v>
       </c>
       <c r="E26" s="3">
-        <v>15344900</v>
+        <v>15621300</v>
       </c>
       <c r="F26" s="3">
-        <v>19975300</v>
+        <v>20335000</v>
       </c>
       <c r="G26" s="3">
-        <v>14772900</v>
+        <v>15038900</v>
       </c>
       <c r="H26" s="3">
-        <v>19872300</v>
+        <v>20230100</v>
       </c>
       <c r="I26" s="3">
-        <v>18873900</v>
+        <v>19213800</v>
       </c>
       <c r="J26" s="3">
-        <v>15795700</v>
+        <v>16080100</v>
       </c>
       <c r="K26" s="3">
         <v>7744300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19436000</v>
+        <v>19786000</v>
       </c>
       <c r="E27" s="3">
-        <v>17634700</v>
+        <v>17952300</v>
       </c>
       <c r="F27" s="3">
-        <v>23427200</v>
+        <v>23849100</v>
       </c>
       <c r="G27" s="3">
-        <v>17193200</v>
+        <v>17502800</v>
       </c>
       <c r="H27" s="3">
-        <v>21774400</v>
+        <v>22166500</v>
       </c>
       <c r="I27" s="3">
-        <v>20516300</v>
+        <v>20885800</v>
       </c>
       <c r="J27" s="3">
-        <v>17210200</v>
+        <v>17520200</v>
       </c>
       <c r="K27" s="3">
         <v>8746100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1358900</v>
+        <v>-1383400</v>
       </c>
       <c r="E32" s="3">
-        <v>1453800</v>
+        <v>1480000</v>
       </c>
       <c r="F32" s="3">
-        <v>-2342600</v>
+        <v>-2384800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2159900</v>
+        <v>-2198800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1555800</v>
+        <v>-1583900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1558900</v>
+        <v>-1586900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1591600</v>
+        <v>-1620200</v>
       </c>
       <c r="K32" s="3">
         <v>-961100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19436000</v>
+        <v>19786000</v>
       </c>
       <c r="E33" s="3">
-        <v>17634700</v>
+        <v>17952300</v>
       </c>
       <c r="F33" s="3">
-        <v>23427200</v>
+        <v>23849100</v>
       </c>
       <c r="G33" s="3">
-        <v>17193200</v>
+        <v>17502800</v>
       </c>
       <c r="H33" s="3">
-        <v>21774400</v>
+        <v>22166500</v>
       </c>
       <c r="I33" s="3">
-        <v>20516300</v>
+        <v>20885800</v>
       </c>
       <c r="J33" s="3">
-        <v>17210200</v>
+        <v>17520200</v>
       </c>
       <c r="K33" s="3">
         <v>8746100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19436000</v>
+        <v>19786000</v>
       </c>
       <c r="E35" s="3">
-        <v>17634700</v>
+        <v>17952300</v>
       </c>
       <c r="F35" s="3">
-        <v>23427200</v>
+        <v>23849100</v>
       </c>
       <c r="G35" s="3">
-        <v>17193200</v>
+        <v>17502800</v>
       </c>
       <c r="H35" s="3">
-        <v>21774400</v>
+        <v>22166500</v>
       </c>
       <c r="I35" s="3">
-        <v>20516300</v>
+        <v>20885800</v>
       </c>
       <c r="J35" s="3">
-        <v>17210200</v>
+        <v>17520200</v>
       </c>
       <c r="K35" s="3">
         <v>8746100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38689400</v>
+        <v>39386100</v>
       </c>
       <c r="E41" s="3">
-        <v>33745200</v>
+        <v>34352900</v>
       </c>
       <c r="F41" s="3">
-        <v>28813400</v>
+        <v>29332300</v>
       </c>
       <c r="G41" s="3">
-        <v>28273500</v>
+        <v>28782700</v>
       </c>
       <c r="H41" s="3">
-        <v>27748200</v>
+        <v>28247900</v>
       </c>
       <c r="I41" s="3">
-        <v>21566200</v>
+        <v>21954600</v>
       </c>
       <c r="J41" s="3">
-        <v>19268600</v>
+        <v>19615600</v>
       </c>
       <c r="K41" s="3">
         <v>15619300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34461200</v>
+        <v>35081800</v>
       </c>
       <c r="E42" s="3">
-        <v>21273200</v>
+        <v>21656300</v>
       </c>
       <c r="F42" s="3">
-        <v>25201100</v>
+        <v>25654900</v>
       </c>
       <c r="G42" s="3">
-        <v>27416100</v>
+        <v>27909900</v>
       </c>
       <c r="H42" s="3">
-        <v>24009900</v>
+        <v>24442300</v>
       </c>
       <c r="I42" s="3">
-        <v>27672600</v>
+        <v>28170900</v>
       </c>
       <c r="J42" s="3">
-        <v>21023700</v>
+        <v>21402300</v>
       </c>
       <c r="K42" s="3">
         <v>14111000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>177297000</v>
+        <v>180490000</v>
       </c>
       <c r="E43" s="3">
-        <v>90517000</v>
+        <v>92147000</v>
       </c>
       <c r="F43" s="3">
-        <v>85500000</v>
+        <v>87039700</v>
       </c>
       <c r="G43" s="3">
-        <v>82594800</v>
+        <v>84082300</v>
       </c>
       <c r="H43" s="3">
-        <v>78958400</v>
+        <v>80380300</v>
       </c>
       <c r="I43" s="3">
-        <v>83064700</v>
+        <v>84560600</v>
       </c>
       <c r="J43" s="3">
-        <v>75674300</v>
+        <v>77037100</v>
       </c>
       <c r="K43" s="3">
         <v>68375100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>46905600</v>
+        <v>47750300</v>
       </c>
       <c r="E44" s="3">
-        <v>25076400</v>
+        <v>25528000</v>
       </c>
       <c r="F44" s="3">
-        <v>23975600</v>
+        <v>24407400</v>
       </c>
       <c r="G44" s="3">
-        <v>22548500</v>
+        <v>22954600</v>
       </c>
       <c r="H44" s="3">
-        <v>19460700</v>
+        <v>19811100</v>
       </c>
       <c r="I44" s="3">
-        <v>20179100</v>
+        <v>20542500</v>
       </c>
       <c r="J44" s="3">
-        <v>17886000</v>
+        <v>18208100</v>
       </c>
       <c r="K44" s="3">
         <v>15596500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18087300</v>
+        <v>18413000</v>
       </c>
       <c r="E45" s="3">
-        <v>7608300</v>
+        <v>7745300</v>
       </c>
       <c r="F45" s="3">
-        <v>7871000</v>
+        <v>8012700</v>
       </c>
       <c r="G45" s="3">
-        <v>7517000</v>
+        <v>7652400</v>
       </c>
       <c r="H45" s="3">
-        <v>21721000</v>
+        <v>22112100</v>
       </c>
       <c r="I45" s="3">
-        <v>16836900</v>
+        <v>17140100</v>
       </c>
       <c r="J45" s="3">
-        <v>14522500</v>
+        <v>14784000</v>
       </c>
       <c r="K45" s="3">
         <v>11602800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>179014000</v>
+        <v>182238000</v>
       </c>
       <c r="E46" s="3">
-        <v>178220000</v>
+        <v>181430000</v>
       </c>
       <c r="F46" s="3">
-        <v>171361000</v>
+        <v>174447000</v>
       </c>
       <c r="G46" s="3">
-        <v>168350000</v>
+        <v>171382000</v>
       </c>
       <c r="H46" s="3">
-        <v>171898000</v>
+        <v>174994000</v>
       </c>
       <c r="I46" s="3">
-        <v>169320000</v>
+        <v>172369000</v>
       </c>
       <c r="J46" s="3">
-        <v>148375000</v>
+        <v>151047000</v>
       </c>
       <c r="K46" s="3">
         <v>125305000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>419777000</v>
+        <v>427337000</v>
       </c>
       <c r="E47" s="3">
-        <v>198452000</v>
+        <v>202026000</v>
       </c>
       <c r="F47" s="3">
-        <v>195091000</v>
+        <v>198604000</v>
       </c>
       <c r="G47" s="3">
-        <v>184675000</v>
+        <v>188000000</v>
       </c>
       <c r="H47" s="3">
-        <v>176975000</v>
+        <v>180162000</v>
       </c>
       <c r="I47" s="3">
-        <v>184753000</v>
+        <v>188080000</v>
       </c>
       <c r="J47" s="3">
-        <v>163709000</v>
+        <v>166657000</v>
       </c>
       <c r="K47" s="3">
         <v>129781000</v>
@@ -1886,22 +1886,22 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>100871000</v>
+        <v>102688000</v>
       </c>
       <c r="F48" s="3">
-        <v>96926800</v>
+        <v>98672300</v>
       </c>
       <c r="G48" s="3">
-        <v>96260700</v>
+        <v>97994200</v>
       </c>
       <c r="H48" s="3">
-        <v>91949500</v>
+        <v>93605400</v>
       </c>
       <c r="I48" s="3">
-        <v>87751600</v>
+        <v>89331900</v>
       </c>
       <c r="J48" s="3">
-        <v>72133900</v>
+        <v>73432900</v>
       </c>
       <c r="K48" s="3">
         <v>62277800</v>
@@ -1916,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9442400</v>
+        <v>9612500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13914500</v>
+        <v>14165100</v>
       </c>
       <c r="E52" s="3">
-        <v>12741800</v>
+        <v>12971300</v>
       </c>
       <c r="F52" s="3">
-        <v>11531000</v>
+        <v>11738600</v>
       </c>
       <c r="G52" s="3">
-        <v>10916500</v>
+        <v>11113100</v>
       </c>
       <c r="H52" s="3">
-        <v>6893800</v>
+        <v>7017900</v>
       </c>
       <c r="I52" s="3">
-        <v>8745100</v>
+        <v>8902600</v>
       </c>
       <c r="J52" s="3">
-        <v>6951500</v>
+        <v>7076700</v>
       </c>
       <c r="K52" s="3">
         <v>5179600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>509499000</v>
+        <v>518674000</v>
       </c>
       <c r="E54" s="3">
-        <v>490285000</v>
+        <v>499114000</v>
       </c>
       <c r="F54" s="3">
-        <v>474910000</v>
+        <v>483462000</v>
       </c>
       <c r="G54" s="3">
-        <v>460202000</v>
+        <v>468489000</v>
       </c>
       <c r="H54" s="3">
-        <v>447717000</v>
+        <v>455779000</v>
       </c>
       <c r="I54" s="3">
-        <v>450570000</v>
+        <v>458684000</v>
       </c>
       <c r="J54" s="3">
-        <v>391170000</v>
+        <v>398214000</v>
       </c>
       <c r="K54" s="3">
         <v>322543000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56000100</v>
+        <v>57008500</v>
       </c>
       <c r="E57" s="3">
-        <v>24978100</v>
+        <v>25427900</v>
       </c>
       <c r="F57" s="3">
-        <v>24418000</v>
+        <v>24857800</v>
       </c>
       <c r="G57" s="3">
-        <v>24226600</v>
+        <v>24662900</v>
       </c>
       <c r="H57" s="3">
-        <v>22557000</v>
+        <v>22963200</v>
       </c>
       <c r="I57" s="3">
-        <v>22756000</v>
+        <v>23165800</v>
       </c>
       <c r="J57" s="3">
-        <v>20892800</v>
+        <v>21269000</v>
       </c>
       <c r="K57" s="3">
         <v>19214200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>186599000</v>
+        <v>189959000</v>
       </c>
       <c r="E58" s="3">
-        <v>90616800</v>
+        <v>92248600</v>
       </c>
       <c r="F58" s="3">
-        <v>88180800</v>
+        <v>89768800</v>
       </c>
       <c r="G58" s="3">
-        <v>87264600</v>
+        <v>88836100</v>
       </c>
       <c r="H58" s="3">
-        <v>80439100</v>
+        <v>81887700</v>
       </c>
       <c r="I58" s="3">
-        <v>84615400</v>
+        <v>86139200</v>
       </c>
       <c r="J58" s="3">
-        <v>73447800</v>
+        <v>74770400</v>
       </c>
       <c r="K58" s="3">
         <v>61757100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67981000</v>
+        <v>69205300</v>
       </c>
       <c r="E59" s="3">
-        <v>56467400</v>
+        <v>57484300</v>
       </c>
       <c r="F59" s="3">
-        <v>55403800</v>
+        <v>56401500</v>
       </c>
       <c r="G59" s="3">
-        <v>51999800</v>
+        <v>52936200</v>
       </c>
       <c r="H59" s="3">
-        <v>49218800</v>
+        <v>50105100</v>
       </c>
       <c r="I59" s="3">
-        <v>47742000</v>
+        <v>48601800</v>
       </c>
       <c r="J59" s="3">
-        <v>44245100</v>
+        <v>45041900</v>
       </c>
       <c r="K59" s="3">
         <v>36403500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>171263000</v>
+        <v>174347000</v>
       </c>
       <c r="E60" s="3">
-        <v>172062000</v>
+        <v>175161000</v>
       </c>
       <c r="F60" s="3">
-        <v>168003000</v>
+        <v>171028000</v>
       </c>
       <c r="G60" s="3">
-        <v>163491000</v>
+        <v>166435000</v>
       </c>
       <c r="H60" s="3">
-        <v>152215000</v>
+        <v>154956000</v>
       </c>
       <c r="I60" s="3">
-        <v>155113000</v>
+        <v>157907000</v>
       </c>
       <c r="J60" s="3">
-        <v>138586000</v>
+        <v>141081000</v>
       </c>
       <c r="K60" s="3">
         <v>117375000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107939000</v>
+        <v>109883000</v>
       </c>
       <c r="E61" s="3">
-        <v>99600900</v>
+        <v>101395000</v>
       </c>
       <c r="F61" s="3">
-        <v>94460200</v>
+        <v>96161300</v>
       </c>
       <c r="G61" s="3">
-        <v>93565500</v>
+        <v>95250400</v>
       </c>
       <c r="H61" s="3">
-        <v>92248300</v>
+        <v>93909500</v>
       </c>
       <c r="I61" s="3">
-        <v>94535900</v>
+        <v>96238300</v>
       </c>
       <c r="J61" s="3">
-        <v>80682800</v>
+        <v>82135800</v>
       </c>
       <c r="K61" s="3">
         <v>66700800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45850700</v>
+        <v>46676400</v>
       </c>
       <c r="E62" s="3">
-        <v>24486000</v>
+        <v>24927000</v>
       </c>
       <c r="F62" s="3">
-        <v>24382700</v>
+        <v>24821700</v>
       </c>
       <c r="G62" s="3">
-        <v>26910300</v>
+        <v>27395000</v>
       </c>
       <c r="H62" s="3">
-        <v>32500900</v>
+        <v>33086200</v>
       </c>
       <c r="I62" s="3">
-        <v>34329600</v>
+        <v>34947800</v>
       </c>
       <c r="J62" s="3">
-        <v>28234000</v>
+        <v>28742500</v>
       </c>
       <c r="K62" s="3">
         <v>22362500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>314857000</v>
+        <v>320527000</v>
       </c>
       <c r="E66" s="3">
-        <v>302936000</v>
+        <v>308392000</v>
       </c>
       <c r="F66" s="3">
-        <v>293398000</v>
+        <v>298682000</v>
       </c>
       <c r="G66" s="3">
-        <v>290275000</v>
+        <v>295503000</v>
       </c>
       <c r="H66" s="3">
-        <v>285096000</v>
+        <v>290231000</v>
       </c>
       <c r="I66" s="3">
-        <v>292090000</v>
+        <v>297350000</v>
       </c>
       <c r="J66" s="3">
-        <v>254581000</v>
+        <v>259166000</v>
       </c>
       <c r="K66" s="3">
         <v>212118000</v>
@@ -2555,19 +2555,19 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>9518700</v>
+        <v>4845100</v>
       </c>
       <c r="E70" s="3">
-        <v>4701800</v>
+        <v>4786500</v>
       </c>
       <c r="F70" s="3">
-        <v>4644200</v>
+        <v>4727900</v>
       </c>
       <c r="G70" s="3">
-        <v>4586700</v>
+        <v>4669300</v>
       </c>
       <c r="H70" s="3">
-        <v>4529100</v>
+        <v>4610700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>209890000</v>
+        <v>213669000</v>
       </c>
       <c r="E72" s="3">
-        <v>207562000</v>
+        <v>211300000</v>
       </c>
       <c r="F72" s="3">
-        <v>183830000</v>
+        <v>187140000</v>
       </c>
       <c r="G72" s="3">
-        <v>166154000</v>
+        <v>169146000</v>
       </c>
       <c r="H72" s="3">
-        <v>158538000</v>
+        <v>161393000</v>
       </c>
       <c r="I72" s="3">
-        <v>147188000</v>
+        <v>149839000</v>
       </c>
       <c r="J72" s="3">
-        <v>133258000</v>
+        <v>135658000</v>
       </c>
       <c r="K72" s="3">
         <v>115345000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>185124000</v>
+        <v>193302000</v>
       </c>
       <c r="E76" s="3">
-        <v>182647000</v>
+        <v>185936000</v>
       </c>
       <c r="F76" s="3">
-        <v>176868000</v>
+        <v>180053000</v>
       </c>
       <c r="G76" s="3">
-        <v>165340000</v>
+        <v>168317000</v>
       </c>
       <c r="H76" s="3">
-        <v>158091000</v>
+        <v>160938000</v>
       </c>
       <c r="I76" s="3">
-        <v>158480000</v>
+        <v>161334000</v>
       </c>
       <c r="J76" s="3">
-        <v>136589000</v>
+        <v>139049000</v>
       </c>
       <c r="K76" s="3">
         <v>110426000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19436000</v>
+        <v>19786000</v>
       </c>
       <c r="E81" s="3">
-        <v>17634700</v>
+        <v>17952300</v>
       </c>
       <c r="F81" s="3">
-        <v>23427200</v>
+        <v>23849100</v>
       </c>
       <c r="G81" s="3">
-        <v>17193200</v>
+        <v>17502800</v>
       </c>
       <c r="H81" s="3">
-        <v>21774400</v>
+        <v>22166500</v>
       </c>
       <c r="I81" s="3">
-        <v>20516300</v>
+        <v>20885800</v>
       </c>
       <c r="J81" s="3">
-        <v>17210200</v>
+        <v>17520200</v>
       </c>
       <c r="K81" s="3">
         <v>8746100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15154800</v>
+        <v>15427700</v>
       </c>
       <c r="E83" s="3">
-        <v>16920000</v>
+        <v>17224700</v>
       </c>
       <c r="F83" s="3">
-        <v>16369300</v>
+        <v>16664100</v>
       </c>
       <c r="G83" s="3">
-        <v>15207400</v>
+        <v>15481200</v>
       </c>
       <c r="H83" s="3">
-        <v>15347900</v>
+        <v>15624300</v>
       </c>
       <c r="I83" s="3">
-        <v>13301700</v>
+        <v>13541200</v>
       </c>
       <c r="J83" s="3">
-        <v>11808100</v>
+        <v>12020700</v>
       </c>
       <c r="K83" s="3">
         <v>10045400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33895700</v>
+        <v>34506100</v>
       </c>
       <c r="E89" s="3">
-        <v>35556700</v>
+        <v>36197000</v>
       </c>
       <c r="F89" s="3">
-        <v>39866300</v>
+        <v>40584300</v>
       </c>
       <c r="G89" s="3">
-        <v>32230400</v>
+        <v>32810800</v>
       </c>
       <c r="H89" s="3">
-        <v>42110500</v>
+        <v>42868800</v>
       </c>
       <c r="I89" s="3">
-        <v>34793500</v>
+        <v>35420100</v>
       </c>
       <c r="J89" s="3">
-        <v>34418600</v>
+        <v>35038400</v>
       </c>
       <c r="K89" s="3">
         <v>22282500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33938000</v>
+        <v>-34549200</v>
       </c>
       <c r="E91" s="3">
-        <v>-35295100</v>
+        <v>-35930700</v>
       </c>
       <c r="F91" s="3">
-        <v>-33971800</v>
+        <v>-34583600</v>
       </c>
       <c r="G91" s="3">
-        <v>-33431200</v>
+        <v>-34033200</v>
       </c>
       <c r="H91" s="3">
-        <v>-38319000</v>
+        <v>-39009100</v>
       </c>
       <c r="I91" s="3">
-        <v>-31695400</v>
+        <v>-32266200</v>
       </c>
       <c r="J91" s="3">
-        <v>-25286800</v>
+        <v>-25742200</v>
       </c>
       <c r="K91" s="3">
         <v>-17945000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29744100</v>
+        <v>-30279800</v>
       </c>
       <c r="E94" s="3">
-        <v>-25462000</v>
+        <v>-25920500</v>
       </c>
       <c r="F94" s="3">
-        <v>-34551300</v>
+        <v>-35173500</v>
       </c>
       <c r="G94" s="3">
-        <v>-28036200</v>
+        <v>-28541100</v>
       </c>
       <c r="H94" s="3">
-        <v>-30043200</v>
+        <v>-30584200</v>
       </c>
       <c r="I94" s="3">
-        <v>-35999300</v>
+        <v>-36647600</v>
       </c>
       <c r="J94" s="3">
-        <v>-40934200</v>
+        <v>-41671300</v>
       </c>
       <c r="K94" s="3">
         <v>-27518300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5947100</v>
+        <v>-6054200</v>
       </c>
       <c r="E96" s="3">
-        <v>-6087000</v>
+        <v>-6196600</v>
       </c>
       <c r="F96" s="3">
-        <v>-5917900</v>
+        <v>-6024400</v>
       </c>
       <c r="G96" s="3">
-        <v>-6024300</v>
+        <v>-6132800</v>
       </c>
       <c r="H96" s="3">
-        <v>-6664200</v>
+        <v>-6784200</v>
       </c>
       <c r="I96" s="3">
-        <v>-5238600</v>
+        <v>-5332900</v>
       </c>
       <c r="J96" s="3">
-        <v>-3738500</v>
+        <v>-3805800</v>
       </c>
       <c r="K96" s="3">
         <v>-1727200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3749000</v>
+        <v>3816500</v>
       </c>
       <c r="E100" s="3">
-        <v>-5105500</v>
+        <v>-5197500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4239800</v>
+        <v>-4316200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3541600</v>
+        <v>-3605300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3998500</v>
+        <v>-4070500</v>
       </c>
       <c r="I100" s="3">
-        <v>2889100</v>
+        <v>2941100</v>
       </c>
       <c r="J100" s="3">
-        <v>8679900</v>
+        <v>8836200</v>
       </c>
       <c r="K100" s="3">
         <v>4338100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1239000</v>
+        <v>-1261300</v>
       </c>
       <c r="E101" s="3">
-        <v>-393100</v>
+        <v>-400200</v>
       </c>
       <c r="F101" s="3">
-        <v>-411500</v>
+        <v>-418900</v>
       </c>
       <c r="G101" s="3">
-        <v>-127300</v>
+        <v>-129600</v>
       </c>
       <c r="H101" s="3">
-        <v>-1886800</v>
+        <v>-1920800</v>
       </c>
       <c r="I101" s="3">
-        <v>614300</v>
+        <v>625400</v>
       </c>
       <c r="J101" s="3">
-        <v>883600</v>
+        <v>899600</v>
       </c>
       <c r="K101" s="3">
         <v>1253100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6661600</v>
+        <v>6781500</v>
       </c>
       <c r="E102" s="3">
-        <v>4596100</v>
+        <v>4678900</v>
       </c>
       <c r="F102" s="3">
-        <v>663800</v>
+        <v>675700</v>
       </c>
       <c r="G102" s="3">
-        <v>525300</v>
+        <v>534800</v>
       </c>
       <c r="H102" s="3">
-        <v>6182000</v>
+        <v>6293300</v>
       </c>
       <c r="I102" s="3">
-        <v>2297600</v>
+        <v>2338900</v>
       </c>
       <c r="J102" s="3">
-        <v>3047900</v>
+        <v>3102800</v>
       </c>
       <c r="K102" s="3">
         <v>355400</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>287627200</v>
+        <v>274158700</v>
       </c>
       <c r="E8" s="3">
-        <v>290468800</v>
+        <v>276867200</v>
       </c>
       <c r="F8" s="3">
-        <v>282337100</v>
+        <v>269116300</v>
       </c>
       <c r="G8" s="3">
-        <v>265209000</v>
+        <v>252790300</v>
       </c>
       <c r="H8" s="3">
-        <v>272954000</v>
+        <v>260172600</v>
       </c>
       <c r="I8" s="3">
-        <v>261723700</v>
+        <v>249468200</v>
       </c>
       <c r="J8" s="3">
-        <v>246899300</v>
+        <v>235337900</v>
       </c>
       <c r="K8" s="3">
         <v>200563500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>235659900</v>
+        <v>224624900</v>
       </c>
       <c r="E9" s="3">
-        <v>238153000</v>
+        <v>227001200</v>
       </c>
       <c r="F9" s="3">
-        <v>229574800</v>
+        <v>218824600</v>
       </c>
       <c r="G9" s="3">
-        <v>218477000</v>
+        <v>208246500</v>
       </c>
       <c r="H9" s="3">
-        <v>217238500</v>
+        <v>207066100</v>
       </c>
       <c r="I9" s="3">
-        <v>209898500</v>
+        <v>200069800</v>
       </c>
       <c r="J9" s="3">
-        <v>199898900</v>
+        <v>190538400</v>
       </c>
       <c r="K9" s="3">
         <v>169446600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51967300</v>
+        <v>49533900</v>
       </c>
       <c r="E10" s="3">
-        <v>52315800</v>
+        <v>49866100</v>
       </c>
       <c r="F10" s="3">
-        <v>52762300</v>
+        <v>50291700</v>
       </c>
       <c r="G10" s="3">
-        <v>46732100</v>
+        <v>44543800</v>
       </c>
       <c r="H10" s="3">
-        <v>55715400</v>
+        <v>53106500</v>
       </c>
       <c r="I10" s="3">
-        <v>51825200</v>
+        <v>49398500</v>
       </c>
       <c r="J10" s="3">
-        <v>47000300</v>
+        <v>44799500</v>
       </c>
       <c r="K10" s="3">
         <v>31116900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>264151300</v>
+        <v>251782000</v>
       </c>
       <c r="E17" s="3">
-        <v>266755700</v>
+        <v>254264500</v>
       </c>
       <c r="F17" s="3">
-        <v>259274400</v>
+        <v>247133600</v>
       </c>
       <c r="G17" s="3">
-        <v>246043100</v>
+        <v>234521800</v>
       </c>
       <c r="H17" s="3">
-        <v>245527300</v>
+        <v>234030200</v>
       </c>
       <c r="I17" s="3">
-        <v>235290800</v>
+        <v>224273000</v>
       </c>
       <c r="J17" s="3">
-        <v>224872100</v>
+        <v>214342200</v>
       </c>
       <c r="K17" s="3">
         <v>188556600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23476000</v>
+        <v>22376700</v>
       </c>
       <c r="E18" s="3">
-        <v>23713100</v>
+        <v>22602700</v>
       </c>
       <c r="F18" s="3">
-        <v>23062700</v>
+        <v>21982700</v>
       </c>
       <c r="G18" s="3">
-        <v>19165900</v>
+        <v>18268400</v>
       </c>
       <c r="H18" s="3">
-        <v>27426700</v>
+        <v>26142400</v>
       </c>
       <c r="I18" s="3">
-        <v>26432900</v>
+        <v>25195200</v>
       </c>
       <c r="J18" s="3">
-        <v>22027200</v>
+        <v>20995700</v>
       </c>
       <c r="K18" s="3">
         <v>12006900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1383400</v>
+        <v>1318600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1480000</v>
+        <v>-1410700</v>
       </c>
       <c r="F20" s="3">
-        <v>2384800</v>
+        <v>2273100</v>
       </c>
       <c r="G20" s="3">
-        <v>2198800</v>
+        <v>2095900</v>
       </c>
       <c r="H20" s="3">
-        <v>1583900</v>
+        <v>1509700</v>
       </c>
       <c r="I20" s="3">
-        <v>1586900</v>
+        <v>1512600</v>
       </c>
       <c r="J20" s="3">
-        <v>1620200</v>
+        <v>1544400</v>
       </c>
       <c r="K20" s="3">
         <v>961100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40255000</v>
+        <v>38464800</v>
       </c>
       <c r="E21" s="3">
-        <v>39422000</v>
+        <v>37681900</v>
       </c>
       <c r="F21" s="3">
-        <v>42076800</v>
+        <v>40208900</v>
       </c>
       <c r="G21" s="3">
-        <v>36813800</v>
+        <v>35185100</v>
       </c>
       <c r="H21" s="3">
-        <v>44602300</v>
+        <v>42609800</v>
       </c>
       <c r="I21" s="3">
-        <v>41532900</v>
+        <v>39671300</v>
       </c>
       <c r="J21" s="3">
-        <v>35643100</v>
+        <v>34048000</v>
       </c>
       <c r="K21" s="3">
         <v>23035500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>309600</v>
+        <v>295100</v>
       </c>
       <c r="E22" s="3">
-        <v>269800</v>
+        <v>257200</v>
       </c>
       <c r="F22" s="3">
-        <v>265100</v>
+        <v>252700</v>
       </c>
       <c r="G22" s="3">
-        <v>282100</v>
+        <v>268900</v>
       </c>
       <c r="H22" s="3">
-        <v>340200</v>
+        <v>324300</v>
       </c>
       <c r="I22" s="3">
-        <v>219800</v>
+        <v>209500</v>
       </c>
       <c r="J22" s="3">
-        <v>188600</v>
+        <v>179800</v>
       </c>
       <c r="K22" s="3">
         <v>208800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24549800</v>
+        <v>23400200</v>
       </c>
       <c r="E23" s="3">
-        <v>21963300</v>
+        <v>20934900</v>
       </c>
       <c r="F23" s="3">
-        <v>25182300</v>
+        <v>24003100</v>
       </c>
       <c r="G23" s="3">
-        <v>21082700</v>
+        <v>20095400</v>
       </c>
       <c r="H23" s="3">
-        <v>28670300</v>
+        <v>27327800</v>
       </c>
       <c r="I23" s="3">
-        <v>27800100</v>
+        <v>26498300</v>
       </c>
       <c r="J23" s="3">
-        <v>23458800</v>
+        <v>22360300</v>
       </c>
       <c r="K23" s="3">
         <v>12759200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6567800</v>
+        <v>6260200</v>
       </c>
       <c r="E24" s="3">
-        <v>6342100</v>
+        <v>6045100</v>
       </c>
       <c r="F24" s="3">
-        <v>4847300</v>
+        <v>4620400</v>
       </c>
       <c r="G24" s="3">
-        <v>6043700</v>
+        <v>5760700</v>
       </c>
       <c r="H24" s="3">
-        <v>8440200</v>
+        <v>8044900</v>
       </c>
       <c r="I24" s="3">
-        <v>8586200</v>
+        <v>8184200</v>
       </c>
       <c r="J24" s="3">
-        <v>7378600</v>
+        <v>7033100</v>
       </c>
       <c r="K24" s="3">
         <v>5014800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17982000</v>
+        <v>17140000</v>
       </c>
       <c r="E26" s="3">
-        <v>15621300</v>
+        <v>14889800</v>
       </c>
       <c r="F26" s="3">
-        <v>20335000</v>
+        <v>19382800</v>
       </c>
       <c r="G26" s="3">
-        <v>15038900</v>
+        <v>14334700</v>
       </c>
       <c r="H26" s="3">
-        <v>20230100</v>
+        <v>19282800</v>
       </c>
       <c r="I26" s="3">
-        <v>19213800</v>
+        <v>18314100</v>
       </c>
       <c r="J26" s="3">
-        <v>16080100</v>
+        <v>15327200</v>
       </c>
       <c r="K26" s="3">
         <v>7744300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19786000</v>
+        <v>18859500</v>
       </c>
       <c r="E27" s="3">
-        <v>17952300</v>
+        <v>17111700</v>
       </c>
       <c r="F27" s="3">
-        <v>23849100</v>
+        <v>22732300</v>
       </c>
       <c r="G27" s="3">
-        <v>17502800</v>
+        <v>16683200</v>
       </c>
       <c r="H27" s="3">
-        <v>22166500</v>
+        <v>21128500</v>
       </c>
       <c r="I27" s="3">
-        <v>20885800</v>
+        <v>19907800</v>
       </c>
       <c r="J27" s="3">
-        <v>17520200</v>
+        <v>16699800</v>
       </c>
       <c r="K27" s="3">
         <v>8746100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1383400</v>
+        <v>-1318600</v>
       </c>
       <c r="E32" s="3">
-        <v>1480000</v>
+        <v>1410700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2384800</v>
+        <v>-2273100</v>
       </c>
       <c r="G32" s="3">
-        <v>-2198800</v>
+        <v>-2095900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1583900</v>
+        <v>-1509700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1586900</v>
+        <v>-1512600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1620200</v>
+        <v>-1544400</v>
       </c>
       <c r="K32" s="3">
         <v>-961100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19786000</v>
+        <v>18859500</v>
       </c>
       <c r="E33" s="3">
-        <v>17952300</v>
+        <v>17111700</v>
       </c>
       <c r="F33" s="3">
-        <v>23849100</v>
+        <v>22732300</v>
       </c>
       <c r="G33" s="3">
-        <v>17502800</v>
+        <v>16683200</v>
       </c>
       <c r="H33" s="3">
-        <v>22166500</v>
+        <v>21128500</v>
       </c>
       <c r="I33" s="3">
-        <v>20885800</v>
+        <v>19907800</v>
       </c>
       <c r="J33" s="3">
-        <v>17520200</v>
+        <v>16699800</v>
       </c>
       <c r="K33" s="3">
         <v>8746100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19786000</v>
+        <v>18859500</v>
       </c>
       <c r="E35" s="3">
-        <v>17952300</v>
+        <v>17111700</v>
       </c>
       <c r="F35" s="3">
-        <v>23849100</v>
+        <v>22732300</v>
       </c>
       <c r="G35" s="3">
-        <v>17502800</v>
+        <v>16683200</v>
       </c>
       <c r="H35" s="3">
-        <v>22166500</v>
+        <v>21128500</v>
       </c>
       <c r="I35" s="3">
-        <v>20885800</v>
+        <v>19907800</v>
       </c>
       <c r="J35" s="3">
-        <v>17520200</v>
+        <v>16699800</v>
       </c>
       <c r="K35" s="3">
         <v>8746100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39386100</v>
+        <v>37541800</v>
       </c>
       <c r="E41" s="3">
-        <v>34352900</v>
+        <v>32744300</v>
       </c>
       <c r="F41" s="3">
-        <v>29332300</v>
+        <v>27958800</v>
       </c>
       <c r="G41" s="3">
-        <v>28782700</v>
+        <v>27434900</v>
       </c>
       <c r="H41" s="3">
-        <v>28247900</v>
+        <v>26925200</v>
       </c>
       <c r="I41" s="3">
-        <v>21954600</v>
+        <v>20926500</v>
       </c>
       <c r="J41" s="3">
-        <v>19615600</v>
+        <v>18697100</v>
       </c>
       <c r="K41" s="3">
         <v>15619300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35081800</v>
+        <v>33439100</v>
       </c>
       <c r="E42" s="3">
-        <v>21656300</v>
+        <v>20642200</v>
       </c>
       <c r="F42" s="3">
-        <v>25654900</v>
+        <v>24453600</v>
       </c>
       <c r="G42" s="3">
-        <v>27909900</v>
+        <v>26602900</v>
       </c>
       <c r="H42" s="3">
-        <v>24442300</v>
+        <v>23297800</v>
       </c>
       <c r="I42" s="3">
-        <v>28170900</v>
+        <v>26851800</v>
       </c>
       <c r="J42" s="3">
-        <v>21402300</v>
+        <v>20400100</v>
       </c>
       <c r="K42" s="3">
         <v>14111000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180490000</v>
+        <v>172039000</v>
       </c>
       <c r="E43" s="3">
-        <v>92147000</v>
+        <v>87832100</v>
       </c>
       <c r="F43" s="3">
-        <v>87039700</v>
+        <v>82964000</v>
       </c>
       <c r="G43" s="3">
-        <v>84082300</v>
+        <v>80145000</v>
       </c>
       <c r="H43" s="3">
-        <v>80380300</v>
+        <v>76616400</v>
       </c>
       <c r="I43" s="3">
-        <v>84560600</v>
+        <v>80600900</v>
       </c>
       <c r="J43" s="3">
-        <v>77037100</v>
+        <v>73429700</v>
       </c>
       <c r="K43" s="3">
         <v>68375100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>47750300</v>
+        <v>45514300</v>
       </c>
       <c r="E44" s="3">
-        <v>25528000</v>
+        <v>24332600</v>
       </c>
       <c r="F44" s="3">
-        <v>24407400</v>
+        <v>23264500</v>
       </c>
       <c r="G44" s="3">
-        <v>22954600</v>
+        <v>21879700</v>
       </c>
       <c r="H44" s="3">
-        <v>19811100</v>
+        <v>18883400</v>
       </c>
       <c r="I44" s="3">
-        <v>20542500</v>
+        <v>19580600</v>
       </c>
       <c r="J44" s="3">
-        <v>18208100</v>
+        <v>17355500</v>
       </c>
       <c r="K44" s="3">
         <v>15596500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18413000</v>
+        <v>17550800</v>
       </c>
       <c r="E45" s="3">
-        <v>7745300</v>
+        <v>7382600</v>
       </c>
       <c r="F45" s="3">
-        <v>8012700</v>
+        <v>7637500</v>
       </c>
       <c r="G45" s="3">
-        <v>7652400</v>
+        <v>7294100</v>
       </c>
       <c r="H45" s="3">
-        <v>22112100</v>
+        <v>21076700</v>
       </c>
       <c r="I45" s="3">
-        <v>17140100</v>
+        <v>16337500</v>
       </c>
       <c r="J45" s="3">
-        <v>14784000</v>
+        <v>14091700</v>
       </c>
       <c r="K45" s="3">
         <v>11602800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>182238000</v>
+        <v>173704000</v>
       </c>
       <c r="E46" s="3">
-        <v>181430000</v>
+        <v>172934000</v>
       </c>
       <c r="F46" s="3">
-        <v>174447000</v>
+        <v>166278000</v>
       </c>
       <c r="G46" s="3">
-        <v>171382000</v>
+        <v>163357000</v>
       </c>
       <c r="H46" s="3">
-        <v>174994000</v>
+        <v>166800000</v>
       </c>
       <c r="I46" s="3">
-        <v>172369000</v>
+        <v>164297000</v>
       </c>
       <c r="J46" s="3">
-        <v>151047000</v>
+        <v>143974000</v>
       </c>
       <c r="K46" s="3">
         <v>125305000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>427337000</v>
+        <v>407326000</v>
       </c>
       <c r="E47" s="3">
-        <v>202026000</v>
+        <v>192566000</v>
       </c>
       <c r="F47" s="3">
-        <v>198604000</v>
+        <v>189304000</v>
       </c>
       <c r="G47" s="3">
-        <v>188000000</v>
+        <v>179197000</v>
       </c>
       <c r="H47" s="3">
-        <v>180162000</v>
+        <v>171726000</v>
       </c>
       <c r="I47" s="3">
-        <v>188080000</v>
+        <v>179273000</v>
       </c>
       <c r="J47" s="3">
-        <v>166657000</v>
+        <v>158854000</v>
       </c>
       <c r="K47" s="3">
         <v>129781000</v>
@@ -1886,22 +1886,22 @@
         <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>102688000</v>
+        <v>97879100</v>
       </c>
       <c r="F48" s="3">
-        <v>98672300</v>
+        <v>94051900</v>
       </c>
       <c r="G48" s="3">
-        <v>97994200</v>
+        <v>93405500</v>
       </c>
       <c r="H48" s="3">
-        <v>93605400</v>
+        <v>89222200</v>
       </c>
       <c r="I48" s="3">
-        <v>89331900</v>
+        <v>85148800</v>
       </c>
       <c r="J48" s="3">
-        <v>73432900</v>
+        <v>69994300</v>
       </c>
       <c r="K48" s="3">
         <v>62277800</v>
@@ -1916,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9612500</v>
+        <v>9162400</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14165100</v>
+        <v>13501800</v>
       </c>
       <c r="E52" s="3">
-        <v>12971300</v>
+        <v>12363900</v>
       </c>
       <c r="F52" s="3">
-        <v>11738600</v>
+        <v>11188900</v>
       </c>
       <c r="G52" s="3">
-        <v>11113100</v>
+        <v>10592700</v>
       </c>
       <c r="H52" s="3">
-        <v>7017900</v>
+        <v>6689300</v>
       </c>
       <c r="I52" s="3">
-        <v>8902600</v>
+        <v>8485700</v>
       </c>
       <c r="J52" s="3">
-        <v>7076700</v>
+        <v>6745300</v>
       </c>
       <c r="K52" s="3">
         <v>5179600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>518674000</v>
+        <v>494387000</v>
       </c>
       <c r="E54" s="3">
-        <v>499114000</v>
+        <v>475743000</v>
       </c>
       <c r="F54" s="3">
-        <v>483462000</v>
+        <v>460824000</v>
       </c>
       <c r="G54" s="3">
-        <v>468489000</v>
+        <v>446552000</v>
       </c>
       <c r="H54" s="3">
-        <v>455779000</v>
+        <v>434437000</v>
       </c>
       <c r="I54" s="3">
-        <v>458684000</v>
+        <v>437205000</v>
       </c>
       <c r="J54" s="3">
-        <v>398214000</v>
+        <v>379567000</v>
       </c>
       <c r="K54" s="3">
         <v>322543000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57008500</v>
+        <v>54339000</v>
       </c>
       <c r="E57" s="3">
-        <v>25427900</v>
+        <v>24237200</v>
       </c>
       <c r="F57" s="3">
-        <v>24857800</v>
+        <v>23693800</v>
       </c>
       <c r="G57" s="3">
-        <v>24662900</v>
+        <v>23508100</v>
       </c>
       <c r="H57" s="3">
-        <v>22963200</v>
+        <v>21888000</v>
       </c>
       <c r="I57" s="3">
-        <v>23165800</v>
+        <v>22081000</v>
       </c>
       <c r="J57" s="3">
-        <v>21269000</v>
+        <v>20273100</v>
       </c>
       <c r="K57" s="3">
         <v>19214200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189959000</v>
+        <v>181064000</v>
       </c>
       <c r="E58" s="3">
-        <v>92248600</v>
+        <v>87929000</v>
       </c>
       <c r="F58" s="3">
-        <v>89768800</v>
+        <v>85565300</v>
       </c>
       <c r="G58" s="3">
-        <v>88836100</v>
+        <v>84676200</v>
       </c>
       <c r="H58" s="3">
-        <v>81887700</v>
+        <v>78053200</v>
       </c>
       <c r="I58" s="3">
-        <v>86139200</v>
+        <v>82105600</v>
       </c>
       <c r="J58" s="3">
-        <v>74770400</v>
+        <v>71269200</v>
       </c>
       <c r="K58" s="3">
         <v>61757100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69205300</v>
+        <v>65964700</v>
       </c>
       <c r="E59" s="3">
-        <v>57484300</v>
+        <v>54792600</v>
       </c>
       <c r="F59" s="3">
-        <v>56401500</v>
+        <v>53760400</v>
       </c>
       <c r="G59" s="3">
-        <v>52936200</v>
+        <v>50457400</v>
       </c>
       <c r="H59" s="3">
-        <v>50105100</v>
+        <v>47758900</v>
       </c>
       <c r="I59" s="3">
-        <v>48601800</v>
+        <v>46325900</v>
       </c>
       <c r="J59" s="3">
-        <v>45041900</v>
+        <v>42932800</v>
       </c>
       <c r="K59" s="3">
         <v>36403500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174347000</v>
+        <v>166183000</v>
       </c>
       <c r="E60" s="3">
-        <v>175161000</v>
+        <v>166959000</v>
       </c>
       <c r="F60" s="3">
-        <v>171028000</v>
+        <v>163020000</v>
       </c>
       <c r="G60" s="3">
-        <v>166435000</v>
+        <v>158642000</v>
       </c>
       <c r="H60" s="3">
-        <v>154956000</v>
+        <v>147700000</v>
       </c>
       <c r="I60" s="3">
-        <v>157907000</v>
+        <v>150513000</v>
       </c>
       <c r="J60" s="3">
-        <v>141081000</v>
+        <v>134475000</v>
       </c>
       <c r="K60" s="3">
         <v>117375000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109883000</v>
+        <v>104737000</v>
       </c>
       <c r="E61" s="3">
-        <v>101395000</v>
+        <v>96646700</v>
       </c>
       <c r="F61" s="3">
-        <v>96161300</v>
+        <v>91658400</v>
       </c>
       <c r="G61" s="3">
-        <v>95250400</v>
+        <v>90790200</v>
       </c>
       <c r="H61" s="3">
-        <v>93909500</v>
+        <v>89512100</v>
       </c>
       <c r="I61" s="3">
-        <v>96238300</v>
+        <v>91731900</v>
       </c>
       <c r="J61" s="3">
-        <v>82135800</v>
+        <v>78289700</v>
       </c>
       <c r="K61" s="3">
         <v>66700800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46676400</v>
+        <v>44490700</v>
       </c>
       <c r="E62" s="3">
-        <v>24927000</v>
+        <v>23759700</v>
       </c>
       <c r="F62" s="3">
-        <v>24821700</v>
+        <v>23659400</v>
       </c>
       <c r="G62" s="3">
-        <v>27395000</v>
+        <v>26112200</v>
       </c>
       <c r="H62" s="3">
-        <v>33086200</v>
+        <v>31536900</v>
       </c>
       <c r="I62" s="3">
-        <v>34947800</v>
+        <v>33311300</v>
       </c>
       <c r="J62" s="3">
-        <v>28742500</v>
+        <v>27396600</v>
       </c>
       <c r="K62" s="3">
         <v>22362500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>320527000</v>
+        <v>305518000</v>
       </c>
       <c r="E66" s="3">
-        <v>308392000</v>
+        <v>293951000</v>
       </c>
       <c r="F66" s="3">
-        <v>298682000</v>
+        <v>284696000</v>
       </c>
       <c r="G66" s="3">
-        <v>295503000</v>
+        <v>281665000</v>
       </c>
       <c r="H66" s="3">
-        <v>290231000</v>
+        <v>276640000</v>
       </c>
       <c r="I66" s="3">
-        <v>297350000</v>
+        <v>283426000</v>
       </c>
       <c r="J66" s="3">
-        <v>259166000</v>
+        <v>247030000</v>
       </c>
       <c r="K66" s="3">
         <v>212118000</v>
@@ -2555,19 +2555,19 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4845100</v>
+        <v>4618200</v>
       </c>
       <c r="E70" s="3">
-        <v>4786500</v>
+        <v>4562300</v>
       </c>
       <c r="F70" s="3">
-        <v>4727900</v>
+        <v>4506500</v>
       </c>
       <c r="G70" s="3">
-        <v>4669300</v>
+        <v>4450600</v>
       </c>
       <c r="H70" s="3">
-        <v>4610700</v>
+        <v>4394800</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>213669000</v>
+        <v>203664000</v>
       </c>
       <c r="E72" s="3">
-        <v>211300000</v>
+        <v>201406000</v>
       </c>
       <c r="F72" s="3">
-        <v>187140000</v>
+        <v>178377000</v>
       </c>
       <c r="G72" s="3">
-        <v>169146000</v>
+        <v>161226000</v>
       </c>
       <c r="H72" s="3">
-        <v>161393000</v>
+        <v>153835000</v>
       </c>
       <c r="I72" s="3">
-        <v>149839000</v>
+        <v>142822000</v>
       </c>
       <c r="J72" s="3">
-        <v>135658000</v>
+        <v>129305000</v>
       </c>
       <c r="K72" s="3">
         <v>115345000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>193302000</v>
+        <v>184251000</v>
       </c>
       <c r="E76" s="3">
-        <v>185936000</v>
+        <v>177229000</v>
       </c>
       <c r="F76" s="3">
-        <v>180053000</v>
+        <v>171622000</v>
       </c>
       <c r="G76" s="3">
-        <v>168317000</v>
+        <v>160436000</v>
       </c>
       <c r="H76" s="3">
-        <v>160938000</v>
+        <v>153402000</v>
       </c>
       <c r="I76" s="3">
-        <v>161334000</v>
+        <v>153779000</v>
       </c>
       <c r="J76" s="3">
-        <v>139049000</v>
+        <v>132537000</v>
       </c>
       <c r="K76" s="3">
         <v>110426000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19786000</v>
+        <v>18859500</v>
       </c>
       <c r="E81" s="3">
-        <v>17952300</v>
+        <v>17111700</v>
       </c>
       <c r="F81" s="3">
-        <v>23849100</v>
+        <v>22732300</v>
       </c>
       <c r="G81" s="3">
-        <v>17502800</v>
+        <v>16683200</v>
       </c>
       <c r="H81" s="3">
-        <v>22166500</v>
+        <v>21128500</v>
       </c>
       <c r="I81" s="3">
-        <v>20885800</v>
+        <v>19907800</v>
       </c>
       <c r="J81" s="3">
-        <v>17520200</v>
+        <v>16699800</v>
       </c>
       <c r="K81" s="3">
         <v>8746100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15427700</v>
+        <v>14705300</v>
       </c>
       <c r="E83" s="3">
-        <v>17224700</v>
+        <v>16418200</v>
       </c>
       <c r="F83" s="3">
-        <v>16664100</v>
+        <v>15883700</v>
       </c>
       <c r="G83" s="3">
-        <v>15481200</v>
+        <v>14756300</v>
       </c>
       <c r="H83" s="3">
-        <v>15624300</v>
+        <v>14892700</v>
       </c>
       <c r="I83" s="3">
-        <v>13541200</v>
+        <v>12907100</v>
       </c>
       <c r="J83" s="3">
-        <v>12020700</v>
+        <v>11457800</v>
       </c>
       <c r="K83" s="3">
         <v>10045400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34506100</v>
+        <v>32890300</v>
       </c>
       <c r="E89" s="3">
-        <v>36197000</v>
+        <v>34502000</v>
       </c>
       <c r="F89" s="3">
-        <v>40584300</v>
+        <v>38683900</v>
       </c>
       <c r="G89" s="3">
-        <v>32810800</v>
+        <v>31274400</v>
       </c>
       <c r="H89" s="3">
-        <v>42868800</v>
+        <v>40861500</v>
       </c>
       <c r="I89" s="3">
-        <v>35420100</v>
+        <v>33761500</v>
       </c>
       <c r="J89" s="3">
-        <v>35038400</v>
+        <v>33397700</v>
       </c>
       <c r="K89" s="3">
         <v>22282500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34549200</v>
+        <v>-32931400</v>
       </c>
       <c r="E91" s="3">
-        <v>-35930700</v>
+        <v>-34248200</v>
       </c>
       <c r="F91" s="3">
-        <v>-34583600</v>
+        <v>-32964200</v>
       </c>
       <c r="G91" s="3">
-        <v>-34033200</v>
+        <v>-32439600</v>
       </c>
       <c r="H91" s="3">
-        <v>-39009100</v>
+        <v>-37182400</v>
       </c>
       <c r="I91" s="3">
-        <v>-32266200</v>
+        <v>-30755300</v>
       </c>
       <c r="J91" s="3">
-        <v>-25742200</v>
+        <v>-24536800</v>
       </c>
       <c r="K91" s="3">
         <v>-17945000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30279800</v>
+        <v>-28861900</v>
       </c>
       <c r="E94" s="3">
-        <v>-25920500</v>
+        <v>-24706700</v>
       </c>
       <c r="F94" s="3">
-        <v>-35173500</v>
+        <v>-33526400</v>
       </c>
       <c r="G94" s="3">
-        <v>-28541100</v>
+        <v>-27204600</v>
       </c>
       <c r="H94" s="3">
-        <v>-30584200</v>
+        <v>-29152100</v>
       </c>
       <c r="I94" s="3">
-        <v>-36647600</v>
+        <v>-34931600</v>
       </c>
       <c r="J94" s="3">
-        <v>-41671300</v>
+        <v>-39720000</v>
       </c>
       <c r="K94" s="3">
         <v>-27518300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6054200</v>
+        <v>-5770700</v>
       </c>
       <c r="E96" s="3">
-        <v>-6196600</v>
+        <v>-5906400</v>
       </c>
       <c r="F96" s="3">
-        <v>-6024400</v>
+        <v>-5742300</v>
       </c>
       <c r="G96" s="3">
-        <v>-6132800</v>
+        <v>-5845700</v>
       </c>
       <c r="H96" s="3">
-        <v>-6784200</v>
+        <v>-6466500</v>
       </c>
       <c r="I96" s="3">
-        <v>-5332900</v>
+        <v>-5083200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3805800</v>
+        <v>-3627600</v>
       </c>
       <c r="K96" s="3">
         <v>-1727200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3816500</v>
+        <v>3637800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5197500</v>
+        <v>-4954100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4316200</v>
+        <v>-4114100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3605300</v>
+        <v>-3436500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4070500</v>
+        <v>-3879900</v>
       </c>
       <c r="I100" s="3">
-        <v>2941100</v>
+        <v>2803400</v>
       </c>
       <c r="J100" s="3">
-        <v>8836200</v>
+        <v>8422400</v>
       </c>
       <c r="K100" s="3">
         <v>4338100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1261300</v>
+        <v>-1202200</v>
       </c>
       <c r="E101" s="3">
-        <v>-400200</v>
+        <v>-381400</v>
       </c>
       <c r="F101" s="3">
-        <v>-418900</v>
+        <v>-399300</v>
       </c>
       <c r="G101" s="3">
-        <v>-129600</v>
+        <v>-123500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1920800</v>
+        <v>-1830800</v>
       </c>
       <c r="I101" s="3">
-        <v>625400</v>
+        <v>596100</v>
       </c>
       <c r="J101" s="3">
-        <v>899600</v>
+        <v>857400</v>
       </c>
       <c r="K101" s="3">
         <v>1253100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6781500</v>
+        <v>6464000</v>
       </c>
       <c r="E102" s="3">
-        <v>4678900</v>
+        <v>4459800</v>
       </c>
       <c r="F102" s="3">
-        <v>675700</v>
+        <v>644100</v>
       </c>
       <c r="G102" s="3">
-        <v>534800</v>
+        <v>509700</v>
       </c>
       <c r="H102" s="3">
-        <v>6293300</v>
+        <v>5998600</v>
       </c>
       <c r="I102" s="3">
-        <v>2338900</v>
+        <v>2229400</v>
       </c>
       <c r="J102" s="3">
-        <v>3102800</v>
+        <v>2957500</v>
       </c>
       <c r="K102" s="3">
         <v>355400</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>274158700</v>
+        <v>250102100</v>
       </c>
       <c r="E8" s="3">
-        <v>276867200</v>
+        <v>274473600</v>
       </c>
       <c r="F8" s="3">
-        <v>269116300</v>
+        <v>277774000</v>
       </c>
       <c r="G8" s="3">
-        <v>252790300</v>
+        <v>269997700</v>
       </c>
       <c r="H8" s="3">
-        <v>260172600</v>
+        <v>253618200</v>
       </c>
       <c r="I8" s="3">
-        <v>249468200</v>
+        <v>261024700</v>
       </c>
       <c r="J8" s="3">
+        <v>250285200</v>
+      </c>
+      <c r="K8" s="3">
         <v>235337900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200563500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>167996200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>224624900</v>
+        <v>205692600</v>
       </c>
       <c r="E9" s="3">
-        <v>227001200</v>
+        <v>437702200</v>
       </c>
       <c r="F9" s="3">
-        <v>218824600</v>
+        <v>227744600</v>
       </c>
       <c r="G9" s="3">
-        <v>208246500</v>
+        <v>219541300</v>
       </c>
       <c r="H9" s="3">
-        <v>207066100</v>
+        <v>208928500</v>
       </c>
       <c r="I9" s="3">
-        <v>200069800</v>
+        <v>207744200</v>
       </c>
       <c r="J9" s="3">
+        <v>200725000</v>
+      </c>
+      <c r="K9" s="3">
         <v>190538400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169446600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148152600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49533900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>49866100</v>
+        <v>44409500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>50291700</v>
+        <v>50029400</v>
       </c>
       <c r="G10" s="3">
-        <v>44543800</v>
+        <v>50456400</v>
       </c>
       <c r="H10" s="3">
-        <v>53106500</v>
+        <v>44689700</v>
       </c>
       <c r="I10" s="3">
-        <v>49398500</v>
+        <v>53280400</v>
       </c>
       <c r="J10" s="3">
+        <v>49560200</v>
+      </c>
+      <c r="K10" s="3">
         <v>44799500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31116900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19843600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>251782000</v>
+        <v>229904800</v>
       </c>
       <c r="E17" s="3">
-        <v>254264500</v>
+        <v>252424600</v>
       </c>
       <c r="F17" s="3">
-        <v>247133600</v>
+        <v>255097300</v>
       </c>
       <c r="G17" s="3">
-        <v>234521800</v>
+        <v>247943000</v>
       </c>
       <c r="H17" s="3">
-        <v>234030200</v>
+        <v>235289900</v>
       </c>
       <c r="I17" s="3">
-        <v>224273000</v>
+        <v>234796700</v>
       </c>
       <c r="J17" s="3">
+        <v>225007600</v>
+      </c>
+      <c r="K17" s="3">
         <v>214342200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188556600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>164781400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22376700</v>
+        <v>20197300</v>
       </c>
       <c r="E18" s="3">
-        <v>22602700</v>
+        <v>22048900</v>
       </c>
       <c r="F18" s="3">
-        <v>21982700</v>
+        <v>22676700</v>
       </c>
       <c r="G18" s="3">
-        <v>18268400</v>
+        <v>22054700</v>
       </c>
       <c r="H18" s="3">
-        <v>26142400</v>
+        <v>18328300</v>
       </c>
       <c r="I18" s="3">
-        <v>25195200</v>
+        <v>26228000</v>
       </c>
       <c r="J18" s="3">
+        <v>25277700</v>
+      </c>
+      <c r="K18" s="3">
         <v>20995700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12006900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3214900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1318600</v>
+        <v>6751000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1410700</v>
+        <v>3914300</v>
       </c>
       <c r="F20" s="3">
-        <v>2273100</v>
+        <v>-1415300</v>
       </c>
       <c r="G20" s="3">
-        <v>2095900</v>
+        <v>2280500</v>
       </c>
       <c r="H20" s="3">
-        <v>1509700</v>
+        <v>2102700</v>
       </c>
       <c r="I20" s="3">
-        <v>1512600</v>
+        <v>1514600</v>
       </c>
       <c r="J20" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1544400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>961100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>905500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38464800</v>
+        <v>42075800</v>
       </c>
       <c r="E21" s="3">
-        <v>37681900</v>
+        <v>40640400</v>
       </c>
       <c r="F21" s="3">
-        <v>40208900</v>
+        <v>37751300</v>
       </c>
       <c r="G21" s="3">
-        <v>35185100</v>
+        <v>40288400</v>
       </c>
       <c r="H21" s="3">
-        <v>42609800</v>
+        <v>35251700</v>
       </c>
       <c r="I21" s="3">
-        <v>39671300</v>
+        <v>42700300</v>
       </c>
       <c r="J21" s="3">
+        <v>39758800</v>
+      </c>
+      <c r="K21" s="3">
         <v>34048000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23035500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13784200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>295100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>257200</v>
+        <v>296100</v>
       </c>
       <c r="F22" s="3">
-        <v>252700</v>
+        <v>258000</v>
       </c>
       <c r="G22" s="3">
-        <v>268900</v>
+        <v>253500</v>
       </c>
       <c r="H22" s="3">
-        <v>324300</v>
+        <v>269800</v>
       </c>
       <c r="I22" s="3">
-        <v>209500</v>
+        <v>325400</v>
       </c>
       <c r="J22" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K22" s="3">
         <v>179800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>208800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>207200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23400200</v>
+        <v>26948300</v>
       </c>
       <c r="E23" s="3">
-        <v>20934900</v>
+        <v>25667100</v>
       </c>
       <c r="F23" s="3">
-        <v>24003100</v>
+        <v>21003400</v>
       </c>
       <c r="G23" s="3">
-        <v>20095400</v>
+        <v>24081700</v>
       </c>
       <c r="H23" s="3">
-        <v>27327800</v>
+        <v>20161300</v>
       </c>
       <c r="I23" s="3">
-        <v>26498300</v>
+        <v>27417300</v>
       </c>
       <c r="J23" s="3">
+        <v>26585100</v>
+      </c>
+      <c r="K23" s="3">
         <v>22360300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12759200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3913200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6260200</v>
+        <v>5973300</v>
       </c>
       <c r="E24" s="3">
-        <v>6045100</v>
+        <v>6265900</v>
       </c>
       <c r="F24" s="3">
-        <v>4620400</v>
+        <v>6064900</v>
       </c>
       <c r="G24" s="3">
-        <v>5760700</v>
+        <v>4635500</v>
       </c>
       <c r="H24" s="3">
-        <v>8044900</v>
+        <v>5779600</v>
       </c>
       <c r="I24" s="3">
-        <v>8184200</v>
+        <v>8071300</v>
       </c>
       <c r="J24" s="3">
+        <v>8211000</v>
+      </c>
+      <c r="K24" s="3">
         <v>7033100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5014800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2370900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17140000</v>
+        <v>20975100</v>
       </c>
       <c r="E26" s="3">
-        <v>14889800</v>
+        <v>19401200</v>
       </c>
       <c r="F26" s="3">
-        <v>19382800</v>
+        <v>14938500</v>
       </c>
       <c r="G26" s="3">
-        <v>14334700</v>
+        <v>19446300</v>
       </c>
       <c r="H26" s="3">
-        <v>19282800</v>
+        <v>14381700</v>
       </c>
       <c r="I26" s="3">
-        <v>18314100</v>
+        <v>19346000</v>
       </c>
       <c r="J26" s="3">
+        <v>18374100</v>
+      </c>
+      <c r="K26" s="3">
         <v>15327200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7744300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1542200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18859500</v>
+        <v>20633900</v>
       </c>
       <c r="E27" s="3">
-        <v>17111700</v>
+        <v>20437300</v>
       </c>
       <c r="F27" s="3">
-        <v>22732300</v>
+        <v>17167700</v>
       </c>
       <c r="G27" s="3">
-        <v>16683200</v>
+        <v>22806700</v>
       </c>
       <c r="H27" s="3">
-        <v>21128500</v>
+        <v>16737900</v>
       </c>
       <c r="I27" s="3">
-        <v>19907800</v>
+        <v>21197700</v>
       </c>
       <c r="J27" s="3">
+        <v>19973000</v>
+      </c>
+      <c r="K27" s="3">
         <v>16699800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8746100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2563400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1318600</v>
+        <v>-6751000</v>
       </c>
       <c r="E32" s="3">
-        <v>1410700</v>
+        <v>-3914300</v>
       </c>
       <c r="F32" s="3">
-        <v>-2273100</v>
+        <v>1415300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2095900</v>
+        <v>-2280500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1509700</v>
+        <v>-2102700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1512600</v>
+        <v>-1514600</v>
       </c>
       <c r="J32" s="3">
+        <v>-1517600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1544400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-961100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-905500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18859500</v>
+        <v>20633900</v>
       </c>
       <c r="E33" s="3">
-        <v>17111700</v>
+        <v>20437300</v>
       </c>
       <c r="F33" s="3">
-        <v>22732300</v>
+        <v>17167700</v>
       </c>
       <c r="G33" s="3">
-        <v>16683200</v>
+        <v>22806700</v>
       </c>
       <c r="H33" s="3">
-        <v>21128500</v>
+        <v>16737900</v>
       </c>
       <c r="I33" s="3">
-        <v>19907800</v>
+        <v>21197700</v>
       </c>
       <c r="J33" s="3">
+        <v>19973000</v>
+      </c>
+      <c r="K33" s="3">
         <v>16699800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8746100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2563400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18859500</v>
+        <v>20633900</v>
       </c>
       <c r="E35" s="3">
-        <v>17111700</v>
+        <v>20437300</v>
       </c>
       <c r="F35" s="3">
-        <v>22732300</v>
+        <v>17167700</v>
       </c>
       <c r="G35" s="3">
-        <v>16683200</v>
+        <v>22806700</v>
       </c>
       <c r="H35" s="3">
-        <v>21128500</v>
+        <v>16737900</v>
       </c>
       <c r="I35" s="3">
-        <v>19907800</v>
+        <v>21197700</v>
       </c>
       <c r="J35" s="3">
+        <v>19973000</v>
+      </c>
+      <c r="K35" s="3">
         <v>16699800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8746100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2563400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,280 +1731,305 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37541800</v>
+        <v>46876900</v>
       </c>
       <c r="E41" s="3">
-        <v>32744300</v>
+        <v>37664800</v>
       </c>
       <c r="F41" s="3">
-        <v>27958800</v>
+        <v>32851500</v>
       </c>
       <c r="G41" s="3">
-        <v>27434900</v>
+        <v>28050400</v>
       </c>
       <c r="H41" s="3">
-        <v>26925200</v>
+        <v>27524700</v>
       </c>
       <c r="I41" s="3">
-        <v>20926500</v>
+        <v>27013300</v>
       </c>
       <c r="J41" s="3">
+        <v>20995100</v>
+      </c>
+      <c r="K41" s="3">
         <v>18697100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15619300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15180000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33439100</v>
+        <v>38740000</v>
       </c>
       <c r="E42" s="3">
-        <v>20642200</v>
+        <v>33548600</v>
       </c>
       <c r="F42" s="3">
-        <v>24453600</v>
+        <v>20709800</v>
       </c>
       <c r="G42" s="3">
-        <v>26602900</v>
+        <v>24533700</v>
       </c>
       <c r="H42" s="3">
-        <v>23297800</v>
+        <v>26690100</v>
       </c>
       <c r="I42" s="3">
-        <v>26851800</v>
+        <v>23374100</v>
       </c>
       <c r="J42" s="3">
+        <v>26939700</v>
+      </c>
+      <c r="K42" s="3">
         <v>20400100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14111000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11402800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>172039000</v>
+        <v>90313700</v>
       </c>
       <c r="E43" s="3">
-        <v>87832100</v>
+        <v>172602000</v>
       </c>
       <c r="F43" s="3">
-        <v>82964000</v>
+        <v>88119800</v>
       </c>
       <c r="G43" s="3">
-        <v>80145000</v>
+        <v>83235700</v>
       </c>
       <c r="H43" s="3">
-        <v>76616400</v>
+        <v>80407500</v>
       </c>
       <c r="I43" s="3">
-        <v>80600900</v>
+        <v>76867400</v>
       </c>
       <c r="J43" s="3">
+        <v>80864900</v>
+      </c>
+      <c r="K43" s="3">
         <v>73429700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68375100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58970400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>45514300</v>
+        <v>26541000</v>
       </c>
       <c r="E44" s="3">
-        <v>24332600</v>
+        <v>45663400</v>
       </c>
       <c r="F44" s="3">
-        <v>23264500</v>
+        <v>24412300</v>
       </c>
       <c r="G44" s="3">
-        <v>21879700</v>
+        <v>23340700</v>
       </c>
       <c r="H44" s="3">
-        <v>18883400</v>
+        <v>21951400</v>
       </c>
       <c r="I44" s="3">
-        <v>19580600</v>
+        <v>18945300</v>
       </c>
       <c r="J44" s="3">
+        <v>19644700</v>
+      </c>
+      <c r="K44" s="3">
         <v>17355500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15596500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14665400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17550800</v>
+        <v>6847200</v>
       </c>
       <c r="E45" s="3">
-        <v>7382600</v>
+        <v>17608300</v>
       </c>
       <c r="F45" s="3">
-        <v>7637500</v>
+        <v>7406800</v>
       </c>
       <c r="G45" s="3">
-        <v>7294100</v>
+        <v>7662500</v>
       </c>
       <c r="H45" s="3">
-        <v>21076700</v>
+        <v>7318000</v>
       </c>
       <c r="I45" s="3">
-        <v>16337500</v>
+        <v>21145700</v>
       </c>
       <c r="J45" s="3">
+        <v>16391000</v>
+      </c>
+      <c r="K45" s="3">
         <v>14091700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11602800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11165000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>173704000</v>
+        <v>209319000</v>
       </c>
       <c r="E46" s="3">
-        <v>172934000</v>
+        <v>174273000</v>
       </c>
       <c r="F46" s="3">
-        <v>166278000</v>
+        <v>173500000</v>
       </c>
       <c r="G46" s="3">
-        <v>163357000</v>
+        <v>166823000</v>
       </c>
       <c r="H46" s="3">
-        <v>166800000</v>
+        <v>163892000</v>
       </c>
       <c r="I46" s="3">
-        <v>164297000</v>
+        <v>167346000</v>
       </c>
       <c r="J46" s="3">
+        <v>164836000</v>
+      </c>
+      <c r="K46" s="3">
         <v>143974000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125305000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111384000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>407326000</v>
+        <v>236130000</v>
       </c>
       <c r="E47" s="3">
-        <v>192566000</v>
+        <v>408660000</v>
       </c>
       <c r="F47" s="3">
-        <v>189304000</v>
+        <v>193196000</v>
       </c>
       <c r="G47" s="3">
-        <v>179197000</v>
+        <v>189924000</v>
       </c>
       <c r="H47" s="3">
-        <v>171726000</v>
+        <v>179784000</v>
       </c>
       <c r="I47" s="3">
-        <v>179273000</v>
+        <v>172288000</v>
       </c>
       <c r="J47" s="3">
+        <v>179861000</v>
+      </c>
+      <c r="K47" s="3">
         <v>158854000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>129781000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>105167000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3">
+        <v>108454000</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>97879100</v>
-      </c>
       <c r="F48" s="3">
-        <v>94051900</v>
+        <v>98199700</v>
       </c>
       <c r="G48" s="3">
-        <v>93405500</v>
+        <v>94359900</v>
       </c>
       <c r="H48" s="3">
-        <v>89222200</v>
+        <v>93711400</v>
       </c>
       <c r="I48" s="3">
-        <v>85148800</v>
+        <v>89514400</v>
       </c>
       <c r="J48" s="3">
+        <v>85427700</v>
+      </c>
+      <c r="K48" s="3">
         <v>69994300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62277800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56367800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9162400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+        <v>10188300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9192400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -1936,15 +2046,18 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13501800</v>
+        <v>8143900</v>
       </c>
       <c r="E52" s="3">
-        <v>12363900</v>
+        <v>13546000</v>
       </c>
       <c r="F52" s="3">
-        <v>11188900</v>
+        <v>12404400</v>
       </c>
       <c r="G52" s="3">
-        <v>10592700</v>
+        <v>11225600</v>
       </c>
       <c r="H52" s="3">
-        <v>6689300</v>
+        <v>10627400</v>
       </c>
       <c r="I52" s="3">
-        <v>8485700</v>
+        <v>6711200</v>
       </c>
       <c r="J52" s="3">
+        <v>8513500</v>
+      </c>
+      <c r="K52" s="3">
         <v>6745300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5179600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4166100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>494387000</v>
+        <v>572235000</v>
       </c>
       <c r="E54" s="3">
-        <v>475743000</v>
+        <v>496006000</v>
       </c>
       <c r="F54" s="3">
-        <v>460824000</v>
+        <v>477301000</v>
       </c>
       <c r="G54" s="3">
-        <v>446552000</v>
+        <v>462333000</v>
       </c>
       <c r="H54" s="3">
-        <v>434437000</v>
+        <v>448014000</v>
       </c>
       <c r="I54" s="3">
-        <v>437205000</v>
+        <v>435860000</v>
       </c>
       <c r="J54" s="3">
+        <v>438637000</v>
+      </c>
+      <c r="K54" s="3">
         <v>379567000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322543000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277085000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54339000</v>
+        <v>37182200</v>
       </c>
       <c r="E57" s="3">
-        <v>24237200</v>
+        <v>54517000</v>
       </c>
       <c r="F57" s="3">
-        <v>23693800</v>
+        <v>24316600</v>
       </c>
       <c r="G57" s="3">
-        <v>23508100</v>
+        <v>23771400</v>
       </c>
       <c r="H57" s="3">
-        <v>21888000</v>
+        <v>23585100</v>
       </c>
       <c r="I57" s="3">
-        <v>22081000</v>
+        <v>21959600</v>
       </c>
       <c r="J57" s="3">
+        <v>22153300</v>
+      </c>
+      <c r="K57" s="3">
         <v>20273100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19214200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20273000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181064000</v>
+        <v>112229000</v>
       </c>
       <c r="E58" s="3">
-        <v>87929000</v>
+        <v>181657000</v>
       </c>
       <c r="F58" s="3">
-        <v>85565300</v>
+        <v>88217000</v>
       </c>
       <c r="G58" s="3">
-        <v>84676200</v>
+        <v>85845500</v>
       </c>
       <c r="H58" s="3">
-        <v>78053200</v>
+        <v>84953600</v>
       </c>
       <c r="I58" s="3">
-        <v>82105600</v>
+        <v>78308800</v>
       </c>
       <c r="J58" s="3">
+        <v>82374500</v>
+      </c>
+      <c r="K58" s="3">
         <v>71269200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>61757100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53908000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65964700</v>
+        <v>47810700</v>
       </c>
       <c r="E59" s="3">
-        <v>54792600</v>
+        <v>66180700</v>
       </c>
       <c r="F59" s="3">
-        <v>53760400</v>
+        <v>54972000</v>
       </c>
       <c r="G59" s="3">
-        <v>50457400</v>
+        <v>53936500</v>
       </c>
       <c r="H59" s="3">
-        <v>47758900</v>
+        <v>50622700</v>
       </c>
       <c r="I59" s="3">
-        <v>46325900</v>
+        <v>47915300</v>
       </c>
       <c r="J59" s="3">
+        <v>46477700</v>
+      </c>
+      <c r="K59" s="3">
         <v>42932800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36403500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32324500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166183000</v>
+        <v>197222000</v>
       </c>
       <c r="E60" s="3">
-        <v>166959000</v>
+        <v>166727000</v>
       </c>
       <c r="F60" s="3">
-        <v>163020000</v>
+        <v>167506000</v>
       </c>
       <c r="G60" s="3">
-        <v>158642000</v>
+        <v>163553000</v>
       </c>
       <c r="H60" s="3">
-        <v>147700000</v>
+        <v>159161000</v>
       </c>
       <c r="I60" s="3">
-        <v>150513000</v>
+        <v>148184000</v>
       </c>
       <c r="J60" s="3">
+        <v>151005000</v>
+      </c>
+      <c r="K60" s="3">
         <v>134475000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117375000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>106505000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104737000</v>
+        <v>123583000</v>
       </c>
       <c r="E61" s="3">
-        <v>96646700</v>
+        <v>105081000</v>
       </c>
       <c r="F61" s="3">
-        <v>91658400</v>
+        <v>96963200</v>
       </c>
       <c r="G61" s="3">
-        <v>90790200</v>
+        <v>91958600</v>
       </c>
       <c r="H61" s="3">
-        <v>89512100</v>
+        <v>91087600</v>
       </c>
       <c r="I61" s="3">
-        <v>91731900</v>
+        <v>89805300</v>
       </c>
       <c r="J61" s="3">
+        <v>92032300</v>
+      </c>
+      <c r="K61" s="3">
         <v>78289700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>66700800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54622200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44490700</v>
+        <v>28220400</v>
       </c>
       <c r="E62" s="3">
-        <v>23759700</v>
+        <v>44636400</v>
       </c>
       <c r="F62" s="3">
-        <v>23659400</v>
+        <v>23837500</v>
       </c>
       <c r="G62" s="3">
-        <v>26112200</v>
+        <v>23736900</v>
       </c>
       <c r="H62" s="3">
-        <v>31536900</v>
+        <v>26197700</v>
       </c>
       <c r="I62" s="3">
-        <v>33311300</v>
+        <v>31640200</v>
       </c>
       <c r="J62" s="3">
+        <v>33420400</v>
+      </c>
+      <c r="K62" s="3">
         <v>27396600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22362500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15916100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>305518000</v>
+        <v>357147000</v>
       </c>
       <c r="E66" s="3">
-        <v>293951000</v>
+        <v>306518000</v>
       </c>
       <c r="F66" s="3">
-        <v>284696000</v>
+        <v>294914000</v>
       </c>
       <c r="G66" s="3">
-        <v>281665000</v>
+        <v>285628000</v>
       </c>
       <c r="H66" s="3">
-        <v>276640000</v>
+        <v>282588000</v>
       </c>
       <c r="I66" s="3">
-        <v>283426000</v>
+        <v>277546000</v>
       </c>
       <c r="J66" s="3">
+        <v>284354000</v>
+      </c>
+      <c r="K66" s="3">
         <v>247030000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>212118000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181710000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,29 +2712,32 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4618200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4562300</v>
+        <v>4633300</v>
       </c>
       <c r="F70" s="3">
-        <v>4506500</v>
+        <v>4577300</v>
       </c>
       <c r="G70" s="3">
-        <v>4450600</v>
+        <v>4521200</v>
       </c>
       <c r="H70" s="3">
-        <v>4394800</v>
+        <v>4465200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>4409200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>203664000</v>
+        <v>221517000</v>
       </c>
       <c r="E72" s="3">
-        <v>201406000</v>
+        <v>204331000</v>
       </c>
       <c r="F72" s="3">
-        <v>178377000</v>
+        <v>202065000</v>
       </c>
       <c r="G72" s="3">
-        <v>161226000</v>
+        <v>178961000</v>
       </c>
       <c r="H72" s="3">
-        <v>153835000</v>
+        <v>161754000</v>
       </c>
       <c r="I72" s="3">
-        <v>142822000</v>
+        <v>154339000</v>
       </c>
       <c r="J72" s="3">
+        <v>143290000</v>
+      </c>
+      <c r="K72" s="3">
         <v>129305000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>115345000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107730000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184251000</v>
+        <v>215088000</v>
       </c>
       <c r="E76" s="3">
-        <v>177229000</v>
+        <v>184854000</v>
       </c>
       <c r="F76" s="3">
-        <v>171622000</v>
+        <v>177810000</v>
       </c>
       <c r="G76" s="3">
-        <v>160436000</v>
+        <v>172184000</v>
       </c>
       <c r="H76" s="3">
-        <v>153402000</v>
+        <v>160961000</v>
       </c>
       <c r="I76" s="3">
-        <v>153779000</v>
+        <v>153904000</v>
       </c>
       <c r="J76" s="3">
+        <v>154283000</v>
+      </c>
+      <c r="K76" s="3">
         <v>132537000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110426000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>95374400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18859500</v>
+        <v>20633900</v>
       </c>
       <c r="E81" s="3">
-        <v>17111700</v>
+        <v>20437300</v>
       </c>
       <c r="F81" s="3">
-        <v>22732300</v>
+        <v>17167700</v>
       </c>
       <c r="G81" s="3">
-        <v>16683200</v>
+        <v>22806700</v>
       </c>
       <c r="H81" s="3">
-        <v>21128500</v>
+        <v>16737900</v>
       </c>
       <c r="I81" s="3">
-        <v>19907800</v>
+        <v>21197700</v>
       </c>
       <c r="J81" s="3">
+        <v>19973000</v>
+      </c>
+      <c r="K81" s="3">
         <v>16699800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8746100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2563400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14705300</v>
+        <v>15111000</v>
       </c>
       <c r="E83" s="3">
-        <v>16418200</v>
+        <v>14661200</v>
       </c>
       <c r="F83" s="3">
-        <v>15883700</v>
+        <v>16471900</v>
       </c>
       <c r="G83" s="3">
-        <v>14756300</v>
+        <v>15935800</v>
       </c>
       <c r="H83" s="3">
-        <v>14892700</v>
+        <v>14804600</v>
       </c>
       <c r="I83" s="3">
-        <v>12907100</v>
+        <v>14941400</v>
       </c>
       <c r="J83" s="3">
+        <v>12949400</v>
+      </c>
+      <c r="K83" s="3">
         <v>11457800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10045400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9653200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32890300</v>
+        <v>25062600</v>
       </c>
       <c r="E89" s="3">
-        <v>34502000</v>
+        <v>22042200</v>
       </c>
       <c r="F89" s="3">
-        <v>38683900</v>
+        <v>34615000</v>
       </c>
       <c r="G89" s="3">
-        <v>31274400</v>
+        <v>38810500</v>
       </c>
       <c r="H89" s="3">
-        <v>40861500</v>
+        <v>31376800</v>
       </c>
       <c r="I89" s="3">
-        <v>33761500</v>
+        <v>40995300</v>
       </c>
       <c r="J89" s="3">
+        <v>33872100</v>
+      </c>
+      <c r="K89" s="3">
         <v>33397700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22282500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13130000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32931400</v>
+        <v>-32068500</v>
       </c>
       <c r="E91" s="3">
-        <v>-34248200</v>
+        <v>-31628200</v>
       </c>
       <c r="F91" s="3">
-        <v>-32964200</v>
+        <v>-34360400</v>
       </c>
       <c r="G91" s="3">
-        <v>-32439600</v>
+        <v>-33072100</v>
       </c>
       <c r="H91" s="3">
-        <v>-37182400</v>
+        <v>-32545800</v>
       </c>
       <c r="I91" s="3">
-        <v>-30755300</v>
+        <v>-37304200</v>
       </c>
       <c r="J91" s="3">
+        <v>-30856000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24536800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17945000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13850000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28861900</v>
+        <v>-43047600</v>
       </c>
       <c r="E94" s="3">
-        <v>-24706700</v>
+        <v>-19525500</v>
       </c>
       <c r="F94" s="3">
-        <v>-33526400</v>
+        <v>-24787600</v>
       </c>
       <c r="G94" s="3">
-        <v>-27204600</v>
+        <v>-33636200</v>
       </c>
       <c r="H94" s="3">
-        <v>-29152100</v>
+        <v>-27293700</v>
       </c>
       <c r="I94" s="3">
-        <v>-34931600</v>
+        <v>-29247600</v>
       </c>
       <c r="J94" s="3">
+        <v>-35046000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-39720000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27518300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13041600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5770700</v>
+        <v>-5748500</v>
       </c>
       <c r="E96" s="3">
-        <v>-5906400</v>
+        <v>-5789600</v>
       </c>
       <c r="F96" s="3">
-        <v>-5742300</v>
+        <v>-5925800</v>
       </c>
       <c r="G96" s="3">
-        <v>-5845700</v>
+        <v>-5761100</v>
       </c>
       <c r="H96" s="3">
-        <v>-6466500</v>
+        <v>-5864800</v>
       </c>
       <c r="I96" s="3">
-        <v>-5083200</v>
+        <v>-6487700</v>
       </c>
       <c r="J96" s="3">
+        <v>-5099800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3627600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1727200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1417300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3637800</v>
+        <v>25173000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4954100</v>
+        <v>3334200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4114100</v>
+        <v>-4970300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3436500</v>
+        <v>-4127600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3879900</v>
+        <v>-3447800</v>
       </c>
       <c r="I100" s="3">
-        <v>2803400</v>
+        <v>-3892600</v>
       </c>
       <c r="J100" s="3">
+        <v>2812600</v>
+      </c>
+      <c r="K100" s="3">
         <v>8422400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4338100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3212300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1202200</v>
+        <v>2024100</v>
       </c>
       <c r="E101" s="3">
-        <v>-381400</v>
+        <v>-1295900</v>
       </c>
       <c r="F101" s="3">
-        <v>-399300</v>
+        <v>-382700</v>
       </c>
       <c r="G101" s="3">
-        <v>-123500</v>
+        <v>-400600</v>
       </c>
       <c r="H101" s="3">
-        <v>-1830800</v>
+        <v>-123900</v>
       </c>
       <c r="I101" s="3">
-        <v>596100</v>
+        <v>-1836800</v>
       </c>
       <c r="J101" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K101" s="3">
         <v>857400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1253100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-505700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6464000</v>
+        <v>9212100</v>
       </c>
       <c r="E102" s="3">
-        <v>4459800</v>
+        <v>4555000</v>
       </c>
       <c r="F102" s="3">
-        <v>644100</v>
+        <v>4474400</v>
       </c>
       <c r="G102" s="3">
-        <v>509700</v>
+        <v>646200</v>
       </c>
       <c r="H102" s="3">
-        <v>5998600</v>
+        <v>511400</v>
       </c>
       <c r="I102" s="3">
-        <v>2229400</v>
+        <v>6018300</v>
       </c>
       <c r="J102" s="3">
+        <v>2236700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2957500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>355400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3629600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>250102100</v>
+        <v>247925000</v>
       </c>
       <c r="E8" s="3">
-        <v>274473600</v>
+        <v>272084200</v>
       </c>
       <c r="F8" s="3">
-        <v>277774000</v>
+        <v>275356000</v>
       </c>
       <c r="G8" s="3">
-        <v>269997700</v>
+        <v>267647300</v>
       </c>
       <c r="H8" s="3">
-        <v>253618200</v>
+        <v>251410400</v>
       </c>
       <c r="I8" s="3">
-        <v>261024700</v>
+        <v>258752400</v>
       </c>
       <c r="J8" s="3">
-        <v>250285200</v>
+        <v>248106500</v>
       </c>
       <c r="K8" s="3">
         <v>235337900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>205692600</v>
+        <v>203902000</v>
       </c>
       <c r="E9" s="3">
-        <v>437702200</v>
+        <v>433891900</v>
       </c>
       <c r="F9" s="3">
-        <v>227744600</v>
+        <v>225762100</v>
       </c>
       <c r="G9" s="3">
-        <v>219541300</v>
+        <v>217630200</v>
       </c>
       <c r="H9" s="3">
-        <v>208928500</v>
+        <v>207109800</v>
       </c>
       <c r="I9" s="3">
-        <v>207744200</v>
+        <v>205935800</v>
       </c>
       <c r="J9" s="3">
-        <v>200725000</v>
+        <v>198977700</v>
       </c>
       <c r="K9" s="3">
         <v>190538400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44409500</v>
+        <v>44022900</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>50029400</v>
+        <v>49593900</v>
       </c>
       <c r="G10" s="3">
-        <v>50456400</v>
+        <v>50017200</v>
       </c>
       <c r="H10" s="3">
-        <v>44689700</v>
+        <v>44300600</v>
       </c>
       <c r="I10" s="3">
-        <v>53280400</v>
+        <v>52816600</v>
       </c>
       <c r="J10" s="3">
-        <v>49560200</v>
+        <v>49128800</v>
       </c>
       <c r="K10" s="3">
         <v>44799500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>229904800</v>
+        <v>227903500</v>
       </c>
       <c r="E17" s="3">
-        <v>252424600</v>
+        <v>250227200</v>
       </c>
       <c r="F17" s="3">
-        <v>255097300</v>
+        <v>252876600</v>
       </c>
       <c r="G17" s="3">
-        <v>247943000</v>
+        <v>245784600</v>
       </c>
       <c r="H17" s="3">
-        <v>235289900</v>
+        <v>233241700</v>
       </c>
       <c r="I17" s="3">
-        <v>234796700</v>
+        <v>232752700</v>
       </c>
       <c r="J17" s="3">
-        <v>225007600</v>
+        <v>223048800</v>
       </c>
       <c r="K17" s="3">
         <v>214342200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20197300</v>
+        <v>20021500</v>
       </c>
       <c r="E18" s="3">
-        <v>22048900</v>
+        <v>21857000</v>
       </c>
       <c r="F18" s="3">
-        <v>22676700</v>
+        <v>22479300</v>
       </c>
       <c r="G18" s="3">
-        <v>22054700</v>
+        <v>21862700</v>
       </c>
       <c r="H18" s="3">
-        <v>18328300</v>
+        <v>18168700</v>
       </c>
       <c r="I18" s="3">
-        <v>26228000</v>
+        <v>25999700</v>
       </c>
       <c r="J18" s="3">
-        <v>25277700</v>
+        <v>25057600</v>
       </c>
       <c r="K18" s="3">
         <v>20995700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6751000</v>
+        <v>7078700</v>
       </c>
       <c r="E20" s="3">
-        <v>3914300</v>
+        <v>4282100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1415300</v>
+        <v>-1403000</v>
       </c>
       <c r="G20" s="3">
-        <v>2280500</v>
+        <v>2260700</v>
       </c>
       <c r="H20" s="3">
-        <v>2102700</v>
+        <v>2084400</v>
       </c>
       <c r="I20" s="3">
-        <v>1514600</v>
+        <v>1501400</v>
       </c>
       <c r="J20" s="3">
-        <v>1517600</v>
+        <v>1504400</v>
       </c>
       <c r="K20" s="3">
         <v>1544400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42075800</v>
+        <v>42079700</v>
       </c>
       <c r="E21" s="3">
-        <v>40640400</v>
+        <v>40672700</v>
       </c>
       <c r="F21" s="3">
-        <v>37751300</v>
+        <v>37404900</v>
       </c>
       <c r="G21" s="3">
-        <v>40288400</v>
+        <v>39920500</v>
       </c>
       <c r="H21" s="3">
-        <v>35251700</v>
+        <v>34928900</v>
       </c>
       <c r="I21" s="3">
-        <v>42700300</v>
+        <v>42312500</v>
       </c>
       <c r="J21" s="3">
-        <v>39758800</v>
+        <v>39398700</v>
       </c>
       <c r="K21" s="3">
         <v>34048000</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>386500</v>
       </c>
       <c r="E22" s="3">
-        <v>296100</v>
+        <v>695400</v>
       </c>
       <c r="F22" s="3">
-        <v>258000</v>
+        <v>255800</v>
       </c>
       <c r="G22" s="3">
-        <v>253500</v>
+        <v>251300</v>
       </c>
       <c r="H22" s="3">
-        <v>269800</v>
+        <v>267400</v>
       </c>
       <c r="I22" s="3">
-        <v>325400</v>
+        <v>322500</v>
       </c>
       <c r="J22" s="3">
-        <v>210200</v>
+        <v>208400</v>
       </c>
       <c r="K22" s="3">
         <v>179800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26948300</v>
+        <v>26713700</v>
       </c>
       <c r="E23" s="3">
-        <v>25667100</v>
+        <v>25443700</v>
       </c>
       <c r="F23" s="3">
-        <v>21003400</v>
+        <v>20820600</v>
       </c>
       <c r="G23" s="3">
-        <v>24081700</v>
+        <v>23872100</v>
       </c>
       <c r="H23" s="3">
-        <v>20161300</v>
+        <v>19985700</v>
       </c>
       <c r="I23" s="3">
-        <v>27417300</v>
+        <v>27178600</v>
       </c>
       <c r="J23" s="3">
-        <v>26585100</v>
+        <v>26353700</v>
       </c>
       <c r="K23" s="3">
         <v>22360300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5973300</v>
+        <v>5921300</v>
       </c>
       <c r="E24" s="3">
-        <v>6265900</v>
+        <v>6211400</v>
       </c>
       <c r="F24" s="3">
-        <v>6064900</v>
+        <v>6012100</v>
       </c>
       <c r="G24" s="3">
-        <v>4635500</v>
+        <v>4595100</v>
       </c>
       <c r="H24" s="3">
-        <v>5779600</v>
+        <v>5729300</v>
       </c>
       <c r="I24" s="3">
-        <v>8071300</v>
+        <v>8001000</v>
       </c>
       <c r="J24" s="3">
-        <v>8211000</v>
+        <v>8139500</v>
       </c>
       <c r="K24" s="3">
         <v>7033100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20975100</v>
+        <v>20792500</v>
       </c>
       <c r="E26" s="3">
-        <v>19401200</v>
+        <v>19232300</v>
       </c>
       <c r="F26" s="3">
-        <v>14938500</v>
+        <v>14808500</v>
       </c>
       <c r="G26" s="3">
-        <v>19446300</v>
+        <v>19277000</v>
       </c>
       <c r="H26" s="3">
-        <v>14381700</v>
+        <v>14256500</v>
       </c>
       <c r="I26" s="3">
-        <v>19346000</v>
+        <v>19177600</v>
       </c>
       <c r="J26" s="3">
-        <v>18374100</v>
+        <v>18214200</v>
       </c>
       <c r="K26" s="3">
         <v>15327200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20633900</v>
+        <v>20454300</v>
       </c>
       <c r="E27" s="3">
-        <v>20437300</v>
+        <v>20259400</v>
       </c>
       <c r="F27" s="3">
-        <v>17167700</v>
+        <v>17018300</v>
       </c>
       <c r="G27" s="3">
-        <v>22806700</v>
+        <v>22608200</v>
       </c>
       <c r="H27" s="3">
-        <v>16737900</v>
+        <v>16592200</v>
       </c>
       <c r="I27" s="3">
-        <v>21197700</v>
+        <v>21013200</v>
       </c>
       <c r="J27" s="3">
-        <v>19973000</v>
+        <v>19799100</v>
       </c>
       <c r="K27" s="3">
         <v>16699800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6751000</v>
+        <v>-7078700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3914300</v>
+        <v>-4282100</v>
       </c>
       <c r="F32" s="3">
-        <v>1415300</v>
+        <v>1403000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2280500</v>
+        <v>-2260700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2102700</v>
+        <v>-2084400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1514600</v>
+        <v>-1501400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1517600</v>
+        <v>-1504400</v>
       </c>
       <c r="K32" s="3">
         <v>-1544400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20633900</v>
+        <v>20454300</v>
       </c>
       <c r="E33" s="3">
-        <v>20437300</v>
+        <v>20259400</v>
       </c>
       <c r="F33" s="3">
-        <v>17167700</v>
+        <v>17018300</v>
       </c>
       <c r="G33" s="3">
-        <v>22806700</v>
+        <v>22608200</v>
       </c>
       <c r="H33" s="3">
-        <v>16737900</v>
+        <v>16592200</v>
       </c>
       <c r="I33" s="3">
-        <v>21197700</v>
+        <v>21013200</v>
       </c>
       <c r="J33" s="3">
-        <v>19973000</v>
+        <v>19799100</v>
       </c>
       <c r="K33" s="3">
         <v>16699800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20633900</v>
+        <v>20454300</v>
       </c>
       <c r="E35" s="3">
-        <v>20437300</v>
+        <v>20259400</v>
       </c>
       <c r="F35" s="3">
-        <v>17167700</v>
+        <v>17018300</v>
       </c>
       <c r="G35" s="3">
-        <v>22806700</v>
+        <v>22608200</v>
       </c>
       <c r="H35" s="3">
-        <v>16737900</v>
+        <v>16592200</v>
       </c>
       <c r="I35" s="3">
-        <v>21197700</v>
+        <v>21013200</v>
       </c>
       <c r="J35" s="3">
-        <v>19973000</v>
+        <v>19799100</v>
       </c>
       <c r="K35" s="3">
         <v>16699800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46876900</v>
+        <v>46468800</v>
       </c>
       <c r="E41" s="3">
-        <v>37664800</v>
+        <v>37336900</v>
       </c>
       <c r="F41" s="3">
-        <v>32851500</v>
+        <v>32565600</v>
       </c>
       <c r="G41" s="3">
-        <v>28050400</v>
+        <v>27806200</v>
       </c>
       <c r="H41" s="3">
-        <v>27524700</v>
+        <v>27285100</v>
       </c>
       <c r="I41" s="3">
-        <v>27013300</v>
+        <v>26778200</v>
       </c>
       <c r="J41" s="3">
-        <v>20995100</v>
+        <v>20812300</v>
       </c>
       <c r="K41" s="3">
         <v>18697100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38740000</v>
+        <v>38402800</v>
       </c>
       <c r="E42" s="3">
-        <v>33548600</v>
+        <v>33256500</v>
       </c>
       <c r="F42" s="3">
-        <v>20709800</v>
+        <v>20529500</v>
       </c>
       <c r="G42" s="3">
-        <v>24533700</v>
+        <v>24320100</v>
       </c>
       <c r="H42" s="3">
-        <v>26690100</v>
+        <v>26457700</v>
       </c>
       <c r="I42" s="3">
-        <v>23374100</v>
+        <v>23170600</v>
       </c>
       <c r="J42" s="3">
-        <v>26939700</v>
+        <v>26705200</v>
       </c>
       <c r="K42" s="3">
         <v>20400100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90313700</v>
+        <v>89527500</v>
       </c>
       <c r="E43" s="3">
-        <v>172602000</v>
+        <v>171099000</v>
       </c>
       <c r="F43" s="3">
-        <v>88119800</v>
+        <v>87352700</v>
       </c>
       <c r="G43" s="3">
-        <v>83235700</v>
+        <v>82511100</v>
       </c>
       <c r="H43" s="3">
-        <v>80407500</v>
+        <v>79707500</v>
       </c>
       <c r="I43" s="3">
-        <v>76867400</v>
+        <v>76198200</v>
       </c>
       <c r="J43" s="3">
-        <v>80864900</v>
+        <v>80161000</v>
       </c>
       <c r="K43" s="3">
         <v>73429700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26541000</v>
+        <v>26309900</v>
       </c>
       <c r="E44" s="3">
-        <v>45663400</v>
+        <v>68349600</v>
       </c>
       <c r="F44" s="3">
-        <v>24412300</v>
+        <v>24199800</v>
       </c>
       <c r="G44" s="3">
-        <v>23340700</v>
+        <v>23137500</v>
       </c>
       <c r="H44" s="3">
-        <v>21951400</v>
+        <v>21760300</v>
       </c>
       <c r="I44" s="3">
-        <v>18945300</v>
+        <v>18780400</v>
       </c>
       <c r="J44" s="3">
-        <v>19644700</v>
+        <v>19473700</v>
       </c>
       <c r="K44" s="3">
         <v>17355500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6847200</v>
+        <v>6787600</v>
       </c>
       <c r="E45" s="3">
-        <v>17608300</v>
+        <v>17455000</v>
       </c>
       <c r="F45" s="3">
-        <v>7406800</v>
+        <v>7342300</v>
       </c>
       <c r="G45" s="3">
-        <v>7662500</v>
+        <v>7595800</v>
       </c>
       <c r="H45" s="3">
-        <v>7318000</v>
+        <v>7254300</v>
       </c>
       <c r="I45" s="3">
-        <v>21145700</v>
+        <v>20961700</v>
       </c>
       <c r="J45" s="3">
-        <v>16391000</v>
+        <v>16248300</v>
       </c>
       <c r="K45" s="3">
         <v>14091700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>209319000</v>
+        <v>207497000</v>
       </c>
       <c r="E46" s="3">
-        <v>174273000</v>
+        <v>172756000</v>
       </c>
       <c r="F46" s="3">
-        <v>173500000</v>
+        <v>171990000</v>
       </c>
       <c r="G46" s="3">
-        <v>166823000</v>
+        <v>165371000</v>
       </c>
       <c r="H46" s="3">
-        <v>163892000</v>
+        <v>162465000</v>
       </c>
       <c r="I46" s="3">
-        <v>167346000</v>
+        <v>165889000</v>
       </c>
       <c r="J46" s="3">
-        <v>164836000</v>
+        <v>163401000</v>
       </c>
       <c r="K46" s="3">
         <v>143974000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>236130000</v>
+        <v>234075000</v>
       </c>
       <c r="E47" s="3">
-        <v>408660000</v>
+        <v>405103000</v>
       </c>
       <c r="F47" s="3">
-        <v>193196000</v>
+        <v>191515000</v>
       </c>
       <c r="G47" s="3">
-        <v>189924000</v>
+        <v>188271000</v>
       </c>
       <c r="H47" s="3">
-        <v>179784000</v>
+        <v>178219000</v>
       </c>
       <c r="I47" s="3">
-        <v>172288000</v>
+        <v>170788000</v>
       </c>
       <c r="J47" s="3">
-        <v>179861000</v>
+        <v>178295000</v>
       </c>
       <c r="K47" s="3">
         <v>158854000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108454000</v>
+        <v>107510000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>98199700</v>
+        <v>97344900</v>
       </c>
       <c r="G48" s="3">
-        <v>94359900</v>
+        <v>93538500</v>
       </c>
       <c r="H48" s="3">
-        <v>93711400</v>
+        <v>92895700</v>
       </c>
       <c r="I48" s="3">
-        <v>89514400</v>
+        <v>88735200</v>
       </c>
       <c r="J48" s="3">
-        <v>85427700</v>
+        <v>84684000</v>
       </c>
       <c r="K48" s="3">
         <v>69994300</v>
@@ -2026,10 +2026,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10188300</v>
+        <v>10099700</v>
       </c>
       <c r="E49" s="3">
-        <v>9192400</v>
+        <v>18224700</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8143900</v>
+        <v>8073000</v>
       </c>
       <c r="E52" s="3">
-        <v>13546000</v>
+        <v>13428100</v>
       </c>
       <c r="F52" s="3">
-        <v>12404400</v>
+        <v>12296400</v>
       </c>
       <c r="G52" s="3">
-        <v>11225600</v>
+        <v>11127900</v>
       </c>
       <c r="H52" s="3">
-        <v>10627400</v>
+        <v>10534900</v>
       </c>
       <c r="I52" s="3">
-        <v>6711200</v>
+        <v>6652800</v>
       </c>
       <c r="J52" s="3">
-        <v>8513500</v>
+        <v>8439400</v>
       </c>
       <c r="K52" s="3">
         <v>6745300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>572235000</v>
+        <v>567254000</v>
       </c>
       <c r="E54" s="3">
-        <v>496006000</v>
+        <v>491688000</v>
       </c>
       <c r="F54" s="3">
-        <v>477301000</v>
+        <v>473146000</v>
       </c>
       <c r="G54" s="3">
-        <v>462333000</v>
+        <v>458308000</v>
       </c>
       <c r="H54" s="3">
-        <v>448014000</v>
+        <v>444114000</v>
       </c>
       <c r="I54" s="3">
-        <v>435860000</v>
+        <v>432065000</v>
       </c>
       <c r="J54" s="3">
-        <v>438637000</v>
+        <v>434819000</v>
       </c>
       <c r="K54" s="3">
         <v>379567000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37182200</v>
+        <v>36858500</v>
       </c>
       <c r="E57" s="3">
-        <v>54517000</v>
+        <v>54042400</v>
       </c>
       <c r="F57" s="3">
-        <v>24316600</v>
+        <v>24104900</v>
       </c>
       <c r="G57" s="3">
-        <v>23771400</v>
+        <v>23564400</v>
       </c>
       <c r="H57" s="3">
-        <v>23585100</v>
+        <v>23379700</v>
       </c>
       <c r="I57" s="3">
-        <v>21959600</v>
+        <v>21768500</v>
       </c>
       <c r="J57" s="3">
-        <v>22153300</v>
+        <v>21960500</v>
       </c>
       <c r="K57" s="3">
         <v>20273100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112229000</v>
+        <v>111252000</v>
       </c>
       <c r="E58" s="3">
-        <v>181657000</v>
+        <v>270326000</v>
       </c>
       <c r="F58" s="3">
-        <v>88217000</v>
+        <v>87449000</v>
       </c>
       <c r="G58" s="3">
-        <v>85845500</v>
+        <v>85098200</v>
       </c>
       <c r="H58" s="3">
-        <v>84953600</v>
+        <v>84214000</v>
       </c>
       <c r="I58" s="3">
-        <v>78308800</v>
+        <v>77627100</v>
       </c>
       <c r="J58" s="3">
-        <v>82374500</v>
+        <v>81657400</v>
       </c>
       <c r="K58" s="3">
         <v>71269200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47810700</v>
+        <v>47394500</v>
       </c>
       <c r="E59" s="3">
-        <v>66180700</v>
+        <v>65604600</v>
       </c>
       <c r="F59" s="3">
-        <v>54972000</v>
+        <v>54493500</v>
       </c>
       <c r="G59" s="3">
-        <v>53936500</v>
+        <v>53467000</v>
       </c>
       <c r="H59" s="3">
-        <v>50622700</v>
+        <v>50182000</v>
       </c>
       <c r="I59" s="3">
-        <v>47915300</v>
+        <v>47498200</v>
       </c>
       <c r="J59" s="3">
-        <v>46477700</v>
+        <v>46073100</v>
       </c>
       <c r="K59" s="3">
         <v>42932800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>197222000</v>
+        <v>195505000</v>
       </c>
       <c r="E60" s="3">
-        <v>166727000</v>
+        <v>165276000</v>
       </c>
       <c r="F60" s="3">
-        <v>167506000</v>
+        <v>166047000</v>
       </c>
       <c r="G60" s="3">
-        <v>163553000</v>
+        <v>162130000</v>
       </c>
       <c r="H60" s="3">
-        <v>159161000</v>
+        <v>157776000</v>
       </c>
       <c r="I60" s="3">
-        <v>148184000</v>
+        <v>146894000</v>
       </c>
       <c r="J60" s="3">
-        <v>151005000</v>
+        <v>149691000</v>
       </c>
       <c r="K60" s="3">
         <v>134475000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123583000</v>
+        <v>122507000</v>
       </c>
       <c r="E61" s="3">
-        <v>105081000</v>
+        <v>104166000</v>
       </c>
       <c r="F61" s="3">
-        <v>96963200</v>
+        <v>96119100</v>
       </c>
       <c r="G61" s="3">
-        <v>91958600</v>
+        <v>91158100</v>
       </c>
       <c r="H61" s="3">
-        <v>91087600</v>
+        <v>90294600</v>
       </c>
       <c r="I61" s="3">
-        <v>89805300</v>
+        <v>89023500</v>
       </c>
       <c r="J61" s="3">
-        <v>92032300</v>
+        <v>91231100</v>
       </c>
       <c r="K61" s="3">
         <v>78289700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28220400</v>
+        <v>27974700</v>
       </c>
       <c r="E62" s="3">
-        <v>44636400</v>
+        <v>44247900</v>
       </c>
       <c r="F62" s="3">
-        <v>23837500</v>
+        <v>23630000</v>
       </c>
       <c r="G62" s="3">
-        <v>23736900</v>
+        <v>23530300</v>
       </c>
       <c r="H62" s="3">
-        <v>26197700</v>
+        <v>25969600</v>
       </c>
       <c r="I62" s="3">
-        <v>31640200</v>
+        <v>31364700</v>
       </c>
       <c r="J62" s="3">
-        <v>33420400</v>
+        <v>33129500</v>
       </c>
       <c r="K62" s="3">
         <v>27396600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>357147000</v>
+        <v>354038000</v>
       </c>
       <c r="E66" s="3">
-        <v>306518000</v>
+        <v>303850000</v>
       </c>
       <c r="F66" s="3">
-        <v>294914000</v>
+        <v>292347000</v>
       </c>
       <c r="G66" s="3">
-        <v>285628000</v>
+        <v>283142000</v>
       </c>
       <c r="H66" s="3">
-        <v>282588000</v>
+        <v>280128000</v>
       </c>
       <c r="I66" s="3">
-        <v>277546000</v>
+        <v>275130000</v>
       </c>
       <c r="J66" s="3">
-        <v>284354000</v>
+        <v>281879000</v>
       </c>
       <c r="K66" s="3">
         <v>247030000</v>
@@ -2725,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4633300</v>
+        <v>4593000</v>
       </c>
       <c r="F70" s="3">
-        <v>4577300</v>
+        <v>4537400</v>
       </c>
       <c r="G70" s="3">
-        <v>4521200</v>
+        <v>4481900</v>
       </c>
       <c r="H70" s="3">
-        <v>4465200</v>
+        <v>4426300</v>
       </c>
       <c r="I70" s="3">
-        <v>4409200</v>
+        <v>4370800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>221517000</v>
+        <v>219589000</v>
       </c>
       <c r="E72" s="3">
-        <v>204331000</v>
+        <v>202552000</v>
       </c>
       <c r="F72" s="3">
-        <v>202065000</v>
+        <v>200306000</v>
       </c>
       <c r="G72" s="3">
-        <v>178961000</v>
+        <v>177403000</v>
       </c>
       <c r="H72" s="3">
-        <v>161754000</v>
+        <v>160346000</v>
       </c>
       <c r="I72" s="3">
-        <v>154339000</v>
+        <v>152996000</v>
       </c>
       <c r="J72" s="3">
-        <v>143290000</v>
+        <v>142043000</v>
       </c>
       <c r="K72" s="3">
         <v>129305000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>215088000</v>
+        <v>213215000</v>
       </c>
       <c r="E76" s="3">
-        <v>184854000</v>
+        <v>183245000</v>
       </c>
       <c r="F76" s="3">
-        <v>177810000</v>
+        <v>176262000</v>
       </c>
       <c r="G76" s="3">
-        <v>172184000</v>
+        <v>170685000</v>
       </c>
       <c r="H76" s="3">
-        <v>160961000</v>
+        <v>159560000</v>
       </c>
       <c r="I76" s="3">
-        <v>153904000</v>
+        <v>152565000</v>
       </c>
       <c r="J76" s="3">
-        <v>154283000</v>
+        <v>152940000</v>
       </c>
       <c r="K76" s="3">
         <v>132537000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20633900</v>
+        <v>20454300</v>
       </c>
       <c r="E81" s="3">
-        <v>20437300</v>
+        <v>20259400</v>
       </c>
       <c r="F81" s="3">
-        <v>17167700</v>
+        <v>17018300</v>
       </c>
       <c r="G81" s="3">
-        <v>22806700</v>
+        <v>22608200</v>
       </c>
       <c r="H81" s="3">
-        <v>16737900</v>
+        <v>16592200</v>
       </c>
       <c r="I81" s="3">
-        <v>21197700</v>
+        <v>21013200</v>
       </c>
       <c r="J81" s="3">
-        <v>19973000</v>
+        <v>19799100</v>
       </c>
       <c r="K81" s="3">
         <v>16699800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15111000</v>
+        <v>14979500</v>
       </c>
       <c r="E83" s="3">
-        <v>14661200</v>
+        <v>14533600</v>
       </c>
       <c r="F83" s="3">
-        <v>16471900</v>
+        <v>16328500</v>
       </c>
       <c r="G83" s="3">
-        <v>15935800</v>
+        <v>15797000</v>
       </c>
       <c r="H83" s="3">
-        <v>14804600</v>
+        <v>14675800</v>
       </c>
       <c r="I83" s="3">
-        <v>14941400</v>
+        <v>14811400</v>
       </c>
       <c r="J83" s="3">
-        <v>12949400</v>
+        <v>12836700</v>
       </c>
       <c r="K83" s="3">
         <v>11457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25062600</v>
+        <v>24844400</v>
       </c>
       <c r="E89" s="3">
-        <v>22042200</v>
+        <v>21850300</v>
       </c>
       <c r="F89" s="3">
-        <v>34615000</v>
+        <v>34313700</v>
       </c>
       <c r="G89" s="3">
-        <v>38810500</v>
+        <v>38472700</v>
       </c>
       <c r="H89" s="3">
-        <v>31376800</v>
+        <v>31103700</v>
       </c>
       <c r="I89" s="3">
-        <v>40995300</v>
+        <v>40638400</v>
       </c>
       <c r="J89" s="3">
-        <v>33872100</v>
+        <v>33577200</v>
       </c>
       <c r="K89" s="3">
         <v>33397700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32068500</v>
+        <v>-31789300</v>
       </c>
       <c r="E91" s="3">
-        <v>-31628200</v>
+        <v>-31352800</v>
       </c>
       <c r="F91" s="3">
-        <v>-34360400</v>
+        <v>-34061300</v>
       </c>
       <c r="G91" s="3">
-        <v>-33072100</v>
+        <v>-32784200</v>
       </c>
       <c r="H91" s="3">
-        <v>-32545800</v>
+        <v>-32262500</v>
       </c>
       <c r="I91" s="3">
-        <v>-37304200</v>
+        <v>-36979500</v>
       </c>
       <c r="J91" s="3">
-        <v>-30856000</v>
+        <v>-30587400</v>
       </c>
       <c r="K91" s="3">
         <v>-24536800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43047600</v>
+        <v>-42672800</v>
       </c>
       <c r="E94" s="3">
-        <v>-19525500</v>
+        <v>-19355600</v>
       </c>
       <c r="F94" s="3">
-        <v>-24787600</v>
+        <v>-24571900</v>
       </c>
       <c r="G94" s="3">
-        <v>-33636200</v>
+        <v>-33343400</v>
       </c>
       <c r="H94" s="3">
-        <v>-27293700</v>
+        <v>-27056100</v>
       </c>
       <c r="I94" s="3">
-        <v>-29247600</v>
+        <v>-28993000</v>
       </c>
       <c r="J94" s="3">
-        <v>-35046000</v>
+        <v>-34740900</v>
       </c>
       <c r="K94" s="3">
         <v>-39720000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5748500</v>
+        <v>-5698400</v>
       </c>
       <c r="E96" s="3">
-        <v>-5789600</v>
+        <v>-5739200</v>
       </c>
       <c r="F96" s="3">
-        <v>-5925800</v>
+        <v>-5874200</v>
       </c>
       <c r="G96" s="3">
-        <v>-5761100</v>
+        <v>-5711000</v>
       </c>
       <c r="H96" s="3">
-        <v>-5864800</v>
+        <v>-5813700</v>
       </c>
       <c r="I96" s="3">
-        <v>-6487700</v>
+        <v>-6431200</v>
       </c>
       <c r="J96" s="3">
-        <v>-5099800</v>
+        <v>-5055400</v>
       </c>
       <c r="K96" s="3">
         <v>-3627600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25173000</v>
+        <v>24953900</v>
       </c>
       <c r="E100" s="3">
-        <v>3334200</v>
+        <v>3305200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4970300</v>
+        <v>-4927000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4127600</v>
+        <v>-4091600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3447800</v>
+        <v>-3417800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3892600</v>
+        <v>-3858700</v>
       </c>
       <c r="J100" s="3">
-        <v>2812600</v>
+        <v>2788100</v>
       </c>
       <c r="K100" s="3">
         <v>8422400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2024100</v>
+        <v>2006400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1295900</v>
+        <v>-1284600</v>
       </c>
       <c r="F101" s="3">
-        <v>-382700</v>
+        <v>-379300</v>
       </c>
       <c r="G101" s="3">
-        <v>-400600</v>
+        <v>-397100</v>
       </c>
       <c r="H101" s="3">
-        <v>-123900</v>
+        <v>-122900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1836800</v>
+        <v>-1820800</v>
       </c>
       <c r="J101" s="3">
-        <v>598100</v>
+        <v>592900</v>
       </c>
       <c r="K101" s="3">
         <v>857400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9212100</v>
+        <v>9131900</v>
       </c>
       <c r="E102" s="3">
-        <v>4555000</v>
+        <v>4515300</v>
       </c>
       <c r="F102" s="3">
-        <v>4474400</v>
+        <v>4435400</v>
       </c>
       <c r="G102" s="3">
-        <v>646200</v>
+        <v>640600</v>
       </c>
       <c r="H102" s="3">
-        <v>511400</v>
+        <v>506900</v>
       </c>
       <c r="I102" s="3">
-        <v>6018300</v>
+        <v>5965900</v>
       </c>
       <c r="J102" s="3">
-        <v>2236700</v>
+        <v>2217300</v>
       </c>
       <c r="K102" s="3">
         <v>2957500</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>247925000</v>
+        <v>239760600</v>
       </c>
       <c r="E8" s="3">
-        <v>272084200</v>
+        <v>263124300</v>
       </c>
       <c r="F8" s="3">
-        <v>275356000</v>
+        <v>266288200</v>
       </c>
       <c r="G8" s="3">
-        <v>267647300</v>
+        <v>258833500</v>
       </c>
       <c r="H8" s="3">
-        <v>251410400</v>
+        <v>243131300</v>
       </c>
       <c r="I8" s="3">
-        <v>258752400</v>
+        <v>250231500</v>
       </c>
       <c r="J8" s="3">
-        <v>248106500</v>
+        <v>239936100</v>
       </c>
       <c r="K8" s="3">
         <v>235337900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>203902000</v>
+        <v>197187400</v>
       </c>
       <c r="E9" s="3">
-        <v>433891900</v>
+        <v>419603500</v>
       </c>
       <c r="F9" s="3">
-        <v>225762100</v>
+        <v>218327500</v>
       </c>
       <c r="G9" s="3">
-        <v>217630200</v>
+        <v>210463400</v>
       </c>
       <c r="H9" s="3">
-        <v>207109800</v>
+        <v>200289500</v>
       </c>
       <c r="I9" s="3">
-        <v>205935800</v>
+        <v>199154100</v>
       </c>
       <c r="J9" s="3">
-        <v>198977700</v>
+        <v>192425200</v>
       </c>
       <c r="K9" s="3">
         <v>190538400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44022900</v>
+        <v>42573200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>49593900</v>
+        <v>47960700</v>
       </c>
       <c r="G10" s="3">
-        <v>50017200</v>
+        <v>48370000</v>
       </c>
       <c r="H10" s="3">
-        <v>44300600</v>
+        <v>42841800</v>
       </c>
       <c r="I10" s="3">
-        <v>52816600</v>
+        <v>51077300</v>
       </c>
       <c r="J10" s="3">
-        <v>49128800</v>
+        <v>47511000</v>
       </c>
       <c r="K10" s="3">
         <v>44799500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>227903500</v>
+        <v>220398400</v>
       </c>
       <c r="E17" s="3">
-        <v>250227200</v>
+        <v>241987000</v>
       </c>
       <c r="F17" s="3">
-        <v>252876600</v>
+        <v>244549200</v>
       </c>
       <c r="G17" s="3">
-        <v>245784600</v>
+        <v>237690700</v>
       </c>
       <c r="H17" s="3">
-        <v>233241700</v>
+        <v>225560900</v>
       </c>
       <c r="I17" s="3">
-        <v>232752700</v>
+        <v>225088000</v>
       </c>
       <c r="J17" s="3">
-        <v>223048800</v>
+        <v>215703700</v>
       </c>
       <c r="K17" s="3">
         <v>214342200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20021500</v>
+        <v>19362200</v>
       </c>
       <c r="E18" s="3">
-        <v>21857000</v>
+        <v>21137200</v>
       </c>
       <c r="F18" s="3">
-        <v>22479300</v>
+        <v>21739100</v>
       </c>
       <c r="G18" s="3">
-        <v>21862700</v>
+        <v>21142800</v>
       </c>
       <c r="H18" s="3">
-        <v>18168700</v>
+        <v>17570400</v>
       </c>
       <c r="I18" s="3">
-        <v>25999700</v>
+        <v>25143500</v>
       </c>
       <c r="J18" s="3">
-        <v>25057600</v>
+        <v>24232500</v>
       </c>
       <c r="K18" s="3">
         <v>20995700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7078700</v>
+        <v>6845600</v>
       </c>
       <c r="E20" s="3">
-        <v>4282100</v>
+        <v>4141100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1403000</v>
+        <v>-1356800</v>
       </c>
       <c r="G20" s="3">
-        <v>2260700</v>
+        <v>2186200</v>
       </c>
       <c r="H20" s="3">
-        <v>2084400</v>
+        <v>2015800</v>
       </c>
       <c r="I20" s="3">
-        <v>1501400</v>
+        <v>1452000</v>
       </c>
       <c r="J20" s="3">
-        <v>1504400</v>
+        <v>1454800</v>
       </c>
       <c r="K20" s="3">
         <v>1544400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42079700</v>
+        <v>40726800</v>
       </c>
       <c r="E21" s="3">
-        <v>40672700</v>
+        <v>39365200</v>
       </c>
       <c r="F21" s="3">
-        <v>37404900</v>
+        <v>36209000</v>
       </c>
       <c r="G21" s="3">
-        <v>39920500</v>
+        <v>38640500</v>
       </c>
       <c r="H21" s="3">
-        <v>34928900</v>
+        <v>33810900</v>
       </c>
       <c r="I21" s="3">
-        <v>42312500</v>
+        <v>40951600</v>
       </c>
       <c r="J21" s="3">
-        <v>39398700</v>
+        <v>38129400</v>
       </c>
       <c r="K21" s="3">
         <v>34048000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>386500</v>
+        <v>373700</v>
       </c>
       <c r="E22" s="3">
-        <v>695400</v>
+        <v>672500</v>
       </c>
       <c r="F22" s="3">
-        <v>255800</v>
+        <v>247400</v>
       </c>
       <c r="G22" s="3">
-        <v>251300</v>
+        <v>243000</v>
       </c>
       <c r="H22" s="3">
-        <v>267400</v>
+        <v>258600</v>
       </c>
       <c r="I22" s="3">
-        <v>322500</v>
+        <v>311900</v>
       </c>
       <c r="J22" s="3">
-        <v>208400</v>
+        <v>201500</v>
       </c>
       <c r="K22" s="3">
         <v>179800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26713700</v>
+        <v>25834000</v>
       </c>
       <c r="E23" s="3">
-        <v>25443700</v>
+        <v>24605800</v>
       </c>
       <c r="F23" s="3">
-        <v>20820600</v>
+        <v>20134900</v>
       </c>
       <c r="G23" s="3">
-        <v>23872100</v>
+        <v>23086000</v>
       </c>
       <c r="H23" s="3">
-        <v>19985700</v>
+        <v>19327600</v>
       </c>
       <c r="I23" s="3">
-        <v>27178600</v>
+        <v>26283600</v>
       </c>
       <c r="J23" s="3">
-        <v>26353700</v>
+        <v>25485800</v>
       </c>
       <c r="K23" s="3">
         <v>22360300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5921300</v>
+        <v>5726300</v>
       </c>
       <c r="E24" s="3">
-        <v>6211400</v>
+        <v>6006800</v>
       </c>
       <c r="F24" s="3">
-        <v>6012100</v>
+        <v>5814100</v>
       </c>
       <c r="G24" s="3">
-        <v>4595100</v>
+        <v>4443800</v>
       </c>
       <c r="H24" s="3">
-        <v>5729300</v>
+        <v>5540600</v>
       </c>
       <c r="I24" s="3">
-        <v>8001000</v>
+        <v>7737500</v>
       </c>
       <c r="J24" s="3">
-        <v>8139500</v>
+        <v>7871500</v>
       </c>
       <c r="K24" s="3">
         <v>7033100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20792500</v>
+        <v>20107800</v>
       </c>
       <c r="E26" s="3">
-        <v>19232300</v>
+        <v>18599000</v>
       </c>
       <c r="F26" s="3">
-        <v>14808500</v>
+        <v>14320800</v>
       </c>
       <c r="G26" s="3">
-        <v>19277000</v>
+        <v>18642200</v>
       </c>
       <c r="H26" s="3">
-        <v>14256500</v>
+        <v>13787000</v>
       </c>
       <c r="I26" s="3">
-        <v>19177600</v>
+        <v>18546000</v>
       </c>
       <c r="J26" s="3">
-        <v>18214200</v>
+        <v>17614400</v>
       </c>
       <c r="K26" s="3">
         <v>15327200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20454300</v>
+        <v>19780700</v>
       </c>
       <c r="E27" s="3">
-        <v>20259400</v>
+        <v>19592200</v>
       </c>
       <c r="F27" s="3">
-        <v>17018300</v>
+        <v>16457800</v>
       </c>
       <c r="G27" s="3">
-        <v>22608200</v>
+        <v>21863700</v>
       </c>
       <c r="H27" s="3">
-        <v>16592200</v>
+        <v>16045800</v>
       </c>
       <c r="I27" s="3">
-        <v>21013200</v>
+        <v>20321200</v>
       </c>
       <c r="J27" s="3">
-        <v>19799100</v>
+        <v>19147100</v>
       </c>
       <c r="K27" s="3">
         <v>16699800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7078700</v>
+        <v>-6845600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4282100</v>
+        <v>-4141100</v>
       </c>
       <c r="F32" s="3">
-        <v>1403000</v>
+        <v>1356800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2260700</v>
+        <v>-2186200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2084400</v>
+        <v>-2015800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1501400</v>
+        <v>-1452000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1504400</v>
+        <v>-1454800</v>
       </c>
       <c r="K32" s="3">
         <v>-1544400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20454300</v>
+        <v>19780700</v>
       </c>
       <c r="E33" s="3">
-        <v>20259400</v>
+        <v>19592200</v>
       </c>
       <c r="F33" s="3">
-        <v>17018300</v>
+        <v>16457800</v>
       </c>
       <c r="G33" s="3">
-        <v>22608200</v>
+        <v>21863700</v>
       </c>
       <c r="H33" s="3">
-        <v>16592200</v>
+        <v>16045800</v>
       </c>
       <c r="I33" s="3">
-        <v>21013200</v>
+        <v>20321200</v>
       </c>
       <c r="J33" s="3">
-        <v>19799100</v>
+        <v>19147100</v>
       </c>
       <c r="K33" s="3">
         <v>16699800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20454300</v>
+        <v>19780700</v>
       </c>
       <c r="E35" s="3">
-        <v>20259400</v>
+        <v>19592200</v>
       </c>
       <c r="F35" s="3">
-        <v>17018300</v>
+        <v>16457800</v>
       </c>
       <c r="G35" s="3">
-        <v>22608200</v>
+        <v>21863700</v>
       </c>
       <c r="H35" s="3">
-        <v>16592200</v>
+        <v>16045800</v>
       </c>
       <c r="I35" s="3">
-        <v>21013200</v>
+        <v>20321200</v>
       </c>
       <c r="J35" s="3">
-        <v>19799100</v>
+        <v>19147100</v>
       </c>
       <c r="K35" s="3">
         <v>16699800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46468800</v>
+        <v>44938600</v>
       </c>
       <c r="E41" s="3">
-        <v>37336900</v>
+        <v>36107300</v>
       </c>
       <c r="F41" s="3">
-        <v>32565600</v>
+        <v>31493100</v>
       </c>
       <c r="G41" s="3">
-        <v>27806200</v>
+        <v>26890500</v>
       </c>
       <c r="H41" s="3">
-        <v>27285100</v>
+        <v>26386600</v>
       </c>
       <c r="I41" s="3">
-        <v>26778200</v>
+        <v>25896400</v>
       </c>
       <c r="J41" s="3">
-        <v>20812300</v>
+        <v>20126900</v>
       </c>
       <c r="K41" s="3">
         <v>18697100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38402800</v>
+        <v>37138200</v>
       </c>
       <c r="E42" s="3">
-        <v>33256500</v>
+        <v>32161400</v>
       </c>
       <c r="F42" s="3">
-        <v>20529500</v>
+        <v>19853400</v>
       </c>
       <c r="G42" s="3">
-        <v>24320100</v>
+        <v>23519200</v>
       </c>
       <c r="H42" s="3">
-        <v>26457700</v>
+        <v>25586500</v>
       </c>
       <c r="I42" s="3">
-        <v>23170600</v>
+        <v>22407600</v>
       </c>
       <c r="J42" s="3">
-        <v>26705200</v>
+        <v>25825800</v>
       </c>
       <c r="K42" s="3">
         <v>20400100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>89527500</v>
+        <v>86579300</v>
       </c>
       <c r="E43" s="3">
-        <v>171099000</v>
+        <v>165465000</v>
       </c>
       <c r="F43" s="3">
-        <v>87352700</v>
+        <v>84476100</v>
       </c>
       <c r="G43" s="3">
-        <v>82511100</v>
+        <v>79794000</v>
       </c>
       <c r="H43" s="3">
-        <v>79707500</v>
+        <v>77082700</v>
       </c>
       <c r="I43" s="3">
-        <v>76198200</v>
+        <v>73688900</v>
       </c>
       <c r="J43" s="3">
-        <v>80161000</v>
+        <v>77521200</v>
       </c>
       <c r="K43" s="3">
         <v>73429700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26309900</v>
+        <v>25443500</v>
       </c>
       <c r="E44" s="3">
-        <v>68349600</v>
+        <v>66098800</v>
       </c>
       <c r="F44" s="3">
-        <v>24199800</v>
+        <v>23402800</v>
       </c>
       <c r="G44" s="3">
-        <v>23137500</v>
+        <v>22375500</v>
       </c>
       <c r="H44" s="3">
-        <v>21760300</v>
+        <v>21043700</v>
       </c>
       <c r="I44" s="3">
-        <v>18780400</v>
+        <v>18161900</v>
       </c>
       <c r="J44" s="3">
-        <v>19473700</v>
+        <v>18832400</v>
       </c>
       <c r="K44" s="3">
         <v>17355500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6787600</v>
+        <v>6564100</v>
       </c>
       <c r="E45" s="3">
-        <v>17455000</v>
+        <v>16880200</v>
       </c>
       <c r="F45" s="3">
-        <v>7342300</v>
+        <v>7100500</v>
       </c>
       <c r="G45" s="3">
-        <v>7595800</v>
+        <v>7345700</v>
       </c>
       <c r="H45" s="3">
-        <v>7254300</v>
+        <v>7015400</v>
       </c>
       <c r="I45" s="3">
-        <v>20961700</v>
+        <v>20271400</v>
       </c>
       <c r="J45" s="3">
-        <v>16248300</v>
+        <v>15713300</v>
       </c>
       <c r="K45" s="3">
         <v>14091700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207497000</v>
+        <v>200664000</v>
       </c>
       <c r="E46" s="3">
-        <v>172756000</v>
+        <v>167067000</v>
       </c>
       <c r="F46" s="3">
-        <v>171990000</v>
+        <v>166326000</v>
       </c>
       <c r="G46" s="3">
-        <v>165371000</v>
+        <v>159925000</v>
       </c>
       <c r="H46" s="3">
-        <v>162465000</v>
+        <v>157115000</v>
       </c>
       <c r="I46" s="3">
-        <v>165889000</v>
+        <v>160426000</v>
       </c>
       <c r="J46" s="3">
-        <v>163401000</v>
+        <v>158020000</v>
       </c>
       <c r="K46" s="3">
         <v>143974000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>234075000</v>
+        <v>226366000</v>
       </c>
       <c r="E47" s="3">
-        <v>405103000</v>
+        <v>391762000</v>
       </c>
       <c r="F47" s="3">
-        <v>191515000</v>
+        <v>185208000</v>
       </c>
       <c r="G47" s="3">
-        <v>188271000</v>
+        <v>182071000</v>
       </c>
       <c r="H47" s="3">
-        <v>178219000</v>
+        <v>172350000</v>
       </c>
       <c r="I47" s="3">
-        <v>170788000</v>
+        <v>165164000</v>
       </c>
       <c r="J47" s="3">
-        <v>178295000</v>
+        <v>172423000</v>
       </c>
       <c r="K47" s="3">
         <v>158854000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107510000</v>
+        <v>103969000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>97344900</v>
+        <v>94139200</v>
       </c>
       <c r="G48" s="3">
-        <v>93538500</v>
+        <v>90458200</v>
       </c>
       <c r="H48" s="3">
-        <v>92895700</v>
+        <v>89836500</v>
       </c>
       <c r="I48" s="3">
-        <v>88735200</v>
+        <v>85813100</v>
       </c>
       <c r="J48" s="3">
-        <v>84684000</v>
+        <v>81895300</v>
       </c>
       <c r="K48" s="3">
         <v>69994300</v>
@@ -2026,10 +2026,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10099700</v>
+        <v>9767100</v>
       </c>
       <c r="E49" s="3">
-        <v>18224700</v>
+        <v>17624500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8073000</v>
+        <v>7807100</v>
       </c>
       <c r="E52" s="3">
-        <v>13428100</v>
+        <v>12985900</v>
       </c>
       <c r="F52" s="3">
-        <v>12296400</v>
+        <v>11891500</v>
       </c>
       <c r="G52" s="3">
-        <v>11127900</v>
+        <v>10761400</v>
       </c>
       <c r="H52" s="3">
-        <v>10534900</v>
+        <v>10187900</v>
       </c>
       <c r="I52" s="3">
-        <v>6652800</v>
+        <v>6433700</v>
       </c>
       <c r="J52" s="3">
-        <v>8439400</v>
+        <v>8161500</v>
       </c>
       <c r="K52" s="3">
         <v>6745300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>567254000</v>
+        <v>548574000</v>
       </c>
       <c r="E54" s="3">
-        <v>491688000</v>
+        <v>475497000</v>
       </c>
       <c r="F54" s="3">
-        <v>473146000</v>
+        <v>457565000</v>
       </c>
       <c r="G54" s="3">
-        <v>458308000</v>
+        <v>443216000</v>
       </c>
       <c r="H54" s="3">
-        <v>444114000</v>
+        <v>429489000</v>
       </c>
       <c r="I54" s="3">
-        <v>432065000</v>
+        <v>417837000</v>
       </c>
       <c r="J54" s="3">
-        <v>434819000</v>
+        <v>420500000</v>
       </c>
       <c r="K54" s="3">
         <v>379567000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36858500</v>
+        <v>35644700</v>
       </c>
       <c r="E57" s="3">
-        <v>54042400</v>
+        <v>52262800</v>
       </c>
       <c r="F57" s="3">
-        <v>24104900</v>
+        <v>23311100</v>
       </c>
       <c r="G57" s="3">
-        <v>23564400</v>
+        <v>22788400</v>
       </c>
       <c r="H57" s="3">
-        <v>23379700</v>
+        <v>22609800</v>
       </c>
       <c r="I57" s="3">
-        <v>21768500</v>
+        <v>21051600</v>
       </c>
       <c r="J57" s="3">
-        <v>21960500</v>
+        <v>21237300</v>
       </c>
       <c r="K57" s="3">
         <v>20273100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>111252000</v>
+        <v>107588000</v>
       </c>
       <c r="E58" s="3">
-        <v>270326000</v>
+        <v>261424000</v>
       </c>
       <c r="F58" s="3">
-        <v>87449000</v>
+        <v>84569200</v>
       </c>
       <c r="G58" s="3">
-        <v>85098200</v>
+        <v>82295900</v>
       </c>
       <c r="H58" s="3">
-        <v>84214000</v>
+        <v>81440800</v>
       </c>
       <c r="I58" s="3">
-        <v>77627100</v>
+        <v>75070800</v>
       </c>
       <c r="J58" s="3">
-        <v>81657400</v>
+        <v>78968400</v>
       </c>
       <c r="K58" s="3">
         <v>71269200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47394500</v>
+        <v>45833700</v>
       </c>
       <c r="E59" s="3">
-        <v>65604600</v>
+        <v>63444200</v>
       </c>
       <c r="F59" s="3">
-        <v>54493500</v>
+        <v>52699000</v>
       </c>
       <c r="G59" s="3">
-        <v>53467000</v>
+        <v>51706300</v>
       </c>
       <c r="H59" s="3">
-        <v>50182000</v>
+        <v>48529500</v>
       </c>
       <c r="I59" s="3">
-        <v>47498200</v>
+        <v>45934000</v>
       </c>
       <c r="J59" s="3">
-        <v>46073100</v>
+        <v>44555800</v>
       </c>
       <c r="K59" s="3">
         <v>42932800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>195505000</v>
+        <v>189067000</v>
       </c>
       <c r="E60" s="3">
-        <v>165276000</v>
+        <v>159833000</v>
       </c>
       <c r="F60" s="3">
-        <v>166047000</v>
+        <v>160579000</v>
       </c>
       <c r="G60" s="3">
-        <v>162130000</v>
+        <v>156791000</v>
       </c>
       <c r="H60" s="3">
-        <v>157776000</v>
+        <v>152580000</v>
       </c>
       <c r="I60" s="3">
-        <v>146894000</v>
+        <v>142057000</v>
       </c>
       <c r="J60" s="3">
-        <v>149691000</v>
+        <v>144762000</v>
       </c>
       <c r="K60" s="3">
         <v>134475000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>122507000</v>
+        <v>118473000</v>
       </c>
       <c r="E61" s="3">
-        <v>104166000</v>
+        <v>100736000</v>
       </c>
       <c r="F61" s="3">
-        <v>96119100</v>
+        <v>92953800</v>
       </c>
       <c r="G61" s="3">
-        <v>91158100</v>
+        <v>88156200</v>
       </c>
       <c r="H61" s="3">
-        <v>90294600</v>
+        <v>87321200</v>
       </c>
       <c r="I61" s="3">
-        <v>89023500</v>
+        <v>86091900</v>
       </c>
       <c r="J61" s="3">
-        <v>91231100</v>
+        <v>88226800</v>
       </c>
       <c r="K61" s="3">
         <v>78289700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27974700</v>
+        <v>27053500</v>
       </c>
       <c r="E62" s="3">
-        <v>44247900</v>
+        <v>42790700</v>
       </c>
       <c r="F62" s="3">
-        <v>23630000</v>
+        <v>22851900</v>
       </c>
       <c r="G62" s="3">
-        <v>23530300</v>
+        <v>22755400</v>
       </c>
       <c r="H62" s="3">
-        <v>25969600</v>
+        <v>25114400</v>
       </c>
       <c r="I62" s="3">
-        <v>31364700</v>
+        <v>30331900</v>
       </c>
       <c r="J62" s="3">
-        <v>33129500</v>
+        <v>32038500</v>
       </c>
       <c r="K62" s="3">
         <v>27396600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>354038000</v>
+        <v>342379000</v>
       </c>
       <c r="E66" s="3">
-        <v>303850000</v>
+        <v>293844000</v>
       </c>
       <c r="F66" s="3">
-        <v>292347000</v>
+        <v>282719000</v>
       </c>
       <c r="G66" s="3">
-        <v>283142000</v>
+        <v>273817000</v>
       </c>
       <c r="H66" s="3">
-        <v>280128000</v>
+        <v>270903000</v>
       </c>
       <c r="I66" s="3">
-        <v>275130000</v>
+        <v>266070000</v>
       </c>
       <c r="J66" s="3">
-        <v>281879000</v>
+        <v>272596000</v>
       </c>
       <c r="K66" s="3">
         <v>247030000</v>
@@ -2725,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4593000</v>
+        <v>4441700</v>
       </c>
       <c r="F70" s="3">
-        <v>4537400</v>
+        <v>4388000</v>
       </c>
       <c r="G70" s="3">
-        <v>4481900</v>
+        <v>4334300</v>
       </c>
       <c r="H70" s="3">
-        <v>4426300</v>
+        <v>4280600</v>
       </c>
       <c r="I70" s="3">
-        <v>4370800</v>
+        <v>4226900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>219589000</v>
+        <v>212358000</v>
       </c>
       <c r="E72" s="3">
-        <v>202552000</v>
+        <v>195882000</v>
       </c>
       <c r="F72" s="3">
-        <v>200306000</v>
+        <v>193710000</v>
       </c>
       <c r="G72" s="3">
-        <v>177403000</v>
+        <v>171561000</v>
       </c>
       <c r="H72" s="3">
-        <v>160346000</v>
+        <v>155065000</v>
       </c>
       <c r="I72" s="3">
-        <v>152996000</v>
+        <v>147957000</v>
       </c>
       <c r="J72" s="3">
-        <v>142043000</v>
+        <v>137365000</v>
       </c>
       <c r="K72" s="3">
         <v>129305000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>213215000</v>
+        <v>206194000</v>
       </c>
       <c r="E76" s="3">
-        <v>183245000</v>
+        <v>177211000</v>
       </c>
       <c r="F76" s="3">
-        <v>176262000</v>
+        <v>170457000</v>
       </c>
       <c r="G76" s="3">
-        <v>170685000</v>
+        <v>165064000</v>
       </c>
       <c r="H76" s="3">
-        <v>159560000</v>
+        <v>154306000</v>
       </c>
       <c r="I76" s="3">
-        <v>152565000</v>
+        <v>147541000</v>
       </c>
       <c r="J76" s="3">
-        <v>152940000</v>
+        <v>147903000</v>
       </c>
       <c r="K76" s="3">
         <v>132537000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20454300</v>
+        <v>19780700</v>
       </c>
       <c r="E81" s="3">
-        <v>20259400</v>
+        <v>19592200</v>
       </c>
       <c r="F81" s="3">
-        <v>17018300</v>
+        <v>16457800</v>
       </c>
       <c r="G81" s="3">
-        <v>22608200</v>
+        <v>21863700</v>
       </c>
       <c r="H81" s="3">
-        <v>16592200</v>
+        <v>16045800</v>
       </c>
       <c r="I81" s="3">
-        <v>21013200</v>
+        <v>20321200</v>
       </c>
       <c r="J81" s="3">
-        <v>19799100</v>
+        <v>19147100</v>
       </c>
       <c r="K81" s="3">
         <v>16699800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14979500</v>
+        <v>14486200</v>
       </c>
       <c r="E83" s="3">
-        <v>14533600</v>
+        <v>14055000</v>
       </c>
       <c r="F83" s="3">
-        <v>16328500</v>
+        <v>15790800</v>
       </c>
       <c r="G83" s="3">
-        <v>15797000</v>
+        <v>15276800</v>
       </c>
       <c r="H83" s="3">
-        <v>14675800</v>
+        <v>14192500</v>
       </c>
       <c r="I83" s="3">
-        <v>14811400</v>
+        <v>14323600</v>
       </c>
       <c r="J83" s="3">
-        <v>12836700</v>
+        <v>12414000</v>
       </c>
       <c r="K83" s="3">
         <v>11457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24844400</v>
+        <v>24026300</v>
       </c>
       <c r="E89" s="3">
-        <v>21850300</v>
+        <v>21130800</v>
       </c>
       <c r="F89" s="3">
-        <v>34313700</v>
+        <v>33183700</v>
       </c>
       <c r="G89" s="3">
-        <v>38472700</v>
+        <v>37205800</v>
       </c>
       <c r="H89" s="3">
-        <v>31103700</v>
+        <v>30079400</v>
       </c>
       <c r="I89" s="3">
-        <v>40638400</v>
+        <v>39300200</v>
       </c>
       <c r="J89" s="3">
-        <v>33577200</v>
+        <v>32471500</v>
       </c>
       <c r="K89" s="3">
         <v>33397700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31789300</v>
+        <v>-30742500</v>
       </c>
       <c r="E91" s="3">
-        <v>-31352800</v>
+        <v>-30320400</v>
       </c>
       <c r="F91" s="3">
-        <v>-34061300</v>
+        <v>-32939600</v>
       </c>
       <c r="G91" s="3">
-        <v>-32784200</v>
+        <v>-31704600</v>
       </c>
       <c r="H91" s="3">
-        <v>-32262500</v>
+        <v>-31200100</v>
       </c>
       <c r="I91" s="3">
-        <v>-36979500</v>
+        <v>-35761700</v>
       </c>
       <c r="J91" s="3">
-        <v>-30587400</v>
+        <v>-29580200</v>
       </c>
       <c r="K91" s="3">
         <v>-24536800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-42672800</v>
+        <v>-41267600</v>
       </c>
       <c r="E94" s="3">
-        <v>-19355600</v>
+        <v>-18718200</v>
       </c>
       <c r="F94" s="3">
-        <v>-24571900</v>
+        <v>-23762700</v>
       </c>
       <c r="G94" s="3">
-        <v>-33343400</v>
+        <v>-32245400</v>
       </c>
       <c r="H94" s="3">
-        <v>-27056100</v>
+        <v>-26165200</v>
       </c>
       <c r="I94" s="3">
-        <v>-28993000</v>
+        <v>-28038200</v>
       </c>
       <c r="J94" s="3">
-        <v>-34740900</v>
+        <v>-33596800</v>
       </c>
       <c r="K94" s="3">
         <v>-39720000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5698400</v>
+        <v>-5510800</v>
       </c>
       <c r="E96" s="3">
-        <v>-5739200</v>
+        <v>-5550200</v>
       </c>
       <c r="F96" s="3">
-        <v>-5874200</v>
+        <v>-5680700</v>
       </c>
       <c r="G96" s="3">
-        <v>-5711000</v>
+        <v>-5522900</v>
       </c>
       <c r="H96" s="3">
-        <v>-5813700</v>
+        <v>-5622300</v>
       </c>
       <c r="I96" s="3">
-        <v>-6431200</v>
+        <v>-6219400</v>
       </c>
       <c r="J96" s="3">
-        <v>-5055400</v>
+        <v>-4889000</v>
       </c>
       <c r="K96" s="3">
         <v>-3627600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24953900</v>
+        <v>24132100</v>
       </c>
       <c r="E100" s="3">
-        <v>3305200</v>
+        <v>3196300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4927000</v>
+        <v>-4764800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4091600</v>
+        <v>-3956900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3417800</v>
+        <v>-3305200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3858700</v>
+        <v>-3731700</v>
       </c>
       <c r="J100" s="3">
-        <v>2788100</v>
+        <v>2696300</v>
       </c>
       <c r="K100" s="3">
         <v>8422400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2006400</v>
+        <v>1940400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1284600</v>
+        <v>-1242300</v>
       </c>
       <c r="F101" s="3">
-        <v>-379300</v>
+        <v>-366900</v>
       </c>
       <c r="G101" s="3">
-        <v>-397100</v>
+        <v>-384000</v>
       </c>
       <c r="H101" s="3">
-        <v>-122900</v>
+        <v>-118800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1820800</v>
+        <v>-1760900</v>
       </c>
       <c r="J101" s="3">
-        <v>592900</v>
+        <v>573300</v>
       </c>
       <c r="K101" s="3">
         <v>857400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9131900</v>
+        <v>8831200</v>
       </c>
       <c r="E102" s="3">
-        <v>4515300</v>
+        <v>4366600</v>
       </c>
       <c r="F102" s="3">
-        <v>4435400</v>
+        <v>4289400</v>
       </c>
       <c r="G102" s="3">
-        <v>640600</v>
+        <v>619500</v>
       </c>
       <c r="H102" s="3">
-        <v>506900</v>
+        <v>490300</v>
       </c>
       <c r="I102" s="3">
-        <v>5965900</v>
+        <v>5769400</v>
       </c>
       <c r="J102" s="3">
-        <v>2217300</v>
+        <v>2144200</v>
       </c>
       <c r="K102" s="3">
         <v>2957500</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>239760600</v>
+        <v>232140500</v>
       </c>
       <c r="E8" s="3">
-        <v>263124300</v>
+        <v>254761600</v>
       </c>
       <c r="F8" s="3">
-        <v>266288200</v>
+        <v>257825100</v>
       </c>
       <c r="G8" s="3">
-        <v>258833500</v>
+        <v>250607200</v>
       </c>
       <c r="H8" s="3">
-        <v>243131300</v>
+        <v>235404100</v>
       </c>
       <c r="I8" s="3">
-        <v>250231500</v>
+        <v>242278600</v>
       </c>
       <c r="J8" s="3">
-        <v>239936100</v>
+        <v>232310500</v>
       </c>
       <c r="K8" s="3">
         <v>235337900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>197187400</v>
+        <v>190920300</v>
       </c>
       <c r="E9" s="3">
-        <v>419603500</v>
+        <v>406267700</v>
       </c>
       <c r="F9" s="3">
-        <v>218327500</v>
+        <v>211388600</v>
       </c>
       <c r="G9" s="3">
-        <v>210463400</v>
+        <v>203774500</v>
       </c>
       <c r="H9" s="3">
-        <v>200289500</v>
+        <v>193923900</v>
       </c>
       <c r="I9" s="3">
-        <v>199154100</v>
+        <v>192824600</v>
       </c>
       <c r="J9" s="3">
-        <v>192425200</v>
+        <v>186309500</v>
       </c>
       <c r="K9" s="3">
         <v>190538400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42573200</v>
+        <v>41220200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>47960700</v>
+        <v>46436400</v>
       </c>
       <c r="G10" s="3">
-        <v>48370000</v>
+        <v>46832700</v>
       </c>
       <c r="H10" s="3">
-        <v>42841800</v>
+        <v>41480200</v>
       </c>
       <c r="I10" s="3">
-        <v>51077300</v>
+        <v>49454000</v>
       </c>
       <c r="J10" s="3">
-        <v>47511000</v>
+        <v>46001000</v>
       </c>
       <c r="K10" s="3">
         <v>44799500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>220398400</v>
+        <v>213393700</v>
       </c>
       <c r="E17" s="3">
-        <v>241987000</v>
+        <v>234296200</v>
       </c>
       <c r="F17" s="3">
-        <v>244549200</v>
+        <v>236776900</v>
       </c>
       <c r="G17" s="3">
-        <v>237690700</v>
+        <v>230136400</v>
       </c>
       <c r="H17" s="3">
-        <v>225560900</v>
+        <v>218392100</v>
       </c>
       <c r="I17" s="3">
-        <v>225088000</v>
+        <v>217934200</v>
       </c>
       <c r="J17" s="3">
-        <v>215703700</v>
+        <v>208848200</v>
       </c>
       <c r="K17" s="3">
         <v>214342200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19362200</v>
+        <v>18746800</v>
       </c>
       <c r="E18" s="3">
-        <v>21137200</v>
+        <v>20465400</v>
       </c>
       <c r="F18" s="3">
-        <v>21739100</v>
+        <v>21048200</v>
       </c>
       <c r="G18" s="3">
-        <v>21142800</v>
+        <v>20470800</v>
       </c>
       <c r="H18" s="3">
-        <v>17570400</v>
+        <v>17012000</v>
       </c>
       <c r="I18" s="3">
-        <v>25143500</v>
+        <v>24344400</v>
       </c>
       <c r="J18" s="3">
-        <v>24232500</v>
+        <v>23462300</v>
       </c>
       <c r="K18" s="3">
         <v>20995700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6845600</v>
+        <v>6628000</v>
       </c>
       <c r="E20" s="3">
-        <v>4141100</v>
+        <v>4009400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1356800</v>
+        <v>-1313600</v>
       </c>
       <c r="G20" s="3">
-        <v>2186200</v>
+        <v>2116700</v>
       </c>
       <c r="H20" s="3">
-        <v>2015800</v>
+        <v>1951700</v>
       </c>
       <c r="I20" s="3">
-        <v>1452000</v>
+        <v>1405900</v>
       </c>
       <c r="J20" s="3">
-        <v>1454800</v>
+        <v>1408600</v>
       </c>
       <c r="K20" s="3">
         <v>1544400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40726800</v>
+        <v>39565100</v>
       </c>
       <c r="E21" s="3">
-        <v>39365200</v>
+        <v>38242700</v>
       </c>
       <c r="F21" s="3">
-        <v>36209000</v>
+        <v>35202700</v>
       </c>
       <c r="G21" s="3">
-        <v>38640500</v>
+        <v>37552300</v>
       </c>
       <c r="H21" s="3">
-        <v>33810900</v>
+        <v>32866200</v>
       </c>
       <c r="I21" s="3">
-        <v>40951600</v>
+        <v>39781200</v>
       </c>
       <c r="J21" s="3">
-        <v>38129400</v>
+        <v>37031200</v>
       </c>
       <c r="K21" s="3">
         <v>34048000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>373700</v>
+        <v>361900</v>
       </c>
       <c r="E22" s="3">
-        <v>672500</v>
+        <v>651100</v>
       </c>
       <c r="F22" s="3">
-        <v>247400</v>
+        <v>239500</v>
       </c>
       <c r="G22" s="3">
-        <v>243000</v>
+        <v>235300</v>
       </c>
       <c r="H22" s="3">
-        <v>258600</v>
+        <v>250400</v>
       </c>
       <c r="I22" s="3">
-        <v>311900</v>
+        <v>302000</v>
       </c>
       <c r="J22" s="3">
-        <v>201500</v>
+        <v>195100</v>
       </c>
       <c r="K22" s="3">
         <v>179800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25834000</v>
+        <v>25013000</v>
       </c>
       <c r="E23" s="3">
-        <v>24605800</v>
+        <v>23823800</v>
       </c>
       <c r="F23" s="3">
-        <v>20134900</v>
+        <v>19495000</v>
       </c>
       <c r="G23" s="3">
-        <v>23086000</v>
+        <v>22352300</v>
       </c>
       <c r="H23" s="3">
-        <v>19327600</v>
+        <v>18713300</v>
       </c>
       <c r="I23" s="3">
-        <v>26283600</v>
+        <v>25448200</v>
       </c>
       <c r="J23" s="3">
-        <v>25485800</v>
+        <v>24675800</v>
       </c>
       <c r="K23" s="3">
         <v>22360300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5726300</v>
+        <v>5544300</v>
       </c>
       <c r="E24" s="3">
-        <v>6006800</v>
+        <v>5815900</v>
       </c>
       <c r="F24" s="3">
-        <v>5814100</v>
+        <v>5629300</v>
       </c>
       <c r="G24" s="3">
-        <v>4443800</v>
+        <v>4302600</v>
       </c>
       <c r="H24" s="3">
-        <v>5540600</v>
+        <v>5364500</v>
       </c>
       <c r="I24" s="3">
-        <v>7737500</v>
+        <v>7491600</v>
       </c>
       <c r="J24" s="3">
-        <v>7871500</v>
+        <v>7621300</v>
       </c>
       <c r="K24" s="3">
         <v>7033100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20107800</v>
+        <v>19468700</v>
       </c>
       <c r="E26" s="3">
-        <v>18599000</v>
+        <v>18007900</v>
       </c>
       <c r="F26" s="3">
-        <v>14320800</v>
+        <v>13865700</v>
       </c>
       <c r="G26" s="3">
-        <v>18642200</v>
+        <v>18049700</v>
       </c>
       <c r="H26" s="3">
-        <v>13787000</v>
+        <v>13348800</v>
       </c>
       <c r="I26" s="3">
-        <v>18546000</v>
+        <v>17956600</v>
       </c>
       <c r="J26" s="3">
-        <v>17614400</v>
+        <v>17054500</v>
       </c>
       <c r="K26" s="3">
         <v>15327200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19780700</v>
+        <v>19152100</v>
       </c>
       <c r="E27" s="3">
-        <v>19592200</v>
+        <v>18969500</v>
       </c>
       <c r="F27" s="3">
-        <v>16457800</v>
+        <v>15934800</v>
       </c>
       <c r="G27" s="3">
-        <v>21863700</v>
+        <v>21168800</v>
       </c>
       <c r="H27" s="3">
-        <v>16045800</v>
+        <v>15535800</v>
       </c>
       <c r="I27" s="3">
-        <v>20321200</v>
+        <v>19675400</v>
       </c>
       <c r="J27" s="3">
-        <v>19147100</v>
+        <v>18538600</v>
       </c>
       <c r="K27" s="3">
         <v>16699800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6845600</v>
+        <v>-6628000</v>
       </c>
       <c r="E32" s="3">
-        <v>-4141100</v>
+        <v>-4009400</v>
       </c>
       <c r="F32" s="3">
-        <v>1356800</v>
+        <v>1313600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2186200</v>
+        <v>-2116700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2015800</v>
+        <v>-1951700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1452000</v>
+        <v>-1405900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1454800</v>
+        <v>-1408600</v>
       </c>
       <c r="K32" s="3">
         <v>-1544400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19780700</v>
+        <v>19152100</v>
       </c>
       <c r="E33" s="3">
-        <v>19592200</v>
+        <v>18969500</v>
       </c>
       <c r="F33" s="3">
-        <v>16457800</v>
+        <v>15934800</v>
       </c>
       <c r="G33" s="3">
-        <v>21863700</v>
+        <v>21168800</v>
       </c>
       <c r="H33" s="3">
-        <v>16045800</v>
+        <v>15535800</v>
       </c>
       <c r="I33" s="3">
-        <v>20321200</v>
+        <v>19675400</v>
       </c>
       <c r="J33" s="3">
-        <v>19147100</v>
+        <v>18538600</v>
       </c>
       <c r="K33" s="3">
         <v>16699800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19780700</v>
+        <v>19152100</v>
       </c>
       <c r="E35" s="3">
-        <v>19592200</v>
+        <v>18969500</v>
       </c>
       <c r="F35" s="3">
-        <v>16457800</v>
+        <v>15934800</v>
       </c>
       <c r="G35" s="3">
-        <v>21863700</v>
+        <v>21168800</v>
       </c>
       <c r="H35" s="3">
-        <v>16045800</v>
+        <v>15535800</v>
       </c>
       <c r="I35" s="3">
-        <v>20321200</v>
+        <v>19675400</v>
       </c>
       <c r="J35" s="3">
-        <v>19147100</v>
+        <v>18538600</v>
       </c>
       <c r="K35" s="3">
         <v>16699800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44938600</v>
+        <v>43510300</v>
       </c>
       <c r="E41" s="3">
-        <v>36107300</v>
+        <v>34959800</v>
       </c>
       <c r="F41" s="3">
-        <v>31493100</v>
+        <v>30492200</v>
       </c>
       <c r="G41" s="3">
-        <v>26890500</v>
+        <v>26035900</v>
       </c>
       <c r="H41" s="3">
-        <v>26386600</v>
+        <v>25548000</v>
       </c>
       <c r="I41" s="3">
-        <v>25896400</v>
+        <v>25073300</v>
       </c>
       <c r="J41" s="3">
-        <v>20126900</v>
+        <v>19487300</v>
       </c>
       <c r="K41" s="3">
         <v>18697100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37138200</v>
+        <v>35957800</v>
       </c>
       <c r="E42" s="3">
-        <v>32161400</v>
+        <v>31139200</v>
       </c>
       <c r="F42" s="3">
-        <v>19853400</v>
+        <v>19222500</v>
       </c>
       <c r="G42" s="3">
-        <v>23519200</v>
+        <v>22771700</v>
       </c>
       <c r="H42" s="3">
-        <v>25586500</v>
+        <v>24773300</v>
       </c>
       <c r="I42" s="3">
-        <v>22407600</v>
+        <v>21695400</v>
       </c>
       <c r="J42" s="3">
-        <v>25825800</v>
+        <v>25005000</v>
       </c>
       <c r="K42" s="3">
         <v>20400100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86579300</v>
+        <v>83827600</v>
       </c>
       <c r="E43" s="3">
-        <v>165465000</v>
+        <v>160206000</v>
       </c>
       <c r="F43" s="3">
-        <v>84476100</v>
+        <v>81791300</v>
       </c>
       <c r="G43" s="3">
-        <v>79794000</v>
+        <v>77258000</v>
       </c>
       <c r="H43" s="3">
-        <v>77082700</v>
+        <v>74632800</v>
       </c>
       <c r="I43" s="3">
-        <v>73688900</v>
+        <v>71347000</v>
       </c>
       <c r="J43" s="3">
-        <v>77521200</v>
+        <v>75057400</v>
       </c>
       <c r="K43" s="3">
         <v>73429700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25443500</v>
+        <v>24634900</v>
       </c>
       <c r="E44" s="3">
-        <v>66098800</v>
+        <v>63998000</v>
       </c>
       <c r="F44" s="3">
-        <v>23402800</v>
+        <v>22659100</v>
       </c>
       <c r="G44" s="3">
-        <v>22375500</v>
+        <v>21664400</v>
       </c>
       <c r="H44" s="3">
-        <v>21043700</v>
+        <v>20374900</v>
       </c>
       <c r="I44" s="3">
-        <v>18161900</v>
+        <v>17584700</v>
       </c>
       <c r="J44" s="3">
-        <v>18832400</v>
+        <v>18233900</v>
       </c>
       <c r="K44" s="3">
         <v>17355500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6564100</v>
+        <v>6355400</v>
       </c>
       <c r="E45" s="3">
-        <v>16880200</v>
+        <v>16343700</v>
       </c>
       <c r="F45" s="3">
-        <v>7100500</v>
+        <v>6874900</v>
       </c>
       <c r="G45" s="3">
-        <v>7345700</v>
+        <v>7112200</v>
       </c>
       <c r="H45" s="3">
-        <v>7015400</v>
+        <v>6792400</v>
       </c>
       <c r="I45" s="3">
-        <v>20271400</v>
+        <v>19627100</v>
       </c>
       <c r="J45" s="3">
-        <v>15713300</v>
+        <v>15213900</v>
       </c>
       <c r="K45" s="3">
         <v>14091700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200664000</v>
+        <v>194286000</v>
       </c>
       <c r="E46" s="3">
-        <v>167067000</v>
+        <v>161757000</v>
       </c>
       <c r="F46" s="3">
-        <v>166326000</v>
+        <v>161040000</v>
       </c>
       <c r="G46" s="3">
-        <v>159925000</v>
+        <v>154842000</v>
       </c>
       <c r="H46" s="3">
-        <v>157115000</v>
+        <v>152121000</v>
       </c>
       <c r="I46" s="3">
-        <v>160426000</v>
+        <v>155328000</v>
       </c>
       <c r="J46" s="3">
-        <v>158020000</v>
+        <v>152998000</v>
       </c>
       <c r="K46" s="3">
         <v>143974000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>226366000</v>
+        <v>219172000</v>
       </c>
       <c r="E47" s="3">
-        <v>391762000</v>
+        <v>379311000</v>
       </c>
       <c r="F47" s="3">
-        <v>185208000</v>
+        <v>179322000</v>
       </c>
       <c r="G47" s="3">
-        <v>182071000</v>
+        <v>176285000</v>
       </c>
       <c r="H47" s="3">
-        <v>172350000</v>
+        <v>166872000</v>
       </c>
       <c r="I47" s="3">
-        <v>165164000</v>
+        <v>159915000</v>
       </c>
       <c r="J47" s="3">
-        <v>172423000</v>
+        <v>166943000</v>
       </c>
       <c r="K47" s="3">
         <v>158854000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103969000</v>
+        <v>100665000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>94139200</v>
+        <v>91147300</v>
       </c>
       <c r="G48" s="3">
-        <v>90458200</v>
+        <v>87583300</v>
       </c>
       <c r="H48" s="3">
-        <v>89836500</v>
+        <v>86981300</v>
       </c>
       <c r="I48" s="3">
-        <v>85813100</v>
+        <v>83085800</v>
       </c>
       <c r="J48" s="3">
-        <v>81895300</v>
+        <v>79292500</v>
       </c>
       <c r="K48" s="3">
         <v>69994300</v>
@@ -2026,10 +2026,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9767100</v>
+        <v>9456600</v>
       </c>
       <c r="E49" s="3">
-        <v>17624500</v>
+        <v>17064400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7807100</v>
+        <v>7559000</v>
       </c>
       <c r="E52" s="3">
-        <v>12985900</v>
+        <v>12573200</v>
       </c>
       <c r="F52" s="3">
-        <v>11891500</v>
+        <v>11513500</v>
       </c>
       <c r="G52" s="3">
-        <v>10761400</v>
+        <v>10419400</v>
       </c>
       <c r="H52" s="3">
-        <v>10187900</v>
+        <v>9864100</v>
       </c>
       <c r="I52" s="3">
-        <v>6433700</v>
+        <v>6229200</v>
       </c>
       <c r="J52" s="3">
-        <v>8161500</v>
+        <v>7902100</v>
       </c>
       <c r="K52" s="3">
         <v>6745300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>548574000</v>
+        <v>531139000</v>
       </c>
       <c r="E54" s="3">
-        <v>475497000</v>
+        <v>460384000</v>
       </c>
       <c r="F54" s="3">
-        <v>457565000</v>
+        <v>443022000</v>
       </c>
       <c r="G54" s="3">
-        <v>443216000</v>
+        <v>429129000</v>
       </c>
       <c r="H54" s="3">
-        <v>429489000</v>
+        <v>415839000</v>
       </c>
       <c r="I54" s="3">
-        <v>417837000</v>
+        <v>404557000</v>
       </c>
       <c r="J54" s="3">
-        <v>420500000</v>
+        <v>407135000</v>
       </c>
       <c r="K54" s="3">
         <v>379567000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35644700</v>
+        <v>34511900</v>
       </c>
       <c r="E57" s="3">
-        <v>52262800</v>
+        <v>50601700</v>
       </c>
       <c r="F57" s="3">
-        <v>23311100</v>
+        <v>22570200</v>
       </c>
       <c r="G57" s="3">
-        <v>22788400</v>
+        <v>22064200</v>
       </c>
       <c r="H57" s="3">
-        <v>22609800</v>
+        <v>21891200</v>
       </c>
       <c r="I57" s="3">
-        <v>21051600</v>
+        <v>20382600</v>
       </c>
       <c r="J57" s="3">
-        <v>21237300</v>
+        <v>20562300</v>
       </c>
       <c r="K57" s="3">
         <v>20273100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>107588000</v>
+        <v>104169000</v>
       </c>
       <c r="E58" s="3">
-        <v>261424000</v>
+        <v>253116000</v>
       </c>
       <c r="F58" s="3">
-        <v>84569200</v>
+        <v>81881500</v>
       </c>
       <c r="G58" s="3">
-        <v>82295900</v>
+        <v>79680400</v>
       </c>
       <c r="H58" s="3">
-        <v>81440800</v>
+        <v>78852400</v>
       </c>
       <c r="I58" s="3">
-        <v>75070800</v>
+        <v>72684900</v>
       </c>
       <c r="J58" s="3">
-        <v>78968400</v>
+        <v>76458600</v>
       </c>
       <c r="K58" s="3">
         <v>71269200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45833700</v>
+        <v>44377000</v>
       </c>
       <c r="E59" s="3">
-        <v>63444200</v>
+        <v>61427800</v>
       </c>
       <c r="F59" s="3">
-        <v>52699000</v>
+        <v>51024100</v>
       </c>
       <c r="G59" s="3">
-        <v>51706300</v>
+        <v>50062900</v>
       </c>
       <c r="H59" s="3">
-        <v>48529500</v>
+        <v>46987100</v>
       </c>
       <c r="I59" s="3">
-        <v>45934000</v>
+        <v>44474200</v>
       </c>
       <c r="J59" s="3">
-        <v>44555800</v>
+        <v>43139800</v>
       </c>
       <c r="K59" s="3">
         <v>42932800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>189067000</v>
+        <v>183058000</v>
       </c>
       <c r="E60" s="3">
-        <v>159833000</v>
+        <v>154753000</v>
       </c>
       <c r="F60" s="3">
-        <v>160579000</v>
+        <v>155476000</v>
       </c>
       <c r="G60" s="3">
-        <v>156791000</v>
+        <v>151808000</v>
       </c>
       <c r="H60" s="3">
-        <v>152580000</v>
+        <v>147731000</v>
       </c>
       <c r="I60" s="3">
-        <v>142057000</v>
+        <v>137542000</v>
       </c>
       <c r="J60" s="3">
-        <v>144762000</v>
+        <v>140161000</v>
       </c>
       <c r="K60" s="3">
         <v>134475000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118473000</v>
+        <v>114708000</v>
       </c>
       <c r="E61" s="3">
-        <v>100736000</v>
+        <v>97533900</v>
       </c>
       <c r="F61" s="3">
-        <v>92953800</v>
+        <v>89999600</v>
       </c>
       <c r="G61" s="3">
-        <v>88156200</v>
+        <v>85354400</v>
       </c>
       <c r="H61" s="3">
-        <v>87321200</v>
+        <v>84545900</v>
       </c>
       <c r="I61" s="3">
-        <v>86091900</v>
+        <v>83355700</v>
       </c>
       <c r="J61" s="3">
-        <v>88226800</v>
+        <v>85422800</v>
       </c>
       <c r="K61" s="3">
         <v>78289700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27053500</v>
+        <v>26193700</v>
       </c>
       <c r="E62" s="3">
-        <v>42790700</v>
+        <v>41430800</v>
       </c>
       <c r="F62" s="3">
-        <v>22851900</v>
+        <v>22125600</v>
       </c>
       <c r="G62" s="3">
-        <v>22755400</v>
+        <v>22032200</v>
       </c>
       <c r="H62" s="3">
-        <v>25114400</v>
+        <v>24316200</v>
       </c>
       <c r="I62" s="3">
-        <v>30331900</v>
+        <v>29367900</v>
       </c>
       <c r="J62" s="3">
-        <v>32038500</v>
+        <v>31020300</v>
       </c>
       <c r="K62" s="3">
         <v>27396600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342379000</v>
+        <v>331498000</v>
       </c>
       <c r="E66" s="3">
-        <v>293844000</v>
+        <v>284505000</v>
       </c>
       <c r="F66" s="3">
-        <v>282719000</v>
+        <v>273734000</v>
       </c>
       <c r="G66" s="3">
-        <v>273817000</v>
+        <v>265115000</v>
       </c>
       <c r="H66" s="3">
-        <v>270903000</v>
+        <v>262293000</v>
       </c>
       <c r="I66" s="3">
-        <v>266070000</v>
+        <v>257614000</v>
       </c>
       <c r="J66" s="3">
-        <v>272596000</v>
+        <v>263933000</v>
       </c>
       <c r="K66" s="3">
         <v>247030000</v>
@@ -2725,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4441700</v>
+        <v>4300600</v>
       </c>
       <c r="F70" s="3">
-        <v>4388000</v>
+        <v>4248600</v>
       </c>
       <c r="G70" s="3">
-        <v>4334300</v>
+        <v>4196500</v>
       </c>
       <c r="H70" s="3">
-        <v>4280600</v>
+        <v>4144500</v>
       </c>
       <c r="I70" s="3">
-        <v>4226900</v>
+        <v>4092500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>212358000</v>
+        <v>205609000</v>
       </c>
       <c r="E72" s="3">
-        <v>195882000</v>
+        <v>189657000</v>
       </c>
       <c r="F72" s="3">
-        <v>193710000</v>
+        <v>187554000</v>
       </c>
       <c r="G72" s="3">
-        <v>171561000</v>
+        <v>166109000</v>
       </c>
       <c r="H72" s="3">
-        <v>155065000</v>
+        <v>150137000</v>
       </c>
       <c r="I72" s="3">
-        <v>147957000</v>
+        <v>143255000</v>
       </c>
       <c r="J72" s="3">
-        <v>137365000</v>
+        <v>132999000</v>
       </c>
       <c r="K72" s="3">
         <v>129305000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206194000</v>
+        <v>199641000</v>
       </c>
       <c r="E76" s="3">
-        <v>177211000</v>
+        <v>171579000</v>
       </c>
       <c r="F76" s="3">
-        <v>170457000</v>
+        <v>165040000</v>
       </c>
       <c r="G76" s="3">
-        <v>165064000</v>
+        <v>159818000</v>
       </c>
       <c r="H76" s="3">
-        <v>154306000</v>
+        <v>149401000</v>
       </c>
       <c r="I76" s="3">
-        <v>147541000</v>
+        <v>142851000</v>
       </c>
       <c r="J76" s="3">
-        <v>147903000</v>
+        <v>143203000</v>
       </c>
       <c r="K76" s="3">
         <v>132537000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19780700</v>
+        <v>19152100</v>
       </c>
       <c r="E81" s="3">
-        <v>19592200</v>
+        <v>18969500</v>
       </c>
       <c r="F81" s="3">
-        <v>16457800</v>
+        <v>15934800</v>
       </c>
       <c r="G81" s="3">
-        <v>21863700</v>
+        <v>21168800</v>
       </c>
       <c r="H81" s="3">
-        <v>16045800</v>
+        <v>15535800</v>
       </c>
       <c r="I81" s="3">
-        <v>20321200</v>
+        <v>19675400</v>
       </c>
       <c r="J81" s="3">
-        <v>19147100</v>
+        <v>18538600</v>
       </c>
       <c r="K81" s="3">
         <v>16699800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14486200</v>
+        <v>14025800</v>
       </c>
       <c r="E83" s="3">
-        <v>14055000</v>
+        <v>13608300</v>
       </c>
       <c r="F83" s="3">
-        <v>15790800</v>
+        <v>15289000</v>
       </c>
       <c r="G83" s="3">
-        <v>15276800</v>
+        <v>14791300</v>
       </c>
       <c r="H83" s="3">
-        <v>14192500</v>
+        <v>13741400</v>
       </c>
       <c r="I83" s="3">
-        <v>14323600</v>
+        <v>13868400</v>
       </c>
       <c r="J83" s="3">
-        <v>12414000</v>
+        <v>12019400</v>
       </c>
       <c r="K83" s="3">
         <v>11457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24026300</v>
+        <v>23262700</v>
       </c>
       <c r="E89" s="3">
-        <v>21130800</v>
+        <v>20459200</v>
       </c>
       <c r="F89" s="3">
-        <v>33183700</v>
+        <v>32129100</v>
       </c>
       <c r="G89" s="3">
-        <v>37205800</v>
+        <v>36023300</v>
       </c>
       <c r="H89" s="3">
-        <v>30079400</v>
+        <v>29123400</v>
       </c>
       <c r="I89" s="3">
-        <v>39300200</v>
+        <v>38051100</v>
       </c>
       <c r="J89" s="3">
-        <v>32471500</v>
+        <v>31439500</v>
       </c>
       <c r="K89" s="3">
         <v>33397700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30742500</v>
+        <v>-29765400</v>
       </c>
       <c r="E91" s="3">
-        <v>-30320400</v>
+        <v>-29356700</v>
       </c>
       <c r="F91" s="3">
-        <v>-32939600</v>
+        <v>-31892700</v>
       </c>
       <c r="G91" s="3">
-        <v>-31704600</v>
+        <v>-30697000</v>
       </c>
       <c r="H91" s="3">
-        <v>-31200100</v>
+        <v>-30208500</v>
       </c>
       <c r="I91" s="3">
-        <v>-35761700</v>
+        <v>-34625100</v>
       </c>
       <c r="J91" s="3">
-        <v>-29580200</v>
+        <v>-28640100</v>
       </c>
       <c r="K91" s="3">
         <v>-24536800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41267600</v>
+        <v>-39956000</v>
       </c>
       <c r="E94" s="3">
-        <v>-18718200</v>
+        <v>-18123300</v>
       </c>
       <c r="F94" s="3">
-        <v>-23762700</v>
+        <v>-23007500</v>
       </c>
       <c r="G94" s="3">
-        <v>-32245400</v>
+        <v>-31220600</v>
       </c>
       <c r="H94" s="3">
-        <v>-26165200</v>
+        <v>-25333600</v>
       </c>
       <c r="I94" s="3">
-        <v>-28038200</v>
+        <v>-27147100</v>
       </c>
       <c r="J94" s="3">
-        <v>-33596800</v>
+        <v>-32529100</v>
       </c>
       <c r="K94" s="3">
         <v>-39720000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5510800</v>
+        <v>-5335600</v>
       </c>
       <c r="E96" s="3">
-        <v>-5550200</v>
+        <v>-5373800</v>
       </c>
       <c r="F96" s="3">
-        <v>-5680700</v>
+        <v>-5500200</v>
       </c>
       <c r="G96" s="3">
-        <v>-5522900</v>
+        <v>-5347400</v>
       </c>
       <c r="H96" s="3">
-        <v>-5622300</v>
+        <v>-5443600</v>
       </c>
       <c r="I96" s="3">
-        <v>-6219400</v>
+        <v>-6021800</v>
       </c>
       <c r="J96" s="3">
-        <v>-4889000</v>
+        <v>-4733600</v>
       </c>
       <c r="K96" s="3">
         <v>-3627600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24132100</v>
+        <v>23365200</v>
       </c>
       <c r="E100" s="3">
-        <v>3196300</v>
+        <v>3094700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4764800</v>
+        <v>-4613400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3956900</v>
+        <v>-3831100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3305200</v>
+        <v>-3200200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3731700</v>
+        <v>-3613100</v>
       </c>
       <c r="J100" s="3">
-        <v>2696300</v>
+        <v>2610600</v>
       </c>
       <c r="K100" s="3">
         <v>8422400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1940400</v>
+        <v>1878700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1242300</v>
+        <v>-1202800</v>
       </c>
       <c r="F101" s="3">
-        <v>-366900</v>
+        <v>-355200</v>
       </c>
       <c r="G101" s="3">
-        <v>-384000</v>
+        <v>-371800</v>
       </c>
       <c r="H101" s="3">
-        <v>-118800</v>
+        <v>-115000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1760900</v>
+        <v>-1704900</v>
       </c>
       <c r="J101" s="3">
-        <v>573300</v>
+        <v>555100</v>
       </c>
       <c r="K101" s="3">
         <v>857400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8831200</v>
+        <v>8550500</v>
       </c>
       <c r="E102" s="3">
-        <v>4366600</v>
+        <v>4227900</v>
       </c>
       <c r="F102" s="3">
-        <v>4289400</v>
+        <v>4153100</v>
       </c>
       <c r="G102" s="3">
-        <v>619500</v>
+        <v>599800</v>
       </c>
       <c r="H102" s="3">
-        <v>490300</v>
+        <v>474700</v>
       </c>
       <c r="I102" s="3">
-        <v>5769400</v>
+        <v>5586000</v>
       </c>
       <c r="J102" s="3">
-        <v>2144200</v>
+        <v>2076100</v>
       </c>
       <c r="K102" s="3">
         <v>2957500</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>232140500</v>
+        <v>244446400</v>
       </c>
       <c r="E8" s="3">
-        <v>254761600</v>
+        <v>212001700</v>
       </c>
       <c r="F8" s="3">
-        <v>257825100</v>
+        <v>232660400</v>
       </c>
       <c r="G8" s="3">
-        <v>250607200</v>
+        <v>235458100</v>
       </c>
       <c r="H8" s="3">
-        <v>235404100</v>
+        <v>228866400</v>
       </c>
       <c r="I8" s="3">
-        <v>242278600</v>
+        <v>214982100</v>
       </c>
       <c r="J8" s="3">
+        <v>221260300</v>
+      </c>
+      <c r="K8" s="3">
         <v>232310500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>235337900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200563500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>167996200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>190920300</v>
+        <v>197927000</v>
       </c>
       <c r="E9" s="3">
-        <v>406267700</v>
+        <v>174357500</v>
       </c>
       <c r="F9" s="3">
-        <v>211388600</v>
+        <v>371022900</v>
       </c>
       <c r="G9" s="3">
-        <v>203774500</v>
+        <v>193050100</v>
       </c>
       <c r="H9" s="3">
-        <v>193923900</v>
+        <v>186096500</v>
       </c>
       <c r="I9" s="3">
-        <v>192824600</v>
+        <v>177100500</v>
       </c>
       <c r="J9" s="3">
+        <v>176096600</v>
+      </c>
+      <c r="K9" s="3">
         <v>186309500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>190538400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>169446600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>148152600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>41220200</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>46519300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37644200</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>46436400</v>
-      </c>
       <c r="G10" s="3">
-        <v>46832700</v>
+        <v>42407900</v>
       </c>
       <c r="H10" s="3">
-        <v>41480200</v>
+        <v>42769900</v>
       </c>
       <c r="I10" s="3">
-        <v>49454000</v>
+        <v>37881700</v>
       </c>
       <c r="J10" s="3">
+        <v>45163700</v>
+      </c>
+      <c r="K10" s="3">
         <v>46001000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44799500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31116900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19843600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>213393700</v>
+        <v>221109900</v>
       </c>
       <c r="E17" s="3">
-        <v>234296200</v>
+        <v>194881200</v>
       </c>
       <c r="F17" s="3">
-        <v>236776900</v>
+        <v>213970400</v>
       </c>
       <c r="G17" s="3">
-        <v>230136400</v>
+        <v>216235900</v>
       </c>
       <c r="H17" s="3">
-        <v>218392100</v>
+        <v>210171500</v>
       </c>
       <c r="I17" s="3">
-        <v>217934200</v>
+        <v>199446000</v>
       </c>
       <c r="J17" s="3">
+        <v>199027900</v>
+      </c>
+      <c r="K17" s="3">
         <v>208848200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>214342200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188556600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>164781400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18746800</v>
+        <v>23336500</v>
       </c>
       <c r="E18" s="3">
-        <v>20465400</v>
+        <v>17120500</v>
       </c>
       <c r="F18" s="3">
-        <v>21048200</v>
+        <v>18690000</v>
       </c>
       <c r="G18" s="3">
-        <v>20470800</v>
+        <v>19222200</v>
       </c>
       <c r="H18" s="3">
-        <v>17012000</v>
+        <v>18694900</v>
       </c>
       <c r="I18" s="3">
-        <v>24344400</v>
+        <v>15536200</v>
       </c>
       <c r="J18" s="3">
+        <v>22232400</v>
+      </c>
+      <c r="K18" s="3">
         <v>23462300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20995700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12006900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3214900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6628000</v>
+        <v>7749800</v>
       </c>
       <c r="E20" s="3">
-        <v>4009400</v>
+        <v>6053000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1313600</v>
+        <v>3661600</v>
       </c>
       <c r="G20" s="3">
-        <v>2116700</v>
+        <v>-1199700</v>
       </c>
       <c r="H20" s="3">
-        <v>1951700</v>
+        <v>1933100</v>
       </c>
       <c r="I20" s="3">
-        <v>1405900</v>
+        <v>1782400</v>
       </c>
       <c r="J20" s="3">
+        <v>1283900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1408600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1544400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>961100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>905500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39565100</v>
+        <v>45096500</v>
       </c>
       <c r="E21" s="3">
-        <v>38242700</v>
+        <v>35818100</v>
       </c>
       <c r="F21" s="3">
-        <v>35202700</v>
+        <v>34619900</v>
       </c>
       <c r="G21" s="3">
-        <v>37552300</v>
+        <v>31805900</v>
       </c>
       <c r="H21" s="3">
-        <v>32866200</v>
+        <v>33962800</v>
       </c>
       <c r="I21" s="3">
-        <v>39781200</v>
+        <v>29706800</v>
       </c>
       <c r="J21" s="3">
+        <v>36019000</v>
+      </c>
+      <c r="K21" s="3">
         <v>37031200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34048000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23035500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13784200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>361900</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>651100</v>
+        <v>330500</v>
       </c>
       <c r="F22" s="3">
-        <v>239500</v>
+        <v>594600</v>
       </c>
       <c r="G22" s="3">
-        <v>235300</v>
+        <v>218700</v>
       </c>
       <c r="H22" s="3">
-        <v>250400</v>
+        <v>214900</v>
       </c>
       <c r="I22" s="3">
-        <v>302000</v>
+        <v>228700</v>
       </c>
       <c r="J22" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K22" s="3">
         <v>195100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>179800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>208800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>207200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25013000</v>
+        <v>31086200</v>
       </c>
       <c r="E23" s="3">
-        <v>23823800</v>
+        <v>22843000</v>
       </c>
       <c r="F23" s="3">
-        <v>19495000</v>
+        <v>21757000</v>
       </c>
       <c r="G23" s="3">
-        <v>22352300</v>
+        <v>17803800</v>
       </c>
       <c r="H23" s="3">
-        <v>18713300</v>
+        <v>20413100</v>
       </c>
       <c r="I23" s="3">
-        <v>25448200</v>
+        <v>17089900</v>
       </c>
       <c r="J23" s="3">
+        <v>23240500</v>
+      </c>
+      <c r="K23" s="3">
         <v>24675800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22360300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12759200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3913200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5544300</v>
+        <v>8693000</v>
       </c>
       <c r="E24" s="3">
-        <v>5815900</v>
+        <v>5063300</v>
       </c>
       <c r="F24" s="3">
-        <v>5629300</v>
+        <v>5311400</v>
       </c>
       <c r="G24" s="3">
-        <v>4302600</v>
+        <v>5141000</v>
       </c>
       <c r="H24" s="3">
-        <v>5364500</v>
+        <v>3929300</v>
       </c>
       <c r="I24" s="3">
-        <v>7491600</v>
+        <v>4899100</v>
       </c>
       <c r="J24" s="3">
+        <v>6841700</v>
+      </c>
+      <c r="K24" s="3">
         <v>7621300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7033100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5014800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2370900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19468700</v>
+        <v>22393200</v>
       </c>
       <c r="E26" s="3">
-        <v>18007900</v>
+        <v>17779700</v>
       </c>
       <c r="F26" s="3">
-        <v>13865700</v>
+        <v>16445700</v>
       </c>
       <c r="G26" s="3">
-        <v>18049700</v>
+        <v>12662800</v>
       </c>
       <c r="H26" s="3">
-        <v>13348800</v>
+        <v>16483800</v>
       </c>
       <c r="I26" s="3">
-        <v>17956600</v>
+        <v>12190800</v>
       </c>
       <c r="J26" s="3">
+        <v>16398800</v>
+      </c>
+      <c r="K26" s="3">
         <v>17054500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15327200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7744300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1542200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19152100</v>
+        <v>22202400</v>
       </c>
       <c r="E27" s="3">
-        <v>18969500</v>
+        <v>17490600</v>
       </c>
       <c r="F27" s="3">
-        <v>15934800</v>
+        <v>17323900</v>
       </c>
       <c r="G27" s="3">
-        <v>21168800</v>
+        <v>14552400</v>
       </c>
       <c r="H27" s="3">
-        <v>15535800</v>
+        <v>19332400</v>
       </c>
       <c r="I27" s="3">
-        <v>19675400</v>
+        <v>14188000</v>
       </c>
       <c r="J27" s="3">
+        <v>17968500</v>
+      </c>
+      <c r="K27" s="3">
         <v>18538600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16699800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8746100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2563400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6628000</v>
+        <v>-7749800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4009400</v>
+        <v>-6053000</v>
       </c>
       <c r="F32" s="3">
-        <v>1313600</v>
+        <v>-3661600</v>
       </c>
       <c r="G32" s="3">
-        <v>-2116700</v>
+        <v>1199700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1951700</v>
+        <v>-1933100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1405900</v>
+        <v>-1782400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1283900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1408600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1544400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-961100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-905500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19152100</v>
+        <v>22202400</v>
       </c>
       <c r="E33" s="3">
-        <v>18969500</v>
+        <v>17490600</v>
       </c>
       <c r="F33" s="3">
-        <v>15934800</v>
+        <v>17323900</v>
       </c>
       <c r="G33" s="3">
-        <v>21168800</v>
+        <v>14552400</v>
       </c>
       <c r="H33" s="3">
-        <v>15535800</v>
+        <v>19332400</v>
       </c>
       <c r="I33" s="3">
-        <v>19675400</v>
+        <v>14188000</v>
       </c>
       <c r="J33" s="3">
+        <v>17968500</v>
+      </c>
+      <c r="K33" s="3">
         <v>18538600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16699800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8746100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2563400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19152100</v>
+        <v>22202400</v>
       </c>
       <c r="E35" s="3">
-        <v>18969500</v>
+        <v>17490600</v>
       </c>
       <c r="F35" s="3">
-        <v>15934800</v>
+        <v>17323900</v>
       </c>
       <c r="G35" s="3">
-        <v>21168800</v>
+        <v>14552400</v>
       </c>
       <c r="H35" s="3">
-        <v>15535800</v>
+        <v>19332400</v>
       </c>
       <c r="I35" s="3">
-        <v>19675400</v>
+        <v>14188000</v>
       </c>
       <c r="J35" s="3">
+        <v>17968500</v>
+      </c>
+      <c r="K35" s="3">
         <v>18538600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16699800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8746100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2563400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,307 +1817,332 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43510300</v>
+        <v>47625400</v>
       </c>
       <c r="E41" s="3">
-        <v>34959800</v>
+        <v>39735700</v>
       </c>
       <c r="F41" s="3">
-        <v>30492200</v>
+        <v>31926900</v>
       </c>
       <c r="G41" s="3">
-        <v>26035900</v>
+        <v>27846900</v>
       </c>
       <c r="H41" s="3">
-        <v>25548000</v>
+        <v>23777200</v>
       </c>
       <c r="I41" s="3">
-        <v>25073300</v>
+        <v>23331600</v>
       </c>
       <c r="J41" s="3">
+        <v>22898100</v>
+      </c>
+      <c r="K41" s="3">
         <v>19487300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18697100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15619300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15180000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35957800</v>
+        <v>19531500</v>
       </c>
       <c r="E42" s="3">
-        <v>31139200</v>
+        <v>32838400</v>
       </c>
       <c r="F42" s="3">
-        <v>19222500</v>
+        <v>28437800</v>
       </c>
       <c r="G42" s="3">
-        <v>22771700</v>
+        <v>17554900</v>
       </c>
       <c r="H42" s="3">
-        <v>24773300</v>
+        <v>20796200</v>
       </c>
       <c r="I42" s="3">
-        <v>21695400</v>
+        <v>22624100</v>
       </c>
       <c r="J42" s="3">
+        <v>19813300</v>
+      </c>
+      <c r="K42" s="3">
         <v>25005000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20400100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14111000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11402800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>83827600</v>
+        <v>81702200</v>
       </c>
       <c r="E43" s="3">
-        <v>160206000</v>
+        <v>76555400</v>
       </c>
       <c r="F43" s="3">
-        <v>81791300</v>
+        <v>166939000</v>
       </c>
       <c r="G43" s="3">
-        <v>77258000</v>
+        <v>74695700</v>
       </c>
       <c r="H43" s="3">
-        <v>74632800</v>
+        <v>70555600</v>
       </c>
       <c r="I43" s="3">
-        <v>71347000</v>
+        <v>68158200</v>
       </c>
       <c r="J43" s="3">
+        <v>65157400</v>
+      </c>
+      <c r="K43" s="3">
         <v>75057400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73429700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68375100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58970400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24634900</v>
+        <v>29768400</v>
       </c>
       <c r="E44" s="3">
-        <v>63998000</v>
+        <v>22497700</v>
       </c>
       <c r="F44" s="3">
-        <v>22659100</v>
+        <v>58446000</v>
       </c>
       <c r="G44" s="3">
-        <v>21664400</v>
+        <v>20693300</v>
       </c>
       <c r="H44" s="3">
-        <v>20374900</v>
+        <v>19785000</v>
       </c>
       <c r="I44" s="3">
-        <v>17584700</v>
+        <v>18607300</v>
       </c>
       <c r="J44" s="3">
+        <v>16059200</v>
+      </c>
+      <c r="K44" s="3">
         <v>18233900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17355500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15596500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14665400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6355400</v>
+        <v>6169300</v>
       </c>
       <c r="E45" s="3">
-        <v>16343700</v>
+        <v>5804100</v>
       </c>
       <c r="F45" s="3">
-        <v>6874900</v>
+        <v>14925900</v>
       </c>
       <c r="G45" s="3">
-        <v>7112200</v>
+        <v>6278500</v>
       </c>
       <c r="H45" s="3">
-        <v>6792400</v>
+        <v>6495200</v>
       </c>
       <c r="I45" s="3">
-        <v>19627100</v>
+        <v>6203200</v>
       </c>
       <c r="J45" s="3">
+        <v>17924400</v>
+      </c>
+      <c r="K45" s="3">
         <v>15213900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14091700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11602800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11165000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>194286000</v>
+        <v>184797000</v>
       </c>
       <c r="E46" s="3">
-        <v>161757000</v>
+        <v>177431000</v>
       </c>
       <c r="F46" s="3">
-        <v>161040000</v>
+        <v>147724000</v>
       </c>
       <c r="G46" s="3">
-        <v>154842000</v>
+        <v>147069000</v>
       </c>
       <c r="H46" s="3">
-        <v>152121000</v>
+        <v>141409000</v>
       </c>
       <c r="I46" s="3">
-        <v>155328000</v>
+        <v>138925000</v>
       </c>
       <c r="J46" s="3">
+        <v>141852000</v>
+      </c>
+      <c r="K46" s="3">
         <v>152998000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>143974000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125305000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>111384000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>219172000</v>
+        <v>225429000</v>
       </c>
       <c r="E47" s="3">
-        <v>379311000</v>
+        <v>200158000</v>
       </c>
       <c r="F47" s="3">
-        <v>179322000</v>
+        <v>346405000</v>
       </c>
       <c r="G47" s="3">
-        <v>176285000</v>
+        <v>163765000</v>
       </c>
       <c r="H47" s="3">
-        <v>166872000</v>
+        <v>160991000</v>
       </c>
       <c r="I47" s="3">
-        <v>159915000</v>
+        <v>152396000</v>
       </c>
       <c r="J47" s="3">
+        <v>146042000</v>
+      </c>
+      <c r="K47" s="3">
         <v>166943000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158854000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>129781000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105167000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100665000</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>99517700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>91932100</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
-        <v>91147300</v>
-      </c>
       <c r="G48" s="3">
-        <v>87583300</v>
+        <v>83240000</v>
       </c>
       <c r="H48" s="3">
-        <v>86981300</v>
+        <v>79985200</v>
       </c>
       <c r="I48" s="3">
-        <v>83085800</v>
+        <v>79435500</v>
       </c>
       <c r="J48" s="3">
+        <v>75877800</v>
+      </c>
+      <c r="K48" s="3">
         <v>79292500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69994300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62277800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56367800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9456600</v>
+        <v>9285400</v>
       </c>
       <c r="E49" s="3">
-        <v>17064400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>8636300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15584000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2049,15 +2159,18 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7559000</v>
+        <v>8266500</v>
       </c>
       <c r="E52" s="3">
-        <v>12573200</v>
+        <v>6903200</v>
       </c>
       <c r="F52" s="3">
-        <v>11513500</v>
+        <v>11482400</v>
       </c>
       <c r="G52" s="3">
-        <v>10419400</v>
+        <v>10514700</v>
       </c>
       <c r="H52" s="3">
-        <v>9864100</v>
+        <v>9515500</v>
       </c>
       <c r="I52" s="3">
-        <v>6229200</v>
+        <v>9008400</v>
       </c>
       <c r="J52" s="3">
+        <v>5688800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7902100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6745300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5179600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4166100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>531139000</v>
+        <v>527296000</v>
       </c>
       <c r="E54" s="3">
-        <v>460384000</v>
+        <v>485061000</v>
       </c>
       <c r="F54" s="3">
-        <v>443022000</v>
+        <v>420445000</v>
       </c>
       <c r="G54" s="3">
-        <v>429129000</v>
+        <v>404589000</v>
       </c>
       <c r="H54" s="3">
-        <v>415839000</v>
+        <v>391901000</v>
       </c>
       <c r="I54" s="3">
-        <v>404557000</v>
+        <v>379764000</v>
       </c>
       <c r="J54" s="3">
+        <v>369461000</v>
+      </c>
+      <c r="K54" s="3">
         <v>407135000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>379567000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>322543000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277085000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34511900</v>
+        <v>33435400</v>
       </c>
       <c r="E57" s="3">
-        <v>50601700</v>
+        <v>31517900</v>
       </c>
       <c r="F57" s="3">
-        <v>22570200</v>
+        <v>46211900</v>
       </c>
       <c r="G57" s="3">
-        <v>22064200</v>
+        <v>20612200</v>
       </c>
       <c r="H57" s="3">
-        <v>21891200</v>
+        <v>20150100</v>
       </c>
       <c r="I57" s="3">
-        <v>20382600</v>
+        <v>19992100</v>
       </c>
       <c r="J57" s="3">
+        <v>18614300</v>
+      </c>
+      <c r="K57" s="3">
         <v>20562300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20273100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19214200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20273000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>104169000</v>
+        <v>87153300</v>
       </c>
       <c r="E58" s="3">
-        <v>253116000</v>
+        <v>95131900</v>
       </c>
       <c r="F58" s="3">
-        <v>81881500</v>
+        <v>231157000</v>
       </c>
       <c r="G58" s="3">
-        <v>79680400</v>
+        <v>74778000</v>
       </c>
       <c r="H58" s="3">
-        <v>78852400</v>
+        <v>72767900</v>
       </c>
       <c r="I58" s="3">
-        <v>72684900</v>
+        <v>72011800</v>
       </c>
       <c r="J58" s="3">
+        <v>66379300</v>
+      </c>
+      <c r="K58" s="3">
         <v>76458600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71269200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>61757100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53908000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44377000</v>
+        <v>49561800</v>
       </c>
       <c r="E59" s="3">
-        <v>61427800</v>
+        <v>40527200</v>
       </c>
       <c r="F59" s="3">
-        <v>51024100</v>
+        <v>56098800</v>
       </c>
       <c r="G59" s="3">
-        <v>50062900</v>
+        <v>46597600</v>
       </c>
       <c r="H59" s="3">
-        <v>46987100</v>
+        <v>45719900</v>
       </c>
       <c r="I59" s="3">
-        <v>44474200</v>
+        <v>42910800</v>
       </c>
       <c r="J59" s="3">
+        <v>40615900</v>
+      </c>
+      <c r="K59" s="3">
         <v>43139800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42932800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36403500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32324500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183058000</v>
+        <v>170150000</v>
       </c>
       <c r="E60" s="3">
-        <v>154753000</v>
+        <v>167177000</v>
       </c>
       <c r="F60" s="3">
-        <v>155476000</v>
+        <v>141328000</v>
       </c>
       <c r="G60" s="3">
-        <v>151808000</v>
+        <v>141988000</v>
       </c>
       <c r="H60" s="3">
-        <v>147731000</v>
+        <v>138638000</v>
       </c>
       <c r="I60" s="3">
-        <v>137542000</v>
+        <v>134915000</v>
       </c>
       <c r="J60" s="3">
+        <v>125610000</v>
+      </c>
+      <c r="K60" s="3">
         <v>140161000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>134475000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117375000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>106505000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>114708000</v>
+        <v>119253000</v>
       </c>
       <c r="E61" s="3">
-        <v>97533900</v>
+        <v>104757000</v>
       </c>
       <c r="F61" s="3">
-        <v>89999600</v>
+        <v>89072600</v>
       </c>
       <c r="G61" s="3">
-        <v>85354400</v>
+        <v>82191900</v>
       </c>
       <c r="H61" s="3">
-        <v>84545900</v>
+        <v>77949700</v>
       </c>
       <c r="I61" s="3">
-        <v>83355700</v>
+        <v>77211300</v>
       </c>
       <c r="J61" s="3">
+        <v>76124400</v>
+      </c>
+      <c r="K61" s="3">
         <v>85422800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78289700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>66700800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54622200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26193700</v>
+        <v>26355700</v>
       </c>
       <c r="E62" s="3">
-        <v>41430800</v>
+        <v>23921300</v>
       </c>
       <c r="F62" s="3">
-        <v>22125600</v>
+        <v>37836500</v>
       </c>
       <c r="G62" s="3">
-        <v>22032200</v>
+        <v>20206100</v>
       </c>
       <c r="H62" s="3">
-        <v>24316200</v>
+        <v>20120900</v>
       </c>
       <c r="I62" s="3">
-        <v>29367900</v>
+        <v>22206700</v>
       </c>
       <c r="J62" s="3">
+        <v>26820100</v>
+      </c>
+      <c r="K62" s="3">
         <v>31020300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27396600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22362500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15916100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>331498000</v>
+        <v>322839000</v>
       </c>
       <c r="E66" s="3">
-        <v>284505000</v>
+        <v>302740000</v>
       </c>
       <c r="F66" s="3">
-        <v>273734000</v>
+        <v>259824000</v>
       </c>
       <c r="G66" s="3">
-        <v>265115000</v>
+        <v>249987000</v>
       </c>
       <c r="H66" s="3">
-        <v>262293000</v>
+        <v>242116000</v>
       </c>
       <c r="I66" s="3">
-        <v>257614000</v>
+        <v>239539000</v>
       </c>
       <c r="J66" s="3">
+        <v>235265000</v>
+      </c>
+      <c r="K66" s="3">
         <v>263933000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>247030000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>212118000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181710000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,22 +2892,22 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4300600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>4248600</v>
+        <v>3927500</v>
       </c>
       <c r="G70" s="3">
-        <v>4196500</v>
+        <v>3880000</v>
       </c>
       <c r="H70" s="3">
-        <v>4144500</v>
+        <v>3832500</v>
       </c>
       <c r="I70" s="3">
-        <v>4092500</v>
+        <v>3785000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>3737500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>205609000</v>
+        <v>206070000</v>
       </c>
       <c r="E72" s="3">
-        <v>189657000</v>
+        <v>187772000</v>
       </c>
       <c r="F72" s="3">
-        <v>187554000</v>
+        <v>173203000</v>
       </c>
       <c r="G72" s="3">
-        <v>166109000</v>
+        <v>171283000</v>
       </c>
       <c r="H72" s="3">
-        <v>150137000</v>
+        <v>151698000</v>
       </c>
       <c r="I72" s="3">
-        <v>143255000</v>
+        <v>137112000</v>
       </c>
       <c r="J72" s="3">
+        <v>130827000</v>
+      </c>
+      <c r="K72" s="3">
         <v>132999000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>129305000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>115345000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107730000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>199641000</v>
+        <v>204456000</v>
       </c>
       <c r="E76" s="3">
-        <v>171579000</v>
+        <v>182321000</v>
       </c>
       <c r="F76" s="3">
-        <v>165040000</v>
+        <v>156694000</v>
       </c>
       <c r="G76" s="3">
-        <v>159818000</v>
+        <v>150722000</v>
       </c>
       <c r="H76" s="3">
-        <v>149401000</v>
+        <v>145953000</v>
       </c>
       <c r="I76" s="3">
-        <v>142851000</v>
+        <v>136440000</v>
       </c>
       <c r="J76" s="3">
+        <v>130459000</v>
+      </c>
+      <c r="K76" s="3">
         <v>143203000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132537000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>110426000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>95374400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19152100</v>
+        <v>22202400</v>
       </c>
       <c r="E81" s="3">
-        <v>18969500</v>
+        <v>17490600</v>
       </c>
       <c r="F81" s="3">
-        <v>15934800</v>
+        <v>17323900</v>
       </c>
       <c r="G81" s="3">
-        <v>21168800</v>
+        <v>14552400</v>
       </c>
       <c r="H81" s="3">
-        <v>15535800</v>
+        <v>19332400</v>
       </c>
       <c r="I81" s="3">
-        <v>19675400</v>
+        <v>14188000</v>
       </c>
       <c r="J81" s="3">
+        <v>17968500</v>
+      </c>
+      <c r="K81" s="3">
         <v>18538600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16699800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8746100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2563400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14025800</v>
+        <v>14192400</v>
       </c>
       <c r="E83" s="3">
-        <v>13608300</v>
+        <v>12809000</v>
       </c>
       <c r="F83" s="3">
-        <v>15289000</v>
+        <v>12427800</v>
       </c>
       <c r="G83" s="3">
-        <v>14791300</v>
+        <v>13962600</v>
       </c>
       <c r="H83" s="3">
-        <v>13741400</v>
+        <v>13508100</v>
       </c>
       <c r="I83" s="3">
-        <v>13868400</v>
+        <v>12549300</v>
       </c>
       <c r="J83" s="3">
+        <v>12665300</v>
+      </c>
+      <c r="K83" s="3">
         <v>12019400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11457800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10045400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9653200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>23262700</v>
+        <v>28999200</v>
       </c>
       <c r="E89" s="3">
-        <v>20459200</v>
+        <v>21244600</v>
       </c>
       <c r="F89" s="3">
-        <v>32129100</v>
+        <v>18684300</v>
       </c>
       <c r="G89" s="3">
-        <v>36023300</v>
+        <v>29341800</v>
       </c>
       <c r="H89" s="3">
-        <v>29123400</v>
+        <v>32898200</v>
       </c>
       <c r="I89" s="3">
-        <v>38051100</v>
+        <v>26596900</v>
       </c>
       <c r="J89" s="3">
+        <v>34750100</v>
+      </c>
+      <c r="K89" s="3">
         <v>31439500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33397700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22282500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13130000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29765400</v>
+        <v>-27141600</v>
       </c>
       <c r="E91" s="3">
-        <v>-29356700</v>
+        <v>-27183200</v>
       </c>
       <c r="F91" s="3">
-        <v>-31892700</v>
+        <v>-26809900</v>
       </c>
       <c r="G91" s="3">
-        <v>-30697000</v>
+        <v>-29125900</v>
       </c>
       <c r="H91" s="3">
-        <v>-30208500</v>
+        <v>-28033900</v>
       </c>
       <c r="I91" s="3">
-        <v>-34625100</v>
+        <v>-27587800</v>
       </c>
       <c r="J91" s="3">
+        <v>-31621300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-28640100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24536800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17945000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13850000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39956000</v>
+        <v>-4498700</v>
       </c>
       <c r="E94" s="3">
-        <v>-18123300</v>
+        <v>-36489700</v>
       </c>
       <c r="F94" s="3">
-        <v>-23007500</v>
+        <v>-16551000</v>
       </c>
       <c r="G94" s="3">
-        <v>-31220600</v>
+        <v>-21011500</v>
       </c>
       <c r="H94" s="3">
-        <v>-25333600</v>
+        <v>-28512100</v>
       </c>
       <c r="I94" s="3">
-        <v>-27147100</v>
+        <v>-23135800</v>
       </c>
       <c r="J94" s="3">
+        <v>-24792000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-32529100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39720000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27518300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13041600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5335600</v>
+        <v>-5529900</v>
       </c>
       <c r="E96" s="3">
-        <v>-5373800</v>
+        <v>-4872800</v>
       </c>
       <c r="F96" s="3">
-        <v>-5500200</v>
+        <v>-4907600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5347400</v>
+        <v>-5023000</v>
       </c>
       <c r="H96" s="3">
-        <v>-5443600</v>
+        <v>-4883500</v>
       </c>
       <c r="I96" s="3">
-        <v>-6021800</v>
+        <v>-4971400</v>
       </c>
       <c r="J96" s="3">
+        <v>-5499400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4733600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3627600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1727200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1417300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23365200</v>
+        <v>-19214200</v>
       </c>
       <c r="E100" s="3">
-        <v>3094700</v>
+        <v>21338200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4613400</v>
+        <v>2826300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3831100</v>
+        <v>-4213100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3200200</v>
+        <v>-3498800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3613100</v>
+        <v>-2922500</v>
       </c>
       <c r="J100" s="3">
+        <v>-3299600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2610600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8422400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4338100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3212300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1878700</v>
+        <v>2603400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1202800</v>
+        <v>1715700</v>
       </c>
       <c r="F101" s="3">
-        <v>-355200</v>
+        <v>-1098400</v>
       </c>
       <c r="G101" s="3">
-        <v>-371800</v>
+        <v>-324400</v>
       </c>
       <c r="H101" s="3">
-        <v>-115000</v>
+        <v>-339600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1704900</v>
+        <v>-105100</v>
       </c>
       <c r="J101" s="3">
+        <v>-1557000</v>
+      </c>
+      <c r="K101" s="3">
         <v>555100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>857400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1253100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-505700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8550500</v>
+        <v>7889700</v>
       </c>
       <c r="E102" s="3">
-        <v>4227900</v>
+        <v>7808700</v>
       </c>
       <c r="F102" s="3">
-        <v>4153100</v>
+        <v>3861100</v>
       </c>
       <c r="G102" s="3">
-        <v>599800</v>
+        <v>3792800</v>
       </c>
       <c r="H102" s="3">
-        <v>474700</v>
+        <v>547700</v>
       </c>
       <c r="I102" s="3">
-        <v>5586000</v>
+        <v>433500</v>
       </c>
       <c r="J102" s="3">
+        <v>5101400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2076100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2957500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>355400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3629600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>244446400</v>
+        <v>230011800</v>
       </c>
       <c r="E8" s="3">
-        <v>212001700</v>
+        <v>199483000</v>
       </c>
       <c r="F8" s="3">
-        <v>232660400</v>
+        <v>218921800</v>
       </c>
       <c r="G8" s="3">
-        <v>235458100</v>
+        <v>221554200</v>
       </c>
       <c r="H8" s="3">
-        <v>228866400</v>
+        <v>215351800</v>
       </c>
       <c r="I8" s="3">
-        <v>214982100</v>
+        <v>202287400</v>
       </c>
       <c r="J8" s="3">
-        <v>221260300</v>
+        <v>208194900</v>
       </c>
       <c r="K8" s="3">
         <v>232310500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>197927000</v>
+        <v>186239400</v>
       </c>
       <c r="E9" s="3">
-        <v>174357500</v>
+        <v>164061700</v>
       </c>
       <c r="F9" s="3">
-        <v>371022900</v>
+        <v>349113900</v>
       </c>
       <c r="G9" s="3">
-        <v>193050100</v>
+        <v>181650500</v>
       </c>
       <c r="H9" s="3">
-        <v>186096500</v>
+        <v>175107500</v>
       </c>
       <c r="I9" s="3">
-        <v>177100500</v>
+        <v>166642700</v>
       </c>
       <c r="J9" s="3">
-        <v>176096600</v>
+        <v>165698100</v>
       </c>
       <c r="K9" s="3">
         <v>186309500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46519300</v>
+        <v>43772400</v>
       </c>
       <c r="E10" s="3">
-        <v>37644200</v>
+        <v>35421300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>42407900</v>
+        <v>39903800</v>
       </c>
       <c r="H10" s="3">
-        <v>42769900</v>
+        <v>40244300</v>
       </c>
       <c r="I10" s="3">
-        <v>37881700</v>
+        <v>35644700</v>
       </c>
       <c r="J10" s="3">
-        <v>45163700</v>
+        <v>42496800</v>
       </c>
       <c r="K10" s="3">
         <v>46001000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221109900</v>
+        <v>208053300</v>
       </c>
       <c r="E17" s="3">
-        <v>194881200</v>
+        <v>183373500</v>
       </c>
       <c r="F17" s="3">
-        <v>213970400</v>
+        <v>201335400</v>
       </c>
       <c r="G17" s="3">
-        <v>216235900</v>
+        <v>203467100</v>
       </c>
       <c r="H17" s="3">
-        <v>210171500</v>
+        <v>197760800</v>
       </c>
       <c r="I17" s="3">
-        <v>199446000</v>
+        <v>187668700</v>
       </c>
       <c r="J17" s="3">
-        <v>199027900</v>
+        <v>187275200</v>
       </c>
       <c r="K17" s="3">
         <v>208848200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23336500</v>
+        <v>21958500</v>
       </c>
       <c r="E18" s="3">
-        <v>17120500</v>
+        <v>16109500</v>
       </c>
       <c r="F18" s="3">
-        <v>18690000</v>
+        <v>17586400</v>
       </c>
       <c r="G18" s="3">
-        <v>19222200</v>
+        <v>18087100</v>
       </c>
       <c r="H18" s="3">
-        <v>18694900</v>
+        <v>17591000</v>
       </c>
       <c r="I18" s="3">
-        <v>15536200</v>
+        <v>14618700</v>
       </c>
       <c r="J18" s="3">
-        <v>22232400</v>
+        <v>20919600</v>
       </c>
       <c r="K18" s="3">
         <v>23462300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7749800</v>
+        <v>7530100</v>
       </c>
       <c r="E20" s="3">
-        <v>6053000</v>
+        <v>5695600</v>
       </c>
       <c r="F20" s="3">
-        <v>3661600</v>
+        <v>3445400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1199700</v>
+        <v>-1128800</v>
       </c>
       <c r="H20" s="3">
-        <v>1933100</v>
+        <v>1819000</v>
       </c>
       <c r="I20" s="3">
-        <v>1782400</v>
+        <v>1677100</v>
       </c>
       <c r="J20" s="3">
-        <v>1283900</v>
+        <v>1208100</v>
       </c>
       <c r="K20" s="3">
         <v>1408600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45096500</v>
+        <v>42770000</v>
       </c>
       <c r="E21" s="3">
-        <v>35818100</v>
+        <v>33792000</v>
       </c>
       <c r="F21" s="3">
-        <v>34619900</v>
+        <v>32661900</v>
       </c>
       <c r="G21" s="3">
-        <v>31805900</v>
+        <v>30024700</v>
       </c>
       <c r="H21" s="3">
-        <v>33962800</v>
+        <v>32051100</v>
       </c>
       <c r="I21" s="3">
-        <v>29706800</v>
+        <v>28039700</v>
       </c>
       <c r="J21" s="3">
-        <v>36019000</v>
+        <v>33980000</v>
       </c>
       <c r="K21" s="3">
         <v>37031200</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>237900</v>
       </c>
       <c r="E22" s="3">
-        <v>330500</v>
+        <v>310900</v>
       </c>
       <c r="F22" s="3">
-        <v>594600</v>
+        <v>559500</v>
       </c>
       <c r="G22" s="3">
-        <v>218700</v>
+        <v>205800</v>
       </c>
       <c r="H22" s="3">
-        <v>214900</v>
+        <v>202200</v>
       </c>
       <c r="I22" s="3">
-        <v>228700</v>
+        <v>215200</v>
       </c>
       <c r="J22" s="3">
-        <v>275800</v>
+        <v>259500</v>
       </c>
       <c r="K22" s="3">
         <v>195100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31086200</v>
+        <v>29250600</v>
       </c>
       <c r="E23" s="3">
-        <v>22843000</v>
+        <v>21494200</v>
       </c>
       <c r="F23" s="3">
-        <v>21757000</v>
+        <v>20472300</v>
       </c>
       <c r="G23" s="3">
-        <v>17803800</v>
+        <v>16752500</v>
       </c>
       <c r="H23" s="3">
-        <v>20413100</v>
+        <v>19207700</v>
       </c>
       <c r="I23" s="3">
-        <v>17089900</v>
+        <v>16080700</v>
       </c>
       <c r="J23" s="3">
-        <v>23240500</v>
+        <v>21868200</v>
       </c>
       <c r="K23" s="3">
         <v>24675800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8693000</v>
+        <v>8179700</v>
       </c>
       <c r="E24" s="3">
-        <v>5063300</v>
+        <v>4764300</v>
       </c>
       <c r="F24" s="3">
-        <v>5311400</v>
+        <v>4997700</v>
       </c>
       <c r="G24" s="3">
-        <v>5141000</v>
+        <v>4837400</v>
       </c>
       <c r="H24" s="3">
-        <v>3929300</v>
+        <v>3697300</v>
       </c>
       <c r="I24" s="3">
-        <v>4899100</v>
+        <v>4609800</v>
       </c>
       <c r="J24" s="3">
-        <v>6841700</v>
+        <v>6437700</v>
       </c>
       <c r="K24" s="3">
         <v>7621300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22393200</v>
+        <v>21070900</v>
       </c>
       <c r="E26" s="3">
-        <v>17779700</v>
+        <v>16729800</v>
       </c>
       <c r="F26" s="3">
-        <v>16445700</v>
+        <v>15474500</v>
       </c>
       <c r="G26" s="3">
-        <v>12662800</v>
+        <v>11915100</v>
       </c>
       <c r="H26" s="3">
-        <v>16483800</v>
+        <v>15510400</v>
       </c>
       <c r="I26" s="3">
-        <v>12190800</v>
+        <v>11470900</v>
       </c>
       <c r="J26" s="3">
-        <v>16398800</v>
+        <v>15430500</v>
       </c>
       <c r="K26" s="3">
         <v>17054500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22202400</v>
+        <v>20891300</v>
       </c>
       <c r="E27" s="3">
-        <v>17490600</v>
+        <v>16457800</v>
       </c>
       <c r="F27" s="3">
-        <v>17323900</v>
+        <v>16300900</v>
       </c>
       <c r="G27" s="3">
-        <v>14552400</v>
+        <v>13693100</v>
       </c>
       <c r="H27" s="3">
-        <v>19332400</v>
+        <v>18190800</v>
       </c>
       <c r="I27" s="3">
-        <v>14188000</v>
+        <v>13350200</v>
       </c>
       <c r="J27" s="3">
-        <v>17968500</v>
+        <v>16907400</v>
       </c>
       <c r="K27" s="3">
         <v>18538600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7749800</v>
+        <v>-7530100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6053000</v>
+        <v>-5695600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3661600</v>
+        <v>-3445400</v>
       </c>
       <c r="G32" s="3">
-        <v>1199700</v>
+        <v>1128800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1933100</v>
+        <v>-1819000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1782400</v>
+        <v>-1677100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1283900</v>
+        <v>-1208100</v>
       </c>
       <c r="K32" s="3">
         <v>-1408600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22202400</v>
+        <v>20891300</v>
       </c>
       <c r="E33" s="3">
-        <v>17490600</v>
+        <v>16457800</v>
       </c>
       <c r="F33" s="3">
-        <v>17323900</v>
+        <v>16300900</v>
       </c>
       <c r="G33" s="3">
-        <v>14552400</v>
+        <v>13693100</v>
       </c>
       <c r="H33" s="3">
-        <v>19332400</v>
+        <v>18190800</v>
       </c>
       <c r="I33" s="3">
-        <v>14188000</v>
+        <v>13350200</v>
       </c>
       <c r="J33" s="3">
-        <v>17968500</v>
+        <v>16907400</v>
       </c>
       <c r="K33" s="3">
         <v>18538600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22202400</v>
+        <v>20891300</v>
       </c>
       <c r="E35" s="3">
-        <v>17490600</v>
+        <v>16457800</v>
       </c>
       <c r="F35" s="3">
-        <v>17323900</v>
+        <v>16300900</v>
       </c>
       <c r="G35" s="3">
-        <v>14552400</v>
+        <v>13693100</v>
       </c>
       <c r="H35" s="3">
-        <v>19332400</v>
+        <v>18190800</v>
       </c>
       <c r="I35" s="3">
-        <v>14188000</v>
+        <v>13350200</v>
       </c>
       <c r="J35" s="3">
-        <v>17968500</v>
+        <v>16907400</v>
       </c>
       <c r="K35" s="3">
         <v>18538600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47625400</v>
+        <v>44813100</v>
       </c>
       <c r="E41" s="3">
-        <v>39735700</v>
+        <v>37389300</v>
       </c>
       <c r="F41" s="3">
-        <v>31926900</v>
+        <v>30041600</v>
       </c>
       <c r="G41" s="3">
-        <v>27846900</v>
+        <v>26202600</v>
       </c>
       <c r="H41" s="3">
-        <v>23777200</v>
+        <v>22373100</v>
       </c>
       <c r="I41" s="3">
-        <v>23331600</v>
+        <v>21953900</v>
       </c>
       <c r="J41" s="3">
-        <v>22898100</v>
+        <v>21546000</v>
       </c>
       <c r="K41" s="3">
         <v>19487300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19531500</v>
+        <v>18378100</v>
       </c>
       <c r="E42" s="3">
-        <v>32838400</v>
+        <v>30899300</v>
       </c>
       <c r="F42" s="3">
-        <v>28437800</v>
+        <v>26758600</v>
       </c>
       <c r="G42" s="3">
-        <v>17554900</v>
+        <v>16518200</v>
       </c>
       <c r="H42" s="3">
-        <v>20796200</v>
+        <v>19568200</v>
       </c>
       <c r="I42" s="3">
-        <v>22624100</v>
+        <v>21288200</v>
       </c>
       <c r="J42" s="3">
-        <v>19813300</v>
+        <v>18643300</v>
       </c>
       <c r="K42" s="3">
         <v>25005000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>81702200</v>
+        <v>76877700</v>
       </c>
       <c r="E43" s="3">
-        <v>76555400</v>
+        <v>72034800</v>
       </c>
       <c r="F43" s="3">
-        <v>166939000</v>
+        <v>157081000</v>
       </c>
       <c r="G43" s="3">
-        <v>74695700</v>
+        <v>70284900</v>
       </c>
       <c r="H43" s="3">
-        <v>70555600</v>
+        <v>66389300</v>
       </c>
       <c r="I43" s="3">
-        <v>68158200</v>
+        <v>64133500</v>
       </c>
       <c r="J43" s="3">
-        <v>65157400</v>
+        <v>61309900</v>
       </c>
       <c r="K43" s="3">
         <v>75057400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29768400</v>
+        <v>28010500</v>
       </c>
       <c r="E44" s="3">
-        <v>22497700</v>
+        <v>21169200</v>
       </c>
       <c r="F44" s="3">
-        <v>58446000</v>
+        <v>54994800</v>
       </c>
       <c r="G44" s="3">
-        <v>20693300</v>
+        <v>19471400</v>
       </c>
       <c r="H44" s="3">
-        <v>19785000</v>
+        <v>18616700</v>
       </c>
       <c r="I44" s="3">
-        <v>18607300</v>
+        <v>17508600</v>
       </c>
       <c r="J44" s="3">
-        <v>16059200</v>
+        <v>15110900</v>
       </c>
       <c r="K44" s="3">
         <v>18233900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6169300</v>
+        <v>5805000</v>
       </c>
       <c r="E45" s="3">
-        <v>5804100</v>
+        <v>5461400</v>
       </c>
       <c r="F45" s="3">
-        <v>14925900</v>
+        <v>14044500</v>
       </c>
       <c r="G45" s="3">
-        <v>6278500</v>
+        <v>5907700</v>
       </c>
       <c r="H45" s="3">
-        <v>6495200</v>
+        <v>6111700</v>
       </c>
       <c r="I45" s="3">
-        <v>6203200</v>
+        <v>5836900</v>
       </c>
       <c r="J45" s="3">
-        <v>17924400</v>
+        <v>16866000</v>
       </c>
       <c r="K45" s="3">
         <v>15213900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>184797000</v>
+        <v>173884000</v>
       </c>
       <c r="E46" s="3">
-        <v>177431000</v>
+        <v>166954000</v>
       </c>
       <c r="F46" s="3">
-        <v>147724000</v>
+        <v>139001000</v>
       </c>
       <c r="G46" s="3">
-        <v>147069000</v>
+        <v>138385000</v>
       </c>
       <c r="H46" s="3">
-        <v>141409000</v>
+        <v>133059000</v>
       </c>
       <c r="I46" s="3">
-        <v>138925000</v>
+        <v>130721000</v>
       </c>
       <c r="J46" s="3">
-        <v>141852000</v>
+        <v>133476000</v>
       </c>
       <c r="K46" s="3">
         <v>152998000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>225429000</v>
+        <v>212118000</v>
       </c>
       <c r="E47" s="3">
-        <v>200158000</v>
+        <v>188339000</v>
       </c>
       <c r="F47" s="3">
-        <v>346405000</v>
+        <v>325950000</v>
       </c>
       <c r="G47" s="3">
-        <v>163765000</v>
+        <v>154095000</v>
       </c>
       <c r="H47" s="3">
-        <v>160991000</v>
+        <v>151485000</v>
       </c>
       <c r="I47" s="3">
-        <v>152396000</v>
+        <v>143397000</v>
       </c>
       <c r="J47" s="3">
-        <v>146042000</v>
+        <v>137418000</v>
       </c>
       <c r="K47" s="3">
         <v>166943000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99517700</v>
+        <v>93641100</v>
       </c>
       <c r="E48" s="3">
-        <v>91932100</v>
+        <v>86503500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>83240000</v>
+        <v>78324700</v>
       </c>
       <c r="H48" s="3">
-        <v>79985200</v>
+        <v>75262000</v>
       </c>
       <c r="I48" s="3">
-        <v>79435500</v>
+        <v>74744800</v>
       </c>
       <c r="J48" s="3">
-        <v>75877800</v>
+        <v>71397300</v>
       </c>
       <c r="K48" s="3">
         <v>79292500</v>
@@ -2136,13 +2136,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9285400</v>
+        <v>8737100</v>
       </c>
       <c r="E49" s="3">
-        <v>8636300</v>
+        <v>8126300</v>
       </c>
       <c r="F49" s="3">
-        <v>15584000</v>
+        <v>14663800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8266500</v>
+        <v>7778400</v>
       </c>
       <c r="E52" s="3">
-        <v>6903200</v>
+        <v>6495600</v>
       </c>
       <c r="F52" s="3">
-        <v>11482400</v>
+        <v>10804400</v>
       </c>
       <c r="G52" s="3">
-        <v>10514700</v>
+        <v>9893800</v>
       </c>
       <c r="H52" s="3">
-        <v>9515500</v>
+        <v>8953600</v>
       </c>
       <c r="I52" s="3">
-        <v>9008400</v>
+        <v>8476500</v>
       </c>
       <c r="J52" s="3">
-        <v>5688800</v>
+        <v>5352900</v>
       </c>
       <c r="K52" s="3">
         <v>7902100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>527296000</v>
+        <v>496159000</v>
       </c>
       <c r="E54" s="3">
-        <v>485061000</v>
+        <v>456418000</v>
       </c>
       <c r="F54" s="3">
-        <v>420445000</v>
+        <v>395617000</v>
       </c>
       <c r="G54" s="3">
-        <v>404589000</v>
+        <v>380698000</v>
       </c>
       <c r="H54" s="3">
-        <v>391901000</v>
+        <v>368760000</v>
       </c>
       <c r="I54" s="3">
-        <v>379764000</v>
+        <v>357339000</v>
       </c>
       <c r="J54" s="3">
-        <v>369461000</v>
+        <v>347644000</v>
       </c>
       <c r="K54" s="3">
         <v>407135000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33435400</v>
+        <v>31461000</v>
       </c>
       <c r="E57" s="3">
-        <v>31517900</v>
+        <v>29656700</v>
       </c>
       <c r="F57" s="3">
-        <v>46211900</v>
+        <v>43483100</v>
       </c>
       <c r="G57" s="3">
-        <v>20612200</v>
+        <v>19395100</v>
       </c>
       <c r="H57" s="3">
-        <v>20150100</v>
+        <v>18960200</v>
       </c>
       <c r="I57" s="3">
-        <v>19992100</v>
+        <v>18811600</v>
       </c>
       <c r="J57" s="3">
-        <v>18614300</v>
+        <v>17515100</v>
       </c>
       <c r="K57" s="3">
         <v>20562300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87153300</v>
+        <v>82006900</v>
       </c>
       <c r="E58" s="3">
-        <v>95131900</v>
+        <v>89514400</v>
       </c>
       <c r="F58" s="3">
-        <v>231157000</v>
+        <v>217507000</v>
       </c>
       <c r="G58" s="3">
-        <v>74778000</v>
+        <v>70362400</v>
       </c>
       <c r="H58" s="3">
-        <v>72767900</v>
+        <v>68470900</v>
       </c>
       <c r="I58" s="3">
-        <v>72011800</v>
+        <v>67759500</v>
       </c>
       <c r="J58" s="3">
-        <v>66379300</v>
+        <v>62459600</v>
       </c>
       <c r="K58" s="3">
         <v>76458600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49561800</v>
+        <v>46635100</v>
       </c>
       <c r="E59" s="3">
-        <v>40527200</v>
+        <v>38134100</v>
       </c>
       <c r="F59" s="3">
-        <v>56098800</v>
+        <v>52786100</v>
       </c>
       <c r="G59" s="3">
-        <v>46597600</v>
+        <v>43846000</v>
       </c>
       <c r="H59" s="3">
-        <v>45719900</v>
+        <v>43020100</v>
       </c>
       <c r="I59" s="3">
-        <v>42910800</v>
+        <v>40377000</v>
       </c>
       <c r="J59" s="3">
-        <v>40615900</v>
+        <v>38217500</v>
       </c>
       <c r="K59" s="3">
         <v>43139800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170150000</v>
+        <v>160103000</v>
       </c>
       <c r="E60" s="3">
-        <v>167177000</v>
+        <v>157305000</v>
       </c>
       <c r="F60" s="3">
-        <v>141328000</v>
+        <v>132982000</v>
       </c>
       <c r="G60" s="3">
-        <v>141988000</v>
+        <v>133604000</v>
       </c>
       <c r="H60" s="3">
-        <v>138638000</v>
+        <v>130451000</v>
       </c>
       <c r="I60" s="3">
-        <v>134915000</v>
+        <v>126948000</v>
       </c>
       <c r="J60" s="3">
-        <v>125610000</v>
+        <v>118192000</v>
       </c>
       <c r="K60" s="3">
         <v>140161000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119253000</v>
+        <v>112211000</v>
       </c>
       <c r="E61" s="3">
-        <v>104757000</v>
+        <v>98570700</v>
       </c>
       <c r="F61" s="3">
-        <v>89072600</v>
+        <v>83812800</v>
       </c>
       <c r="G61" s="3">
-        <v>82191900</v>
+        <v>77338400</v>
       </c>
       <c r="H61" s="3">
-        <v>77949700</v>
+        <v>73346700</v>
       </c>
       <c r="I61" s="3">
-        <v>77211300</v>
+        <v>72652000</v>
       </c>
       <c r="J61" s="3">
-        <v>76124400</v>
+        <v>71629200</v>
       </c>
       <c r="K61" s="3">
         <v>85422800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26355700</v>
+        <v>24799400</v>
       </c>
       <c r="E62" s="3">
-        <v>23921300</v>
+        <v>22508700</v>
       </c>
       <c r="F62" s="3">
-        <v>37836500</v>
+        <v>35602300</v>
       </c>
       <c r="G62" s="3">
-        <v>20206100</v>
+        <v>19013000</v>
       </c>
       <c r="H62" s="3">
-        <v>20120900</v>
+        <v>18932700</v>
       </c>
       <c r="I62" s="3">
-        <v>22206700</v>
+        <v>20895400</v>
       </c>
       <c r="J62" s="3">
-        <v>26820100</v>
+        <v>25236400</v>
       </c>
       <c r="K62" s="3">
         <v>31020300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>322839000</v>
+        <v>303776000</v>
       </c>
       <c r="E66" s="3">
-        <v>302740000</v>
+        <v>284863000</v>
       </c>
       <c r="F66" s="3">
-        <v>259824000</v>
+        <v>244481000</v>
       </c>
       <c r="G66" s="3">
-        <v>249987000</v>
+        <v>235225000</v>
       </c>
       <c r="H66" s="3">
-        <v>242116000</v>
+        <v>227819000</v>
       </c>
       <c r="I66" s="3">
-        <v>239539000</v>
+        <v>225394000</v>
       </c>
       <c r="J66" s="3">
-        <v>235265000</v>
+        <v>221373000</v>
       </c>
       <c r="K66" s="3">
         <v>263933000</v>
@@ -2895,19 +2895,19 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3927500</v>
+        <v>3695600</v>
       </c>
       <c r="G70" s="3">
-        <v>3880000</v>
+        <v>3650900</v>
       </c>
       <c r="H70" s="3">
-        <v>3832500</v>
+        <v>3606200</v>
       </c>
       <c r="I70" s="3">
-        <v>3785000</v>
+        <v>3561500</v>
       </c>
       <c r="J70" s="3">
-        <v>3737500</v>
+        <v>3516800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>206070000</v>
+        <v>193901000</v>
       </c>
       <c r="E72" s="3">
-        <v>187772000</v>
+        <v>176684000</v>
       </c>
       <c r="F72" s="3">
-        <v>173203000</v>
+        <v>162976000</v>
       </c>
       <c r="G72" s="3">
-        <v>171283000</v>
+        <v>161169000</v>
       </c>
       <c r="H72" s="3">
-        <v>151698000</v>
+        <v>142741000</v>
       </c>
       <c r="I72" s="3">
-        <v>137112000</v>
+        <v>129016000</v>
       </c>
       <c r="J72" s="3">
-        <v>130827000</v>
+        <v>123102000</v>
       </c>
       <c r="K72" s="3">
         <v>132999000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>204456000</v>
+        <v>192383000</v>
       </c>
       <c r="E76" s="3">
-        <v>182321000</v>
+        <v>171555000</v>
       </c>
       <c r="F76" s="3">
-        <v>156694000</v>
+        <v>147441000</v>
       </c>
       <c r="G76" s="3">
-        <v>150722000</v>
+        <v>141822000</v>
       </c>
       <c r="H76" s="3">
-        <v>145953000</v>
+        <v>137335000</v>
       </c>
       <c r="I76" s="3">
-        <v>136440000</v>
+        <v>128384000</v>
       </c>
       <c r="J76" s="3">
-        <v>130459000</v>
+        <v>122755000</v>
       </c>
       <c r="K76" s="3">
         <v>143203000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22202400</v>
+        <v>20891300</v>
       </c>
       <c r="E81" s="3">
-        <v>17490600</v>
+        <v>16457800</v>
       </c>
       <c r="F81" s="3">
-        <v>17323900</v>
+        <v>16300900</v>
       </c>
       <c r="G81" s="3">
-        <v>14552400</v>
+        <v>13693100</v>
       </c>
       <c r="H81" s="3">
-        <v>19332400</v>
+        <v>18190800</v>
       </c>
       <c r="I81" s="3">
-        <v>14188000</v>
+        <v>13350200</v>
       </c>
       <c r="J81" s="3">
-        <v>17968500</v>
+        <v>16907400</v>
       </c>
       <c r="K81" s="3">
         <v>18538600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14192400</v>
+        <v>13354400</v>
       </c>
       <c r="E83" s="3">
-        <v>12809000</v>
+        <v>12052600</v>
       </c>
       <c r="F83" s="3">
-        <v>12427800</v>
+        <v>11693900</v>
       </c>
       <c r="G83" s="3">
-        <v>13962600</v>
+        <v>13138100</v>
       </c>
       <c r="H83" s="3">
-        <v>13508100</v>
+        <v>12710500</v>
       </c>
       <c r="I83" s="3">
-        <v>12549300</v>
+        <v>11808300</v>
       </c>
       <c r="J83" s="3">
-        <v>12665300</v>
+        <v>11917400</v>
       </c>
       <c r="K83" s="3">
         <v>12019400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28999200</v>
+        <v>27286800</v>
       </c>
       <c r="E89" s="3">
-        <v>21244600</v>
+        <v>19990100</v>
       </c>
       <c r="F89" s="3">
-        <v>18684300</v>
+        <v>17581000</v>
       </c>
       <c r="G89" s="3">
-        <v>29341800</v>
+        <v>27609200</v>
       </c>
       <c r="H89" s="3">
-        <v>32898200</v>
+        <v>30955500</v>
       </c>
       <c r="I89" s="3">
-        <v>26596900</v>
+        <v>25026400</v>
       </c>
       <c r="J89" s="3">
-        <v>34750100</v>
+        <v>32698100</v>
       </c>
       <c r="K89" s="3">
         <v>31439500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27141600</v>
+        <v>-25538900</v>
       </c>
       <c r="E91" s="3">
-        <v>-27183200</v>
+        <v>-25578000</v>
       </c>
       <c r="F91" s="3">
-        <v>-26809900</v>
+        <v>-25226800</v>
       </c>
       <c r="G91" s="3">
-        <v>-29125900</v>
+        <v>-27406000</v>
       </c>
       <c r="H91" s="3">
-        <v>-28033900</v>
+        <v>-26378500</v>
       </c>
       <c r="I91" s="3">
-        <v>-27587800</v>
+        <v>-25958700</v>
       </c>
       <c r="J91" s="3">
-        <v>-31621300</v>
+        <v>-29754100</v>
       </c>
       <c r="K91" s="3">
         <v>-28640100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4498700</v>
+        <v>-4233000</v>
       </c>
       <c r="E94" s="3">
-        <v>-36489700</v>
+        <v>-34335000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16551000</v>
+        <v>-15573700</v>
       </c>
       <c r="G94" s="3">
-        <v>-21011500</v>
+        <v>-19770800</v>
       </c>
       <c r="H94" s="3">
-        <v>-28512100</v>
+        <v>-26828500</v>
       </c>
       <c r="I94" s="3">
-        <v>-23135800</v>
+        <v>-21769700</v>
       </c>
       <c r="J94" s="3">
-        <v>-24792000</v>
+        <v>-23328000</v>
       </c>
       <c r="K94" s="3">
         <v>-32529100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5529900</v>
+        <v>-5203400</v>
       </c>
       <c r="E96" s="3">
-        <v>-4872800</v>
+        <v>-4585000</v>
       </c>
       <c r="F96" s="3">
-        <v>-4907600</v>
+        <v>-4617800</v>
       </c>
       <c r="G96" s="3">
-        <v>-5023000</v>
+        <v>-4726400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4883500</v>
+        <v>-4595100</v>
       </c>
       <c r="I96" s="3">
-        <v>-4971400</v>
+        <v>-4677800</v>
       </c>
       <c r="J96" s="3">
-        <v>-5499400</v>
+        <v>-5174600</v>
       </c>
       <c r="K96" s="3">
         <v>-4733600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19214200</v>
+        <v>-18079600</v>
       </c>
       <c r="E100" s="3">
-        <v>21338200</v>
+        <v>20078100</v>
       </c>
       <c r="F100" s="3">
-        <v>2826300</v>
+        <v>2659400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4213100</v>
+        <v>-3964300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3498800</v>
+        <v>-3292200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2922500</v>
+        <v>-2750000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3299600</v>
+        <v>-3104800</v>
       </c>
       <c r="K100" s="3">
         <v>2610600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2603400</v>
+        <v>2449600</v>
       </c>
       <c r="E101" s="3">
-        <v>1715700</v>
+        <v>1614400</v>
       </c>
       <c r="F101" s="3">
-        <v>-1098400</v>
+        <v>-1033600</v>
       </c>
       <c r="G101" s="3">
-        <v>-324400</v>
+        <v>-305200</v>
       </c>
       <c r="H101" s="3">
-        <v>-339600</v>
+        <v>-319500</v>
       </c>
       <c r="I101" s="3">
-        <v>-105100</v>
+        <v>-98900</v>
       </c>
       <c r="J101" s="3">
-        <v>-1557000</v>
+        <v>-1465100</v>
       </c>
       <c r="K101" s="3">
         <v>555100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7889700</v>
+        <v>7423800</v>
       </c>
       <c r="E102" s="3">
-        <v>7808700</v>
+        <v>7347600</v>
       </c>
       <c r="F102" s="3">
-        <v>3861100</v>
+        <v>3633100</v>
       </c>
       <c r="G102" s="3">
-        <v>3792800</v>
+        <v>3568800</v>
       </c>
       <c r="H102" s="3">
-        <v>547700</v>
+        <v>515400</v>
       </c>
       <c r="I102" s="3">
-        <v>433500</v>
+        <v>407900</v>
       </c>
       <c r="J102" s="3">
-        <v>5101400</v>
+        <v>4800200</v>
       </c>
       <c r="K102" s="3">
         <v>2076100</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230011800</v>
+        <v>222480700</v>
       </c>
       <c r="E8" s="3">
-        <v>199483000</v>
+        <v>192951500</v>
       </c>
       <c r="F8" s="3">
-        <v>218921800</v>
+        <v>211753800</v>
       </c>
       <c r="G8" s="3">
-        <v>221554200</v>
+        <v>214300100</v>
       </c>
       <c r="H8" s="3">
-        <v>215351800</v>
+        <v>208300700</v>
       </c>
       <c r="I8" s="3">
-        <v>202287400</v>
+        <v>195664100</v>
       </c>
       <c r="J8" s="3">
-        <v>208194900</v>
+        <v>201378100</v>
       </c>
       <c r="K8" s="3">
         <v>232310500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>186239400</v>
+        <v>180141500</v>
       </c>
       <c r="E9" s="3">
-        <v>164061700</v>
+        <v>158689900</v>
       </c>
       <c r="F9" s="3">
-        <v>349113900</v>
+        <v>337683200</v>
       </c>
       <c r="G9" s="3">
-        <v>181650500</v>
+        <v>175702900</v>
       </c>
       <c r="H9" s="3">
-        <v>175107500</v>
+        <v>169374100</v>
       </c>
       <c r="I9" s="3">
-        <v>166642700</v>
+        <v>161186400</v>
       </c>
       <c r="J9" s="3">
-        <v>165698100</v>
+        <v>160272700</v>
       </c>
       <c r="K9" s="3">
         <v>186309500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43772400</v>
+        <v>42339200</v>
       </c>
       <c r="E10" s="3">
-        <v>35421300</v>
+        <v>34261500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>39903800</v>
+        <v>38597200</v>
       </c>
       <c r="H10" s="3">
-        <v>40244300</v>
+        <v>38926600</v>
       </c>
       <c r="I10" s="3">
-        <v>35644700</v>
+        <v>34477700</v>
       </c>
       <c r="J10" s="3">
-        <v>42496800</v>
+        <v>41105400</v>
       </c>
       <c r="K10" s="3">
         <v>46001000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>208053300</v>
+        <v>201241200</v>
       </c>
       <c r="E17" s="3">
-        <v>183373500</v>
+        <v>177369400</v>
       </c>
       <c r="F17" s="3">
-        <v>201335400</v>
+        <v>194743300</v>
       </c>
       <c r="G17" s="3">
-        <v>203467100</v>
+        <v>196805200</v>
       </c>
       <c r="H17" s="3">
-        <v>197760800</v>
+        <v>191285700</v>
       </c>
       <c r="I17" s="3">
-        <v>187668700</v>
+        <v>181524000</v>
       </c>
       <c r="J17" s="3">
-        <v>187275200</v>
+        <v>181143500</v>
       </c>
       <c r="K17" s="3">
         <v>208848200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21958500</v>
+        <v>21239500</v>
       </c>
       <c r="E18" s="3">
-        <v>16109500</v>
+        <v>15582000</v>
       </c>
       <c r="F18" s="3">
-        <v>17586400</v>
+        <v>17010600</v>
       </c>
       <c r="G18" s="3">
-        <v>18087100</v>
+        <v>17494900</v>
       </c>
       <c r="H18" s="3">
-        <v>17591000</v>
+        <v>17015000</v>
       </c>
       <c r="I18" s="3">
-        <v>14618700</v>
+        <v>14140100</v>
       </c>
       <c r="J18" s="3">
-        <v>20919600</v>
+        <v>20234700</v>
       </c>
       <c r="K18" s="3">
         <v>23462300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7530100</v>
+        <v>7283500</v>
       </c>
       <c r="E20" s="3">
-        <v>5695600</v>
+        <v>5509100</v>
       </c>
       <c r="F20" s="3">
-        <v>3445400</v>
+        <v>3332600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1128800</v>
+        <v>-1091900</v>
       </c>
       <c r="H20" s="3">
-        <v>1819000</v>
+        <v>1759400</v>
       </c>
       <c r="I20" s="3">
-        <v>1677100</v>
+        <v>1622200</v>
       </c>
       <c r="J20" s="3">
-        <v>1208100</v>
+        <v>1168500</v>
       </c>
       <c r="K20" s="3">
         <v>1408600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42770000</v>
+        <v>40966400</v>
       </c>
       <c r="E21" s="3">
-        <v>33792000</v>
+        <v>32321700</v>
       </c>
       <c r="F21" s="3">
-        <v>32661900</v>
+        <v>31239400</v>
       </c>
       <c r="G21" s="3">
-        <v>30024700</v>
+        <v>28644900</v>
       </c>
       <c r="H21" s="3">
-        <v>32051100</v>
+        <v>30617900</v>
       </c>
       <c r="I21" s="3">
-        <v>28039700</v>
+        <v>26765100</v>
       </c>
       <c r="J21" s="3">
-        <v>33980000</v>
+        <v>32507600</v>
       </c>
       <c r="K21" s="3">
         <v>37031200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>237900</v>
+        <v>230100</v>
       </c>
       <c r="E22" s="3">
-        <v>310900</v>
+        <v>300800</v>
       </c>
       <c r="F22" s="3">
-        <v>559500</v>
+        <v>541200</v>
       </c>
       <c r="G22" s="3">
-        <v>205800</v>
+        <v>199100</v>
       </c>
       <c r="H22" s="3">
-        <v>202200</v>
+        <v>195600</v>
       </c>
       <c r="I22" s="3">
-        <v>215200</v>
+        <v>208100</v>
       </c>
       <c r="J22" s="3">
-        <v>259500</v>
+        <v>251000</v>
       </c>
       <c r="K22" s="3">
         <v>195100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29250600</v>
+        <v>28292900</v>
       </c>
       <c r="E23" s="3">
-        <v>21494200</v>
+        <v>20790400</v>
       </c>
       <c r="F23" s="3">
-        <v>20472300</v>
+        <v>19802000</v>
       </c>
       <c r="G23" s="3">
-        <v>16752500</v>
+        <v>16203900</v>
       </c>
       <c r="H23" s="3">
-        <v>19207700</v>
+        <v>18578800</v>
       </c>
       <c r="I23" s="3">
-        <v>16080700</v>
+        <v>15554200</v>
       </c>
       <c r="J23" s="3">
-        <v>21868200</v>
+        <v>21152200</v>
       </c>
       <c r="K23" s="3">
         <v>24675800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8179700</v>
+        <v>7911900</v>
       </c>
       <c r="E24" s="3">
-        <v>4764300</v>
+        <v>4608300</v>
       </c>
       <c r="F24" s="3">
-        <v>4997700</v>
+        <v>4834100</v>
       </c>
       <c r="G24" s="3">
-        <v>4837400</v>
+        <v>4679000</v>
       </c>
       <c r="H24" s="3">
-        <v>3697300</v>
+        <v>3576200</v>
       </c>
       <c r="I24" s="3">
-        <v>4609800</v>
+        <v>4458900</v>
       </c>
       <c r="J24" s="3">
-        <v>6437700</v>
+        <v>6226900</v>
       </c>
       <c r="K24" s="3">
         <v>7621300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21070900</v>
+        <v>20381000</v>
       </c>
       <c r="E26" s="3">
-        <v>16729800</v>
+        <v>16182100</v>
       </c>
       <c r="F26" s="3">
-        <v>15474500</v>
+        <v>14967900</v>
       </c>
       <c r="G26" s="3">
-        <v>11915100</v>
+        <v>11524900</v>
       </c>
       <c r="H26" s="3">
-        <v>15510400</v>
+        <v>15002600</v>
       </c>
       <c r="I26" s="3">
-        <v>11470900</v>
+        <v>11095300</v>
       </c>
       <c r="J26" s="3">
-        <v>15430500</v>
+        <v>14925200</v>
       </c>
       <c r="K26" s="3">
         <v>17054500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20891300</v>
+        <v>20207300</v>
       </c>
       <c r="E27" s="3">
-        <v>16457800</v>
+        <v>15918900</v>
       </c>
       <c r="F27" s="3">
-        <v>16300900</v>
+        <v>15767200</v>
       </c>
       <c r="G27" s="3">
-        <v>13693100</v>
+        <v>13244700</v>
       </c>
       <c r="H27" s="3">
-        <v>18190800</v>
+        <v>17595200</v>
       </c>
       <c r="I27" s="3">
-        <v>13350200</v>
+        <v>12913100</v>
       </c>
       <c r="J27" s="3">
-        <v>16907400</v>
+        <v>16353800</v>
       </c>
       <c r="K27" s="3">
         <v>18538600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7530100</v>
+        <v>-7283500</v>
       </c>
       <c r="E32" s="3">
-        <v>-5695600</v>
+        <v>-5509100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3445400</v>
+        <v>-3332600</v>
       </c>
       <c r="G32" s="3">
-        <v>1128800</v>
+        <v>1091900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1819000</v>
+        <v>-1759400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1677100</v>
+        <v>-1622200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1208100</v>
+        <v>-1168500</v>
       </c>
       <c r="K32" s="3">
         <v>-1408600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20891300</v>
+        <v>20207300</v>
       </c>
       <c r="E33" s="3">
-        <v>16457800</v>
+        <v>15918900</v>
       </c>
       <c r="F33" s="3">
-        <v>16300900</v>
+        <v>15767200</v>
       </c>
       <c r="G33" s="3">
-        <v>13693100</v>
+        <v>13244700</v>
       </c>
       <c r="H33" s="3">
-        <v>18190800</v>
+        <v>17595200</v>
       </c>
       <c r="I33" s="3">
-        <v>13350200</v>
+        <v>12913100</v>
       </c>
       <c r="J33" s="3">
-        <v>16907400</v>
+        <v>16353800</v>
       </c>
       <c r="K33" s="3">
         <v>18538600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20891300</v>
+        <v>20207300</v>
       </c>
       <c r="E35" s="3">
-        <v>16457800</v>
+        <v>15918900</v>
       </c>
       <c r="F35" s="3">
-        <v>16300900</v>
+        <v>15767200</v>
       </c>
       <c r="G35" s="3">
-        <v>13693100</v>
+        <v>13244700</v>
       </c>
       <c r="H35" s="3">
-        <v>18190800</v>
+        <v>17595200</v>
       </c>
       <c r="I35" s="3">
-        <v>13350200</v>
+        <v>12913100</v>
       </c>
       <c r="J35" s="3">
-        <v>16907400</v>
+        <v>16353800</v>
       </c>
       <c r="K35" s="3">
         <v>18538600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44813100</v>
+        <v>43345800</v>
       </c>
       <c r="E41" s="3">
-        <v>37389300</v>
+        <v>36165100</v>
       </c>
       <c r="F41" s="3">
-        <v>30041600</v>
+        <v>29058000</v>
       </c>
       <c r="G41" s="3">
-        <v>26202600</v>
+        <v>25344700</v>
       </c>
       <c r="H41" s="3">
-        <v>22373100</v>
+        <v>21640600</v>
       </c>
       <c r="I41" s="3">
-        <v>21953900</v>
+        <v>21235100</v>
       </c>
       <c r="J41" s="3">
-        <v>21546000</v>
+        <v>20840500</v>
       </c>
       <c r="K41" s="3">
         <v>19487300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18378100</v>
+        <v>17776400</v>
       </c>
       <c r="E42" s="3">
-        <v>30899300</v>
+        <v>29887600</v>
       </c>
       <c r="F42" s="3">
-        <v>26758600</v>
+        <v>25882400</v>
       </c>
       <c r="G42" s="3">
-        <v>16518200</v>
+        <v>15977400</v>
       </c>
       <c r="H42" s="3">
-        <v>19568200</v>
+        <v>18927500</v>
       </c>
       <c r="I42" s="3">
-        <v>21288200</v>
+        <v>20591100</v>
       </c>
       <c r="J42" s="3">
-        <v>18643300</v>
+        <v>18032900</v>
       </c>
       <c r="K42" s="3">
         <v>25005000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76877700</v>
+        <v>74360500</v>
       </c>
       <c r="E43" s="3">
-        <v>72034800</v>
+        <v>69676200</v>
       </c>
       <c r="F43" s="3">
-        <v>157081000</v>
+        <v>151938000</v>
       </c>
       <c r="G43" s="3">
-        <v>70284900</v>
+        <v>67983600</v>
       </c>
       <c r="H43" s="3">
-        <v>66389300</v>
+        <v>64215600</v>
       </c>
       <c r="I43" s="3">
-        <v>64133500</v>
+        <v>62033600</v>
       </c>
       <c r="J43" s="3">
-        <v>61309900</v>
+        <v>59302500</v>
       </c>
       <c r="K43" s="3">
         <v>75057400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28010500</v>
+        <v>27093400</v>
       </c>
       <c r="E44" s="3">
-        <v>21169200</v>
+        <v>20476100</v>
       </c>
       <c r="F44" s="3">
-        <v>54994800</v>
+        <v>53194200</v>
       </c>
       <c r="G44" s="3">
-        <v>19471400</v>
+        <v>18833800</v>
       </c>
       <c r="H44" s="3">
-        <v>18616700</v>
+        <v>18007100</v>
       </c>
       <c r="I44" s="3">
-        <v>17508600</v>
+        <v>16935300</v>
       </c>
       <c r="J44" s="3">
-        <v>15110900</v>
+        <v>14616100</v>
       </c>
       <c r="K44" s="3">
         <v>18233900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5805000</v>
+        <v>5614900</v>
       </c>
       <c r="E45" s="3">
-        <v>5461400</v>
+        <v>5282500</v>
       </c>
       <c r="F45" s="3">
-        <v>14044500</v>
+        <v>13584600</v>
       </c>
       <c r="G45" s="3">
-        <v>5907700</v>
+        <v>5714300</v>
       </c>
       <c r="H45" s="3">
-        <v>6111700</v>
+        <v>5911600</v>
       </c>
       <c r="I45" s="3">
-        <v>5836900</v>
+        <v>5645700</v>
       </c>
       <c r="J45" s="3">
-        <v>16866000</v>
+        <v>16313700</v>
       </c>
       <c r="K45" s="3">
         <v>15213900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>173884000</v>
+        <v>168191000</v>
       </c>
       <c r="E46" s="3">
-        <v>166954000</v>
+        <v>161488000</v>
       </c>
       <c r="F46" s="3">
-        <v>139001000</v>
+        <v>134450000</v>
       </c>
       <c r="G46" s="3">
-        <v>138385000</v>
+        <v>133854000</v>
       </c>
       <c r="H46" s="3">
-        <v>133059000</v>
+        <v>128702000</v>
       </c>
       <c r="I46" s="3">
-        <v>130721000</v>
+        <v>126441000</v>
       </c>
       <c r="J46" s="3">
-        <v>133476000</v>
+        <v>129106000</v>
       </c>
       <c r="K46" s="3">
         <v>152998000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>212118000</v>
+        <v>205173000</v>
       </c>
       <c r="E47" s="3">
-        <v>188339000</v>
+        <v>182172000</v>
       </c>
       <c r="F47" s="3">
-        <v>325950000</v>
+        <v>315278000</v>
       </c>
       <c r="G47" s="3">
-        <v>154095000</v>
+        <v>149049000</v>
       </c>
       <c r="H47" s="3">
-        <v>151485000</v>
+        <v>146525000</v>
       </c>
       <c r="I47" s="3">
-        <v>143397000</v>
+        <v>138702000</v>
       </c>
       <c r="J47" s="3">
-        <v>137418000</v>
+        <v>132919000</v>
       </c>
       <c r="K47" s="3">
         <v>166943000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93641100</v>
+        <v>90575100</v>
       </c>
       <c r="E48" s="3">
-        <v>86503500</v>
+        <v>83671200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>78324700</v>
+        <v>75760200</v>
       </c>
       <c r="H48" s="3">
-        <v>75262000</v>
+        <v>72797800</v>
       </c>
       <c r="I48" s="3">
-        <v>74744800</v>
+        <v>72297500</v>
       </c>
       <c r="J48" s="3">
-        <v>71397300</v>
+        <v>69059600</v>
       </c>
       <c r="K48" s="3">
         <v>79292500</v>
@@ -2136,13 +2136,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8737100</v>
+        <v>8451000</v>
       </c>
       <c r="E49" s="3">
-        <v>8126300</v>
+        <v>7860200</v>
       </c>
       <c r="F49" s="3">
-        <v>14663800</v>
+        <v>14183600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7778400</v>
+        <v>7523700</v>
       </c>
       <c r="E52" s="3">
-        <v>6495600</v>
+        <v>6282900</v>
       </c>
       <c r="F52" s="3">
-        <v>10804400</v>
+        <v>10450600</v>
       </c>
       <c r="G52" s="3">
-        <v>9893800</v>
+        <v>9569900</v>
       </c>
       <c r="H52" s="3">
-        <v>8953600</v>
+        <v>8660400</v>
       </c>
       <c r="I52" s="3">
-        <v>8476500</v>
+        <v>8198900</v>
       </c>
       <c r="J52" s="3">
-        <v>5352900</v>
+        <v>5177600</v>
       </c>
       <c r="K52" s="3">
         <v>7902100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>496159000</v>
+        <v>479913000</v>
       </c>
       <c r="E54" s="3">
-        <v>456418000</v>
+        <v>441474000</v>
       </c>
       <c r="F54" s="3">
-        <v>395617000</v>
+        <v>382664000</v>
       </c>
       <c r="G54" s="3">
-        <v>380698000</v>
+        <v>368233000</v>
       </c>
       <c r="H54" s="3">
-        <v>368760000</v>
+        <v>356686000</v>
       </c>
       <c r="I54" s="3">
-        <v>357339000</v>
+        <v>345639000</v>
       </c>
       <c r="J54" s="3">
-        <v>347644000</v>
+        <v>336262000</v>
       </c>
       <c r="K54" s="3">
         <v>407135000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31461000</v>
+        <v>30430900</v>
       </c>
       <c r="E57" s="3">
-        <v>29656700</v>
+        <v>28685700</v>
       </c>
       <c r="F57" s="3">
-        <v>43483100</v>
+        <v>42059400</v>
       </c>
       <c r="G57" s="3">
-        <v>19395100</v>
+        <v>18760000</v>
       </c>
       <c r="H57" s="3">
-        <v>18960200</v>
+        <v>18339400</v>
       </c>
       <c r="I57" s="3">
-        <v>18811600</v>
+        <v>18195600</v>
       </c>
       <c r="J57" s="3">
-        <v>17515100</v>
+        <v>16941700</v>
       </c>
       <c r="K57" s="3">
         <v>20562300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>82006900</v>
+        <v>79321800</v>
       </c>
       <c r="E58" s="3">
-        <v>89514400</v>
+        <v>86583500</v>
       </c>
       <c r="F58" s="3">
-        <v>217507000</v>
+        <v>210386000</v>
       </c>
       <c r="G58" s="3">
-        <v>70362400</v>
+        <v>68058600</v>
       </c>
       <c r="H58" s="3">
-        <v>68470900</v>
+        <v>66229000</v>
       </c>
       <c r="I58" s="3">
-        <v>67759500</v>
+        <v>65540900</v>
       </c>
       <c r="J58" s="3">
-        <v>62459600</v>
+        <v>60414500</v>
       </c>
       <c r="K58" s="3">
         <v>76458600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46635100</v>
+        <v>45108200</v>
       </c>
       <c r="E59" s="3">
-        <v>38134100</v>
+        <v>36885500</v>
       </c>
       <c r="F59" s="3">
-        <v>52786100</v>
+        <v>51057800</v>
       </c>
       <c r="G59" s="3">
-        <v>43846000</v>
+        <v>42410400</v>
       </c>
       <c r="H59" s="3">
-        <v>43020100</v>
+        <v>41611500</v>
       </c>
       <c r="I59" s="3">
-        <v>40377000</v>
+        <v>39054900</v>
       </c>
       <c r="J59" s="3">
-        <v>38217500</v>
+        <v>36966200</v>
       </c>
       <c r="K59" s="3">
         <v>43139800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160103000</v>
+        <v>154861000</v>
       </c>
       <c r="E60" s="3">
-        <v>157305000</v>
+        <v>152155000</v>
       </c>
       <c r="F60" s="3">
-        <v>132982000</v>
+        <v>128628000</v>
       </c>
       <c r="G60" s="3">
-        <v>133604000</v>
+        <v>129229000</v>
       </c>
       <c r="H60" s="3">
-        <v>130451000</v>
+        <v>126180000</v>
       </c>
       <c r="I60" s="3">
-        <v>126948000</v>
+        <v>122792000</v>
       </c>
       <c r="J60" s="3">
-        <v>118192000</v>
+        <v>114322000</v>
       </c>
       <c r="K60" s="3">
         <v>140161000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112211000</v>
+        <v>108537000</v>
       </c>
       <c r="E61" s="3">
-        <v>98570700</v>
+        <v>95343300</v>
       </c>
       <c r="F61" s="3">
-        <v>83812800</v>
+        <v>81068600</v>
       </c>
       <c r="G61" s="3">
-        <v>77338400</v>
+        <v>74806200</v>
       </c>
       <c r="H61" s="3">
-        <v>73346700</v>
+        <v>70945200</v>
       </c>
       <c r="I61" s="3">
-        <v>72652000</v>
+        <v>70273200</v>
       </c>
       <c r="J61" s="3">
-        <v>71629200</v>
+        <v>69283900</v>
       </c>
       <c r="K61" s="3">
         <v>85422800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24799400</v>
+        <v>23987400</v>
       </c>
       <c r="E62" s="3">
-        <v>22508700</v>
+        <v>21771800</v>
       </c>
       <c r="F62" s="3">
-        <v>35602300</v>
+        <v>34436600</v>
       </c>
       <c r="G62" s="3">
-        <v>19013000</v>
+        <v>18390400</v>
       </c>
       <c r="H62" s="3">
-        <v>18932700</v>
+        <v>18312800</v>
       </c>
       <c r="I62" s="3">
-        <v>20895400</v>
+        <v>20211300</v>
       </c>
       <c r="J62" s="3">
-        <v>25236400</v>
+        <v>24410100</v>
       </c>
       <c r="K62" s="3">
         <v>31020300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>303776000</v>
+        <v>293830000</v>
       </c>
       <c r="E66" s="3">
-        <v>284863000</v>
+        <v>275536000</v>
       </c>
       <c r="F66" s="3">
-        <v>244481000</v>
+        <v>236476000</v>
       </c>
       <c r="G66" s="3">
-        <v>235225000</v>
+        <v>227523000</v>
       </c>
       <c r="H66" s="3">
-        <v>227819000</v>
+        <v>220359000</v>
       </c>
       <c r="I66" s="3">
-        <v>225394000</v>
+        <v>218014000</v>
       </c>
       <c r="J66" s="3">
-        <v>221373000</v>
+        <v>214124000</v>
       </c>
       <c r="K66" s="3">
         <v>263933000</v>
@@ -2895,19 +2895,19 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3695600</v>
+        <v>3574600</v>
       </c>
       <c r="G70" s="3">
-        <v>3650900</v>
+        <v>3531300</v>
       </c>
       <c r="H70" s="3">
-        <v>3606200</v>
+        <v>3488100</v>
       </c>
       <c r="I70" s="3">
-        <v>3561500</v>
+        <v>3444900</v>
       </c>
       <c r="J70" s="3">
-        <v>3516800</v>
+        <v>3401600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>193901000</v>
+        <v>187553000</v>
       </c>
       <c r="E72" s="3">
-        <v>176684000</v>
+        <v>170899000</v>
       </c>
       <c r="F72" s="3">
-        <v>162976000</v>
+        <v>157640000</v>
       </c>
       <c r="G72" s="3">
-        <v>161169000</v>
+        <v>155892000</v>
       </c>
       <c r="H72" s="3">
-        <v>142741000</v>
+        <v>138067000</v>
       </c>
       <c r="I72" s="3">
-        <v>129016000</v>
+        <v>124792000</v>
       </c>
       <c r="J72" s="3">
-        <v>123102000</v>
+        <v>119071000</v>
       </c>
       <c r="K72" s="3">
         <v>132999000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>192383000</v>
+        <v>186084000</v>
       </c>
       <c r="E76" s="3">
-        <v>171555000</v>
+        <v>165938000</v>
       </c>
       <c r="F76" s="3">
-        <v>147441000</v>
+        <v>142613000</v>
       </c>
       <c r="G76" s="3">
-        <v>141822000</v>
+        <v>137178000</v>
       </c>
       <c r="H76" s="3">
-        <v>137335000</v>
+        <v>132838000</v>
       </c>
       <c r="I76" s="3">
-        <v>128384000</v>
+        <v>124180000</v>
       </c>
       <c r="J76" s="3">
-        <v>122755000</v>
+        <v>118736000</v>
       </c>
       <c r="K76" s="3">
         <v>143203000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20891300</v>
+        <v>20207300</v>
       </c>
       <c r="E81" s="3">
-        <v>16457800</v>
+        <v>15918900</v>
       </c>
       <c r="F81" s="3">
-        <v>16300900</v>
+        <v>15767200</v>
       </c>
       <c r="G81" s="3">
-        <v>13693100</v>
+        <v>13244700</v>
       </c>
       <c r="H81" s="3">
-        <v>18190800</v>
+        <v>17595200</v>
       </c>
       <c r="I81" s="3">
-        <v>13350200</v>
+        <v>12913100</v>
       </c>
       <c r="J81" s="3">
-        <v>16907400</v>
+        <v>16353800</v>
       </c>
       <c r="K81" s="3">
         <v>18538600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13354400</v>
+        <v>12917100</v>
       </c>
       <c r="E83" s="3">
-        <v>12052600</v>
+        <v>11658000</v>
       </c>
       <c r="F83" s="3">
-        <v>11693900</v>
+        <v>11311000</v>
       </c>
       <c r="G83" s="3">
-        <v>13138100</v>
+        <v>12707900</v>
       </c>
       <c r="H83" s="3">
-        <v>12710500</v>
+        <v>12294300</v>
       </c>
       <c r="I83" s="3">
-        <v>11808300</v>
+        <v>11421600</v>
       </c>
       <c r="J83" s="3">
-        <v>11917400</v>
+        <v>11527200</v>
       </c>
       <c r="K83" s="3">
         <v>12019400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27286800</v>
+        <v>26393300</v>
       </c>
       <c r="E89" s="3">
-        <v>19990100</v>
+        <v>19335600</v>
       </c>
       <c r="F89" s="3">
-        <v>17581000</v>
+        <v>17005300</v>
       </c>
       <c r="G89" s="3">
-        <v>27609200</v>
+        <v>26705200</v>
       </c>
       <c r="H89" s="3">
-        <v>30955500</v>
+        <v>29942000</v>
       </c>
       <c r="I89" s="3">
-        <v>25026400</v>
+        <v>24206900</v>
       </c>
       <c r="J89" s="3">
-        <v>32698100</v>
+        <v>31627500</v>
       </c>
       <c r="K89" s="3">
         <v>31439500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25538900</v>
+        <v>-24702700</v>
       </c>
       <c r="E91" s="3">
-        <v>-25578000</v>
+        <v>-24740500</v>
       </c>
       <c r="F91" s="3">
-        <v>-25226800</v>
+        <v>-24400800</v>
       </c>
       <c r="G91" s="3">
-        <v>-27406000</v>
+        <v>-26508700</v>
       </c>
       <c r="H91" s="3">
-        <v>-26378500</v>
+        <v>-25514800</v>
       </c>
       <c r="I91" s="3">
-        <v>-25958700</v>
+        <v>-25108800</v>
       </c>
       <c r="J91" s="3">
-        <v>-29754100</v>
+        <v>-28779800</v>
       </c>
       <c r="K91" s="3">
         <v>-28640100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4233000</v>
+        <v>-4094400</v>
       </c>
       <c r="E94" s="3">
-        <v>-34335000</v>
+        <v>-33210800</v>
       </c>
       <c r="F94" s="3">
-        <v>-15573700</v>
+        <v>-15063800</v>
       </c>
       <c r="G94" s="3">
-        <v>-19770800</v>
+        <v>-19123400</v>
       </c>
       <c r="H94" s="3">
-        <v>-26828500</v>
+        <v>-25950100</v>
       </c>
       <c r="I94" s="3">
-        <v>-21769700</v>
+        <v>-21056900</v>
       </c>
       <c r="J94" s="3">
-        <v>-23328000</v>
+        <v>-22564200</v>
       </c>
       <c r="K94" s="3">
         <v>-32529100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5203400</v>
+        <v>-5033000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4585000</v>
+        <v>-4434900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4617800</v>
+        <v>-4466600</v>
       </c>
       <c r="G96" s="3">
-        <v>-4726400</v>
+        <v>-4571700</v>
       </c>
       <c r="H96" s="3">
-        <v>-4595100</v>
+        <v>-4444700</v>
       </c>
       <c r="I96" s="3">
-        <v>-4677800</v>
+        <v>-4524600</v>
       </c>
       <c r="J96" s="3">
-        <v>-5174600</v>
+        <v>-5005200</v>
       </c>
       <c r="K96" s="3">
         <v>-4733600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18079600</v>
+        <v>-17487600</v>
       </c>
       <c r="E100" s="3">
-        <v>20078100</v>
+        <v>19420700</v>
       </c>
       <c r="F100" s="3">
-        <v>2659400</v>
+        <v>2572300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3964300</v>
+        <v>-3834500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3292200</v>
+        <v>-3184400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2750000</v>
+        <v>-2659900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3104800</v>
+        <v>-3003100</v>
       </c>
       <c r="K100" s="3">
         <v>2610600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2449600</v>
+        <v>2369400</v>
       </c>
       <c r="E101" s="3">
-        <v>1614400</v>
+        <v>1561500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1033600</v>
+        <v>-999700</v>
       </c>
       <c r="G101" s="3">
-        <v>-305200</v>
+        <v>-295200</v>
       </c>
       <c r="H101" s="3">
-        <v>-319500</v>
+        <v>-309000</v>
       </c>
       <c r="I101" s="3">
-        <v>-98900</v>
+        <v>-95600</v>
       </c>
       <c r="J101" s="3">
-        <v>-1465100</v>
+        <v>-1417100</v>
       </c>
       <c r="K101" s="3">
         <v>555100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7423800</v>
+        <v>7180700</v>
       </c>
       <c r="E102" s="3">
-        <v>7347600</v>
+        <v>7107100</v>
       </c>
       <c r="F102" s="3">
-        <v>3633100</v>
+        <v>3514100</v>
       </c>
       <c r="G102" s="3">
-        <v>3568800</v>
+        <v>3452000</v>
       </c>
       <c r="H102" s="3">
-        <v>515400</v>
+        <v>498500</v>
       </c>
       <c r="I102" s="3">
-        <v>407900</v>
+        <v>394500</v>
       </c>
       <c r="J102" s="3">
-        <v>4800200</v>
+        <v>4643000</v>
       </c>
       <c r="K102" s="3">
         <v>2076100</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>222480700</v>
+        <v>230639400</v>
       </c>
       <c r="E8" s="3">
-        <v>192951500</v>
+        <v>200027300</v>
       </c>
       <c r="F8" s="3">
-        <v>211753800</v>
+        <v>219519100</v>
       </c>
       <c r="G8" s="3">
-        <v>214300100</v>
+        <v>222158800</v>
       </c>
       <c r="H8" s="3">
-        <v>208300700</v>
+        <v>215939400</v>
       </c>
       <c r="I8" s="3">
-        <v>195664100</v>
+        <v>202839400</v>
       </c>
       <c r="J8" s="3">
-        <v>201378100</v>
+        <v>208762900</v>
       </c>
       <c r="K8" s="3">
         <v>232310500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>180141500</v>
+        <v>186747600</v>
       </c>
       <c r="E9" s="3">
-        <v>158689900</v>
+        <v>164509300</v>
       </c>
       <c r="F9" s="3">
-        <v>337683200</v>
+        <v>350066500</v>
       </c>
       <c r="G9" s="3">
-        <v>175702900</v>
+        <v>182146100</v>
       </c>
       <c r="H9" s="3">
-        <v>169374100</v>
+        <v>175585300</v>
       </c>
       <c r="I9" s="3">
-        <v>161186400</v>
+        <v>167097400</v>
       </c>
       <c r="J9" s="3">
-        <v>160272700</v>
+        <v>166150200</v>
       </c>
       <c r="K9" s="3">
         <v>186309500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42339200</v>
+        <v>43891800</v>
       </c>
       <c r="E10" s="3">
-        <v>34261500</v>
+        <v>35517900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>38597200</v>
+        <v>40012600</v>
       </c>
       <c r="H10" s="3">
-        <v>38926600</v>
+        <v>40354100</v>
       </c>
       <c r="I10" s="3">
-        <v>34477700</v>
+        <v>35742000</v>
       </c>
       <c r="J10" s="3">
-        <v>41105400</v>
+        <v>42612700</v>
       </c>
       <c r="K10" s="3">
         <v>46001000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>201241200</v>
+        <v>208621000</v>
       </c>
       <c r="E17" s="3">
-        <v>177369400</v>
+        <v>183873800</v>
       </c>
       <c r="F17" s="3">
-        <v>194743300</v>
+        <v>201884800</v>
       </c>
       <c r="G17" s="3">
-        <v>196805200</v>
+        <v>204022300</v>
       </c>
       <c r="H17" s="3">
-        <v>191285700</v>
+        <v>198300400</v>
       </c>
       <c r="I17" s="3">
-        <v>181524000</v>
+        <v>188180700</v>
       </c>
       <c r="J17" s="3">
-        <v>181143500</v>
+        <v>187786200</v>
       </c>
       <c r="K17" s="3">
         <v>208848200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21239500</v>
+        <v>22018400</v>
       </c>
       <c r="E18" s="3">
-        <v>15582000</v>
+        <v>16153400</v>
       </c>
       <c r="F18" s="3">
-        <v>17010600</v>
+        <v>17634400</v>
       </c>
       <c r="G18" s="3">
-        <v>17494900</v>
+        <v>18136500</v>
       </c>
       <c r="H18" s="3">
-        <v>17015000</v>
+        <v>17639000</v>
       </c>
       <c r="I18" s="3">
-        <v>14140100</v>
+        <v>14658600</v>
       </c>
       <c r="J18" s="3">
-        <v>20234700</v>
+        <v>20976700</v>
       </c>
       <c r="K18" s="3">
         <v>23462300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7283500</v>
+        <v>7550600</v>
       </c>
       <c r="E20" s="3">
-        <v>5509100</v>
+        <v>5711100</v>
       </c>
       <c r="F20" s="3">
-        <v>3332600</v>
+        <v>3454800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1091900</v>
+        <v>-1131900</v>
       </c>
       <c r="H20" s="3">
-        <v>1759400</v>
+        <v>1823900</v>
       </c>
       <c r="I20" s="3">
-        <v>1622200</v>
+        <v>1681700</v>
       </c>
       <c r="J20" s="3">
-        <v>1168500</v>
+        <v>1211400</v>
       </c>
       <c r="K20" s="3">
         <v>1408600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40966400</v>
+        <v>42832300</v>
       </c>
       <c r="E21" s="3">
-        <v>32321700</v>
+        <v>33835000</v>
       </c>
       <c r="F21" s="3">
-        <v>31239400</v>
+        <v>32703300</v>
       </c>
       <c r="G21" s="3">
-        <v>28644900</v>
+        <v>30053000</v>
       </c>
       <c r="H21" s="3">
-        <v>30617900</v>
+        <v>32086700</v>
       </c>
       <c r="I21" s="3">
-        <v>26765100</v>
+        <v>28068100</v>
       </c>
       <c r="J21" s="3">
-        <v>32507600</v>
+        <v>34024200</v>
       </c>
       <c r="K21" s="3">
         <v>37031200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>230100</v>
+        <v>238600</v>
       </c>
       <c r="E22" s="3">
-        <v>300800</v>
+        <v>311800</v>
       </c>
       <c r="F22" s="3">
-        <v>541200</v>
+        <v>561000</v>
       </c>
       <c r="G22" s="3">
-        <v>199100</v>
+        <v>206400</v>
       </c>
       <c r="H22" s="3">
-        <v>195600</v>
+        <v>202800</v>
       </c>
       <c r="I22" s="3">
-        <v>208100</v>
+        <v>215700</v>
       </c>
       <c r="J22" s="3">
-        <v>251000</v>
+        <v>260200</v>
       </c>
       <c r="K22" s="3">
         <v>195100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28292900</v>
+        <v>29330400</v>
       </c>
       <c r="E23" s="3">
-        <v>20790400</v>
+        <v>21552800</v>
       </c>
       <c r="F23" s="3">
-        <v>19802000</v>
+        <v>20528100</v>
       </c>
       <c r="G23" s="3">
-        <v>16203900</v>
+        <v>16798200</v>
       </c>
       <c r="H23" s="3">
-        <v>18578800</v>
+        <v>19260200</v>
       </c>
       <c r="I23" s="3">
-        <v>15554200</v>
+        <v>16124600</v>
       </c>
       <c r="J23" s="3">
-        <v>21152200</v>
+        <v>21927900</v>
       </c>
       <c r="K23" s="3">
         <v>24675800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7911900</v>
+        <v>8202000</v>
       </c>
       <c r="E24" s="3">
-        <v>4608300</v>
+        <v>4777300</v>
       </c>
       <c r="F24" s="3">
-        <v>4834100</v>
+        <v>5011400</v>
       </c>
       <c r="G24" s="3">
-        <v>4679000</v>
+        <v>4850600</v>
       </c>
       <c r="H24" s="3">
-        <v>3576200</v>
+        <v>3707400</v>
       </c>
       <c r="I24" s="3">
-        <v>4458900</v>
+        <v>4622400</v>
       </c>
       <c r="J24" s="3">
-        <v>6226900</v>
+        <v>6455300</v>
       </c>
       <c r="K24" s="3">
         <v>7621300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20381000</v>
+        <v>21128400</v>
       </c>
       <c r="E26" s="3">
-        <v>16182100</v>
+        <v>16775500</v>
       </c>
       <c r="F26" s="3">
-        <v>14967900</v>
+        <v>15516800</v>
       </c>
       <c r="G26" s="3">
-        <v>11524900</v>
+        <v>11947600</v>
       </c>
       <c r="H26" s="3">
-        <v>15002600</v>
+        <v>15552800</v>
       </c>
       <c r="I26" s="3">
-        <v>11095300</v>
+        <v>11502200</v>
       </c>
       <c r="J26" s="3">
-        <v>14925200</v>
+        <v>15472600</v>
       </c>
       <c r="K26" s="3">
         <v>17054500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20207300</v>
+        <v>20948300</v>
       </c>
       <c r="E27" s="3">
-        <v>15918900</v>
+        <v>16502700</v>
       </c>
       <c r="F27" s="3">
-        <v>15767200</v>
+        <v>16345400</v>
       </c>
       <c r="G27" s="3">
-        <v>13244700</v>
+        <v>13730400</v>
       </c>
       <c r="H27" s="3">
-        <v>17595200</v>
+        <v>18240400</v>
       </c>
       <c r="I27" s="3">
-        <v>12913100</v>
+        <v>13386700</v>
       </c>
       <c r="J27" s="3">
-        <v>16353800</v>
+        <v>16953600</v>
       </c>
       <c r="K27" s="3">
         <v>18538600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7283500</v>
+        <v>-7550600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5509100</v>
+        <v>-5711100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3332600</v>
+        <v>-3454800</v>
       </c>
       <c r="G32" s="3">
-        <v>1091900</v>
+        <v>1131900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1759400</v>
+        <v>-1823900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1622200</v>
+        <v>-1681700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1168500</v>
+        <v>-1211400</v>
       </c>
       <c r="K32" s="3">
         <v>-1408600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20207300</v>
+        <v>20948300</v>
       </c>
       <c r="E33" s="3">
-        <v>15918900</v>
+        <v>16502700</v>
       </c>
       <c r="F33" s="3">
-        <v>15767200</v>
+        <v>16345400</v>
       </c>
       <c r="G33" s="3">
-        <v>13244700</v>
+        <v>13730400</v>
       </c>
       <c r="H33" s="3">
-        <v>17595200</v>
+        <v>18240400</v>
       </c>
       <c r="I33" s="3">
-        <v>12913100</v>
+        <v>13386700</v>
       </c>
       <c r="J33" s="3">
-        <v>16353800</v>
+        <v>16953600</v>
       </c>
       <c r="K33" s="3">
         <v>18538600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20207300</v>
+        <v>20948300</v>
       </c>
       <c r="E35" s="3">
-        <v>15918900</v>
+        <v>16502700</v>
       </c>
       <c r="F35" s="3">
-        <v>15767200</v>
+        <v>16345400</v>
       </c>
       <c r="G35" s="3">
-        <v>13244700</v>
+        <v>13730400</v>
       </c>
       <c r="H35" s="3">
-        <v>17595200</v>
+        <v>18240400</v>
       </c>
       <c r="I35" s="3">
-        <v>12913100</v>
+        <v>13386700</v>
       </c>
       <c r="J35" s="3">
-        <v>16353800</v>
+        <v>16953600</v>
       </c>
       <c r="K35" s="3">
         <v>18538600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43345800</v>
+        <v>44935400</v>
       </c>
       <c r="E41" s="3">
-        <v>36165100</v>
+        <v>37491300</v>
       </c>
       <c r="F41" s="3">
-        <v>29058000</v>
+        <v>30123600</v>
       </c>
       <c r="G41" s="3">
-        <v>25344700</v>
+        <v>26274100</v>
       </c>
       <c r="H41" s="3">
-        <v>21640600</v>
+        <v>22434200</v>
       </c>
       <c r="I41" s="3">
-        <v>21235100</v>
+        <v>22013800</v>
       </c>
       <c r="J41" s="3">
-        <v>20840500</v>
+        <v>21604800</v>
       </c>
       <c r="K41" s="3">
         <v>19487300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17776400</v>
+        <v>18428300</v>
       </c>
       <c r="E42" s="3">
-        <v>29887600</v>
+        <v>30983600</v>
       </c>
       <c r="F42" s="3">
-        <v>25882400</v>
+        <v>26831600</v>
       </c>
       <c r="G42" s="3">
-        <v>15977400</v>
+        <v>16563300</v>
       </c>
       <c r="H42" s="3">
-        <v>18927500</v>
+        <v>19621600</v>
       </c>
       <c r="I42" s="3">
-        <v>20591100</v>
+        <v>21346300</v>
       </c>
       <c r="J42" s="3">
-        <v>18032900</v>
+        <v>18694200</v>
       </c>
       <c r="K42" s="3">
         <v>25005000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74360500</v>
+        <v>77087400</v>
       </c>
       <c r="E43" s="3">
-        <v>69676200</v>
+        <v>72231300</v>
       </c>
       <c r="F43" s="3">
-        <v>151938000</v>
+        <v>157509000</v>
       </c>
       <c r="G43" s="3">
-        <v>67983600</v>
+        <v>70476700</v>
       </c>
       <c r="H43" s="3">
-        <v>64215600</v>
+        <v>66570500</v>
       </c>
       <c r="I43" s="3">
-        <v>62033600</v>
+        <v>64308500</v>
       </c>
       <c r="J43" s="3">
-        <v>59302500</v>
+        <v>61477200</v>
       </c>
       <c r="K43" s="3">
         <v>75057400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27093400</v>
+        <v>28087000</v>
       </c>
       <c r="E44" s="3">
-        <v>20476100</v>
+        <v>21227000</v>
       </c>
       <c r="F44" s="3">
-        <v>53194200</v>
+        <v>55144900</v>
       </c>
       <c r="G44" s="3">
-        <v>18833800</v>
+        <v>19524500</v>
       </c>
       <c r="H44" s="3">
-        <v>18007100</v>
+        <v>18667400</v>
       </c>
       <c r="I44" s="3">
-        <v>16935300</v>
+        <v>17556300</v>
       </c>
       <c r="J44" s="3">
-        <v>14616100</v>
+        <v>15152100</v>
       </c>
       <c r="K44" s="3">
         <v>18233900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5614900</v>
+        <v>5820800</v>
       </c>
       <c r="E45" s="3">
-        <v>5282500</v>
+        <v>5476300</v>
       </c>
       <c r="F45" s="3">
-        <v>13584600</v>
+        <v>14082800</v>
       </c>
       <c r="G45" s="3">
-        <v>5714300</v>
+        <v>5923800</v>
       </c>
       <c r="H45" s="3">
-        <v>5911600</v>
+        <v>6128300</v>
       </c>
       <c r="I45" s="3">
-        <v>5645700</v>
+        <v>5852800</v>
       </c>
       <c r="J45" s="3">
-        <v>16313700</v>
+        <v>16912000</v>
       </c>
       <c r="K45" s="3">
         <v>15213900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>168191000</v>
+        <v>174359000</v>
       </c>
       <c r="E46" s="3">
-        <v>161488000</v>
+        <v>167410000</v>
       </c>
       <c r="F46" s="3">
-        <v>134450000</v>
+        <v>139380000</v>
       </c>
       <c r="G46" s="3">
-        <v>133854000</v>
+        <v>138762000</v>
       </c>
       <c r="H46" s="3">
-        <v>128702000</v>
+        <v>133422000</v>
       </c>
       <c r="I46" s="3">
-        <v>126441000</v>
+        <v>131078000</v>
       </c>
       <c r="J46" s="3">
-        <v>129106000</v>
+        <v>133840000</v>
       </c>
       <c r="K46" s="3">
         <v>152998000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>205173000</v>
+        <v>212696000</v>
       </c>
       <c r="E47" s="3">
-        <v>182172000</v>
+        <v>188853000</v>
       </c>
       <c r="F47" s="3">
-        <v>315278000</v>
+        <v>326839000</v>
       </c>
       <c r="G47" s="3">
-        <v>149049000</v>
+        <v>154515000</v>
       </c>
       <c r="H47" s="3">
-        <v>146525000</v>
+        <v>151898000</v>
       </c>
       <c r="I47" s="3">
-        <v>138702000</v>
+        <v>143788000</v>
       </c>
       <c r="J47" s="3">
-        <v>132919000</v>
+        <v>137793000</v>
       </c>
       <c r="K47" s="3">
         <v>166943000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90575100</v>
+        <v>93896600</v>
       </c>
       <c r="E48" s="3">
-        <v>83671200</v>
+        <v>86739500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>75760200</v>
+        <v>78538400</v>
       </c>
       <c r="H48" s="3">
-        <v>72797800</v>
+        <v>75467400</v>
       </c>
       <c r="I48" s="3">
-        <v>72297500</v>
+        <v>74948800</v>
       </c>
       <c r="J48" s="3">
-        <v>69059600</v>
+        <v>71592100</v>
       </c>
       <c r="K48" s="3">
         <v>79292500</v>
@@ -2136,13 +2136,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8451000</v>
+        <v>8761000</v>
       </c>
       <c r="E49" s="3">
-        <v>7860200</v>
+        <v>8148500</v>
       </c>
       <c r="F49" s="3">
-        <v>14183600</v>
+        <v>14703800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7523700</v>
+        <v>7799600</v>
       </c>
       <c r="E52" s="3">
-        <v>6282900</v>
+        <v>6513300</v>
       </c>
       <c r="F52" s="3">
-        <v>10450600</v>
+        <v>10833900</v>
       </c>
       <c r="G52" s="3">
-        <v>9569900</v>
+        <v>9920800</v>
       </c>
       <c r="H52" s="3">
-        <v>8660400</v>
+        <v>8978000</v>
       </c>
       <c r="I52" s="3">
-        <v>8198900</v>
+        <v>8499600</v>
       </c>
       <c r="J52" s="3">
-        <v>5177600</v>
+        <v>5367500</v>
       </c>
       <c r="K52" s="3">
         <v>7902100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>479913000</v>
+        <v>497513000</v>
       </c>
       <c r="E54" s="3">
-        <v>441474000</v>
+        <v>457664000</v>
       </c>
       <c r="F54" s="3">
-        <v>382664000</v>
+        <v>396697000</v>
       </c>
       <c r="G54" s="3">
-        <v>368233000</v>
+        <v>381737000</v>
       </c>
       <c r="H54" s="3">
-        <v>356686000</v>
+        <v>369766000</v>
       </c>
       <c r="I54" s="3">
-        <v>345639000</v>
+        <v>358314000</v>
       </c>
       <c r="J54" s="3">
-        <v>336262000</v>
+        <v>348593000</v>
       </c>
       <c r="K54" s="3">
         <v>407135000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30430900</v>
+        <v>31546900</v>
       </c>
       <c r="E57" s="3">
-        <v>28685700</v>
+        <v>29737700</v>
       </c>
       <c r="F57" s="3">
-        <v>42059400</v>
+        <v>43601700</v>
       </c>
       <c r="G57" s="3">
-        <v>18760000</v>
+        <v>19448000</v>
       </c>
       <c r="H57" s="3">
-        <v>18339400</v>
+        <v>19011900</v>
       </c>
       <c r="I57" s="3">
-        <v>18195600</v>
+        <v>18862900</v>
       </c>
       <c r="J57" s="3">
-        <v>16941700</v>
+        <v>17562900</v>
       </c>
       <c r="K57" s="3">
         <v>20562300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79321800</v>
+        <v>82230600</v>
       </c>
       <c r="E58" s="3">
-        <v>86583500</v>
+        <v>89758600</v>
       </c>
       <c r="F58" s="3">
-        <v>210386000</v>
+        <v>218101000</v>
       </c>
       <c r="G58" s="3">
-        <v>68058600</v>
+        <v>70554400</v>
       </c>
       <c r="H58" s="3">
-        <v>66229000</v>
+        <v>68657700</v>
       </c>
       <c r="I58" s="3">
-        <v>65540900</v>
+        <v>67944400</v>
       </c>
       <c r="J58" s="3">
-        <v>60414500</v>
+        <v>62630000</v>
       </c>
       <c r="K58" s="3">
         <v>76458600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45108200</v>
+        <v>46762400</v>
       </c>
       <c r="E59" s="3">
-        <v>36885500</v>
+        <v>38238100</v>
       </c>
       <c r="F59" s="3">
-        <v>51057800</v>
+        <v>52930200</v>
       </c>
       <c r="G59" s="3">
-        <v>42410400</v>
+        <v>43965600</v>
       </c>
       <c r="H59" s="3">
-        <v>41611500</v>
+        <v>43137500</v>
       </c>
       <c r="I59" s="3">
-        <v>39054900</v>
+        <v>40487100</v>
       </c>
       <c r="J59" s="3">
-        <v>36966200</v>
+        <v>38321800</v>
       </c>
       <c r="K59" s="3">
         <v>43139800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>154861000</v>
+        <v>160540000</v>
       </c>
       <c r="E60" s="3">
-        <v>152155000</v>
+        <v>157734000</v>
       </c>
       <c r="F60" s="3">
-        <v>128628000</v>
+        <v>133345000</v>
       </c>
       <c r="G60" s="3">
-        <v>129229000</v>
+        <v>133968000</v>
       </c>
       <c r="H60" s="3">
-        <v>126180000</v>
+        <v>130807000</v>
       </c>
       <c r="I60" s="3">
-        <v>122792000</v>
+        <v>127294000</v>
       </c>
       <c r="J60" s="3">
-        <v>114322000</v>
+        <v>118515000</v>
       </c>
       <c r="K60" s="3">
         <v>140161000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108537000</v>
+        <v>112518000</v>
       </c>
       <c r="E61" s="3">
-        <v>95343300</v>
+        <v>98839700</v>
       </c>
       <c r="F61" s="3">
-        <v>81068600</v>
+        <v>84041500</v>
       </c>
       <c r="G61" s="3">
-        <v>74806200</v>
+        <v>77549400</v>
       </c>
       <c r="H61" s="3">
-        <v>70945200</v>
+        <v>73546800</v>
       </c>
       <c r="I61" s="3">
-        <v>70273200</v>
+        <v>72850200</v>
       </c>
       <c r="J61" s="3">
-        <v>69283900</v>
+        <v>71824700</v>
       </c>
       <c r="K61" s="3">
         <v>85422800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23987400</v>
+        <v>24867000</v>
       </c>
       <c r="E62" s="3">
-        <v>21771800</v>
+        <v>22570200</v>
       </c>
       <c r="F62" s="3">
-        <v>34436600</v>
+        <v>35699400</v>
       </c>
       <c r="G62" s="3">
-        <v>18390400</v>
+        <v>19064800</v>
       </c>
       <c r="H62" s="3">
-        <v>18312800</v>
+        <v>18984400</v>
       </c>
       <c r="I62" s="3">
-        <v>20211300</v>
+        <v>20952400</v>
       </c>
       <c r="J62" s="3">
-        <v>24410100</v>
+        <v>25305200</v>
       </c>
       <c r="K62" s="3">
         <v>31020300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>293830000</v>
+        <v>304605000</v>
       </c>
       <c r="E66" s="3">
-        <v>275536000</v>
+        <v>285640000</v>
       </c>
       <c r="F66" s="3">
-        <v>236476000</v>
+        <v>245148000</v>
       </c>
       <c r="G66" s="3">
-        <v>227523000</v>
+        <v>235867000</v>
       </c>
       <c r="H66" s="3">
-        <v>220359000</v>
+        <v>228440000</v>
       </c>
       <c r="I66" s="3">
-        <v>218014000</v>
+        <v>226009000</v>
       </c>
       <c r="J66" s="3">
-        <v>214124000</v>
+        <v>221977000</v>
       </c>
       <c r="K66" s="3">
         <v>263933000</v>
@@ -2895,19 +2895,19 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3574600</v>
+        <v>3705600</v>
       </c>
       <c r="G70" s="3">
-        <v>3531300</v>
+        <v>3660800</v>
       </c>
       <c r="H70" s="3">
-        <v>3488100</v>
+        <v>3616000</v>
       </c>
       <c r="I70" s="3">
-        <v>3444900</v>
+        <v>3571200</v>
       </c>
       <c r="J70" s="3">
-        <v>3401600</v>
+        <v>3526400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>187553000</v>
+        <v>194431000</v>
       </c>
       <c r="E72" s="3">
-        <v>170899000</v>
+        <v>177166000</v>
       </c>
       <c r="F72" s="3">
-        <v>157640000</v>
+        <v>163420000</v>
       </c>
       <c r="G72" s="3">
-        <v>155892000</v>
+        <v>161608000</v>
       </c>
       <c r="H72" s="3">
-        <v>138067000</v>
+        <v>143130000</v>
       </c>
       <c r="I72" s="3">
-        <v>124792000</v>
+        <v>129368000</v>
       </c>
       <c r="J72" s="3">
-        <v>119071000</v>
+        <v>123438000</v>
       </c>
       <c r="K72" s="3">
         <v>132999000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>186084000</v>
+        <v>192908000</v>
       </c>
       <c r="E76" s="3">
-        <v>165938000</v>
+        <v>172023000</v>
       </c>
       <c r="F76" s="3">
-        <v>142613000</v>
+        <v>147843000</v>
       </c>
       <c r="G76" s="3">
-        <v>137178000</v>
+        <v>142209000</v>
       </c>
       <c r="H76" s="3">
-        <v>132838000</v>
+        <v>137710000</v>
       </c>
       <c r="I76" s="3">
-        <v>124180000</v>
+        <v>128734000</v>
       </c>
       <c r="J76" s="3">
-        <v>118736000</v>
+        <v>123090000</v>
       </c>
       <c r="K76" s="3">
         <v>143203000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20207300</v>
+        <v>20948300</v>
       </c>
       <c r="E81" s="3">
-        <v>15918900</v>
+        <v>16502700</v>
       </c>
       <c r="F81" s="3">
-        <v>15767200</v>
+        <v>16345400</v>
       </c>
       <c r="G81" s="3">
-        <v>13244700</v>
+        <v>13730400</v>
       </c>
       <c r="H81" s="3">
-        <v>17595200</v>
+        <v>18240400</v>
       </c>
       <c r="I81" s="3">
-        <v>12913100</v>
+        <v>13386700</v>
       </c>
       <c r="J81" s="3">
-        <v>16353800</v>
+        <v>16953600</v>
       </c>
       <c r="K81" s="3">
         <v>18538600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12917100</v>
+        <v>13390800</v>
       </c>
       <c r="E83" s="3">
-        <v>11658000</v>
+        <v>12085500</v>
       </c>
       <c r="F83" s="3">
-        <v>11311000</v>
+        <v>11725800</v>
       </c>
       <c r="G83" s="3">
-        <v>12707900</v>
+        <v>13174000</v>
       </c>
       <c r="H83" s="3">
-        <v>12294300</v>
+        <v>12745100</v>
       </c>
       <c r="I83" s="3">
-        <v>11421600</v>
+        <v>11840500</v>
       </c>
       <c r="J83" s="3">
-        <v>11527200</v>
+        <v>11949900</v>
       </c>
       <c r="K83" s="3">
         <v>12019400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26393300</v>
+        <v>27361200</v>
       </c>
       <c r="E89" s="3">
-        <v>19335600</v>
+        <v>20044600</v>
       </c>
       <c r="F89" s="3">
-        <v>17005300</v>
+        <v>17629000</v>
       </c>
       <c r="G89" s="3">
-        <v>26705200</v>
+        <v>27684500</v>
       </c>
       <c r="H89" s="3">
-        <v>29942000</v>
+        <v>31040000</v>
       </c>
       <c r="I89" s="3">
-        <v>24206900</v>
+        <v>25094600</v>
       </c>
       <c r="J89" s="3">
-        <v>31627500</v>
+        <v>32787300</v>
       </c>
       <c r="K89" s="3">
         <v>31439500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24702700</v>
+        <v>-25608600</v>
       </c>
       <c r="E91" s="3">
-        <v>-24740500</v>
+        <v>-25647800</v>
       </c>
       <c r="F91" s="3">
-        <v>-24400800</v>
+        <v>-25295600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26508700</v>
+        <v>-27480800</v>
       </c>
       <c r="H91" s="3">
-        <v>-25514800</v>
+        <v>-26450500</v>
       </c>
       <c r="I91" s="3">
-        <v>-25108800</v>
+        <v>-26029600</v>
       </c>
       <c r="J91" s="3">
-        <v>-28779800</v>
+        <v>-29835200</v>
       </c>
       <c r="K91" s="3">
         <v>-28640100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4094400</v>
+        <v>-4244600</v>
       </c>
       <c r="E94" s="3">
-        <v>-33210800</v>
+        <v>-34428700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15063800</v>
+        <v>-15616200</v>
       </c>
       <c r="G94" s="3">
-        <v>-19123400</v>
+        <v>-19824700</v>
       </c>
       <c r="H94" s="3">
-        <v>-25950100</v>
+        <v>-26901700</v>
       </c>
       <c r="I94" s="3">
-        <v>-21056900</v>
+        <v>-21829100</v>
       </c>
       <c r="J94" s="3">
-        <v>-22564200</v>
+        <v>-23391700</v>
       </c>
       <c r="K94" s="3">
         <v>-32529100</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5033000</v>
+        <v>-5217600</v>
       </c>
       <c r="E96" s="3">
-        <v>-4434900</v>
+        <v>-4597500</v>
       </c>
       <c r="F96" s="3">
-        <v>-4466600</v>
+        <v>-4630400</v>
       </c>
       <c r="G96" s="3">
-        <v>-4571700</v>
+        <v>-4739300</v>
       </c>
       <c r="H96" s="3">
-        <v>-4444700</v>
+        <v>-4607700</v>
       </c>
       <c r="I96" s="3">
-        <v>-4524600</v>
+        <v>-4690600</v>
       </c>
       <c r="J96" s="3">
-        <v>-5005200</v>
+        <v>-5188800</v>
       </c>
       <c r="K96" s="3">
         <v>-4733600</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17487600</v>
+        <v>-18128900</v>
       </c>
       <c r="E100" s="3">
-        <v>19420700</v>
+        <v>20132900</v>
       </c>
       <c r="F100" s="3">
-        <v>2572300</v>
+        <v>2666600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3834500</v>
+        <v>-3975200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3184400</v>
+        <v>-3301100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2659900</v>
+        <v>-2757500</v>
       </c>
       <c r="J100" s="3">
-        <v>-3003100</v>
+        <v>-3113200</v>
       </c>
       <c r="K100" s="3">
         <v>2610600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2369400</v>
+        <v>2456300</v>
       </c>
       <c r="E101" s="3">
-        <v>1561500</v>
+        <v>1618800</v>
       </c>
       <c r="F101" s="3">
-        <v>-999700</v>
+        <v>-1036400</v>
       </c>
       <c r="G101" s="3">
-        <v>-295200</v>
+        <v>-306100</v>
       </c>
       <c r="H101" s="3">
-        <v>-309000</v>
+        <v>-320400</v>
       </c>
       <c r="I101" s="3">
-        <v>-95600</v>
+        <v>-99100</v>
       </c>
       <c r="J101" s="3">
-        <v>-1417100</v>
+        <v>-1469100</v>
       </c>
       <c r="K101" s="3">
         <v>555100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7180700</v>
+        <v>7444100</v>
       </c>
       <c r="E102" s="3">
-        <v>7107100</v>
+        <v>7367700</v>
       </c>
       <c r="F102" s="3">
-        <v>3514100</v>
+        <v>3643000</v>
       </c>
       <c r="G102" s="3">
-        <v>3452000</v>
+        <v>3578500</v>
       </c>
       <c r="H102" s="3">
-        <v>498500</v>
+        <v>516800</v>
       </c>
       <c r="I102" s="3">
-        <v>394500</v>
+        <v>409000</v>
       </c>
       <c r="J102" s="3">
-        <v>4643000</v>
+        <v>4813300</v>
       </c>
       <c r="K102" s="3">
         <v>2076100</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230639400</v>
+        <v>267882500</v>
       </c>
       <c r="E8" s="3">
-        <v>200027300</v>
+        <v>226246200</v>
       </c>
       <c r="F8" s="3">
-        <v>219519100</v>
+        <v>196217200</v>
       </c>
       <c r="G8" s="3">
-        <v>222158800</v>
+        <v>215337800</v>
       </c>
       <c r="H8" s="3">
-        <v>215939400</v>
+        <v>217927200</v>
       </c>
       <c r="I8" s="3">
-        <v>202839400</v>
+        <v>211826300</v>
       </c>
       <c r="J8" s="3">
+        <v>198975800</v>
+      </c>
+      <c r="K8" s="3">
         <v>208762900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>232310500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>235337900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200563500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>167996200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>186747600</v>
+        <v>222365600</v>
       </c>
       <c r="E9" s="3">
-        <v>164509300</v>
+        <v>183190500</v>
       </c>
       <c r="F9" s="3">
-        <v>350066500</v>
+        <v>161375800</v>
       </c>
       <c r="G9" s="3">
-        <v>182146100</v>
+        <v>343398600</v>
       </c>
       <c r="H9" s="3">
-        <v>175585300</v>
+        <v>178676700</v>
       </c>
       <c r="I9" s="3">
-        <v>167097400</v>
+        <v>172240800</v>
       </c>
       <c r="J9" s="3">
+        <v>163914600</v>
+      </c>
+      <c r="K9" s="3">
         <v>166150200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186309500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>190538400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>169446600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>148152600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43891800</v>
+        <v>45516800</v>
       </c>
       <c r="E10" s="3">
-        <v>35517900</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>43055800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34841400</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <v>40012600</v>
-      </c>
       <c r="H10" s="3">
-        <v>40354100</v>
+        <v>39250500</v>
       </c>
       <c r="I10" s="3">
-        <v>35742000</v>
+        <v>39585500</v>
       </c>
       <c r="J10" s="3">
+        <v>35061200</v>
+      </c>
+      <c r="K10" s="3">
         <v>42612700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46001000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44799500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31116900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19843600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>208621000</v>
+        <v>248235100</v>
       </c>
       <c r="E17" s="3">
-        <v>183873800</v>
+        <v>204647300</v>
       </c>
       <c r="F17" s="3">
-        <v>201884800</v>
+        <v>180371500</v>
       </c>
       <c r="G17" s="3">
-        <v>204022300</v>
+        <v>198039300</v>
       </c>
       <c r="H17" s="3">
-        <v>198300400</v>
+        <v>200136200</v>
       </c>
       <c r="I17" s="3">
-        <v>188180700</v>
+        <v>194523300</v>
       </c>
       <c r="J17" s="3">
+        <v>184596300</v>
+      </c>
+      <c r="K17" s="3">
         <v>187786200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>208848200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>214342200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188556600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>164781400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22018400</v>
+        <v>19647400</v>
       </c>
       <c r="E18" s="3">
-        <v>16153400</v>
+        <v>21599000</v>
       </c>
       <c r="F18" s="3">
-        <v>17634400</v>
+        <v>15845800</v>
       </c>
       <c r="G18" s="3">
-        <v>18136500</v>
+        <v>17298500</v>
       </c>
       <c r="H18" s="3">
-        <v>17639000</v>
+        <v>17791000</v>
       </c>
       <c r="I18" s="3">
-        <v>14658600</v>
+        <v>17303000</v>
       </c>
       <c r="J18" s="3">
+        <v>14379400</v>
+      </c>
+      <c r="K18" s="3">
         <v>20976700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23462300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20995700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12006900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3214900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7550600</v>
+        <v>6804100</v>
       </c>
       <c r="E20" s="3">
-        <v>5711100</v>
+        <v>7406800</v>
       </c>
       <c r="F20" s="3">
-        <v>3454800</v>
+        <v>5602400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1131900</v>
+        <v>3389000</v>
       </c>
       <c r="H20" s="3">
-        <v>1823900</v>
+        <v>-1110400</v>
       </c>
       <c r="I20" s="3">
-        <v>1681700</v>
+        <v>1789200</v>
       </c>
       <c r="J20" s="3">
+        <v>1649700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1211400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1408600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1544400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>961100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>905500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42832300</v>
+        <v>41261300</v>
       </c>
       <c r="E21" s="3">
-        <v>33835000</v>
+        <v>42232600</v>
       </c>
       <c r="F21" s="3">
-        <v>32703300</v>
+        <v>33385700</v>
       </c>
       <c r="G21" s="3">
-        <v>30053000</v>
+        <v>32269700</v>
       </c>
       <c r="H21" s="3">
-        <v>32086700</v>
+        <v>29693300</v>
       </c>
       <c r="I21" s="3">
-        <v>28068100</v>
+        <v>31681300</v>
       </c>
       <c r="J21" s="3">
+        <v>27724600</v>
+      </c>
+      <c r="K21" s="3">
         <v>34024200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37031200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34048000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23035500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13784200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>238600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>311800</v>
+        <v>234000</v>
       </c>
       <c r="F22" s="3">
-        <v>561000</v>
+        <v>305900</v>
       </c>
       <c r="G22" s="3">
-        <v>206400</v>
+        <v>550300</v>
       </c>
       <c r="H22" s="3">
-        <v>202800</v>
+        <v>202400</v>
       </c>
       <c r="I22" s="3">
-        <v>215700</v>
+        <v>198900</v>
       </c>
       <c r="J22" s="3">
+        <v>211600</v>
+      </c>
+      <c r="K22" s="3">
         <v>260200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>195100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>179800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>208800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>207200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29330400</v>
+        <v>26451600</v>
       </c>
       <c r="E23" s="3">
-        <v>21552800</v>
+        <v>28771700</v>
       </c>
       <c r="F23" s="3">
-        <v>20528100</v>
+        <v>21142300</v>
       </c>
       <c r="G23" s="3">
-        <v>16798200</v>
+        <v>20137100</v>
       </c>
       <c r="H23" s="3">
-        <v>19260200</v>
+        <v>16478200</v>
       </c>
       <c r="I23" s="3">
-        <v>16124600</v>
+        <v>18893300</v>
       </c>
       <c r="J23" s="3">
+        <v>15817500</v>
+      </c>
+      <c r="K23" s="3">
         <v>21927900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24675800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22360300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12759200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3913200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8202000</v>
+        <v>8477300</v>
       </c>
       <c r="E24" s="3">
-        <v>4777300</v>
+        <v>8045800</v>
       </c>
       <c r="F24" s="3">
-        <v>5011400</v>
+        <v>4686300</v>
       </c>
       <c r="G24" s="3">
-        <v>4850600</v>
+        <v>4915900</v>
       </c>
       <c r="H24" s="3">
-        <v>3707400</v>
+        <v>4758200</v>
       </c>
       <c r="I24" s="3">
-        <v>4622400</v>
+        <v>3636800</v>
       </c>
       <c r="J24" s="3">
+        <v>4534400</v>
+      </c>
+      <c r="K24" s="3">
         <v>6455300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7621300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7033100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5014800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2370900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21128400</v>
+        <v>17974300</v>
       </c>
       <c r="E26" s="3">
-        <v>16775500</v>
+        <v>20726000</v>
       </c>
       <c r="F26" s="3">
-        <v>15516800</v>
+        <v>16455900</v>
       </c>
       <c r="G26" s="3">
-        <v>11947600</v>
+        <v>15221200</v>
       </c>
       <c r="H26" s="3">
-        <v>15552800</v>
+        <v>11720000</v>
       </c>
       <c r="I26" s="3">
-        <v>11502200</v>
+        <v>15256500</v>
       </c>
       <c r="J26" s="3">
+        <v>11283100</v>
+      </c>
+      <c r="K26" s="3">
         <v>15472600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17054500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15327200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7744300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1542200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20948300</v>
+        <v>17674000</v>
       </c>
       <c r="E27" s="3">
-        <v>16502700</v>
+        <v>20549300</v>
       </c>
       <c r="F27" s="3">
-        <v>16345400</v>
+        <v>16188300</v>
       </c>
       <c r="G27" s="3">
-        <v>13730400</v>
+        <v>16034000</v>
       </c>
       <c r="H27" s="3">
-        <v>18240400</v>
+        <v>13468900</v>
       </c>
       <c r="I27" s="3">
-        <v>13386700</v>
+        <v>17893000</v>
       </c>
       <c r="J27" s="3">
+        <v>13131700</v>
+      </c>
+      <c r="K27" s="3">
         <v>16953600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18538600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16699800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8746100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2563400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7550600</v>
+        <v>-6804100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5711100</v>
+        <v>-7406800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3454800</v>
+        <v>-5602400</v>
       </c>
       <c r="G32" s="3">
-        <v>1131900</v>
+        <v>-3389000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1823900</v>
+        <v>1110400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1681700</v>
+        <v>-1789200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1649700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1211400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1408600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1544400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-961100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-905500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20948300</v>
+        <v>17674000</v>
       </c>
       <c r="E33" s="3">
-        <v>16502700</v>
+        <v>20549300</v>
       </c>
       <c r="F33" s="3">
-        <v>16345400</v>
+        <v>16188300</v>
       </c>
       <c r="G33" s="3">
-        <v>13730400</v>
+        <v>16034000</v>
       </c>
       <c r="H33" s="3">
-        <v>18240400</v>
+        <v>13468900</v>
       </c>
       <c r="I33" s="3">
-        <v>13386700</v>
+        <v>17893000</v>
       </c>
       <c r="J33" s="3">
+        <v>13131700</v>
+      </c>
+      <c r="K33" s="3">
         <v>16953600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18538600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16699800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8746100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2563400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20948300</v>
+        <v>17674000</v>
       </c>
       <c r="E35" s="3">
-        <v>16502700</v>
+        <v>20549300</v>
       </c>
       <c r="F35" s="3">
-        <v>16345400</v>
+        <v>16188300</v>
       </c>
       <c r="G35" s="3">
-        <v>13730400</v>
+        <v>16034000</v>
       </c>
       <c r="H35" s="3">
-        <v>18240400</v>
+        <v>13468900</v>
       </c>
       <c r="I35" s="3">
-        <v>13386700</v>
+        <v>17893000</v>
       </c>
       <c r="J35" s="3">
+        <v>13131700</v>
+      </c>
+      <c r="K35" s="3">
         <v>16953600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18538600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16699800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8746100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2563400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,334 +1903,359 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44935400</v>
+        <v>54197300</v>
       </c>
       <c r="E41" s="3">
-        <v>37491300</v>
+        <v>44079500</v>
       </c>
       <c r="F41" s="3">
-        <v>30123600</v>
+        <v>36777200</v>
       </c>
       <c r="G41" s="3">
-        <v>26274100</v>
+        <v>29549800</v>
       </c>
       <c r="H41" s="3">
-        <v>22434200</v>
+        <v>25773600</v>
       </c>
       <c r="I41" s="3">
-        <v>22013800</v>
+        <v>22006900</v>
       </c>
       <c r="J41" s="3">
+        <v>21594500</v>
+      </c>
+      <c r="K41" s="3">
         <v>21604800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19487300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18697100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15619300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15180000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18428300</v>
+        <v>12370000</v>
       </c>
       <c r="E42" s="3">
-        <v>30983600</v>
+        <v>18077300</v>
       </c>
       <c r="F42" s="3">
-        <v>26831600</v>
+        <v>30393400</v>
       </c>
       <c r="G42" s="3">
-        <v>16563300</v>
+        <v>26320500</v>
       </c>
       <c r="H42" s="3">
-        <v>19621600</v>
+        <v>16247800</v>
       </c>
       <c r="I42" s="3">
-        <v>21346300</v>
+        <v>19247800</v>
       </c>
       <c r="J42" s="3">
+        <v>20939700</v>
+      </c>
+      <c r="K42" s="3">
         <v>18694200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25005000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20400100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14111000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11402800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77087400</v>
+        <v>87130300</v>
       </c>
       <c r="E43" s="3">
-        <v>72231300</v>
+        <v>75619100</v>
       </c>
       <c r="F43" s="3">
-        <v>157509000</v>
+        <v>70855500</v>
       </c>
       <c r="G43" s="3">
-        <v>70476700</v>
+        <v>154509000</v>
       </c>
       <c r="H43" s="3">
-        <v>66570500</v>
+        <v>69134200</v>
       </c>
       <c r="I43" s="3">
-        <v>64308500</v>
+        <v>65302500</v>
       </c>
       <c r="J43" s="3">
+        <v>63083600</v>
+      </c>
+      <c r="K43" s="3">
         <v>61477200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75057400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73429700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68375100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58970400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28087000</v>
+        <v>30683000</v>
       </c>
       <c r="E44" s="3">
-        <v>21227000</v>
+        <v>27552000</v>
       </c>
       <c r="F44" s="3">
-        <v>55144900</v>
+        <v>20822700</v>
       </c>
       <c r="G44" s="3">
-        <v>19524500</v>
+        <v>54094500</v>
       </c>
       <c r="H44" s="3">
-        <v>18667400</v>
+        <v>19152600</v>
       </c>
       <c r="I44" s="3">
-        <v>17556300</v>
+        <v>18311900</v>
       </c>
       <c r="J44" s="3">
+        <v>17221900</v>
+      </c>
+      <c r="K44" s="3">
         <v>15152100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18233900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17355500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15596500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14665400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5820800</v>
+        <v>6394400</v>
       </c>
       <c r="E45" s="3">
-        <v>5476300</v>
+        <v>5709900</v>
       </c>
       <c r="F45" s="3">
-        <v>14082800</v>
+        <v>5371900</v>
       </c>
       <c r="G45" s="3">
-        <v>5923800</v>
+        <v>13814600</v>
       </c>
       <c r="H45" s="3">
-        <v>6128300</v>
+        <v>5811000</v>
       </c>
       <c r="I45" s="3">
-        <v>5852800</v>
+        <v>6011600</v>
       </c>
       <c r="J45" s="3">
+        <v>5741300</v>
+      </c>
+      <c r="K45" s="3">
         <v>16912000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15213900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14091700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11602800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11165000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>174359000</v>
+        <v>190775000</v>
       </c>
       <c r="E46" s="3">
-        <v>167410000</v>
+        <v>171038000</v>
       </c>
       <c r="F46" s="3">
-        <v>139380000</v>
+        <v>164221000</v>
       </c>
       <c r="G46" s="3">
-        <v>138762000</v>
+        <v>136726000</v>
       </c>
       <c r="H46" s="3">
-        <v>133422000</v>
+        <v>136119000</v>
       </c>
       <c r="I46" s="3">
-        <v>131078000</v>
+        <v>130881000</v>
       </c>
       <c r="J46" s="3">
+        <v>128581000</v>
+      </c>
+      <c r="K46" s="3">
         <v>133840000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152998000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143974000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>125305000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>111384000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>212696000</v>
+        <v>232702000</v>
       </c>
       <c r="E47" s="3">
-        <v>188853000</v>
+        <v>208645000</v>
       </c>
       <c r="F47" s="3">
-        <v>326839000</v>
+        <v>185256000</v>
       </c>
       <c r="G47" s="3">
-        <v>154515000</v>
+        <v>320614000</v>
       </c>
       <c r="H47" s="3">
-        <v>151898000</v>
+        <v>151572000</v>
       </c>
       <c r="I47" s="3">
-        <v>143788000</v>
+        <v>149005000</v>
       </c>
       <c r="J47" s="3">
+        <v>141049000</v>
+      </c>
+      <c r="K47" s="3">
         <v>137793000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>166943000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158854000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>129781000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105167000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93896600</v>
+        <v>94633700</v>
       </c>
       <c r="E48" s="3">
-        <v>86739500</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>92108100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>85087400</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
-        <v>78538400</v>
-      </c>
       <c r="H48" s="3">
-        <v>75467400</v>
+        <v>77042400</v>
       </c>
       <c r="I48" s="3">
-        <v>74948800</v>
+        <v>74029900</v>
       </c>
       <c r="J48" s="3">
+        <v>73521200</v>
+      </c>
+      <c r="K48" s="3">
         <v>71592100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79292500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69994300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62277800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56367800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8761000</v>
+        <v>9006200</v>
       </c>
       <c r="E49" s="3">
-        <v>8148500</v>
+        <v>8594100</v>
       </c>
       <c r="F49" s="3">
-        <v>14703800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+        <v>7993300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>14423700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2162,15 +2272,18 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7799600</v>
+        <v>8609600</v>
       </c>
       <c r="E52" s="3">
-        <v>6513300</v>
+        <v>7651000</v>
       </c>
       <c r="F52" s="3">
-        <v>10833900</v>
+        <v>6389300</v>
       </c>
       <c r="G52" s="3">
-        <v>9920800</v>
+        <v>10627500</v>
       </c>
       <c r="H52" s="3">
-        <v>8978000</v>
+        <v>9731800</v>
       </c>
       <c r="I52" s="3">
-        <v>8499600</v>
+        <v>8807000</v>
       </c>
       <c r="J52" s="3">
+        <v>8337700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5367500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7902100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6745300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5179600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4166100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>497513000</v>
+        <v>535726000</v>
       </c>
       <c r="E54" s="3">
-        <v>457664000</v>
+        <v>488036000</v>
       </c>
       <c r="F54" s="3">
-        <v>396697000</v>
+        <v>448946000</v>
       </c>
       <c r="G54" s="3">
-        <v>381737000</v>
+        <v>389141000</v>
       </c>
       <c r="H54" s="3">
-        <v>369766000</v>
+        <v>374465000</v>
       </c>
       <c r="I54" s="3">
-        <v>358314000</v>
+        <v>362723000</v>
       </c>
       <c r="J54" s="3">
+        <v>351489000</v>
+      </c>
+      <c r="K54" s="3">
         <v>348593000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>407135000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>379567000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>322543000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>277085000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31546900</v>
+        <v>35951300</v>
       </c>
       <c r="E57" s="3">
-        <v>29737700</v>
+        <v>30946000</v>
       </c>
       <c r="F57" s="3">
-        <v>43601700</v>
+        <v>29171200</v>
       </c>
       <c r="G57" s="3">
-        <v>19448000</v>
+        <v>42771200</v>
       </c>
       <c r="H57" s="3">
-        <v>19011900</v>
+        <v>19077500</v>
       </c>
       <c r="I57" s="3">
-        <v>18862900</v>
+        <v>18649800</v>
       </c>
       <c r="J57" s="3">
+        <v>18503600</v>
+      </c>
+      <c r="K57" s="3">
         <v>17562900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20562300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20273100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19214200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20273000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>82230600</v>
+        <v>88723700</v>
       </c>
       <c r="E58" s="3">
-        <v>89758600</v>
+        <v>80664300</v>
       </c>
       <c r="F58" s="3">
-        <v>218101000</v>
+        <v>88049000</v>
       </c>
       <c r="G58" s="3">
-        <v>70554400</v>
+        <v>213947000</v>
       </c>
       <c r="H58" s="3">
-        <v>68657700</v>
+        <v>69210500</v>
       </c>
       <c r="I58" s="3">
-        <v>67944400</v>
+        <v>67350000</v>
       </c>
       <c r="J58" s="3">
+        <v>66650200</v>
+      </c>
+      <c r="K58" s="3">
         <v>62630000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76458600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71269200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>61757100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53908000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46762400</v>
+        <v>48074600</v>
       </c>
       <c r="E59" s="3">
-        <v>38238100</v>
+        <v>45871700</v>
       </c>
       <c r="F59" s="3">
-        <v>52930200</v>
+        <v>37509800</v>
       </c>
       <c r="G59" s="3">
-        <v>43965600</v>
+        <v>51922000</v>
       </c>
       <c r="H59" s="3">
-        <v>43137500</v>
+        <v>43128200</v>
       </c>
       <c r="I59" s="3">
-        <v>40487100</v>
+        <v>42315800</v>
       </c>
       <c r="J59" s="3">
+        <v>39715900</v>
+      </c>
+      <c r="K59" s="3">
         <v>38321800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43139800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42932800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36403500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32324500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160540000</v>
+        <v>172750000</v>
       </c>
       <c r="E60" s="3">
-        <v>157734000</v>
+        <v>157482000</v>
       </c>
       <c r="F60" s="3">
-        <v>133345000</v>
+        <v>154730000</v>
       </c>
       <c r="G60" s="3">
-        <v>133968000</v>
+        <v>130805000</v>
       </c>
       <c r="H60" s="3">
-        <v>130807000</v>
+        <v>131416000</v>
       </c>
       <c r="I60" s="3">
-        <v>127294000</v>
+        <v>128316000</v>
       </c>
       <c r="J60" s="3">
+        <v>124870000</v>
+      </c>
+      <c r="K60" s="3">
         <v>118515000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>140161000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134475000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117375000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106505000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112518000</v>
+        <v>123108000</v>
       </c>
       <c r="E61" s="3">
-        <v>98839700</v>
+        <v>110374000</v>
       </c>
       <c r="F61" s="3">
-        <v>84041500</v>
+        <v>96957000</v>
       </c>
       <c r="G61" s="3">
-        <v>77549400</v>
+        <v>82440700</v>
       </c>
       <c r="H61" s="3">
-        <v>73546800</v>
+        <v>76072300</v>
       </c>
       <c r="I61" s="3">
-        <v>72850200</v>
+        <v>72146000</v>
       </c>
       <c r="J61" s="3">
+        <v>71462600</v>
+      </c>
+      <c r="K61" s="3">
         <v>71824700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85422800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78289700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>66700800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54622200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24867000</v>
+        <v>28873300</v>
       </c>
       <c r="E62" s="3">
-        <v>22570200</v>
+        <v>24393400</v>
       </c>
       <c r="F62" s="3">
-        <v>35699400</v>
+        <v>22140300</v>
       </c>
       <c r="G62" s="3">
-        <v>19064800</v>
+        <v>35019400</v>
       </c>
       <c r="H62" s="3">
-        <v>18984400</v>
+        <v>18701700</v>
       </c>
       <c r="I62" s="3">
-        <v>20952400</v>
+        <v>18622800</v>
       </c>
       <c r="J62" s="3">
+        <v>20553300</v>
+      </c>
+      <c r="K62" s="3">
         <v>25305200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31020300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27396600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22362500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15916100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>304605000</v>
+        <v>331404000</v>
       </c>
       <c r="E66" s="3">
-        <v>285640000</v>
+        <v>298803000</v>
       </c>
       <c r="F66" s="3">
-        <v>245148000</v>
+        <v>280199000</v>
       </c>
       <c r="G66" s="3">
-        <v>235867000</v>
+        <v>240479000</v>
       </c>
       <c r="H66" s="3">
-        <v>228440000</v>
+        <v>231374000</v>
       </c>
       <c r="I66" s="3">
-        <v>226009000</v>
+        <v>224089000</v>
       </c>
       <c r="J66" s="3">
+        <v>221704000</v>
+      </c>
+      <c r="K66" s="3">
         <v>221977000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>263933000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>247030000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>212118000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181710000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2895,23 +3062,23 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3705600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3660800</v>
+        <v>3635100</v>
       </c>
       <c r="H70" s="3">
-        <v>3616000</v>
+        <v>3591100</v>
       </c>
       <c r="I70" s="3">
-        <v>3571200</v>
+        <v>3547100</v>
       </c>
       <c r="J70" s="3">
+        <v>3503200</v>
+      </c>
+      <c r="K70" s="3">
         <v>3526400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>194431000</v>
+        <v>204355000</v>
       </c>
       <c r="E72" s="3">
-        <v>177166000</v>
+        <v>190727000</v>
       </c>
       <c r="F72" s="3">
-        <v>163420000</v>
+        <v>173791000</v>
       </c>
       <c r="G72" s="3">
-        <v>161608000</v>
+        <v>160308000</v>
       </c>
       <c r="H72" s="3">
-        <v>143130000</v>
+        <v>158530000</v>
       </c>
       <c r="I72" s="3">
-        <v>129368000</v>
+        <v>140404000</v>
       </c>
       <c r="J72" s="3">
+        <v>126904000</v>
+      </c>
+      <c r="K72" s="3">
         <v>123438000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>132999000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>129305000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>115345000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107730000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>192908000</v>
+        <v>204322000</v>
       </c>
       <c r="E76" s="3">
-        <v>172023000</v>
+        <v>189233000</v>
       </c>
       <c r="F76" s="3">
-        <v>147843000</v>
+        <v>168747000</v>
       </c>
       <c r="G76" s="3">
-        <v>142209000</v>
+        <v>145027000</v>
       </c>
       <c r="H76" s="3">
-        <v>137710000</v>
+        <v>139500000</v>
       </c>
       <c r="I76" s="3">
-        <v>128734000</v>
+        <v>135087000</v>
       </c>
       <c r="J76" s="3">
+        <v>126282000</v>
+      </c>
+      <c r="K76" s="3">
         <v>123090000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143203000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132537000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>110426000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>95374400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20948300</v>
+        <v>17674000</v>
       </c>
       <c r="E81" s="3">
-        <v>16502700</v>
+        <v>20549300</v>
       </c>
       <c r="F81" s="3">
-        <v>16345400</v>
+        <v>16188300</v>
       </c>
       <c r="G81" s="3">
-        <v>13730400</v>
+        <v>16034000</v>
       </c>
       <c r="H81" s="3">
-        <v>18240400</v>
+        <v>13468900</v>
       </c>
       <c r="I81" s="3">
-        <v>13386700</v>
+        <v>17893000</v>
       </c>
       <c r="J81" s="3">
+        <v>13131700</v>
+      </c>
+      <c r="K81" s="3">
         <v>16953600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18538600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16699800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8746100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2563400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13390800</v>
+        <v>14707700</v>
       </c>
       <c r="E83" s="3">
-        <v>12085500</v>
+        <v>13135800</v>
       </c>
       <c r="F83" s="3">
-        <v>11725800</v>
+        <v>11855300</v>
       </c>
       <c r="G83" s="3">
-        <v>13174000</v>
+        <v>11502500</v>
       </c>
       <c r="H83" s="3">
-        <v>12745100</v>
+        <v>12923000</v>
       </c>
       <c r="I83" s="3">
-        <v>11840500</v>
+        <v>12502400</v>
       </c>
       <c r="J83" s="3">
+        <v>11614900</v>
+      </c>
+      <c r="K83" s="3">
         <v>11949900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12019400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11457800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10045400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9653200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27361200</v>
+        <v>21306100</v>
       </c>
       <c r="E89" s="3">
-        <v>20044600</v>
+        <v>26840100</v>
       </c>
       <c r="F89" s="3">
-        <v>17629000</v>
+        <v>19662800</v>
       </c>
       <c r="G89" s="3">
-        <v>27684500</v>
+        <v>17293200</v>
       </c>
       <c r="H89" s="3">
-        <v>31040000</v>
+        <v>27157200</v>
       </c>
       <c r="I89" s="3">
-        <v>25094600</v>
+        <v>30448800</v>
       </c>
       <c r="J89" s="3">
+        <v>24616600</v>
+      </c>
+      <c r="K89" s="3">
         <v>32787300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31439500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33397700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22282500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13130000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25608600</v>
+        <v>-24207900</v>
       </c>
       <c r="E91" s="3">
-        <v>-25647800</v>
+        <v>-25120800</v>
       </c>
       <c r="F91" s="3">
-        <v>-25295600</v>
+        <v>-25159300</v>
       </c>
       <c r="G91" s="3">
-        <v>-27480800</v>
+        <v>-24813800</v>
       </c>
       <c r="H91" s="3">
-        <v>-26450500</v>
+        <v>-26957400</v>
       </c>
       <c r="I91" s="3">
-        <v>-26029600</v>
+        <v>-25946700</v>
       </c>
       <c r="J91" s="3">
+        <v>-25533800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29835200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28640100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24536800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17945000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13850000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4244600</v>
+        <v>-11528000</v>
       </c>
       <c r="E94" s="3">
-        <v>-34428700</v>
+        <v>-4163700</v>
       </c>
       <c r="F94" s="3">
-        <v>-15616200</v>
+        <v>-33772900</v>
       </c>
       <c r="G94" s="3">
-        <v>-19824700</v>
+        <v>-15318700</v>
       </c>
       <c r="H94" s="3">
-        <v>-26901700</v>
+        <v>-19447100</v>
       </c>
       <c r="I94" s="3">
-        <v>-21829100</v>
+        <v>-26389300</v>
       </c>
       <c r="J94" s="3">
+        <v>-21413300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23391700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32529100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39720000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27518300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13041600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5217600</v>
+        <v>-5248700</v>
       </c>
       <c r="E96" s="3">
-        <v>-4597500</v>
+        <v>-5118200</v>
       </c>
       <c r="F96" s="3">
-        <v>-4630400</v>
+        <v>-4510000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4739300</v>
+        <v>-4542200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4607700</v>
+        <v>-4649100</v>
       </c>
       <c r="I96" s="3">
-        <v>-4690600</v>
+        <v>-4519900</v>
       </c>
       <c r="J96" s="3">
+        <v>-4601200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5188800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4733600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3627600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1727200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1417300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18128900</v>
+        <v>-405100</v>
       </c>
       <c r="E100" s="3">
-        <v>20132900</v>
+        <v>-17783600</v>
       </c>
       <c r="F100" s="3">
-        <v>2666600</v>
+        <v>19749400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3975200</v>
+        <v>2615800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3301100</v>
+        <v>-3899400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2757500</v>
+        <v>-3238300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2704900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3113200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2610600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8422400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4338100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3212300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2456300</v>
+        <v>744800</v>
       </c>
       <c r="E101" s="3">
-        <v>1618800</v>
+        <v>2409500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1036400</v>
+        <v>1588000</v>
       </c>
       <c r="G101" s="3">
-        <v>-306100</v>
+        <v>-1016700</v>
       </c>
       <c r="H101" s="3">
-        <v>-320400</v>
+        <v>-300200</v>
       </c>
       <c r="I101" s="3">
-        <v>-99100</v>
+        <v>-314300</v>
       </c>
       <c r="J101" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1469100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>555100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>857400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1253100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-505700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7444100</v>
+        <v>10117900</v>
       </c>
       <c r="E102" s="3">
-        <v>7367700</v>
+        <v>7302300</v>
       </c>
       <c r="F102" s="3">
-        <v>3643000</v>
+        <v>7227300</v>
       </c>
       <c r="G102" s="3">
-        <v>3578500</v>
+        <v>3573600</v>
       </c>
       <c r="H102" s="3">
-        <v>516800</v>
+        <v>3510400</v>
       </c>
       <c r="I102" s="3">
-        <v>409000</v>
+        <v>507000</v>
       </c>
       <c r="J102" s="3">
+        <v>401200</v>
+      </c>
+      <c r="K102" s="3">
         <v>4813300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2076100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2957500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>355400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3629600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TM</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>267882500</v>
+        <v>255250000</v>
       </c>
       <c r="E8" s="3">
-        <v>226246200</v>
+        <v>215577200</v>
       </c>
       <c r="F8" s="3">
-        <v>196217200</v>
+        <v>186964300</v>
       </c>
       <c r="G8" s="3">
-        <v>215337800</v>
+        <v>205183200</v>
       </c>
       <c r="H8" s="3">
-        <v>217927200</v>
+        <v>207650400</v>
       </c>
       <c r="I8" s="3">
-        <v>211826300</v>
+        <v>201837200</v>
       </c>
       <c r="J8" s="3">
-        <v>198975800</v>
+        <v>189592700</v>
       </c>
       <c r="K8" s="3">
         <v>208762900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>222365600</v>
+        <v>211879600</v>
       </c>
       <c r="E9" s="3">
-        <v>183190500</v>
+        <v>174551800</v>
       </c>
       <c r="F9" s="3">
-        <v>161375800</v>
+        <v>153765900</v>
       </c>
       <c r="G9" s="3">
-        <v>343398600</v>
+        <v>327205000</v>
       </c>
       <c r="H9" s="3">
-        <v>178676700</v>
+        <v>170250900</v>
       </c>
       <c r="I9" s="3">
-        <v>172240800</v>
+        <v>164118500</v>
       </c>
       <c r="J9" s="3">
-        <v>163914600</v>
+        <v>156184900</v>
       </c>
       <c r="K9" s="3">
         <v>166150200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45516800</v>
+        <v>43370400</v>
       </c>
       <c r="E10" s="3">
-        <v>43055800</v>
+        <v>41025400</v>
       </c>
       <c r="F10" s="3">
-        <v>34841400</v>
+        <v>33198400</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>39250500</v>
+        <v>37399600</v>
       </c>
       <c r="I10" s="3">
-        <v>39585500</v>
+        <v>37718800</v>
       </c>
       <c r="J10" s="3">
-        <v>35061200</v>
+        <v>33407800</v>
       </c>
       <c r="K10" s="3">
         <v>42612700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248235100</v>
+        <v>236529100</v>
       </c>
       <c r="E17" s="3">
-        <v>204647300</v>
+        <v>194996800</v>
       </c>
       <c r="F17" s="3">
-        <v>180371500</v>
+        <v>171865700</v>
       </c>
       <c r="G17" s="3">
-        <v>198039300</v>
+        <v>188700500</v>
       </c>
       <c r="H17" s="3">
-        <v>200136200</v>
+        <v>190698400</v>
       </c>
       <c r="I17" s="3">
-        <v>194523300</v>
+        <v>185350200</v>
       </c>
       <c r="J17" s="3">
-        <v>184596300</v>
+        <v>175891400</v>
       </c>
       <c r="K17" s="3">
         <v>187786200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19647400</v>
+        <v>18720900</v>
       </c>
       <c r="E18" s="3">
-        <v>21599000</v>
+        <v>20580400</v>
       </c>
       <c r="F18" s="3">
-        <v>15845800</v>
+        <v>15098500</v>
       </c>
       <c r="G18" s="3">
-        <v>17298500</v>
+        <v>16482700</v>
       </c>
       <c r="H18" s="3">
-        <v>17791000</v>
+        <v>16952000</v>
       </c>
       <c r="I18" s="3">
-        <v>17303000</v>
+        <v>16487100</v>
       </c>
       <c r="J18" s="3">
-        <v>14379400</v>
+        <v>13701300</v>
       </c>
       <c r="K18" s="3">
         <v>20976700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6804100</v>
+        <v>6808600</v>
       </c>
       <c r="E20" s="3">
-        <v>7406800</v>
+        <v>7057500</v>
       </c>
       <c r="F20" s="3">
-        <v>5602400</v>
+        <v>5338200</v>
       </c>
       <c r="G20" s="3">
-        <v>3389000</v>
+        <v>3229200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1110400</v>
+        <v>-1058000</v>
       </c>
       <c r="I20" s="3">
-        <v>1789200</v>
+        <v>1704800</v>
       </c>
       <c r="J20" s="3">
-        <v>1649700</v>
+        <v>1571900</v>
       </c>
       <c r="K20" s="3">
         <v>1211400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>41261300</v>
+        <v>39543700</v>
       </c>
       <c r="E21" s="3">
-        <v>42232600</v>
+        <v>40154300</v>
       </c>
       <c r="F21" s="3">
-        <v>33385700</v>
+        <v>31733000</v>
       </c>
       <c r="G21" s="3">
-        <v>32269700</v>
+        <v>30671900</v>
       </c>
       <c r="H21" s="3">
-        <v>29693300</v>
+        <v>28207700</v>
       </c>
       <c r="I21" s="3">
-        <v>31681300</v>
+        <v>30104700</v>
       </c>
       <c r="J21" s="3">
-        <v>27724600</v>
+        <v>26340500</v>
       </c>
       <c r="K21" s="3">
         <v>34024200</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>325300</v>
       </c>
       <c r="E22" s="3">
-        <v>234000</v>
+        <v>223000</v>
       </c>
       <c r="F22" s="3">
-        <v>305900</v>
+        <v>291400</v>
       </c>
       <c r="G22" s="3">
-        <v>550300</v>
+        <v>524400</v>
       </c>
       <c r="H22" s="3">
-        <v>202400</v>
+        <v>192900</v>
       </c>
       <c r="I22" s="3">
-        <v>198900</v>
+        <v>189500</v>
       </c>
       <c r="J22" s="3">
-        <v>211600</v>
+        <v>201700</v>
       </c>
       <c r="K22" s="3">
         <v>260200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26451600</v>
+        <v>25204200</v>
       </c>
       <c r="E23" s="3">
-        <v>28771700</v>
+        <v>27415000</v>
       </c>
       <c r="F23" s="3">
-        <v>21142300</v>
+        <v>20145300</v>
       </c>
       <c r="G23" s="3">
-        <v>20137100</v>
+        <v>19187500</v>
       </c>
       <c r="H23" s="3">
-        <v>16478200</v>
+        <v>15701100</v>
       </c>
       <c r="I23" s="3">
-        <v>18893300</v>
+        <v>18002300</v>
       </c>
       <c r="J23" s="3">
-        <v>15817500</v>
+        <v>15071600</v>
       </c>
       <c r="K23" s="3">
         <v>21927900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8477300</v>
+        <v>8077500</v>
       </c>
       <c r="E24" s="3">
-        <v>8045800</v>
+        <v>7666400</v>
       </c>
       <c r="F24" s="3">
-        <v>4686300</v>
+        <v>4465300</v>
       </c>
       <c r="G24" s="3">
-        <v>4915900</v>
+        <v>4684100</v>
       </c>
       <c r="H24" s="3">
-        <v>4758200</v>
+        <v>4533800</v>
       </c>
       <c r="I24" s="3">
-        <v>3636800</v>
+        <v>3465300</v>
       </c>
       <c r="J24" s="3">
-        <v>4534400</v>
+        <v>4320500</v>
       </c>
       <c r="K24" s="3">
         <v>6455300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17974300</v>
+        <v>17126700</v>
       </c>
       <c r="E26" s="3">
-        <v>20726000</v>
+        <v>19748600</v>
       </c>
       <c r="F26" s="3">
-        <v>16455900</v>
+        <v>15679900</v>
       </c>
       <c r="G26" s="3">
-        <v>15221200</v>
+        <v>14503400</v>
       </c>
       <c r="H26" s="3">
-        <v>11720000</v>
+        <v>11167300</v>
       </c>
       <c r="I26" s="3">
-        <v>15256500</v>
+        <v>14537100</v>
       </c>
       <c r="J26" s="3">
-        <v>11283100</v>
+        <v>10751000</v>
       </c>
       <c r="K26" s="3">
         <v>15472600</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17674000</v>
+        <v>16840600</v>
       </c>
       <c r="E27" s="3">
-        <v>20549300</v>
+        <v>19580300</v>
       </c>
       <c r="F27" s="3">
-        <v>16188300</v>
+        <v>15424900</v>
       </c>
       <c r="G27" s="3">
-        <v>16034000</v>
+        <v>15277900</v>
       </c>
       <c r="H27" s="3">
-        <v>13468900</v>
+        <v>12833700</v>
       </c>
       <c r="I27" s="3">
-        <v>17893000</v>
+        <v>17049200</v>
       </c>
       <c r="J27" s="3">
-        <v>13131700</v>
+        <v>12512400</v>
       </c>
       <c r="K27" s="3">
         <v>16953600</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6804100</v>
+        <v>-6808600</v>
       </c>
       <c r="E32" s="3">
-        <v>-7406800</v>
+        <v>-7057500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5602400</v>
+        <v>-5338200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3389000</v>
+        <v>-3229200</v>
       </c>
       <c r="H32" s="3">
-        <v>1110400</v>
+        <v>1058000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1789200</v>
+        <v>-1704800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1649700</v>
+        <v>-1571900</v>
       </c>
       <c r="K32" s="3">
         <v>-1211400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17674000</v>
+        <v>16840600</v>
       </c>
       <c r="E33" s="3">
-        <v>20549300</v>
+        <v>19580300</v>
       </c>
       <c r="F33" s="3">
-        <v>16188300</v>
+        <v>15424900</v>
       </c>
       <c r="G33" s="3">
-        <v>16034000</v>
+        <v>15277900</v>
       </c>
       <c r="H33" s="3">
-        <v>13468900</v>
+        <v>12833700</v>
       </c>
       <c r="I33" s="3">
-        <v>17893000</v>
+        <v>17049200</v>
       </c>
       <c r="J33" s="3">
-        <v>13131700</v>
+        <v>12512400</v>
       </c>
       <c r="K33" s="3">
         <v>16953600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17674000</v>
+        <v>16840600</v>
       </c>
       <c r="E35" s="3">
-        <v>20549300</v>
+        <v>19580300</v>
       </c>
       <c r="F35" s="3">
-        <v>16188300</v>
+        <v>15424900</v>
       </c>
       <c r="G35" s="3">
-        <v>16034000</v>
+        <v>15277900</v>
       </c>
       <c r="H35" s="3">
-        <v>13468900</v>
+        <v>12833700</v>
       </c>
       <c r="I35" s="3">
-        <v>17893000</v>
+        <v>17049200</v>
       </c>
       <c r="J35" s="3">
-        <v>13131700</v>
+        <v>12512400</v>
       </c>
       <c r="K35" s="3">
         <v>16953600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54197300</v>
+        <v>51641600</v>
       </c>
       <c r="E41" s="3">
-        <v>44079500</v>
+        <v>42000800</v>
       </c>
       <c r="F41" s="3">
-        <v>36777200</v>
+        <v>35042900</v>
       </c>
       <c r="G41" s="3">
-        <v>29549800</v>
+        <v>28156400</v>
       </c>
       <c r="H41" s="3">
-        <v>25773600</v>
+        <v>24558200</v>
       </c>
       <c r="I41" s="3">
-        <v>22006900</v>
+        <v>20969100</v>
       </c>
       <c r="J41" s="3">
-        <v>21594500</v>
+        <v>20576200</v>
       </c>
       <c r="K41" s="3">
         <v>21604800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12370000</v>
+        <v>11786700</v>
       </c>
       <c r="E42" s="3">
-        <v>18077300</v>
+        <v>17224800</v>
       </c>
       <c r="F42" s="3">
-        <v>30393400</v>
+        <v>28960200</v>
       </c>
       <c r="G42" s="3">
-        <v>26320500</v>
+        <v>25079300</v>
       </c>
       <c r="H42" s="3">
-        <v>16247800</v>
+        <v>15481600</v>
       </c>
       <c r="I42" s="3">
-        <v>19247800</v>
+        <v>18340200</v>
       </c>
       <c r="J42" s="3">
-        <v>20939700</v>
+        <v>19952200</v>
       </c>
       <c r="K42" s="3">
         <v>18694200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87130300</v>
+        <v>83021500</v>
       </c>
       <c r="E43" s="3">
-        <v>75619100</v>
+        <v>72053100</v>
       </c>
       <c r="F43" s="3">
-        <v>70855500</v>
+        <v>67514200</v>
       </c>
       <c r="G43" s="3">
-        <v>154509000</v>
+        <v>147223000</v>
       </c>
       <c r="H43" s="3">
-        <v>69134200</v>
+        <v>65874100</v>
       </c>
       <c r="I43" s="3">
-        <v>65302500</v>
+        <v>62223000</v>
       </c>
       <c r="J43" s="3">
-        <v>63083600</v>
+        <v>60108700</v>
       </c>
       <c r="K43" s="3">
         <v>61477200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30683000</v>
+        <v>29236100</v>
       </c>
       <c r="E44" s="3">
-        <v>27552000</v>
+        <v>26252700</v>
       </c>
       <c r="F44" s="3">
-        <v>20822700</v>
+        <v>19840800</v>
       </c>
       <c r="G44" s="3">
-        <v>54094500</v>
+        <v>51543600</v>
       </c>
       <c r="H44" s="3">
-        <v>19152600</v>
+        <v>18249400</v>
       </c>
       <c r="I44" s="3">
-        <v>18311900</v>
+        <v>17448400</v>
       </c>
       <c r="J44" s="3">
-        <v>17221900</v>
+        <v>16409800</v>
       </c>
       <c r="K44" s="3">
         <v>15152100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6394400</v>
+        <v>6092900</v>
       </c>
       <c r="E45" s="3">
-        <v>5709900</v>
+        <v>5440700</v>
       </c>
       <c r="F45" s="3">
-        <v>5371900</v>
+        <v>5118600</v>
       </c>
       <c r="G45" s="3">
-        <v>13814600</v>
+        <v>13163100</v>
       </c>
       <c r="H45" s="3">
-        <v>5811000</v>
+        <v>5537000</v>
       </c>
       <c r="I45" s="3">
-        <v>6011600</v>
+        <v>5728100</v>
       </c>
       <c r="J45" s="3">
-        <v>5741300</v>
+        <v>5470600</v>
       </c>
       <c r="K45" s="3">
         <v>16912000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>190775000</v>
+        <v>181779000</v>
       </c>
       <c r="E46" s="3">
-        <v>171038000</v>
+        <v>162972000</v>
       </c>
       <c r="F46" s="3">
-        <v>164221000</v>
+        <v>156477000</v>
       </c>
       <c r="G46" s="3">
-        <v>136726000</v>
+        <v>130278000</v>
       </c>
       <c r="H46" s="3">
-        <v>136119000</v>
+        <v>129700000</v>
       </c>
       <c r="I46" s="3">
-        <v>130881000</v>
+        <v>124709000</v>
       </c>
       <c r="J46" s="3">
-        <v>128581000</v>
+        <v>122518000</v>
       </c>
       <c r="K46" s="3">
         <v>133840000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>232702000</v>
+        <v>221728000</v>
       </c>
       <c r="E47" s="3">
-        <v>208645000</v>
+        <v>198806000</v>
       </c>
       <c r="F47" s="3">
-        <v>185256000</v>
+        <v>176519000</v>
       </c>
       <c r="G47" s="3">
-        <v>320614000</v>
+        <v>305495000</v>
       </c>
       <c r="H47" s="3">
-        <v>151572000</v>
+        <v>144424000</v>
       </c>
       <c r="I47" s="3">
-        <v>149005000</v>
+        <v>141978000</v>
       </c>
       <c r="J47" s="3">
-        <v>141049000</v>
+        <v>134398000</v>
       </c>
       <c r="K47" s="3">
         <v>137793000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94633700</v>
+        <v>90171100</v>
       </c>
       <c r="E48" s="3">
-        <v>92108100</v>
+        <v>87764600</v>
       </c>
       <c r="F48" s="3">
-        <v>85087400</v>
+        <v>81074900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>77042400</v>
+        <v>73409300</v>
       </c>
       <c r="I48" s="3">
-        <v>74029900</v>
+        <v>70538900</v>
       </c>
       <c r="J48" s="3">
-        <v>73521200</v>
+        <v>70054100</v>
       </c>
       <c r="K48" s="3">
         <v>71592100</v>
@@ -2246,16 +2246,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9006200</v>
+        <v>8581500</v>
       </c>
       <c r="E49" s="3">
-        <v>8594100</v>
+        <v>8188800</v>
       </c>
       <c r="F49" s="3">
-        <v>7993300</v>
+        <v>7616300</v>
       </c>
       <c r="G49" s="3">
-        <v>14423700</v>
+        <v>13743500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8609600</v>
+        <v>8203600</v>
       </c>
       <c r="E52" s="3">
-        <v>7651000</v>
+        <v>7290200</v>
       </c>
       <c r="F52" s="3">
-        <v>6389300</v>
+        <v>6088000</v>
       </c>
       <c r="G52" s="3">
-        <v>10627500</v>
+        <v>10126400</v>
       </c>
       <c r="H52" s="3">
-        <v>9731800</v>
+        <v>9272900</v>
       </c>
       <c r="I52" s="3">
-        <v>8807000</v>
+        <v>8391700</v>
       </c>
       <c r="J52" s="3">
-        <v>8337700</v>
+        <v>7944500</v>
       </c>
       <c r="K52" s="3">
         <v>5367500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>535726000</v>
+        <v>510463000</v>
       </c>
       <c r="E54" s="3">
-        <v>488036000</v>
+        <v>465022000</v>
       </c>
       <c r="F54" s="3">
-        <v>448946000</v>
+        <v>427775000</v>
       </c>
       <c r="G54" s="3">
-        <v>389141000</v>
+        <v>370790000</v>
       </c>
       <c r="H54" s="3">
-        <v>374465000</v>
+        <v>356807000</v>
       </c>
       <c r="I54" s="3">
-        <v>362723000</v>
+        <v>345618000</v>
       </c>
       <c r="J54" s="3">
-        <v>351489000</v>
+        <v>334914000</v>
       </c>
       <c r="K54" s="3">
         <v>348593000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35951300</v>
+        <v>34255900</v>
       </c>
       <c r="E57" s="3">
-        <v>30946000</v>
+        <v>29486700</v>
       </c>
       <c r="F57" s="3">
-        <v>29171200</v>
+        <v>27795600</v>
       </c>
       <c r="G57" s="3">
-        <v>42771200</v>
+        <v>40754300</v>
       </c>
       <c r="H57" s="3">
-        <v>19077500</v>
+        <v>18177900</v>
       </c>
       <c r="I57" s="3">
-        <v>18649800</v>
+        <v>17770300</v>
       </c>
       <c r="J57" s="3">
-        <v>18503600</v>
+        <v>17631000</v>
       </c>
       <c r="K57" s="3">
         <v>17562900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88723700</v>
+        <v>84539700</v>
       </c>
       <c r="E58" s="3">
-        <v>80664300</v>
+        <v>76860500</v>
       </c>
       <c r="F58" s="3">
-        <v>88049000</v>
+        <v>83896900</v>
       </c>
       <c r="G58" s="3">
-        <v>213947000</v>
+        <v>203858000</v>
       </c>
       <c r="H58" s="3">
-        <v>69210500</v>
+        <v>65946700</v>
       </c>
       <c r="I58" s="3">
-        <v>67350000</v>
+        <v>64174000</v>
       </c>
       <c r="J58" s="3">
-        <v>66650200</v>
+        <v>63507200</v>
       </c>
       <c r="K58" s="3">
         <v>62630000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48074600</v>
+        <v>45807600</v>
       </c>
       <c r="E59" s="3">
-        <v>45871700</v>
+        <v>43708500</v>
       </c>
       <c r="F59" s="3">
-        <v>37509800</v>
+        <v>35740900</v>
       </c>
       <c r="G59" s="3">
-        <v>51922000</v>
+        <v>49473500</v>
       </c>
       <c r="H59" s="3">
-        <v>43128200</v>
+        <v>41094400</v>
       </c>
       <c r="I59" s="3">
-        <v>42315800</v>
+        <v>40320300</v>
       </c>
       <c r="J59" s="3">
-        <v>39715900</v>
+        <v>37843100</v>
       </c>
       <c r="K59" s="3">
         <v>38321800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>172750000</v>
+        <v>164603000</v>
       </c>
       <c r="E60" s="3">
-        <v>157482000</v>
+        <v>150056000</v>
       </c>
       <c r="F60" s="3">
-        <v>154730000</v>
+        <v>147433000</v>
       </c>
       <c r="G60" s="3">
-        <v>130805000</v>
+        <v>124637000</v>
       </c>
       <c r="H60" s="3">
-        <v>131416000</v>
+        <v>125219000</v>
       </c>
       <c r="I60" s="3">
-        <v>128316000</v>
+        <v>122265000</v>
       </c>
       <c r="J60" s="3">
-        <v>124870000</v>
+        <v>118981000</v>
       </c>
       <c r="K60" s="3">
         <v>118515000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123108000</v>
+        <v>117303000</v>
       </c>
       <c r="E61" s="3">
-        <v>110374000</v>
+        <v>105170000</v>
       </c>
       <c r="F61" s="3">
-        <v>96957000</v>
+        <v>92384800</v>
       </c>
       <c r="G61" s="3">
-        <v>82440700</v>
+        <v>78553100</v>
       </c>
       <c r="H61" s="3">
-        <v>76072300</v>
+        <v>72485000</v>
       </c>
       <c r="I61" s="3">
-        <v>72146000</v>
+        <v>68743800</v>
       </c>
       <c r="J61" s="3">
-        <v>71462600</v>
+        <v>68092700</v>
       </c>
       <c r="K61" s="3">
         <v>71824700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28873300</v>
+        <v>27511700</v>
       </c>
       <c r="E62" s="3">
-        <v>24393400</v>
+        <v>23243100</v>
       </c>
       <c r="F62" s="3">
-        <v>22140300</v>
+        <v>21096200</v>
       </c>
       <c r="G62" s="3">
-        <v>35019400</v>
+        <v>33368000</v>
       </c>
       <c r="H62" s="3">
-        <v>18701700</v>
+        <v>17819800</v>
       </c>
       <c r="I62" s="3">
-        <v>18622800</v>
+        <v>17744600</v>
       </c>
       <c r="J62" s="3">
-        <v>20553300</v>
+        <v>19584100</v>
       </c>
       <c r="K62" s="3">
         <v>25305200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>331404000</v>
+        <v>315776000</v>
       </c>
       <c r="E66" s="3">
-        <v>298803000</v>
+        <v>284712000</v>
       </c>
       <c r="F66" s="3">
-        <v>280199000</v>
+        <v>266986000</v>
       </c>
       <c r="G66" s="3">
-        <v>240479000</v>
+        <v>229138000</v>
       </c>
       <c r="H66" s="3">
-        <v>231374000</v>
+        <v>220463000</v>
       </c>
       <c r="I66" s="3">
-        <v>224089000</v>
+        <v>213522000</v>
       </c>
       <c r="J66" s="3">
-        <v>221704000</v>
+        <v>211249000</v>
       </c>
       <c r="K66" s="3">
         <v>221977000</v>
@@ -3065,16 +3065,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3635100</v>
+        <v>3463600</v>
       </c>
       <c r="H70" s="3">
-        <v>3591100</v>
+        <v>3421800</v>
       </c>
       <c r="I70" s="3">
-        <v>3547100</v>
+        <v>3379900</v>
       </c>
       <c r="J70" s="3">
-        <v>3503200</v>
+        <v>3338000</v>
       </c>
       <c r="K70" s="3">
         <v>3526400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>204355000</v>
+        <v>194718000</v>
       </c>
       <c r="E72" s="3">
-        <v>190727000</v>
+        <v>181733000</v>
       </c>
       <c r="F72" s="3">
-        <v>173791000</v>
+        <v>165596000</v>
       </c>
       <c r="G72" s="3">
-        <v>160308000</v>
+        <v>152748000</v>
       </c>
       <c r="H72" s="3">
-        <v>158530000</v>
+        <v>151054000</v>
       </c>
       <c r="I72" s="3">
-        <v>140404000</v>
+        <v>133783000</v>
       </c>
       <c r="J72" s="3">
-        <v>126904000</v>
+        <v>120919000</v>
       </c>
       <c r="K72" s="3">
         <v>123438000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>204322000</v>
+        <v>194687000</v>
       </c>
       <c r="E76" s="3">
-        <v>189233000</v>
+        <v>180310000</v>
       </c>
       <c r="F76" s="3">
-        <v>168747000</v>
+        <v>160789000</v>
       </c>
       <c r="G76" s="3">
-        <v>145027000</v>
+        <v>138188000</v>
       </c>
       <c r="H76" s="3">
-        <v>139500000</v>
+        <v>132922000</v>
       </c>
       <c r="I76" s="3">
-        <v>135087000</v>
+        <v>128716000</v>
       </c>
       <c r="J76" s="3">
-        <v>126282000</v>
+        <v>120327000</v>
       </c>
       <c r="K76" s="3">
         <v>123090000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17674000</v>
+        <v>16840600</v>
       </c>
       <c r="E81" s="3">
-        <v>20549300</v>
+        <v>19580300</v>
       </c>
       <c r="F81" s="3">
-        <v>16188300</v>
+        <v>15424900</v>
       </c>
       <c r="G81" s="3">
-        <v>16034000</v>
+        <v>15277900</v>
       </c>
       <c r="H81" s="3">
-        <v>13468900</v>
+        <v>12833700</v>
       </c>
       <c r="I81" s="3">
-        <v>17893000</v>
+        <v>17049200</v>
       </c>
       <c r="J81" s="3">
-        <v>13131700</v>
+        <v>12512400</v>
       </c>
       <c r="K81" s="3">
         <v>16953600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14707700</v>
+        <v>14014100</v>
       </c>
       <c r="E83" s="3">
-        <v>13135800</v>
+        <v>12516300</v>
       </c>
       <c r="F83" s="3">
-        <v>11855300</v>
+        <v>11296300</v>
       </c>
       <c r="G83" s="3">
-        <v>11502500</v>
+        <v>10960000</v>
       </c>
       <c r="H83" s="3">
-        <v>12923000</v>
+        <v>12313600</v>
       </c>
       <c r="I83" s="3">
-        <v>12502400</v>
+        <v>11912800</v>
       </c>
       <c r="J83" s="3">
-        <v>11614900</v>
+        <v>11067200</v>
       </c>
       <c r="K83" s="3">
         <v>11949900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21306100</v>
+        <v>20301400</v>
       </c>
       <c r="E89" s="3">
-        <v>26840100</v>
+        <v>25574400</v>
       </c>
       <c r="F89" s="3">
-        <v>19662800</v>
+        <v>18735600</v>
       </c>
       <c r="G89" s="3">
-        <v>17293200</v>
+        <v>16477700</v>
       </c>
       <c r="H89" s="3">
-        <v>27157200</v>
+        <v>25876500</v>
       </c>
       <c r="I89" s="3">
-        <v>30448800</v>
+        <v>29012900</v>
       </c>
       <c r="J89" s="3">
-        <v>24616600</v>
+        <v>23455800</v>
       </c>
       <c r="K89" s="3">
         <v>32787300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24207900</v>
+        <v>-23066400</v>
       </c>
       <c r="E91" s="3">
-        <v>-25120800</v>
+        <v>-23936200</v>
       </c>
       <c r="F91" s="3">
-        <v>-25159300</v>
+        <v>-23972900</v>
       </c>
       <c r="G91" s="3">
-        <v>-24813800</v>
+        <v>-23643700</v>
       </c>
       <c r="H91" s="3">
-        <v>-26957400</v>
+        <v>-25686200</v>
       </c>
       <c r="I91" s="3">
-        <v>-25946700</v>
+        <v>-24723100</v>
       </c>
       <c r="J91" s="3">
-        <v>-25533800</v>
+        <v>-24329700</v>
       </c>
       <c r="K91" s="3">
         <v>-29835200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11528000</v>
+        <v>-10984400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4163700</v>
+        <v>-3967400</v>
       </c>
       <c r="F94" s="3">
-        <v>-33772900</v>
+        <v>-32180300</v>
       </c>
       <c r="G94" s="3">
-        <v>-15318700</v>
+        <v>-14596300</v>
       </c>
       <c r="H94" s="3">
-        <v>-19447100</v>
+        <v>-18530000</v>
       </c>
       <c r="I94" s="3">
-        <v>-26389300</v>
+        <v>-25144800</v>
       </c>
       <c r="J94" s="3">
-        <v>-21413300</v>
+        <v>-20403500</v>
       </c>
       <c r="K94" s="3">
         <v>-23391700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5248700</v>
+        <v>-5001200</v>
       </c>
       <c r="E96" s="3">
-        <v>-5118200</v>
+        <v>-4876800</v>
       </c>
       <c r="F96" s="3">
-        <v>-4510000</v>
+        <v>-4297300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4542200</v>
+        <v>-4328000</v>
       </c>
       <c r="H96" s="3">
-        <v>-4649100</v>
+        <v>-4429800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4519900</v>
+        <v>-4306700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4601200</v>
+        <v>-4384200</v>
       </c>
       <c r="K96" s="3">
         <v>-5188800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-405100</v>
+        <v>-386000</v>
       </c>
       <c r="E100" s="3">
-        <v>-17783600</v>
+        <v>-16945000</v>
       </c>
       <c r="F100" s="3">
-        <v>19749400</v>
+        <v>18818100</v>
       </c>
       <c r="G100" s="3">
-        <v>2615800</v>
+        <v>2492500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3899400</v>
+        <v>-3715600</v>
       </c>
       <c r="I100" s="3">
-        <v>-3238300</v>
+        <v>-3085600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2704900</v>
+        <v>-2577400</v>
       </c>
       <c r="K100" s="3">
         <v>-3113200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>744800</v>
+        <v>709700</v>
       </c>
       <c r="E101" s="3">
-        <v>2409500</v>
+        <v>2295900</v>
       </c>
       <c r="F101" s="3">
-        <v>1588000</v>
+        <v>1513100</v>
       </c>
       <c r="G101" s="3">
-        <v>-1016700</v>
+        <v>-968700</v>
       </c>
       <c r="H101" s="3">
-        <v>-300200</v>
+        <v>-286100</v>
       </c>
       <c r="I101" s="3">
-        <v>-314300</v>
+        <v>-299400</v>
       </c>
       <c r="J101" s="3">
-        <v>-97200</v>
+        <v>-92600</v>
       </c>
       <c r="K101" s="3">
         <v>-1469100</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10117900</v>
+        <v>9640700</v>
       </c>
       <c r="E102" s="3">
-        <v>7302300</v>
+        <v>6957900</v>
       </c>
       <c r="F102" s="3">
-        <v>7227300</v>
+        <v>6886500</v>
       </c>
       <c r="G102" s="3">
-        <v>3573600</v>
+        <v>3405100</v>
       </c>
       <c r="H102" s="3">
-        <v>3510400</v>
+        <v>3344800</v>
       </c>
       <c r="I102" s="3">
-        <v>507000</v>
+        <v>483100</v>
       </c>
       <c r="J102" s="3">
-        <v>401200</v>
+        <v>382300</v>
       </c>
       <c r="K102" s="3">
         <v>4813300</v>

--- a/AAII_Financials/Yearly/TM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>255250000</v>
+        <v>246704500</v>
       </c>
       <c r="E8" s="3">
-        <v>215577200</v>
+        <v>208359900</v>
       </c>
       <c r="F8" s="3">
-        <v>186964300</v>
+        <v>180704900</v>
       </c>
       <c r="G8" s="3">
-        <v>205183200</v>
+        <v>198313900</v>
       </c>
       <c r="H8" s="3">
-        <v>207650400</v>
+        <v>200698500</v>
       </c>
       <c r="I8" s="3">
-        <v>201837200</v>
+        <v>195079900</v>
       </c>
       <c r="J8" s="3">
-        <v>189592700</v>
+        <v>183245400</v>
       </c>
       <c r="K8" s="3">
         <v>208762900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>211879600</v>
+        <v>204786100</v>
       </c>
       <c r="E9" s="3">
-        <v>174551800</v>
+        <v>168708000</v>
       </c>
       <c r="F9" s="3">
-        <v>153765900</v>
+        <v>148617900</v>
       </c>
       <c r="G9" s="3">
-        <v>327205000</v>
+        <v>316250600</v>
       </c>
       <c r="H9" s="3">
-        <v>170250900</v>
+        <v>164551100</v>
       </c>
       <c r="I9" s="3">
-        <v>164118500</v>
+        <v>158624000</v>
       </c>
       <c r="J9" s="3">
-        <v>156184900</v>
+        <v>150956000</v>
       </c>
       <c r="K9" s="3">
         <v>166150200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43370400</v>
+        <v>41918400</v>
       </c>
       <c r="E10" s="3">
-        <v>41025400</v>
+        <v>39651900</v>
       </c>
       <c r="F10" s="3">
-        <v>33198400</v>
+        <v>32087000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>37399600</v>
+        <v>36147500</v>
       </c>
       <c r="I10" s="3">
-        <v>37718800</v>
+        <v>36456000</v>
       </c>
       <c r="J10" s="3">
-        <v>33407800</v>
+        <v>32289400</v>
       </c>
       <c r="K10" s="3">
         <v>42612700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>236529100</v>
+        <v>228610400</v>
       </c>
       <c r="E17" s="3">
-        <v>194996800</v>
+        <v>188468500</v>
       </c>
       <c r="F17" s="3">
-        <v>171865700</v>
+        <v>166111900</v>
       </c>
       <c r="G17" s="3">
-        <v>188700500</v>
+        <v>182383000</v>
       </c>
       <c r="H17" s="3">
-        <v>190698400</v>
+        <v>184314000</v>
       </c>
       <c r="I17" s="3">
-        <v>185350200</v>
+        <v>179144900</v>
       </c>
       <c r="J17" s="3">
-        <v>175891400</v>
+        <v>170002700</v>
       </c>
       <c r="K17" s="3">
         <v>187786200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18720900</v>
+        <v>18094200</v>
       </c>
       <c r="E18" s="3">
-        <v>20580400</v>
+        <v>19891400</v>
       </c>
       <c r="F18" s="3">
-        <v>15098500</v>
+        <v>14593000</v>
       </c>
       <c r="G18" s="3">
-        <v>16482700</v>
+        <v>15930900</v>
       </c>
       <c r="H18" s="3">
-        <v>16952000</v>
+        <v>16384500</v>
       </c>
       <c r="I18" s="3">
-        <v>16487100</v>
+        <v>15935100</v>
       </c>
       <c r="J18" s="3">
-        <v>13701300</v>
+        <v>13242600</v>
       </c>
       <c r="K18" s="3">
         <v>20976700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6808600</v>
+        <v>6580700</v>
       </c>
       <c r="E20" s="3">
-        <v>7057500</v>
+        <v>6821200</v>
       </c>
       <c r="F20" s="3">
-        <v>5338200</v>
+        <v>5159500</v>
       </c>
       <c r="G20" s="3">
-        <v>3229200</v>
+        <v>3121100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1058000</v>
+        <v>-1022600</v>
       </c>
       <c r="I20" s="3">
-        <v>1704800</v>
+        <v>1647700</v>
       </c>
       <c r="J20" s="3">
-        <v>1571900</v>
+        <v>1519300</v>
       </c>
       <c r="K20" s="3">
         <v>1211400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39543700</v>
+        <v>38158600</v>
       </c>
       <c r="E21" s="3">
-        <v>40154300</v>
+        <v>38755300</v>
       </c>
       <c r="F21" s="3">
-        <v>31733000</v>
+        <v>30621300</v>
       </c>
       <c r="G21" s="3">
-        <v>30671900</v>
+        <v>29597200</v>
       </c>
       <c r="H21" s="3">
-        <v>28207700</v>
+        <v>27209500</v>
       </c>
       <c r="I21" s="3">
-        <v>30104700</v>
+        <v>29044800</v>
       </c>
       <c r="J21" s="3">
-        <v>26340500</v>
+        <v>25410300</v>
       </c>
       <c r="K21" s="3">
         <v>34024200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>325300</v>
+        <v>314400</v>
       </c>
       <c r="E22" s="3">
-        <v>223000</v>
+        <v>215500</v>
       </c>
       <c r="F22" s="3">
-        <v>291400</v>
+        <v>281700</v>
       </c>
       <c r="G22" s="3">
-        <v>524400</v>
+        <v>506800</v>
       </c>
       <c r="H22" s="3">
-        <v>192900</v>
+        <v>186400</v>
       </c>
       <c r="I22" s="3">
-        <v>189500</v>
+        <v>183200</v>
       </c>
       <c r="J22" s="3">
-        <v>201700</v>
+        <v>194900</v>
       </c>
       <c r="K22" s="3">
         <v>260200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25204200</v>
+        <v>24360400</v>
       </c>
       <c r="E23" s="3">
-        <v>27415000</v>
+        <v>26497100</v>
       </c>
       <c r="F23" s="3">
-        <v>20145300</v>
+        <v>19470800</v>
       </c>
       <c r="G23" s="3">
-        <v>19187500</v>
+        <v>18545100</v>
       </c>
       <c r="H23" s="3">
-        <v>15701100</v>
+        <v>15175500</v>
       </c>
       <c r="I23" s="3">
-        <v>18002300</v>
+        <v>17399600</v>
       </c>
       <c r="J23" s="3">
-        <v>15071600</v>
+        <v>14567000</v>
       </c>
       <c r="K23" s="3">
         <v>21927900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8077500</v>
+        <v>7807100</v>
       </c>
       <c r="E24" s="3">
-        <v>7666400</v>
+        <v>7409700</v>
       </c>
       <c r="F24" s="3">
-        <v>4465300</v>
+        <v>4315800</v>
       </c>
       <c r="G24" s="3">
-        <v>4684100</v>
+        <v>4527300</v>
       </c>
       <c r="H24" s="3">
-        <v>4533800</v>
+        <v>4382000</v>
       </c>
       <c r="I24" s="3">
-        <v>3465300</v>
+        <v>3349300</v>
       </c>
       <c r="J24" s="3">
-        <v>4320500</v>
+        <v>4175900</v>
       </c>
       <c r="K24" s="3">
         <v>6455300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17126700</v>
+        <v>16553300</v>
       </c>
       <c r="E26" s="3">
-        <v>19748600</v>
+        <v>19087400</v>
       </c>
       <c r="F26" s="3">
-        <v>15679900</v>
+        <v>15155000</v>
       </c>
       <c r="G26" s="3">
-        <v>14503400</v>
+        <v>14017900</v>
       </c>
       <c r="H26" s="3">
-        <v>11167300</v>
+        <v>10793500</v>
       </c>
       <c r="I26" s="3">
-        <v>14537100</v>
+        <v>14050400</v>
       </c>
       <c r="J26" s="3">
-        <v>10751000</v>
+        <v>10391100</v>
       </c>
       <c r="K26" s="3">
         <v>15472600</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16840600</v>
+        <v>16276800</v>
       </c>
       <c r="E27" s="3">
-        <v>19580300</v>
+        <v>18924700</v>
       </c>
       <c r="F27" s="3">
-        <v>15424900</v>
+        <v>14908500</v>
       </c>
       <c r="G27" s="3">
-        <v>15277900</v>
+        <v>14766400</v>
       </c>
       <c r="H27" s="3">
-        <v>12833700</v>
+        <v>12404100</v>
       </c>
       <c r="I27" s="3">
-        <v>17049200</v>
+        <v>16478400</v>
       </c>
       <c r="J27" s="3">
-        <v>12512400</v>
+        <v>12093500</v>
       </c>
       <c r="K27" s="3">
         <v>16953600</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6808600</v>
+        <v>-6580700</v>
       </c>
       <c r="E32" s="3">
-        <v>-7057500</v>
+        <v>-6821200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5338200</v>
+        <v>-5159500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3229200</v>
+        <v>-3121100</v>
       </c>
       <c r="H32" s="3">
-        <v>1058000</v>
+        <v>1022600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1704800</v>
+        <v>-1647700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1571900</v>
+        <v>-1519300</v>
       </c>
       <c r="K32" s="3">
         <v>-1211400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16840600</v>
+        <v>16276800</v>
       </c>
       <c r="E33" s="3">
-        <v>19580300</v>
+        <v>18924700</v>
       </c>
       <c r="F33" s="3">
-        <v>15424900</v>
+        <v>14908500</v>
       </c>
       <c r="G33" s="3">
-        <v>15277900</v>
+        <v>14766400</v>
       </c>
       <c r="H33" s="3">
-        <v>12833700</v>
+        <v>12404100</v>
       </c>
       <c r="I33" s="3">
-        <v>17049200</v>
+        <v>16478400</v>
       </c>
       <c r="J33" s="3">
-        <v>12512400</v>
+        <v>12093500</v>
       </c>
       <c r="K33" s="3">
         <v>16953600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16840600</v>
+        <v>16276800</v>
       </c>
       <c r="E35" s="3">
-        <v>19580300</v>
+        <v>18924700</v>
       </c>
       <c r="F35" s="3">
-        <v>15424900</v>
+        <v>14908500</v>
       </c>
       <c r="G35" s="3">
-        <v>15277900</v>
+        <v>14766400</v>
       </c>
       <c r="H35" s="3">
-        <v>12833700</v>
+        <v>12404100</v>
       </c>
       <c r="I35" s="3">
-        <v>17049200</v>
+        <v>16478400</v>
       </c>
       <c r="J35" s="3">
-        <v>12512400</v>
+        <v>12093500</v>
       </c>
       <c r="K35" s="3">
         <v>16953600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>51641600</v>
+        <v>49912700</v>
       </c>
       <c r="E41" s="3">
-        <v>42000800</v>
+        <v>40594700</v>
       </c>
       <c r="F41" s="3">
-        <v>35042900</v>
+        <v>33869700</v>
       </c>
       <c r="G41" s="3">
-        <v>28156400</v>
+        <v>27213700</v>
       </c>
       <c r="H41" s="3">
-        <v>24558200</v>
+        <v>23736000</v>
       </c>
       <c r="I41" s="3">
-        <v>20969100</v>
+        <v>20267100</v>
       </c>
       <c r="J41" s="3">
-        <v>20576200</v>
+        <v>19887300</v>
       </c>
       <c r="K41" s="3">
         <v>21604800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11786700</v>
+        <v>11392100</v>
       </c>
       <c r="E42" s="3">
-        <v>17224800</v>
+        <v>16648100</v>
       </c>
       <c r="F42" s="3">
-        <v>28960200</v>
+        <v>27990600</v>
       </c>
       <c r="G42" s="3">
-        <v>25079300</v>
+        <v>24239700</v>
       </c>
       <c r="H42" s="3">
-        <v>15481600</v>
+        <v>14963300</v>
       </c>
       <c r="I42" s="3">
-        <v>18340200</v>
+        <v>17726200</v>
       </c>
       <c r="J42" s="3">
-        <v>19952200</v>
+        <v>19284200</v>
       </c>
       <c r="K42" s="3">
         <v>18694200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>83021500</v>
+        <v>80242000</v>
       </c>
       <c r="E43" s="3">
-        <v>72053100</v>
+        <v>69640900</v>
       </c>
       <c r="F43" s="3">
-        <v>67514200</v>
+        <v>65253900</v>
       </c>
       <c r="G43" s="3">
-        <v>147223000</v>
+        <v>142294000</v>
       </c>
       <c r="H43" s="3">
-        <v>65874100</v>
+        <v>63668700</v>
       </c>
       <c r="I43" s="3">
-        <v>62223000</v>
+        <v>60139800</v>
       </c>
       <c r="J43" s="3">
-        <v>60108700</v>
+        <v>58096400</v>
       </c>
       <c r="K43" s="3">
         <v>61477200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29236100</v>
+        <v>28257300</v>
       </c>
       <c r="E44" s="3">
-        <v>26252700</v>
+        <v>25373800</v>
       </c>
       <c r="F44" s="3">
-        <v>19840800</v>
+        <v>19176500</v>
       </c>
       <c r="G44" s="3">
-        <v>51543600</v>
+        <v>49817900</v>
       </c>
       <c r="H44" s="3">
-        <v>18249400</v>
+        <v>17638500</v>
       </c>
       <c r="I44" s="3">
-        <v>17448400</v>
+        <v>16864200</v>
       </c>
       <c r="J44" s="3">
-        <v>16409800</v>
+        <v>15860400</v>
       </c>
       <c r="K44" s="3">
         <v>15152100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6092900</v>
+        <v>5888900</v>
       </c>
       <c r="E45" s="3">
-        <v>5440700</v>
+        <v>5258500</v>
       </c>
       <c r="F45" s="3">
-        <v>5118600</v>
+        <v>4947300</v>
       </c>
       <c r="G45" s="3">
-        <v>13163100</v>
+        <v>12722400</v>
       </c>
       <c r="H45" s="3">
-        <v>5537000</v>
+        <v>5351600</v>
       </c>
       <c r="I45" s="3">
-        <v>5728100</v>
+        <v>5536400</v>
       </c>
       <c r="J45" s="3">
-        <v>5470600</v>
+        <v>5287400</v>
       </c>
       <c r="K45" s="3">
         <v>16912000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>181779000</v>
+        <v>175693000</v>
       </c>
       <c r="E46" s="3">
-        <v>162972000</v>
+        <v>157516000</v>
       </c>
       <c r="F46" s="3">
-        <v>156477000</v>
+        <v>151238000</v>
       </c>
       <c r="G46" s="3">
-        <v>130278000</v>
+        <v>125916000</v>
       </c>
       <c r="H46" s="3">
-        <v>129700000</v>
+        <v>125358000</v>
       </c>
       <c r="I46" s="3">
-        <v>124709000</v>
+        <v>120534000</v>
       </c>
       <c r="J46" s="3">
-        <v>122518000</v>
+        <v>118416000</v>
       </c>
       <c r="K46" s="3">
         <v>133840000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>221728000</v>
+        <v>214305000</v>
       </c>
       <c r="E47" s="3">
-        <v>198806000</v>
+        <v>192150000</v>
       </c>
       <c r="F47" s="3">
-        <v>176519000</v>
+        <v>170610000</v>
       </c>
       <c r="G47" s="3">
-        <v>305495000</v>
+        <v>295267000</v>
       </c>
       <c r="H47" s="3">
-        <v>144424000</v>
+        <v>139589000</v>
       </c>
       <c r="I47" s="3">
-        <v>141978000</v>
+        <v>137225000</v>
       </c>
       <c r="J47" s="3">
-        <v>134398000</v>
+        <v>129898000</v>
       </c>
       <c r="K47" s="3">
         <v>137793000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90171100</v>
+        <v>87152300</v>
       </c>
       <c r="E48" s="3">
-        <v>87764600</v>
+        <v>84826300</v>
       </c>
       <c r="F48" s="3">
-        <v>81074900</v>
+        <v>78360600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>73409300</v>
+        <v>70951700</v>
       </c>
       <c r="I48" s="3">
-        <v>70538900</v>
+        <v>68177300</v>
       </c>
       <c r="J48" s="3">
-        <v>70054100</v>
+        <v>67708800</v>
       </c>
       <c r="K48" s="3">
         <v>71592100</v>
@@ -2246,16 +2246,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8581500</v>
+        <v>8294200</v>
       </c>
       <c r="E49" s="3">
-        <v>8188800</v>
+        <v>7914700</v>
       </c>
       <c r="F49" s="3">
-        <v>7616300</v>
+        <v>7361300</v>
       </c>
       <c r="G49" s="3">
-        <v>13743500</v>
+        <v>13283400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8203600</v>
+        <v>7928900</v>
       </c>
       <c r="E52" s="3">
-        <v>7290200</v>
+        <v>7046200</v>
       </c>
       <c r="F52" s="3">
-        <v>6088000</v>
+        <v>5884100</v>
       </c>
       <c r="G52" s="3">
-        <v>10126400</v>
+        <v>9787300</v>
       </c>
       <c r="H52" s="3">
-        <v>9272900</v>
+        <v>8962500</v>
       </c>
       <c r="I52" s="3">
-        <v>8391700</v>
+        <v>8110800</v>
       </c>
       <c r="J52" s="3">
-        <v>7944500</v>
+        <v>7678500</v>
       </c>
       <c r="K52" s="3">
         <v>5367500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>510463000</v>
+        <v>493373000</v>
       </c>
       <c r="E54" s="3">
-        <v>465022000</v>
+        <v>449453000</v>
       </c>
       <c r="F54" s="3">
-        <v>427775000</v>
+        <v>413454000</v>
       </c>
       <c r="G54" s="3">
-        <v>370790000</v>
+        <v>358377000</v>
       </c>
       <c r="H54" s="3">
-        <v>356807000</v>
+        <v>344861000</v>
       </c>
       <c r="I54" s="3">
-        <v>345618000</v>
+        <v>334047000</v>
       </c>
       <c r="J54" s="3">
-        <v>334914000</v>
+        <v>323701000</v>
       </c>
       <c r="K54" s="3">
         <v>348593000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34255900</v>
+        <v>33109100</v>
       </c>
       <c r="E57" s="3">
-        <v>29486700</v>
+        <v>28499500</v>
       </c>
       <c r="F57" s="3">
-        <v>27795600</v>
+        <v>26865000</v>
       </c>
       <c r="G57" s="3">
-        <v>40754300</v>
+        <v>39389900</v>
       </c>
       <c r="H57" s="3">
-        <v>18177900</v>
+        <v>17569300</v>
       </c>
       <c r="I57" s="3">
-        <v>17770300</v>
+        <v>17175400</v>
       </c>
       <c r="J57" s="3">
-        <v>17631000</v>
+        <v>17040800</v>
       </c>
       <c r="K57" s="3">
         <v>17562900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84539700</v>
+        <v>81709400</v>
       </c>
       <c r="E58" s="3">
-        <v>76860500</v>
+        <v>74287300</v>
       </c>
       <c r="F58" s="3">
-        <v>83896900</v>
+        <v>81088100</v>
       </c>
       <c r="G58" s="3">
-        <v>203858000</v>
+        <v>197033000</v>
       </c>
       <c r="H58" s="3">
-        <v>65946700</v>
+        <v>63738900</v>
       </c>
       <c r="I58" s="3">
-        <v>64174000</v>
+        <v>62025500</v>
       </c>
       <c r="J58" s="3">
-        <v>63507200</v>
+        <v>61381000</v>
       </c>
       <c r="K58" s="3">
         <v>62630000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45807600</v>
+        <v>44274000</v>
       </c>
       <c r="E59" s="3">
-        <v>43708500</v>
+        <v>42245200</v>
       </c>
       <c r="F59" s="3">
-        <v>35740900</v>
+        <v>34544400</v>
       </c>
       <c r="G59" s="3">
-        <v>49473500</v>
+        <v>47817200</v>
       </c>
       <c r="H59" s="3">
-        <v>41094400</v>
+        <v>39718600</v>
       </c>
       <c r="I59" s="3">
-        <v>40320300</v>
+        <v>38970500</v>
       </c>
       <c r="J59" s="3">
-        <v>37843100</v>
+        <v>36576100</v>
       </c>
       <c r="K59" s="3">
         <v>38321800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164603000</v>
+        <v>159093000</v>
       </c>
       <c r="E60" s="3">
-        <v>150056000</v>
+        <v>145032000</v>
       </c>
       <c r="F60" s="3">
-        <v>147433000</v>
+        <v>142498000</v>
       </c>
       <c r="G60" s="3">
-        <v>124637000</v>
+        <v>120464000</v>
       </c>
       <c r="H60" s="3">
-        <v>125219000</v>
+        <v>121027000</v>
       </c>
       <c r="I60" s="3">
-        <v>122265000</v>
+        <v>118171000</v>
       </c>
       <c r="J60" s="3">
-        <v>118981000</v>
+        <v>114998000</v>
       </c>
       <c r="K60" s="3">
         <v>118515000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>117303000</v>
+        <v>113376000</v>
       </c>
       <c r="E61" s="3">
-        <v>105170000</v>
+        <v>101649000</v>
       </c>
       <c r="F61" s="3">
-        <v>92384800</v>
+        <v>89291900</v>
       </c>
       <c r="G61" s="3">
-        <v>78553100</v>
+        <v>75923200</v>
       </c>
       <c r="H61" s="3">
-        <v>72485000</v>
+        <v>70058300</v>
       </c>
       <c r="I61" s="3">
-        <v>68743800</v>
+        <v>66442300</v>
       </c>
       <c r="J61" s="3">
-        <v>68092700</v>
+        <v>65813000</v>
       </c>
       <c r="K61" s="3">
         <v>71824700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27511700</v>
+        <v>26590700</v>
       </c>
       <c r="E62" s="3">
-        <v>23243100</v>
+        <v>22464900</v>
       </c>
       <c r="F62" s="3">
-        <v>21096200</v>
+        <v>20389900</v>
       </c>
       <c r="G62" s="3">
-        <v>33368000</v>
+        <v>32250900</v>
       </c>
       <c r="H62" s="3">
-        <v>17819800</v>
+        <v>17223200</v>
       </c>
       <c r="I62" s="3">
-        <v>17744600</v>
+        <v>17150500</v>
       </c>
       <c r="J62" s="3">
-        <v>19584100</v>
+        <v>18928500</v>
       </c>
       <c r="K62" s="3">
         <v>25305200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>315776000</v>
+        <v>305204000</v>
       </c>
       <c r="E66" s="3">
-        <v>284712000</v>
+        <v>275180000</v>
       </c>
       <c r="F66" s="3">
-        <v>266986000</v>
+        <v>258048000</v>
       </c>
       <c r="G66" s="3">
-        <v>229138000</v>
+        <v>221467000</v>
       </c>
       <c r="H66" s="3">
-        <v>220463000</v>
+        <v>213082000</v>
       </c>
       <c r="I66" s="3">
-        <v>213522000</v>
+        <v>206373000</v>
       </c>
       <c r="J66" s="3">
-        <v>211249000</v>
+        <v>204177000</v>
       </c>
       <c r="K66" s="3">
         <v>221977000</v>
@@ -3065,16 +3065,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3463600</v>
+        <v>3347700</v>
       </c>
       <c r="H70" s="3">
-        <v>3421800</v>
+        <v>3307200</v>
       </c>
       <c r="I70" s="3">
-        <v>3379900</v>
+        <v>3266700</v>
       </c>
       <c r="J70" s="3">
-        <v>3338000</v>
+        <v>3226200</v>
       </c>
       <c r="K70" s="3">
         <v>3526400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>194718000</v>
+        <v>188200000</v>
       </c>
       <c r="E72" s="3">
-        <v>181733000</v>
+        <v>175649000</v>
       </c>
       <c r="F72" s="3">
-        <v>165596000</v>
+        <v>160052000</v>
       </c>
       <c r="G72" s="3">
-        <v>152748000</v>
+        <v>147634000</v>
       </c>
       <c r="H72" s="3">
-        <v>151054000</v>
+        <v>145997000</v>
       </c>
       <c r="I72" s="3">
-        <v>133783000</v>
+        <v>129304000</v>
       </c>
       <c r="J72" s="3">
-        <v>120919000</v>
+        <v>116871000</v>
       </c>
       <c r="K72" s="3">
         <v>123438000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>194687000</v>
+        <v>188169000</v>
       </c>
       <c r="E76" s="3">
-        <v>180310000</v>
+        <v>174273000</v>
       </c>
       <c r="F76" s="3">
-        <v>160789000</v>
+        <v>155406000</v>
       </c>
       <c r="G76" s="3">
-        <v>138188000</v>
+        <v>133562000</v>
       </c>
       <c r="H76" s="3">
-        <v>132922000</v>
+        <v>128472000</v>
       </c>
       <c r="I76" s="3">
-        <v>128716000</v>
+        <v>124407000</v>
       </c>
       <c r="J76" s="3">
-        <v>120327000</v>
+        <v>116298000</v>
       </c>
       <c r="K76" s="3">
         <v>123090000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16840600</v>
+        <v>16276800</v>
       </c>
       <c r="E81" s="3">
-        <v>19580300</v>
+        <v>18924700</v>
       </c>
       <c r="F81" s="3">
-        <v>15424900</v>
+        <v>14908500</v>
       </c>
       <c r="G81" s="3">
-        <v>15277900</v>
+        <v>14766400</v>
       </c>
       <c r="H81" s="3">
-        <v>12833700</v>
+        <v>12404100</v>
       </c>
       <c r="I81" s="3">
-        <v>17049200</v>
+        <v>16478400</v>
       </c>
       <c r="J81" s="3">
-        <v>12512400</v>
+        <v>12093500</v>
       </c>
       <c r="K81" s="3">
         <v>16953600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14014100</v>
+        <v>13545000</v>
       </c>
       <c r="E83" s="3">
-        <v>12516300</v>
+        <v>12097300</v>
       </c>
       <c r="F83" s="3">
-        <v>11296300</v>
+        <v>10918100</v>
       </c>
       <c r="G83" s="3">
-        <v>10960000</v>
+        <v>10593100</v>
       </c>
       <c r="H83" s="3">
-        <v>12313600</v>
+        <v>11901400</v>
       </c>
       <c r="I83" s="3">
-        <v>11912800</v>
+        <v>11514000</v>
       </c>
       <c r="J83" s="3">
-        <v>11067200</v>
+        <v>10696700</v>
       </c>
       <c r="K83" s="3">
         <v>11949900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20301400</v>
+        <v>19621700</v>
       </c>
       <c r="E89" s="3">
-        <v>25574400</v>
+        <v>24718200</v>
       </c>
       <c r="F89" s="3">
-        <v>18735600</v>
+        <v>18108400</v>
       </c>
       <c r="G89" s="3">
-        <v>16477700</v>
+        <v>15926000</v>
       </c>
       <c r="H89" s="3">
-        <v>25876500</v>
+        <v>25010200</v>
       </c>
       <c r="I89" s="3">
-        <v>29012900</v>
+        <v>28041600</v>
       </c>
       <c r="J89" s="3">
-        <v>23455800</v>
+        <v>22670500</v>
       </c>
       <c r="K89" s="3">
         <v>32787300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23066400</v>
+        <v>-22294100</v>
       </c>
       <c r="E91" s="3">
-        <v>-23936200</v>
+        <v>-23134800</v>
       </c>
       <c r="F91" s="3">
-        <v>-23972900</v>
+        <v>-23170300</v>
       </c>
       <c r="G91" s="3">
-        <v>-23643700</v>
+        <v>-22852100</v>
       </c>
       <c r="H91" s="3">
-        <v>-25686200</v>
+        <v>-24826200</v>
       </c>
       <c r="I91" s="3">
-        <v>-24723100</v>
+        <v>-23895400</v>
       </c>
       <c r="J91" s="3">
-        <v>-24329700</v>
+        <v>-23515100</v>
       </c>
       <c r="K91" s="3">
         <v>-29835200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10984400</v>
+        <v>-10616600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3967400</v>
+        <v>-3834600</v>
       </c>
       <c r="F94" s="3">
-        <v>-32180300</v>
+        <v>-31102900</v>
       </c>
       <c r="G94" s="3">
-        <v>-14596300</v>
+        <v>-14107700</v>
       </c>
       <c r="H94" s="3">
-        <v>-18530000</v>
+        <v>-17909700</v>
       </c>
       <c r="I94" s="3">
-        <v>-25144800</v>
+        <v>-24303000</v>
       </c>
       <c r="J94" s="3">
-        <v>-20403500</v>
+        <v>-19720400</v>
       </c>
       <c r="K94" s="3">
         <v>-23391700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5001200</v>
+        <v>-4833800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4876800</v>
+        <v>-4713600</v>
       </c>
       <c r="F96" s="3">
-        <v>-4297300</v>
+        <v>-4153400</v>
       </c>
       <c r="G96" s="3">
-        <v>-4328000</v>
+        <v>-4183100</v>
       </c>
       <c r="H96" s="3">
-        <v>-4429800</v>
+        <v>-4281500</v>
       </c>
       <c r="I96" s="3">
-        <v>-4306700</v>
+        <v>-4162600</v>
       </c>
       <c r="J96" s="3">
-        <v>-4384200</v>
+        <v>-4237500</v>
       </c>
       <c r="K96" s="3">
         <v>-5188800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-386000</v>
+        <v>-373000</v>
       </c>
       <c r="E100" s="3">
-        <v>-16945000</v>
+        <v>-16377700</v>
       </c>
       <c r="F100" s="3">
-        <v>18818100</v>
+        <v>18188100</v>
       </c>
       <c r="G100" s="3">
-        <v>2492500</v>
+        <v>2409000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3715600</v>
+        <v>-3591200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3085600</v>
+        <v>-2982300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2577400</v>
+        <v>-2491100</v>
       </c>
       <c r="K100" s="3">
         <v>-3113200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>709700</v>
+        <v>685900</v>
       </c>
       <c r="E101" s="3">
-        <v>2295900</v>
+        <v>2219100</v>
       </c>
       <c r="F101" s="3">
-        <v>1513100</v>
+        <v>1462400</v>
       </c>
       <c r="G101" s="3">
-        <v>-968700</v>
+        <v>-936300</v>
       </c>
       <c r="H101" s="3">
-        <v>-286100</v>
+        <v>-276500</v>
       </c>
       <c r="I101" s="3">
-        <v>-299400</v>
+        <v>-289400</v>
       </c>
       <c r="J101" s="3">
-        <v>-92600</v>
+        <v>-89500</v>
       </c>
       <c r="K101" s="3">
         <v>-1469100</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9640700</v>
+        <v>9318000</v>
       </c>
       <c r="E102" s="3">
-        <v>6957900</v>
+        <v>6725000</v>
       </c>
       <c r="F102" s="3">
-        <v>6886500</v>
+        <v>6656000</v>
       </c>
       <c r="G102" s="3">
-        <v>3405100</v>
+        <v>3291100</v>
       </c>
       <c r="H102" s="3">
-        <v>3344800</v>
+        <v>3232900</v>
       </c>
       <c r="I102" s="3">
-        <v>483100</v>
+        <v>466900</v>
       </c>
       <c r="J102" s="3">
-        <v>382300</v>
+        <v>369500</v>
       </c>
       <c r="K102" s="3">
         <v>4813300</v>
